--- a/lib/subscriptions_test_kit/requirements/hl7.fhir.uv.subscriptions_1.1.0_requirements.xlsx
+++ b/lib/subscriptions_test_kit/requirements/hl7.fhir.uv.subscriptions_1.1.0_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/subscriptions-test-kit/lib/subscriptions_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEA1058-2D0E-3A4A-945B-153E0EDCE66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358A0A83-AEA2-0A40-82FF-43B28935F773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" firstSheet="1" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="697">
   <si>
     <r>
       <rPr>
@@ -3695,6 +3695,18 @@
   <si>
     <t xml:space="preserve"> - - Group: Error Handling and Recovery</t>
   </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>hl7.fhir.uv.subscriptions_1.1.0</t>
+  </si>
+  <si>
+    <t>Subscriptions R5 Backport IG</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/uv/subscriptions-backport/STU1.1/</t>
+  </si>
 </sst>
 </file>
 
@@ -4100,7 +4112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4239,6 +4251,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4670,7 +4683,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K137" sqref="K137:K139"/>
+      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13726,10 +13739,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323F474-BE25-4449-9222-E1A46A1843B5}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13750,61 +13763,75 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>517</v>
+        <v>693</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>518</v>
+        <v>517</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
         <v>528</v>
       </c>
     </row>
@@ -13812,7 +13839,11 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{F5432317-EC62-D640-AC64-C6FD80119192}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/lib/subscriptions_test_kit/requirements/hl7.fhir.uv.subscriptions_1.1.0_requirements.xlsx
+++ b/lib/subscriptions_test_kit/requirements/hl7.fhir.uv.subscriptions_1.1.0_requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/subscriptions-test-kit/lib/subscriptions_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358A0A83-AEA2-0A40-82FF-43B28935F773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60506D84-2613-704C-B867-86F96DA3F1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" firstSheet="1" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="0" yWindow="920" windowWidth="34560" windowHeight="19980" firstSheet="1" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -4233,6 +4233,7 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4251,7 +4252,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4622,7 +4622,7 @@
       <c r="C3" s="45"/>
     </row>
     <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="46"/>
@@ -4631,7 +4631,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="47"/>
       <c r="C5" s="45"/>
     </row>
@@ -4643,17 +4643,17 @@
       <c r="C6" s="48"/>
     </row>
     <row r="7" spans="1:3" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="56"/>
     </row>
     <row r="8" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="57"/>
     </row>
     <row r="9" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="49"/>
     </row>
     <row r="10" spans="1:3" ht="292" x14ac:dyDescent="0.2">
@@ -4680,10 +4680,10 @@
   <dimension ref="A1:AS348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
+      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13752,14 +13752,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>516</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" spans="1:2" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
@@ -13773,7 +13773,7 @@
       <c r="A4" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="52" t="s">
         <v>696</v>
       </c>
     </row>
@@ -14837,6 +14837,19 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -15090,19 +15103,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
   <ds:schemaRefs>
@@ -15112,6 +15112,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6384F4-7D50-4B36-A6F8-C77244590866}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15129,22 +15147,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/lib/subscriptions_test_kit/requirements/hl7.fhir.uv.subscriptions_1.1.0_requirements.xlsx
+++ b/lib/subscriptions_test_kit/requirements/hl7.fhir.uv.subscriptions_1.1.0_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/subscriptions-test-kit/lib/subscriptions_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3248E983-CC84-494D-A183-D62E851AC0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E2D375-1C7E-224E-BBE3-EEA668788B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34560" windowHeight="19980" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -864,9 +864,6 @@
   </si>
   <si>
     <t>Conformance*</t>
-  </si>
-  <si>
-    <t>Actor*</t>
   </si>
   <si>
     <t>Sub-Requirement(s)</t>
@@ -3128,6 +3125,9 @@
   </si>
   <si>
     <t>The narrative says SHOULD, resource says SHALL, future versions correct the narrative to SHALL, so interpreting this as a SHALL requirement</t>
+  </si>
+  <si>
+    <t>Actors*</t>
   </si>
 </sst>
 </file>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="46" t="s">
@@ -4090,10 +4090,10 @@
   <dimension ref="A1:AS348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="V127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA130" sqref="AA130"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4140,110 +4140,110 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="J1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="K1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="L1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="X1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AB1" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="AB1" s="21" t="s">
-        <v>35</v>
       </c>
       <c r="AD1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
     <row r="2" spans="1:45" s="5" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="7">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="7"/>
       <c r="H2" s="20"/>
       <c r="I2" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="37" t="s">
-        <v>41</v>
-      </c>
       <c r="K2" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="37" t="s">
         <v>40</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>41</v>
       </c>
       <c r="M2" s="9" t="str" cm="1">
         <f t="array" ref="M2">PAGE_NAME(A2)</f>
@@ -4258,33 +4258,33 @@
         <v/>
       </c>
       <c r="P2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>43</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T2" s="20"/>
       <c r="U2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="W2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="X2" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="X2" s="20" t="s">
-        <v>48</v>
       </c>
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
       <c r="AA2" s="20"/>
       <c r="AB2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE2" s="16"/>
       <c r="AH2" s="16"/>
@@ -4293,34 +4293,34 @@
     </row>
     <row r="3" spans="1:45" s="5" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="7">
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="7"/>
       <c r="H3" s="20"/>
       <c r="I3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="K3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="37" t="s">
         <v>52</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>53</v>
       </c>
       <c r="M3" s="9" t="str" cm="1">
         <f t="array" ref="M3">PAGE_NAME(A3)</f>
@@ -4331,23 +4331,23 @@
         <v>subscription-topics-in-r4</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>43</v>
       </c>
       <c r="R3" s="10"/>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
       <c r="V3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="X3" s="20"/>
       <c r="Y3" s="10"/>
@@ -4359,28 +4359,28 @@
     </row>
     <row r="4" spans="1:45" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="7">
         <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="37" t="s">
         <v>57</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>58</v>
       </c>
       <c r="M4" s="9" t="str" cm="1">
         <f t="array" ref="M4">PAGE_NAME(A4)</f>
@@ -4392,19 +4392,19 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="V4" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC4"/>
       <c r="AI4" s="17"/>
@@ -4420,16 +4420,16 @@
     </row>
     <row r="5" spans="1:45" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="7">
         <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M5" s="9" t="str" cm="1">
         <f t="array" ref="M5">PAGE_NAME(A5)</f>
@@ -4441,10 +4441,10 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA5" s="20" t="s">
         <v>63</v>
-      </c>
-      <c r="AA5" s="20" t="s">
-        <v>64</v>
       </c>
       <c r="AC5"/>
       <c r="AI5" s="17"/>
@@ -4457,16 +4457,16 @@
     </row>
     <row r="6" spans="1:45" ht="170" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="7">
         <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M6" s="9" t="str" cm="1">
         <f t="array" ref="M6">PAGE_NAME(A6)</f>
@@ -4478,34 +4478,34 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA6" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="AA6" s="20" t="s">
-        <v>68</v>
       </c>
       <c r="AC6"/>
     </row>
     <row r="7" spans="1:45" ht="153" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="7">
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="9" t="str" cm="1">
         <f t="array" ref="M7">PAGE_NAME(A7)</f>
@@ -4517,49 +4517,49 @@
       </c>
       <c r="O7" s="14"/>
       <c r="P7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="U7" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="U7" s="20" t="s">
+      <c r="V7" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="V7" s="20" t="s">
+      <c r="W7" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="W7" s="20" t="s">
+      <c r="X7" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="X7" s="20" t="s">
+      <c r="AA7" s="20" t="s">
         <v>77</v>
-      </c>
-      <c r="AA7" s="20" t="s">
-        <v>78</v>
       </c>
       <c r="AC7"/>
     </row>
     <row r="8" spans="1:45" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="7">
         <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="9" t="str" cm="1">
         <f t="array" ref="M8">PAGE_NAME(A8)</f>
@@ -4571,43 +4571,43 @@
       </c>
       <c r="O8" s="14"/>
       <c r="P8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="Q8" s="20" t="s">
-        <v>73</v>
-      </c>
       <c r="U8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="V8" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="V8" s="20" t="s">
+      <c r="W8" s="20" t="s">
         <v>82</v>
-      </c>
-      <c r="W8" s="20" t="s">
-        <v>83</v>
       </c>
       <c r="AC8"/>
     </row>
     <row r="9" spans="1:45" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="7">
         <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M9" s="9" t="str" cm="1">
         <f t="array" ref="M9">PAGE_NAME(A9)</f>
@@ -4619,43 +4619,43 @@
       </c>
       <c r="O9" s="14"/>
       <c r="P9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="Q9" s="20" t="s">
-        <v>73</v>
-      </c>
       <c r="U9" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="V9" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="V9" s="20" t="s">
-        <v>86</v>
-      </c>
       <c r="W9" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC9"/>
     </row>
     <row r="10" spans="1:45" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="7">
         <v>10</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" s="9" t="str" cm="1">
         <f t="array" ref="M10">PAGE_NAME(A10)</f>
@@ -4667,46 +4667,46 @@
       </c>
       <c r="O10" s="14"/>
       <c r="P10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="Q10" s="20" t="s">
-        <v>73</v>
-      </c>
       <c r="U10" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="V10" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="V10" s="20" t="s">
+      <c r="W10" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="W10" s="20" t="s">
-        <v>90</v>
-      </c>
       <c r="X10" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC10"/>
     </row>
     <row r="11" spans="1:45" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="7">
         <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="9" t="str" cm="1">
         <f t="array" ref="M11">PAGE_NAME(A11)</f>
@@ -4718,46 +4718,46 @@
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="Q11" s="20" t="s">
-        <v>73</v>
-      </c>
       <c r="U11" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="V11" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="V11" s="20" t="s">
+      <c r="W11" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="W11" s="20" t="s">
-        <v>94</v>
-      </c>
       <c r="X11" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC11"/>
     </row>
     <row r="12" spans="1:45" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="7">
         <v>12</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" s="9" t="str" cm="1">
         <f t="array" ref="M12">PAGE_NAME(A12)</f>
@@ -4769,43 +4769,43 @@
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="Q12" s="20" t="s">
-        <v>73</v>
-      </c>
       <c r="U12" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="V12" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="V12" s="20" t="s">
+      <c r="W12" s="20" t="s">
         <v>97</v>
-      </c>
-      <c r="W12" s="20" t="s">
-        <v>98</v>
       </c>
       <c r="AC12"/>
     </row>
     <row r="13" spans="1:45" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="7">
         <v>13</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M13" s="9" t="str" cm="1">
         <f t="array" ref="M13">PAGE_NAME(A13)</f>
@@ -4817,43 +4817,43 @@
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="Q13" s="20" t="s">
-        <v>73</v>
-      </c>
       <c r="U13" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V13" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="W13" s="20" t="s">
         <v>97</v>
-      </c>
-      <c r="W13" s="20" t="s">
-        <v>98</v>
       </c>
       <c r="AC13"/>
     </row>
     <row r="14" spans="1:45" ht="119" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="7">
         <v>14</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M14" s="9" t="str" cm="1">
         <f t="array" ref="M14">PAGE_NAME(A14)</f>
@@ -4865,49 +4865,49 @@
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="Q14" s="20" t="s">
+      <c r="U14" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="U14" s="20" t="s">
+      <c r="V14" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="V14" s="20" t="s">
+      <c r="W14" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="W14" s="20" t="s">
+      <c r="X14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z14" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="X14" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z14" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="AC14"/>
     </row>
     <row r="15" spans="1:45" ht="272" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="7">
         <v>15</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="9" t="str" cm="1">
         <f t="array" ref="M15">PAGE_NAME(A15)</f>
@@ -4919,55 +4919,55 @@
       </c>
       <c r="O15" s="14"/>
       <c r="P15" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="Q15" s="20" t="s">
-        <v>104</v>
-      </c>
       <c r="U15" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V15" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="W15" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="W15" s="20" t="s">
+      <c r="X15" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z15" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="X15" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z15" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="AC15"/>
     </row>
     <row r="16" spans="1:45" ht="221" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="7">
         <v>16</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>113</v>
-      </c>
       <c r="K16" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L16" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M16" s="9" t="str" cm="1">
         <f t="array" ref="M16">PAGE_NAME(A16)</f>
@@ -4979,46 +4979,46 @@
       </c>
       <c r="O16" s="14"/>
       <c r="P16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q16" s="20" t="s">
+      <c r="V16" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="V16" s="20" t="s">
-        <v>116</v>
-      </c>
       <c r="W16" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC16"/>
     </row>
     <row r="17" spans="1:29" ht="204" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="7">
         <v>17</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="I17" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>119</v>
-      </c>
       <c r="K17" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L17" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M17" s="9" t="str" cm="1">
         <f t="array" ref="M17">PAGE_NAME(A17)</f>
@@ -5030,43 +5030,43 @@
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q17" s="20" t="s">
+      <c r="V17" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="V17" s="20" t="s">
-        <v>116</v>
-      </c>
       <c r="W17" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC17"/>
     </row>
     <row r="18" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" s="7">
         <v>18</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="37" t="s">
         <v>121</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>122</v>
       </c>
       <c r="M18" s="9" t="str" cm="1">
         <f t="array" ref="M18">PAGE_NAME(A18)</f>
@@ -5078,46 +5078,46 @@
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="V18" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="Q18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="V18" s="20" t="s">
+      <c r="W18" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA18" s="20" t="s">
         <v>124</v>
-      </c>
-      <c r="W18" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA18" s="20" t="s">
-        <v>125</v>
       </c>
       <c r="AC18"/>
     </row>
     <row r="19" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="7">
         <v>19</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="I19" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M19" s="9" t="str" cm="1">
         <f t="array" ref="M19">PAGE_NAME(A19)</f>
@@ -5129,46 +5129,46 @@
       </c>
       <c r="O19" s="14"/>
       <c r="P19" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V19" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W19" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="X19" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="X19" s="20" t="s">
-        <v>77</v>
-      </c>
       <c r="AA19" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AC19"/>
     </row>
     <row r="20" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="7">
         <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M20" s="9" t="str" cm="1">
         <f t="array" ref="M20">PAGE_NAME(A20)</f>
@@ -5180,49 +5180,49 @@
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="U20" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="U20" s="20" t="s">
+      <c r="V20" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="V20" s="20" t="s">
+      <c r="W20" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="W20" s="20" t="s">
+      <c r="X20" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB20" s="20" t="s">
         <v>132</v>
-      </c>
-      <c r="X20" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB20" s="20" t="s">
-        <v>133</v>
       </c>
       <c r="AC20"/>
     </row>
     <row r="21" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" s="7">
         <v>21</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M21" s="9" t="str" cm="1">
         <f t="array" ref="M21">PAGE_NAME(A21)</f>
@@ -5234,52 +5234,52 @@
       </c>
       <c r="O21" s="14"/>
       <c r="P21" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q21" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U21" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="V21" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="V21" s="20" t="s">
-        <v>136</v>
-      </c>
       <c r="W21" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="X21" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB21" s="20" t="s">
         <v>132</v>
-      </c>
-      <c r="X21" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB21" s="20" t="s">
-        <v>133</v>
       </c>
       <c r="AC21"/>
     </row>
     <row r="22" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="7">
         <v>22</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="I22" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M22" s="9" t="str" cm="1">
         <f t="array" ref="M22">PAGE_NAME(A22)</f>
@@ -5291,40 +5291,40 @@
       </c>
       <c r="O22" s="14"/>
       <c r="P22" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V22" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X22" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC22"/>
     </row>
     <row r="23" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B23" s="7">
         <v>23</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I23" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="9" t="str" cm="1">
         <f t="array" ref="M23">PAGE_NAME(A23)</f>
@@ -5336,40 +5336,40 @@
       </c>
       <c r="O23" s="14"/>
       <c r="P23" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="Q23" s="20" t="s">
+      <c r="U23" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="U23" s="20" t="s">
+      <c r="V23" s="20" t="s">
         <v>143</v>
-      </c>
-      <c r="V23" s="20" t="s">
-        <v>144</v>
       </c>
       <c r="AC23"/>
     </row>
     <row r="24" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="7">
         <v>24</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M24" s="9" t="str" cm="1">
         <f t="array" ref="M24">PAGE_NAME(A24)</f>
@@ -5381,40 +5381,40 @@
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q24" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="Q24" s="20" t="s">
-        <v>142</v>
-      </c>
       <c r="U24" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="V24" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="V24" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="AC24"/>
     </row>
     <row r="25" spans="1:29" ht="136" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25" s="7">
         <v>25</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M25" s="9" t="str" cm="1">
         <f t="array" ref="M25">PAGE_NAME(A25)</f>
@@ -5426,46 +5426,46 @@
       </c>
       <c r="O25" s="14"/>
       <c r="P25" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="U25" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="U25" s="20" t="s">
+      <c r="V25" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="V25" s="20" t="s">
-        <v>151</v>
-      </c>
       <c r="W25" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="X25" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="X25" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="AC25"/>
     </row>
     <row r="26" spans="1:29" ht="153" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" s="7">
         <v>26</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M26" s="9" t="str" cm="1">
         <f t="array" ref="M26">PAGE_NAME(A26)</f>
@@ -5477,52 +5477,52 @@
       </c>
       <c r="O26" s="14"/>
       <c r="P26" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q26" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U26" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="V26" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="V26" s="20" t="s">
+      <c r="W26" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="X26" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="W26" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="X26" s="20" t="s">
+      <c r="Z26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB26" s="20" t="s">
         <v>155</v>
-      </c>
-      <c r="Z26" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB26" s="20" t="s">
-        <v>156</v>
       </c>
       <c r="AC26"/>
     </row>
     <row r="27" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" s="7">
         <v>27</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="9" t="str" cm="1">
         <f t="array" ref="M27">PAGE_NAME(A27)</f>
@@ -5534,49 +5534,49 @@
       </c>
       <c r="O27" s="14"/>
       <c r="P27" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q27" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U27" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="V27" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="V27" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="W27" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X27" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC27"/>
     </row>
     <row r="28" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" s="7">
         <v>28</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M28" s="9" t="str" cm="1">
         <f t="array" ref="M28">PAGE_NAME(A28)</f>
@@ -5588,49 +5588,49 @@
       </c>
       <c r="O28" s="14"/>
       <c r="P28" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q28" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U28" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V28" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="W28" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="W28" s="20" t="s">
+      <c r="X28" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z28" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="X28" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z28" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="AC28"/>
     </row>
     <row r="29" spans="1:29" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="7">
         <v>29</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M29" s="9" t="str" cm="1">
         <f t="array" ref="M29">PAGE_NAME(A29)</f>
@@ -5642,49 +5642,49 @@
       </c>
       <c r="O29" s="14"/>
       <c r="P29" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q29" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="Q29" s="20" t="s">
-        <v>142</v>
-      </c>
       <c r="U29" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="V29" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="V29" s="20" t="s">
-        <v>164</v>
-      </c>
       <c r="W29" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="X29" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB29" s="20" t="s">
         <v>132</v>
-      </c>
-      <c r="X29" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB29" s="20" t="s">
-        <v>133</v>
       </c>
       <c r="AC29"/>
     </row>
     <row r="30" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" s="7">
         <v>30</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M30" s="9" t="str" cm="1">
         <f t="array" ref="M30">PAGE_NAME(A30)</f>
@@ -5696,49 +5696,49 @@
       </c>
       <c r="O30" s="14"/>
       <c r="P30" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q30" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="U30" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="U30" s="20" t="s">
-        <v>167</v>
-      </c>
       <c r="V30" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W30" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="X30" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB30" s="20" t="s">
         <v>132</v>
-      </c>
-      <c r="X30" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB30" s="20" t="s">
-        <v>133</v>
       </c>
       <c r="AC30"/>
     </row>
     <row r="31" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B31" s="7">
         <v>31</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31" s="9" t="str" cm="1">
         <f t="array" ref="M31">PAGE_NAME(A31)</f>
@@ -5750,49 +5750,49 @@
       </c>
       <c r="O31" s="14"/>
       <c r="P31" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q31" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U31" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V31" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W31" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="X31" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB31" s="20" t="s">
         <v>132</v>
-      </c>
-      <c r="X31" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB31" s="20" t="s">
-        <v>133</v>
       </c>
       <c r="AC31"/>
     </row>
     <row r="32" spans="1:29" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" s="7">
         <v>32</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K32" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M32" s="9" t="str" cm="1">
         <f t="array" ref="M32">PAGE_NAME(A32)</f>
@@ -5804,47 +5804,47 @@
       </c>
       <c r="O32" s="14"/>
       <c r="P32" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q32" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="U32" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="Q32" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="U32" s="20" t="s">
+      <c r="V32" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="V32" s="20" t="s">
-        <v>174</v>
-      </c>
       <c r="W32" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X32" s="47"/>
       <c r="AC32"/>
     </row>
     <row r="33" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B33" s="7">
         <v>33</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="I33" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K33" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M33" s="9" t="str" cm="1">
         <f t="array" ref="M33">PAGE_NAME(A33)</f>
@@ -5856,40 +5856,40 @@
       </c>
       <c r="O33" s="14"/>
       <c r="P33" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q33" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="V33" s="20" t="s">
         <v>177</v>
-      </c>
-      <c r="Q33" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="V33" s="20" t="s">
-        <v>178</v>
       </c>
       <c r="AC33"/>
     </row>
     <row r="34" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B34" s="7">
         <v>34</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="I34" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K34" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L34" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M34" s="9" t="str" cm="1">
         <f t="array" ref="M34">PAGE_NAME(A34)</f>
@@ -5901,37 +5901,37 @@
       </c>
       <c r="O34" s="14"/>
       <c r="P34" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q34" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V34" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC34"/>
     </row>
     <row r="35" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B35" s="7">
         <v>35</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K35" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M35" s="9" t="str" cm="1">
         <f t="array" ref="M35">PAGE_NAME(A35)</f>
@@ -5943,46 +5943,46 @@
       </c>
       <c r="O35" s="14"/>
       <c r="P35" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q35" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U35" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V35" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="W35" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="W35" s="20" t="s">
-        <v>107</v>
-      </c>
       <c r="X35" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC35"/>
     </row>
     <row r="36" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B36" s="7">
         <v>36</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I36" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K36" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M36" s="9" t="str" cm="1">
         <f t="array" ref="M36">PAGE_NAME(A36)</f>
@@ -5994,46 +5994,46 @@
       </c>
       <c r="O36" s="14"/>
       <c r="P36" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q36" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="U36" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="Q36" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="U36" s="20" t="s">
-        <v>187</v>
-      </c>
       <c r="V36" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="W36" s="20" t="s">
         <v>97</v>
-      </c>
-      <c r="W36" s="20" t="s">
-        <v>98</v>
       </c>
       <c r="AC36"/>
     </row>
     <row r="37" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B37" s="7">
         <v>37</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="I37" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K37" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L37" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M37" s="9" t="str" cm="1">
         <f t="array" ref="M37">PAGE_NAME(A37)</f>
@@ -6045,37 +6045,37 @@
       </c>
       <c r="O37" s="14"/>
       <c r="P37" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q37" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V37" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC37"/>
     </row>
     <row r="38" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B38" s="7">
         <v>38</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="E38" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I38" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K38" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M38" s="9" t="str" cm="1">
         <f t="array" ref="M38">PAGE_NAME(A38)</f>
@@ -6087,46 +6087,46 @@
       </c>
       <c r="O38" s="14"/>
       <c r="P38" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q38" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="Q38" s="20" t="s">
+      <c r="U38" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="U38" s="20" t="s">
-        <v>195</v>
-      </c>
       <c r="V38" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="W38" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="W38" s="20" t="s">
-        <v>107</v>
-      </c>
       <c r="X38" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AC38"/>
     </row>
     <row r="39" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B39" s="7">
         <v>39</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I39" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M39" s="9" t="str" cm="1">
         <f t="array" ref="M39">PAGE_NAME(A39)</f>
@@ -6138,46 +6138,46 @@
       </c>
       <c r="O39" s="14"/>
       <c r="P39" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q39" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="Q39" s="20" t="s">
-        <v>194</v>
-      </c>
       <c r="U39" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V39" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="W39" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="W39" s="20" t="s">
-        <v>107</v>
-      </c>
       <c r="X39" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AC39"/>
     </row>
     <row r="40" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B40" s="7">
         <v>40</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K40" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M40" s="9" t="str" cm="1">
         <f t="array" ref="M40">PAGE_NAME(A40)</f>
@@ -6189,49 +6189,49 @@
       </c>
       <c r="O40" s="14"/>
       <c r="P40" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q40" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="Q40" s="20" t="s">
+      <c r="U40" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="U40" s="20" t="s">
-        <v>202</v>
-      </c>
       <c r="V40" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="W40" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="W40" s="20" t="s">
-        <v>107</v>
-      </c>
       <c r="X40" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AC40"/>
     </row>
     <row r="41" spans="1:29" ht="153" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B41" s="7">
         <v>41</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="I41" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K41" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L41" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M41" s="9" t="str" cm="1">
         <f t="array" ref="M41">PAGE_NAME(A41)</f>
@@ -6243,37 +6243,37 @@
       </c>
       <c r="O41" s="14"/>
       <c r="P41" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q41" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="Q41" s="20" t="s">
-        <v>201</v>
-      </c>
       <c r="V41" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC41"/>
     </row>
     <row r="42" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B42" s="7">
         <v>42</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I42" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K42" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M42" s="9" t="str" cm="1">
         <f t="array" ref="M42">PAGE_NAME(A42)</f>
@@ -6285,49 +6285,49 @@
       </c>
       <c r="O42" s="14"/>
       <c r="P42" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q42" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="Q42" s="20" t="s">
-        <v>201</v>
-      </c>
       <c r="U42" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="V42" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="W42" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="X42" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB42" s="20" t="s">
         <v>205</v>
-      </c>
-      <c r="V42" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="W42" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="X42" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB42" s="20" t="s">
-        <v>206</v>
       </c>
       <c r="AC42"/>
     </row>
     <row r="43" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B43" s="7">
         <v>43</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I43" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K43" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M43" s="9" t="str" cm="1">
         <f t="array" ref="M43">PAGE_NAME(A43)</f>
@@ -6339,46 +6339,46 @@
       </c>
       <c r="O43" s="14"/>
       <c r="P43" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q43" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="Q43" s="20" t="s">
+      <c r="U43" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="U43" s="20" t="s">
-        <v>211</v>
-      </c>
       <c r="V43" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="W43" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="W43" s="20" t="s">
-        <v>107</v>
-      </c>
       <c r="X43" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AC43"/>
     </row>
     <row r="44" spans="1:29" ht="136" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44" s="7">
         <v>44</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I44" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K44" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M44" s="9" t="str" cm="1">
         <f t="array" ref="M44">PAGE_NAME(A44)</f>
@@ -6390,46 +6390,46 @@
       </c>
       <c r="O44" s="14"/>
       <c r="P44" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q44" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="Q44" s="20" t="s">
-        <v>210</v>
-      </c>
       <c r="U44" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="V44" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="W44" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="V44" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="W44" s="20" t="s">
-        <v>214</v>
-      </c>
       <c r="X44" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AC44"/>
     </row>
     <row r="45" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B45" s="7">
         <v>45</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I45" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K45" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M45" s="9" t="str" cm="1">
         <f t="array" ref="M45">PAGE_NAME(A45)</f>
@@ -6441,43 +6441,43 @@
       </c>
       <c r="O45" s="14"/>
       <c r="P45" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q45" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="Q45" s="20" t="s">
-        <v>210</v>
-      </c>
       <c r="U45" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="V45" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="W45" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="X45" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB45" s="20" t="s">
         <v>216</v>
-      </c>
-      <c r="V45" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="W45" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="X45" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB45" s="20" t="s">
-        <v>217</v>
       </c>
       <c r="AC45"/>
     </row>
     <row r="46" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B46" s="7">
         <v>46</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M46" s="9" t="str" cm="1">
         <f t="array" ref="M46">PAGE_NAME(A46)</f>
@@ -6489,37 +6489,37 @@
       </c>
       <c r="O46" s="14"/>
       <c r="P46" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q46" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA46" s="20" t="s">
         <v>220</v>
-      </c>
-      <c r="Q46" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA46" s="20" t="s">
-        <v>221</v>
       </c>
       <c r="AC46"/>
     </row>
     <row r="47" spans="1:29" ht="136" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B47" s="7">
         <v>47</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I47" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K47" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M47" s="9" t="str" cm="1">
         <f t="array" ref="M47">PAGE_NAME(A47)</f>
@@ -6531,49 +6531,49 @@
       </c>
       <c r="O47" s="14"/>
       <c r="P47" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q47" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="U47" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="U47" s="20" t="s">
+      <c r="V47" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="V47" s="20" t="s">
+      <c r="W47" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="W47" s="20" t="s">
-        <v>226</v>
-      </c>
       <c r="X47" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB47" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC47"/>
     </row>
     <row r="48" spans="1:29" ht="187" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B48" s="7">
         <v>48</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I48" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K48" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M48" s="9" t="str" cm="1">
         <f t="array" ref="M48">PAGE_NAME(A48)</f>
@@ -6585,49 +6585,49 @@
       </c>
       <c r="O48" s="14"/>
       <c r="P48" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q48" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U48" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V48" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="W48" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="W48" s="20" t="s">
+      <c r="X48" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="X48" s="20" t="s">
+      <c r="AB48" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AB48" s="20" t="s">
-        <v>49</v>
       </c>
       <c r="AC48"/>
     </row>
     <row r="49" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B49" s="7">
         <v>49</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I49" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K49" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M49" s="9" t="str" cm="1">
         <f t="array" ref="M49">PAGE_NAME(A49)</f>
@@ -6639,49 +6639,49 @@
       </c>
       <c r="O49" s="14"/>
       <c r="P49" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q49" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U49" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="V49" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="V49" s="20" t="s">
+      <c r="W49" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA49" s="20" t="s">
         <v>231</v>
-      </c>
-      <c r="W49" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA49" s="20" t="s">
-        <v>232</v>
       </c>
       <c r="AC49"/>
     </row>
     <row r="50" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B50" s="7">
         <v>50</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L50" s="37" t="s">
         <v>233</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I50" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K50" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="L50" s="37" t="s">
-        <v>234</v>
       </c>
       <c r="M50" s="9" t="str" cm="1">
         <f t="array" ref="M50">PAGE_NAME(A50)</f>
@@ -6693,37 +6693,37 @@
       </c>
       <c r="O50" s="14"/>
       <c r="P50" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q50" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V50" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AC50"/>
     </row>
     <row r="51" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B51" s="7">
         <v>51</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I51" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K51" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M51" s="9" t="str" cm="1">
         <f t="array" ref="M51">PAGE_NAME(A51)</f>
@@ -6735,43 +6735,43 @@
       </c>
       <c r="O51" s="14"/>
       <c r="P51" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q51" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U51" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="V51" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="W51" s="20" t="s">
         <v>97</v>
-      </c>
-      <c r="W51" s="20" t="s">
-        <v>98</v>
       </c>
       <c r="AC51"/>
     </row>
     <row r="52" spans="1:29" ht="153" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B52" s="7">
         <v>52</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I52" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K52" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M52" s="9" t="str" cm="1">
         <f t="array" ref="M52">PAGE_NAME(A52)</f>
@@ -6783,46 +6783,46 @@
       </c>
       <c r="O52" s="14"/>
       <c r="P52" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q52" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="U52" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="Q52" s="20" t="s">
+      <c r="V52" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="W52" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="X52" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="U52" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="V52" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="W52" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="X52" s="20" t="s">
-        <v>48</v>
       </c>
       <c r="AC52"/>
     </row>
     <row r="53" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B53" s="7">
         <v>53</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I53" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K53" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M53" s="9" t="str" cm="1">
         <f t="array" ref="M53">PAGE_NAME(A53)</f>
@@ -6834,46 +6834,46 @@
       </c>
       <c r="O53" s="14"/>
       <c r="P53" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q53" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U53" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="V53" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="W53" s="20" t="s">
         <v>97</v>
-      </c>
-      <c r="W53" s="20" t="s">
-        <v>98</v>
       </c>
       <c r="AC53"/>
     </row>
     <row r="54" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B54" s="7">
         <v>54</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I54" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K54" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L54" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M54" s="9" t="str" cm="1">
         <f t="array" ref="M54">PAGE_NAME(A54)</f>
@@ -6885,28 +6885,28 @@
       </c>
       <c r="O54" s="14"/>
       <c r="P54" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q54" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V54" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AC54"/>
     </row>
     <row r="55" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B55" s="7">
         <v>55</v>
       </c>
       <c r="C55" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M55" s="9" t="str" cm="1">
         <f t="array" ref="M55">PAGE_NAME(A55)</f>
@@ -6918,31 +6918,31 @@
       </c>
       <c r="O55" s="14"/>
       <c r="P55" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA55" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AC55"/>
     </row>
     <row r="56" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B56" s="7">
         <v>56</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I56" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K56" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M56" s="9" t="str" cm="1">
         <f t="array" ref="M56">PAGE_NAME(A56)</f>
@@ -6954,49 +6954,49 @@
       </c>
       <c r="O56" s="14"/>
       <c r="P56" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q56" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="Q56" s="20" t="s">
+      <c r="U56" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="U56" s="20" t="s">
+      <c r="V56" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="V56" s="20" t="s">
+      <c r="W56" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="W56" s="20" t="s">
+      <c r="X56" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA56" s="20" t="s">
         <v>251</v>
-      </c>
-      <c r="X56" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA56" s="20" t="s">
-        <v>252</v>
       </c>
       <c r="AC56"/>
     </row>
     <row r="57" spans="1:29" ht="136" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B57" s="7">
         <v>57</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I57" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K57" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M57" s="9" t="str" cm="1">
         <f t="array" ref="M57">PAGE_NAME(A57)</f>
@@ -7008,49 +7008,49 @@
       </c>
       <c r="O57" s="14"/>
       <c r="P57" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q57" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="U57" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="V57" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="W57" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="X57" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="U57" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="V57" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="W57" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="X57" s="20" t="s">
-        <v>48</v>
       </c>
       <c r="AC57"/>
     </row>
     <row r="58" spans="1:29" ht="170" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B58" s="7">
         <v>58</v>
       </c>
       <c r="C58" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K58" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="L58" s="37" t="s">
         <v>256</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I58" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K58" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="L58" s="37" t="s">
-        <v>257</v>
       </c>
       <c r="M58" s="9" t="str" cm="1">
         <f t="array" ref="M58">PAGE_NAME(A58)</f>
@@ -7062,37 +7062,37 @@
       </c>
       <c r="O58" s="14"/>
       <c r="P58" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q58" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V58" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AC58"/>
     </row>
     <row r="59" spans="1:29" ht="102" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B59" s="7">
         <v>59</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I59" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M59" s="9" t="str" cm="1">
         <f t="array" ref="M59">PAGE_NAME(A59)</f>
@@ -7104,46 +7104,46 @@
       </c>
       <c r="O59" s="14"/>
       <c r="P59" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q59" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="U59" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="Q59" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="U59" s="20" t="s">
+      <c r="V59" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="V59" s="20" t="s">
-        <v>263</v>
-      </c>
       <c r="W59" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X59" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC59"/>
     </row>
     <row r="60" spans="1:29" ht="102" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B60" s="7">
         <v>60</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I60" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K60" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M60" s="9" t="str" cm="1">
         <f t="array" ref="M60">PAGE_NAME(A60)</f>
@@ -7155,55 +7155,55 @@
       </c>
       <c r="O60" s="14"/>
       <c r="P60" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q60" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U60" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="V60" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W60" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="X60" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB60" s="32" t="s">
         <v>265</v>
-      </c>
-      <c r="V60" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="W60" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="X60" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB60" s="32" t="s">
-        <v>266</v>
       </c>
       <c r="AC60"/>
     </row>
     <row r="61" spans="1:29" ht="102" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B61" s="7">
         <v>61</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I61" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J61" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I61" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J61" s="37" t="s">
-        <v>268</v>
-      </c>
       <c r="K61" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L61" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M61" s="9" t="str" cm="1">
         <f t="array" ref="M61">PAGE_NAME(A61)</f>
@@ -7215,31 +7215,31 @@
       </c>
       <c r="O61" s="14"/>
       <c r="P61" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q61" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V61" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AC61"/>
     </row>
     <row r="62" spans="1:29" ht="255" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B62" s="7">
         <v>62</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M62" s="9" t="str" cm="1">
         <f t="array" ref="M62">PAGE_NAME(A62)</f>
@@ -7251,37 +7251,37 @@
       </c>
       <c r="O62" s="14"/>
       <c r="P62" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q62" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA62" s="20" t="s">
         <v>272</v>
-      </c>
-      <c r="Q62" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA62" s="20" t="s">
-        <v>273</v>
       </c>
       <c r="AC62"/>
     </row>
     <row r="63" spans="1:29" ht="136" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B63" s="7">
         <v>63</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I63" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K63" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M63" s="9" t="str" cm="1">
         <f t="array" ref="M63">PAGE_NAME(A63)</f>
@@ -7293,46 +7293,46 @@
       </c>
       <c r="O63" s="14"/>
       <c r="P63" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q63" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U63" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V63" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="W63" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB63" s="32" t="s">
         <v>275</v>
-      </c>
-      <c r="W63" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB63" s="32" t="s">
-        <v>276</v>
       </c>
       <c r="AC63"/>
     </row>
     <row r="64" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B64" s="7">
         <v>64</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I64" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K64" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M64" s="9" t="str" cm="1">
         <f t="array" ref="M64">PAGE_NAME(A64)</f>
@@ -7344,40 +7344,40 @@
       </c>
       <c r="O64" s="14"/>
       <c r="P64" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q64" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U64" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="V64" s="20" t="s">
         <v>278</v>
-      </c>
-      <c r="V64" s="20" t="s">
-        <v>279</v>
       </c>
       <c r="AC64"/>
     </row>
     <row r="65" spans="1:29" ht="102" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B65" s="7">
         <v>65</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I65" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K65" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M65" s="9" t="str" cm="1">
         <f t="array" ref="M65">PAGE_NAME(A65)</f>
@@ -7389,46 +7389,46 @@
       </c>
       <c r="O65" s="14"/>
       <c r="P65" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q65" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="U65" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="Q65" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="U65" s="20" t="s">
+      <c r="V65" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="V65" s="20" t="s">
-        <v>284</v>
-      </c>
       <c r="W65" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X65" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AC65"/>
     </row>
     <row r="66" spans="1:29" ht="136" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B66" s="7">
         <v>66</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I66" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K66" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M66" s="9" t="str" cm="1">
         <f t="array" ref="M66">PAGE_NAME(A66)</f>
@@ -7440,46 +7440,46 @@
       </c>
       <c r="O66" s="14"/>
       <c r="P66" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q66" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U66" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V66" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W66" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB66" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AC66"/>
     </row>
     <row r="67" spans="1:29" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B67" s="7">
         <v>67</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K67" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M67" s="9" t="str" cm="1">
         <f t="array" ref="M67">PAGE_NAME(A67)</f>
@@ -7491,46 +7491,46 @@
       </c>
       <c r="O67" s="14"/>
       <c r="P67" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q67" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U67" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V67" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W67" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X67" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AC67"/>
     </row>
     <row r="68" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B68" s="7">
         <v>68</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K68" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M68" s="9" t="str" cm="1">
         <f t="array" ref="M68">PAGE_NAME(A68)</f>
@@ -7542,40 +7542,40 @@
       </c>
       <c r="O68" s="14"/>
       <c r="P68" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q68" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U68" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V68" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AC68"/>
     </row>
     <row r="69" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B69" s="7">
         <v>69</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I69" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K69" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M69" s="9" t="str" cm="1">
         <f t="array" ref="M69">PAGE_NAME(A69)</f>
@@ -7587,49 +7587,49 @@
       </c>
       <c r="O69" s="14"/>
       <c r="P69" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q69" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="U69" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="Q69" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="U69" s="20" t="s">
-        <v>294</v>
-      </c>
       <c r="V69" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="W69" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="W69" s="20" t="s">
+      <c r="X69" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z69" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="X69" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z69" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="AC69"/>
     </row>
     <row r="70" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B70" s="7">
         <v>70</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I70" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K70" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M70" s="9" t="str" cm="1">
         <f t="array" ref="M70">PAGE_NAME(A70)</f>
@@ -7641,49 +7641,49 @@
       </c>
       <c r="O70" s="14"/>
       <c r="P70" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q70" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="U70" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="Q70" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="U70" s="20" t="s">
-        <v>294</v>
-      </c>
       <c r="V70" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="W70" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="W70" s="20" t="s">
+      <c r="X70" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z70" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="X70" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z70" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="AC70"/>
     </row>
     <row r="71" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B71" s="7">
         <v>71</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I71" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K71" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M71" s="9" t="str" cm="1">
         <f t="array" ref="M71">PAGE_NAME(A71)</f>
@@ -7695,43 +7695,43 @@
       </c>
       <c r="O71" s="14"/>
       <c r="P71" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q71" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U71" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="V71" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="V71" s="20" t="s">
+      <c r="AB71" s="20" t="s">
         <v>298</v>
-      </c>
-      <c r="AB71" s="20" t="s">
-        <v>299</v>
       </c>
       <c r="AC71"/>
     </row>
     <row r="72" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B72" s="7">
         <v>72</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I72" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K72" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M72" s="9" t="str" cm="1">
         <f t="array" ref="M72">PAGE_NAME(A72)</f>
@@ -7743,46 +7743,46 @@
       </c>
       <c r="O72" s="14"/>
       <c r="P72" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q72" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="U72" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="Q72" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="U72" s="20" t="s">
-        <v>303</v>
-      </c>
       <c r="V72" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="W72" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="W72" s="20" t="s">
-        <v>107</v>
-      </c>
       <c r="X72" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC72"/>
     </row>
     <row r="73" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B73" s="7">
         <v>73</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I73" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K73" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M73" s="9" t="str" cm="1">
         <f t="array" ref="M73">PAGE_NAME(A73)</f>
@@ -7794,46 +7794,46 @@
       </c>
       <c r="O73" s="14"/>
       <c r="P73" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q73" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U73" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V73" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W73" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC73"/>
     </row>
     <row r="74" spans="1:29" ht="204" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B74" s="7">
         <v>74</v>
       </c>
       <c r="C74" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K74" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L74" s="37" t="s">
         <v>306</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I74" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K74" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="L74" s="37" t="s">
-        <v>307</v>
       </c>
       <c r="M74" s="9" t="str" cm="1">
         <f t="array" ref="M74">PAGE_NAME(A74)</f>
@@ -7845,40 +7845,40 @@
       </c>
       <c r="O74" s="14"/>
       <c r="P74" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q74" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V74" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB74" s="20" t="s">
         <v>308</v>
-      </c>
-      <c r="AB74" s="20" t="s">
-        <v>309</v>
       </c>
       <c r="AC74"/>
     </row>
     <row r="75" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B75" s="7">
         <v>75</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I75" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K75" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M75" s="9" t="str" cm="1">
         <f t="array" ref="M75">PAGE_NAME(A75)</f>
@@ -7890,43 +7890,43 @@
       </c>
       <c r="O75" s="14"/>
       <c r="P75" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q75" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U75" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V75" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W75" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC75"/>
     </row>
     <row r="76" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B76" s="7">
         <v>76</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I76" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K76" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M76" s="9" t="str" cm="1">
         <f t="array" ref="M76">PAGE_NAME(A76)</f>
@@ -7938,40 +7938,40 @@
       </c>
       <c r="O76" s="14"/>
       <c r="P76" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q76" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U76" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="V76" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AC76"/>
     </row>
     <row r="77" spans="1:29" ht="356" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B77" s="7">
         <v>77</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I77" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K77" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M77" s="9" t="str" cm="1">
         <f t="array" ref="M77">PAGE_NAME(A77)</f>
@@ -7983,46 +7983,46 @@
       </c>
       <c r="O77" s="14"/>
       <c r="P77" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q77" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="Q77" s="20" t="s">
+      <c r="U77" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="U77" s="20" t="s">
+      <c r="V77" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="W77" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB77" s="20" t="s">
         <v>318</v>
-      </c>
-      <c r="V77" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="W77" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB77" s="20" t="s">
-        <v>319</v>
       </c>
       <c r="AC77"/>
     </row>
     <row r="78" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B78" s="7">
         <v>78</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I78" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K78" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M78" s="9" t="str" cm="1">
         <f t="array" ref="M78">PAGE_NAME(A78)</f>
@@ -8034,49 +8034,49 @@
       </c>
       <c r="O78" s="14"/>
       <c r="P78" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q78" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="Q78" s="20" t="s">
-        <v>317</v>
-      </c>
       <c r="U78" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="V78" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="V78" s="20" t="s">
-        <v>322</v>
-      </c>
       <c r="W78" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="X78" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB78" s="20" t="s">
         <v>132</v>
-      </c>
-      <c r="X78" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB78" s="20" t="s">
-        <v>133</v>
       </c>
       <c r="AC78"/>
     </row>
     <row r="79" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B79" s="7">
         <v>79</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I79" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K79" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M79" s="9" t="str" cm="1">
         <f t="array" ref="M79">PAGE_NAME(A79)</f>
@@ -8088,52 +8088,52 @@
       </c>
       <c r="O79" s="14"/>
       <c r="P79" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q79" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U79" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="V79" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="V79" s="20" t="s">
-        <v>325</v>
-      </c>
       <c r="W79" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X79" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB79" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC79"/>
     </row>
     <row r="80" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B80" s="7">
         <v>80</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D80" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E80" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="I80" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K80" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L80" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M80" s="9" t="str" cm="1">
         <f t="array" ref="M80">PAGE_NAME(A80)</f>
@@ -8145,37 +8145,37 @@
       </c>
       <c r="O80" s="14"/>
       <c r="P80" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q80" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="V80" s="20" t="s">
         <v>327</v>
-      </c>
-      <c r="V80" s="20" t="s">
-        <v>328</v>
       </c>
       <c r="AC80"/>
     </row>
     <row r="81" spans="1:41" ht="170" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B81" s="7">
         <v>81</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I81" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K81" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M81" s="9" t="str" cm="1">
         <f t="array" ref="M81">PAGE_NAME(A81)</f>
@@ -8187,46 +8187,46 @@
       </c>
       <c r="O81" s="14"/>
       <c r="P81" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q81" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="Q81" s="20" t="s">
-        <v>317</v>
-      </c>
       <c r="U81" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="V81" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="V81" s="20" t="s">
+      <c r="AA81" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="AA81" s="20" t="s">
+      <c r="AB81" s="20" t="s">
         <v>332</v>
-      </c>
-      <c r="AB81" s="20" t="s">
-        <v>333</v>
       </c>
       <c r="AC81"/>
     </row>
     <row r="82" spans="1:41" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B82" s="7">
         <v>82</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I82" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K82" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M82" s="9" t="str" cm="1">
         <f t="array" ref="M82">PAGE_NAME(A82)</f>
@@ -8238,49 +8238,49 @@
       </c>
       <c r="O82" s="14"/>
       <c r="P82" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q82" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U82" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="V82" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="V82" s="20" t="s">
+      <c r="AA82" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="AA82" s="20" t="s">
+      <c r="AB82" s="20" t="s">
         <v>332</v>
-      </c>
-      <c r="AB82" s="20" t="s">
-        <v>333</v>
       </c>
       <c r="AC82"/>
     </row>
     <row r="83" spans="1:41" ht="102" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B83" s="7">
         <v>83</v>
       </c>
       <c r="C83" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I83" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K83" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L83" s="37" t="s">
         <v>338</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I83" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K83" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="L83" s="37" t="s">
-        <v>339</v>
       </c>
       <c r="M83" s="9" t="str" cm="1">
         <f t="array" ref="M83">PAGE_NAME(A83)</f>
@@ -8292,49 +8292,49 @@
       </c>
       <c r="O83" s="14"/>
       <c r="P83" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q83" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="Q83" s="20" t="s">
+      <c r="U83" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="U83" s="20" t="s">
+      <c r="V83" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="V83" s="20" t="s">
+      <c r="W83" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="W83" s="20" t="s">
+      <c r="AB83" s="20" t="s">
         <v>344</v>
-      </c>
-      <c r="AB83" s="20" t="s">
-        <v>345</v>
       </c>
       <c r="AC83"/>
     </row>
     <row r="84" spans="1:41" ht="68" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B84" s="7">
         <v>84</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D84" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E84" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="I84" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K84" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L84" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M84" s="9" t="str" cm="1">
         <f t="array" ref="M84">PAGE_NAME(A84)</f>
@@ -8346,40 +8346,40 @@
       </c>
       <c r="O84" s="14"/>
       <c r="P84" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q84" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="Q84" s="20" t="s">
-        <v>341</v>
-      </c>
       <c r="V84" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AC84"/>
     </row>
     <row r="85" spans="1:41" ht="102" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B85" s="7">
         <v>85</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I85" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K85" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L85" s="37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M85" s="9" t="str" cm="1">
         <f t="array" ref="M85">PAGE_NAME(A85)</f>
@@ -8391,43 +8391,43 @@
       </c>
       <c r="O85" s="14"/>
       <c r="P85" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q85" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U85" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="V85" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="V85" s="20" t="s">
-        <v>350</v>
-      </c>
       <c r="AB85" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC85"/>
     </row>
     <row r="86" spans="1:41" ht="153" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B86" s="7">
         <v>86</v>
       </c>
       <c r="C86" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>352</v>
-      </c>
       <c r="E86" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I86" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K86" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M86" s="9" t="str" cm="1">
         <f t="array" ref="M86">PAGE_NAME(A86)</f>
@@ -8439,16 +8439,16 @@
       </c>
       <c r="O86" s="14"/>
       <c r="P86" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q86" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U86" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="V86" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AC86"/>
       <c r="AI86" s="17"/>
@@ -8461,16 +8461,16 @@
     </row>
     <row r="87" spans="1:41" ht="85" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B87" s="7">
         <v>87</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M87" s="9" t="str" cm="1">
         <f t="array" ref="M87">PAGE_NAME(A87)</f>
@@ -8483,7 +8483,7 @@
       <c r="O87" s="14"/>
       <c r="V87" s="33"/>
       <c r="AA87" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AC87"/>
       <c r="AI87" s="17"/>
@@ -8496,28 +8496,28 @@
     </row>
     <row r="88" spans="1:41" ht="102" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B88" s="7">
         <v>88</v>
       </c>
       <c r="C88" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I88" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K88" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="L88" s="37" t="s">
         <v>356</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I88" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K88" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="L88" s="37" t="s">
-        <v>357</v>
       </c>
       <c r="M88" s="9" t="str" cm="1">
         <f t="array" ref="M88">PAGE_NAME(A88)</f>
@@ -8529,13 +8529,13 @@
       </c>
       <c r="O88" s="14"/>
       <c r="P88" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q88" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V88" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AC88"/>
       <c r="AH88" s="18"/>
@@ -8549,47 +8549,47 @@
     </row>
     <row r="89" spans="1:41" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B89" s="7">
         <v>89</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O89" s="14"/>
       <c r="AA89" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AC89"/>
     </row>
     <row r="90" spans="1:41" ht="136" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B90" s="7">
         <v>90</v>
       </c>
       <c r="C90" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I90" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K90" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L90" s="37" t="s">
         <v>361</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I90" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K90" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="L90" s="37" t="s">
-        <v>362</v>
       </c>
       <c r="M90" s="9" t="str" cm="1">
         <f t="array" ref="M90">PAGE_NAME(A90)</f>
@@ -8601,59 +8601,59 @@
       </c>
       <c r="O90" s="14"/>
       <c r="P90" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q90" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V90" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AC90"/>
     </row>
     <row r="91" spans="1:41" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B91" s="7">
         <v>91</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O91" s="14"/>
       <c r="AA91" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AC91"/>
     </row>
     <row r="92" spans="1:41" ht="68" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B92" s="7">
         <v>92</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D92" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E92" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="I92" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K92" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L92" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M92" s="9" t="str" cm="1">
         <f t="array" ref="M92">PAGE_NAME(A92)</f>
@@ -8665,40 +8665,40 @@
       </c>
       <c r="O92" s="14"/>
       <c r="P92" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q92" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="V92" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="V92" s="20" t="s">
+      <c r="AB92" s="20" t="s">
         <v>367</v>
-      </c>
-      <c r="AB92" s="20" t="s">
-        <v>368</v>
       </c>
       <c r="AC92"/>
     </row>
     <row r="93" spans="1:41" ht="102" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B93" s="7">
         <v>93</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I93" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K93" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M93" s="9" t="str" cm="1">
         <f t="array" ref="M93">PAGE_NAME(A93)</f>
@@ -8710,46 +8710,46 @@
       </c>
       <c r="O93" s="14"/>
       <c r="P93" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q93" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="U93" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="Q93" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="U93" s="20" t="s">
+      <c r="V93" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="V93" s="20" t="s">
+      <c r="W93" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB93" s="20" t="s">
         <v>373</v>
-      </c>
-      <c r="W93" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB93" s="20" t="s">
-        <v>374</v>
       </c>
       <c r="AC93"/>
     </row>
     <row r="94" spans="1:41" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B94" s="7">
         <v>94</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I94" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K94" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M94" s="9" t="str" cm="1">
         <f t="array" ref="M94">PAGE_NAME(A94)</f>
@@ -8761,49 +8761,49 @@
       </c>
       <c r="O94" s="14"/>
       <c r="P94" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q94" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U94" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="V94" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="V94" s="20" t="s">
+      <c r="W94" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB94" s="32" t="s">
         <v>377</v>
-      </c>
-      <c r="W94" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB94" s="32" t="s">
-        <v>378</v>
       </c>
       <c r="AC94"/>
     </row>
     <row r="95" spans="1:41" ht="119" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B95" s="7">
         <v>95</v>
       </c>
       <c r="C95" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I95" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K95" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L95" s="37" t="s">
         <v>379</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I95" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K95" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="L95" s="37" t="s">
-        <v>380</v>
       </c>
       <c r="M95" s="9" t="str" cm="1">
         <f t="array" ref="M95">PAGE_NAME(A95)</f>
@@ -8815,41 +8815,41 @@
       </c>
       <c r="O95" s="14"/>
       <c r="P95" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q95" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="V95" s="20" t="s">
         <v>381</v>
-      </c>
-      <c r="V95" s="20" t="s">
-        <v>382</v>
       </c>
       <c r="AC95"/>
     </row>
     <row r="96" spans="1:41" ht="85" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B96" s="12">
         <v>96</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F96" s="36"/>
       <c r="I96" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K96" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L96" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M96" s="9" t="str" cm="1">
         <f t="array" ref="M96">PAGE_NAME(A96)</f>
@@ -8861,37 +8861,37 @@
       </c>
       <c r="O96" s="14"/>
       <c r="P96" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q96" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V96" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AC96"/>
     </row>
     <row r="97" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B97" s="7">
         <v>97</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I97" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K97" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M97" s="9" t="str" cm="1">
         <f t="array" ref="M97">PAGE_NAME(A97)</f>
@@ -8903,49 +8903,49 @@
       </c>
       <c r="O97" s="14"/>
       <c r="P97" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q97" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U97" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="V97" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="V97" s="20" t="s">
+      <c r="W97" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB97" s="20" t="s">
         <v>387</v>
-      </c>
-      <c r="W97" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB97" s="20" t="s">
-        <v>388</v>
       </c>
       <c r="AC97"/>
     </row>
     <row r="98" spans="1:29" ht="136" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B98" s="7">
         <v>98</v>
       </c>
       <c r="C98" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I98" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K98" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L98" s="37" t="s">
         <v>389</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I98" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K98" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="L98" s="37" t="s">
-        <v>390</v>
       </c>
       <c r="M98" s="9" t="str" cm="1">
         <f t="array" ref="M98">PAGE_NAME(A98)</f>
@@ -8957,43 +8957,43 @@
       </c>
       <c r="O98" s="14"/>
       <c r="P98" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q98" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U98" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V98" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W98" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC98"/>
     </row>
     <row r="99" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B99" s="7">
         <v>99</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I99" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K99" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M99" s="9" t="str" cm="1">
         <f t="array" ref="M99">PAGE_NAME(A99)</f>
@@ -9005,46 +9005,46 @@
       </c>
       <c r="O99" s="14"/>
       <c r="P99" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q99" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="U99" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="Q99" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="U99" s="20" t="s">
-        <v>395</v>
-      </c>
       <c r="V99" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W99" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC99"/>
     </row>
     <row r="100" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B100" s="7">
         <v>100</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D100" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E100" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="I100" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K100" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L100" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M100" s="9" t="str" cm="1">
         <f t="array" ref="M100">PAGE_NAME(A100)</f>
@@ -9056,37 +9056,37 @@
       </c>
       <c r="O100" s="14"/>
       <c r="P100" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q100" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V100" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC100"/>
     </row>
     <row r="101" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B101" s="7">
         <v>101</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I101" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K101" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M101" s="9" t="str" cm="1">
         <f t="array" ref="M101">PAGE_NAME(A101)</f>
@@ -9098,43 +9098,43 @@
       </c>
       <c r="O101" s="14"/>
       <c r="P101" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q101" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U101" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="V101" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W101" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC101"/>
     </row>
     <row r="102" spans="1:29" ht="136" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B102" s="7">
         <v>102</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I102" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K102" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M102" s="9" t="str" cm="1">
         <f t="array" ref="M102">PAGE_NAME(A102)</f>
@@ -9146,46 +9146,46 @@
       </c>
       <c r="O102" s="14"/>
       <c r="P102" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q102" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U102" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="V102" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="W102" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA102" s="20" t="s">
         <v>400</v>
-      </c>
-      <c r="V102" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="W102" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA102" s="20" t="s">
-        <v>401</v>
       </c>
       <c r="AC102"/>
     </row>
     <row r="103" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B103" s="7">
         <v>103</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I103" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K103" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M103" s="9" t="str" cm="1">
         <f t="array" ref="M103">PAGE_NAME(A103)</f>
@@ -9197,49 +9197,49 @@
       </c>
       <c r="O103" s="14"/>
       <c r="P103" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q103" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U103" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V103" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W103" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA103" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AC103"/>
     </row>
     <row r="104" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B104" s="7">
         <v>104</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D104" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E104" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="I104" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K104" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L104" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M104" s="9" t="str" cm="1">
         <f t="array" ref="M104">PAGE_NAME(A104)</f>
@@ -9251,40 +9251,40 @@
       </c>
       <c r="O104" s="14"/>
       <c r="P104" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q104" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V104" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC104"/>
     </row>
     <row r="105" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B105" s="7">
         <v>105</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D105" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="I105" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K105" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L105" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M105" s="9" t="str" cm="1">
         <f t="array" ref="M105">PAGE_NAME(A105)</f>
@@ -9296,37 +9296,37 @@
       </c>
       <c r="O105" s="14"/>
       <c r="P105" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q105" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V105" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC105"/>
     </row>
     <row r="106" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B106" s="7">
         <v>106</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I106" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K106" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M106" s="9" t="str" cm="1">
         <f t="array" ref="M106">PAGE_NAME(A106)</f>
@@ -9338,43 +9338,43 @@
       </c>
       <c r="O106" s="14"/>
       <c r="P106" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q106" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="U106" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="Q106" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="U106" s="20" t="s">
+      <c r="V106" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="V106" s="20" t="s">
-        <v>410</v>
-      </c>
       <c r="W106" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AC106"/>
     </row>
     <row r="107" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B107" s="7">
         <v>107</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I107" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K107" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M107" s="9" t="str" cm="1">
         <f t="array" ref="M107">PAGE_NAME(A107)</f>
@@ -9386,43 +9386,43 @@
       </c>
       <c r="O107" s="14"/>
       <c r="P107" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q107" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U107" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="V107" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="V107" s="20" t="s">
-        <v>413</v>
-      </c>
       <c r="W107" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AC107"/>
     </row>
     <row r="108" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B108" s="7">
         <v>108</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I108" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K108" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M108" s="9" t="str" cm="1">
         <f t="array" ref="M108">PAGE_NAME(A108)</f>
@@ -9434,43 +9434,43 @@
       </c>
       <c r="O108" s="14"/>
       <c r="P108" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q108" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U108" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="V108" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="V108" s="20" t="s">
-        <v>416</v>
-      </c>
       <c r="W108" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AC108"/>
     </row>
     <row r="109" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B109" s="7">
         <v>109</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I109" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K109" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M109" s="9" t="str" cm="1">
         <f t="array" ref="M109">PAGE_NAME(A109)</f>
@@ -9482,43 +9482,43 @@
       </c>
       <c r="O109" s="14"/>
       <c r="P109" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q109" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U109" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="V109" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="V109" s="20" t="s">
-        <v>419</v>
-      </c>
       <c r="W109" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AC109"/>
     </row>
     <row r="110" spans="1:29" ht="102" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B110" s="7">
         <v>110</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I110" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K110" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M110" s="9" t="str" cm="1">
         <f t="array" ref="M110">PAGE_NAME(A110)</f>
@@ -9530,43 +9530,43 @@
       </c>
       <c r="O110" s="14"/>
       <c r="P110" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q110" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U110" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="V110" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="V110" s="20" t="s">
-        <v>422</v>
-      </c>
       <c r="W110" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AC110"/>
     </row>
     <row r="111" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B111" s="7">
         <v>111</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I111" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K111" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M111" s="9" t="str" cm="1">
         <f t="array" ref="M111">PAGE_NAME(A111)</f>
@@ -9578,43 +9578,43 @@
       </c>
       <c r="O111" s="14"/>
       <c r="P111" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q111" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U111" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="V111" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="V111" s="20" t="s">
-        <v>425</v>
-      </c>
       <c r="W111" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AC111"/>
     </row>
     <row r="112" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B112" s="7">
         <v>112</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I112" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K112" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M112" s="9" t="str" cm="1">
         <f t="array" ref="M112">PAGE_NAME(A112)</f>
@@ -9626,43 +9626,43 @@
       </c>
       <c r="O112" s="14"/>
       <c r="P112" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q112" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U112" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="V112" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="V112" s="20" t="s">
-        <v>428</v>
-      </c>
       <c r="W112" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AC112"/>
     </row>
     <row r="113" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B113" s="7">
         <v>113</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D113" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E113" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E113" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="I113" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K113" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M113" s="9" t="str" cm="1">
         <f t="array" ref="M113">PAGE_NAME(A113)</f>
@@ -9674,45 +9674,45 @@
       </c>
       <c r="O113" s="14"/>
       <c r="P113" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q113" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U113" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="V113" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="V113" s="20" t="s">
-        <v>431</v>
-      </c>
       <c r="W113" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="X113" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="X113" s="20" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B114" s="7">
         <v>114</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I114" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K114" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M114" s="9" t="str" cm="1">
         <f t="array" ref="M114">PAGE_NAME(A114)</f>
@@ -9724,42 +9724,42 @@
       </c>
       <c r="O114" s="14"/>
       <c r="P114" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q114" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="U114" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="Q114" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="U114" s="20" t="s">
+      <c r="V114" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="V114" s="20" t="s">
-        <v>436</v>
-      </c>
       <c r="W114" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="85" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B115" s="7">
         <v>115</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I115" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K115" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M115" s="9" t="str" cm="1">
         <f t="array" ref="M115">PAGE_NAME(A115)</f>
@@ -9771,42 +9771,42 @@
       </c>
       <c r="O115" s="14"/>
       <c r="P115" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q115" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="U115" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="Q115" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="U115" s="20" t="s">
+      <c r="V115" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="V115" s="20" t="s">
-        <v>441</v>
-      </c>
       <c r="W115" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:28" ht="68" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B116" s="7">
         <v>116</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I116" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K116" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M116" s="9" t="str" cm="1">
         <f t="array" ref="M116">PAGE_NAME(A116)</f>
@@ -9818,42 +9818,42 @@
       </c>
       <c r="O116" s="14"/>
       <c r="P116" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q116" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U116" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="V116" s="20" t="s">
         <v>443</v>
-      </c>
-      <c r="V116" s="20" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="85" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B117" s="7">
         <v>117</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D117" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E117" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="I117" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K117" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L117" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M117" s="9" t="str" cm="1">
         <f t="array" ref="M117">PAGE_NAME(A117)</f>
@@ -9865,36 +9865,36 @@
       </c>
       <c r="O117" s="14"/>
       <c r="P117" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q117" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="V117" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B118" s="7">
         <v>118</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I118" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K118" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M118" s="9" t="str" cm="1">
         <f t="array" ref="M118">PAGE_NAME(A118)</f>
@@ -9906,42 +9906,42 @@
       </c>
       <c r="O118" s="14"/>
       <c r="P118" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q118" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U118" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="V118" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="V118" s="20" t="s">
-        <v>449</v>
-      </c>
       <c r="W118" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B119" s="7">
         <v>119</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K119" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M119" s="9" t="str" cm="1">
         <f t="array" ref="M119">PAGE_NAME(A119)</f>
@@ -9953,42 +9953,42 @@
       </c>
       <c r="O119" s="14"/>
       <c r="P119" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q119" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U119" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="V119" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="W119" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="120" spans="1:28" ht="85" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B120" s="7">
         <v>120</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I120" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K120" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M120" s="9" t="str" cm="1">
         <f t="array" ref="M120">PAGE_NAME(A120)</f>
@@ -10000,42 +10000,42 @@
       </c>
       <c r="O120" s="14"/>
       <c r="P120" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q120" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U120" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="V120" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="V120" s="20" t="s">
-        <v>455</v>
-      </c>
       <c r="W120" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B121" s="7">
         <v>121</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I121" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K121" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M121" s="9" t="str" cm="1">
         <f t="array" ref="M121">PAGE_NAME(A121)</f>
@@ -10047,46 +10047,46 @@
       </c>
       <c r="O121" s="14"/>
       <c r="P121" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q121" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U121" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="V121" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="V121" s="20" t="s">
+      <c r="W121" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA121" s="20" t="s">
         <v>458</v>
-      </c>
-      <c r="W121" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA121" s="20" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B122" s="7">
         <v>122</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D122" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E122" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="I122" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J122" s="38"/>
       <c r="K122" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L122" s="38"/>
       <c r="M122" s="9" t="str" cm="1">
@@ -10099,50 +10099,50 @@
       </c>
       <c r="O122" s="14"/>
       <c r="P122" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q122" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S122" s="10"/>
       <c r="T122" s="10"/>
       <c r="U122" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="V122" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="V122" s="20" t="s">
+      <c r="W122" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA122" s="20" t="s">
         <v>462</v>
-      </c>
-      <c r="W122" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="AA122" s="20" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B123" s="7">
         <v>123</v>
       </c>
       <c r="C123" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I123" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K123" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="L123" s="37" t="s">
         <v>464</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I123" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K123" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="L123" s="37" t="s">
-        <v>465</v>
       </c>
       <c r="M123" s="9" t="str" cm="1">
         <f t="array" ref="M123">PAGE_NAME(A123)</f>
@@ -10154,36 +10154,36 @@
       </c>
       <c r="O123" s="14"/>
       <c r="P123" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q123" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V123" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="124" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B124" s="7">
         <v>124</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I124" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K124" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M124" s="9" t="str" cm="1">
         <f t="array" ref="M124">PAGE_NAME(A124)</f>
@@ -10195,45 +10195,45 @@
       </c>
       <c r="O124" s="14"/>
       <c r="P124" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q124" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U124" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="V124" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="V124" s="20" t="s">
+      <c r="W124" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA124" s="20" t="s">
         <v>469</v>
-      </c>
-      <c r="W124" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA124" s="20" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="125" spans="1:28" ht="68" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B125" s="7">
         <v>125</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I125" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K125" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M125" s="9" t="str" cm="1">
         <f t="array" ref="M125">PAGE_NAME(A125)</f>
@@ -10245,45 +10245,45 @@
       </c>
       <c r="O125" s="14"/>
       <c r="P125" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q125" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U125" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="V125" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="V125" s="20" t="s">
+      <c r="W125" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB125" s="20" t="s">
         <v>473</v>
-      </c>
-      <c r="W125" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB125" s="20" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="68" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B126" s="7">
         <v>126</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I126" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K126" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M126" s="9" t="str" cm="1">
         <f t="array" ref="M126">PAGE_NAME(A126)</f>
@@ -10295,42 +10295,42 @@
       </c>
       <c r="O126" s="14"/>
       <c r="P126" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q126" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U126" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="V126" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="V126" s="20" t="s">
-        <v>477</v>
-      </c>
       <c r="W126" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B127" s="7">
         <v>127</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I127" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K127" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M127" s="9" t="str" cm="1">
         <f t="array" ref="M127">PAGE_NAME(A127)</f>
@@ -10342,45 +10342,45 @@
       </c>
       <c r="O127" s="14"/>
       <c r="P127" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q127" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U127" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="V127" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="V127" s="20" t="s">
-        <v>480</v>
-      </c>
       <c r="W127" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:28" ht="136" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B128" s="7">
         <v>128</v>
       </c>
       <c r="C128" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I128" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K128" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L128" s="37" t="s">
         <v>481</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I128" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K128" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="L128" s="37" t="s">
-        <v>482</v>
       </c>
       <c r="M128" s="9" t="str" cm="1">
         <f t="array" ref="M128">PAGE_NAME(A128)</f>
@@ -10392,39 +10392,39 @@
       </c>
       <c r="O128" s="14"/>
       <c r="P128" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q128" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V128" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="AA128" s="20" t="s">
         <v>483</v>
-      </c>
-      <c r="AA128" s="20" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="129" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B129" s="7">
         <v>129</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K129" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M129" s="9" t="str" cm="1">
         <f t="array" ref="M129">PAGE_NAME(A129)</f>
@@ -10436,42 +10436,42 @@
       </c>
       <c r="O129" s="14"/>
       <c r="P129" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q129" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V129" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="AA129" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="AB129" s="20" t="s">
         <v>485</v>
-      </c>
-      <c r="AA129" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="AB129" s="20" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="130" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B130" s="7">
         <v>130</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I130" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K130" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M130" s="9" t="str" cm="1">
         <f t="array" ref="M130">PAGE_NAME(A130)</f>
@@ -10483,45 +10483,45 @@
       </c>
       <c r="O130" s="14"/>
       <c r="P130" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q130" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V130" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="AB130" s="20" t="s">
         <v>485</v>
-      </c>
-      <c r="AB130" s="20" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B131" s="7">
         <v>131</v>
       </c>
       <c r="C131" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I131" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J131" s="37" t="s">
         <v>489</v>
       </c>
-      <c r="D131" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I131" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J131" s="37" t="s">
-        <v>490</v>
-      </c>
       <c r="K131" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L131" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M131" s="9" t="str" cm="1">
         <f t="array" ref="M131">PAGE_NAME(A131)</f>
@@ -10533,45 +10533,45 @@
       </c>
       <c r="O131" s="14"/>
       <c r="P131" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q131" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="V131" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="Q131" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="V131" s="20" t="s">
+      <c r="AB131" s="20" t="s">
         <v>492</v>
-      </c>
-      <c r="AB131" s="20" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="132" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B132" s="7">
         <v>132</v>
       </c>
       <c r="C132" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I132" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J132" s="37" t="s">
         <v>489</v>
       </c>
-      <c r="D132" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I132" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J132" s="37" t="s">
-        <v>490</v>
-      </c>
       <c r="K132" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L132" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M132" s="9" t="str" cm="1">
         <f t="array" ref="M132">PAGE_NAME(A132)</f>
@@ -10583,40 +10583,40 @@
       </c>
       <c r="O132" s="14"/>
       <c r="P132" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q132" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="V132" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="Q132" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="V132" s="20" t="s">
+      <c r="AB132" s="20" t="s">
         <v>492</v>
-      </c>
-      <c r="AB132" s="20" t="s">
-        <v>493</v>
       </c>
       <c r="AC132"/>
     </row>
     <row r="133" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B133" s="7">
         <v>133</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I133" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K133" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M133" s="9" t="str" cm="1">
         <f t="array" ref="M133">PAGE_NAME(A133)</f>
@@ -10628,49 +10628,49 @@
       </c>
       <c r="O133" s="14"/>
       <c r="P133" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q133" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U133" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="V133" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="V133" s="20" t="s">
+      <c r="W133" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="X133" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB133" s="20" t="s">
         <v>496</v>
-      </c>
-      <c r="W133" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="X133" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB133" s="20" t="s">
-        <v>497</v>
       </c>
       <c r="AC133"/>
     </row>
     <row r="134" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B134" s="7">
         <v>134</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I134" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K134" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M134" s="9" t="str" cm="1">
         <f t="array" ref="M134">PAGE_NAME(A134)</f>
@@ -10682,46 +10682,46 @@
       </c>
       <c r="O134" s="14"/>
       <c r="P134" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q134" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U134" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V134" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="V134" s="20" t="s">
-        <v>500</v>
-      </c>
       <c r="W134" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X134" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC134"/>
     </row>
     <row r="135" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B135" s="7">
         <v>135</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I135" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K135" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M135" s="9" t="str" cm="1">
         <f t="array" ref="M135">PAGE_NAME(A135)</f>
@@ -10733,46 +10733,46 @@
       </c>
       <c r="O135" s="14"/>
       <c r="P135" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q135" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U135" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="V135" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="V135" s="20" t="s">
-        <v>503</v>
-      </c>
       <c r="W135" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC135"/>
     </row>
     <row r="136" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B136" s="7">
         <v>136</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I136" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K136" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L136" s="37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M136" s="9" t="str" cm="1">
         <f t="array" ref="M136">PAGE_NAME(A136)</f>
@@ -10784,39 +10784,39 @@
       </c>
       <c r="O136" s="14"/>
       <c r="P136" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q136" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V136" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB136" s="20" t="s">
         <v>505</v>
-      </c>
-      <c r="AB136" s="20" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B137" s="7">
         <v>137</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I137" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K137" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M137" s="9" t="str" cm="1">
         <f t="array" ref="M137">PAGE_NAME(A137)</f>
@@ -10828,36 +10828,36 @@
       </c>
       <c r="O137" s="14"/>
       <c r="U137" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V137" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="AA137" s="20" t="s">
         <v>508</v>
-      </c>
-      <c r="AA137" s="20" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B138" s="7">
         <v>138</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I138" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K138" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M138" s="9" t="str" cm="1">
         <f t="array" ref="M138">PAGE_NAME(A138)</f>
@@ -10869,33 +10869,33 @@
       </c>
       <c r="O138" s="14"/>
       <c r="U138" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="V138" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B139" s="7">
         <v>139</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I139" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K139" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M139" s="9" t="str" cm="1">
         <f t="array" ref="M139">PAGE_NAME(A139)</f>
@@ -10907,10 +10907,10 @@
       </c>
       <c r="O139" s="14"/>
       <c r="U139" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="V139" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.2">
@@ -13166,7 +13166,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B1" s="54"/>
     </row>
@@ -13176,76 +13176,76 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>531</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -13272,67 +13272,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -13341,6 +13341,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -13594,15 +13603,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -13617,6 +13617,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6384F4-7D50-4B36-A6F8-C77244590866}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13632,14 +13640,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/lib/subscriptions_test_kit/requirements/hl7.fhir.uv.subscriptions_1.1.0_requirements.xlsx
+++ b/lib/subscriptions_test_kit/requirements/hl7.fhir.uv.subscriptions_1.1.0_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/subscriptions-test-kit/lib/subscriptions_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E2D375-1C7E-224E-BBE3-EEA668788B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC91D447-8F1B-CC46-B826-CD3AFFEC8605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34560" windowHeight="19980" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1315,9 +1315,6 @@
   </si>
   <si>
     <t>SIMULATED: Inferno will add headers from the Subscription to notifications</t>
-  </si>
-  <si>
-    <t>The bundle SHALL comply with the Backported R5 Notification Bundle Profile.</t>
   </si>
   <si>
     <t>Verify using the HL7 validator.</t>
@@ -3128,6 +3125,9 @@
   </si>
   <si>
     <t>Actors*</t>
+  </si>
+  <si>
+    <t>The [server's event notification] bundle SHALL comply with the [Backported R5 Notification Bundle Profile](https://hl7.org/fhir/uv/subscriptions-backport/STU1.1/StructureDefinition-backport-subscription-notification.html).</t>
   </si>
 </sst>
 </file>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="46" t="s">
@@ -4093,13 +4093,14 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="7"/>
-    <col min="3" max="3" width="41" style="8" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="7"/>
+    <col min="3" max="3" width="44.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="7"/>
     <col min="6" max="6" width="13.33203125" style="8" customWidth="1"/>
@@ -4126,12 +4127,12 @@
     <col min="34" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" s="5" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>10</v>
@@ -4140,7 +4141,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
@@ -4215,11 +4216,11 @@
       <c r="AI1" s="6"/>
     </row>
     <row r="2" spans="1:45" s="5" customFormat="1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="7">
-        <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>36</v>
@@ -4246,15 +4247,15 @@
         <v>40</v>
       </c>
       <c r="M2" s="9" t="str" cm="1">
-        <f t="array" ref="M2">PAGE_NAME(A2)</f>
+        <f t="array" ref="M2">PAGE_NAME(B2)</f>
         <v>components</v>
       </c>
       <c r="N2" s="9" t="str" cm="1">
-        <f t="array" ref="N2">SECTION_NAME(A2)</f>
+        <f t="array" ref="N2">SECTION_NAME(B2)</f>
         <v>subscription-topics-in-r4</v>
       </c>
       <c r="O2" s="14" t="str" cm="1">
-        <f t="array" ref="O2">IFERROR(FIND_DUPLICATES(C2,B2,$C$2:$C$348,$B$2:$B$348,0.1),"")</f>
+        <f t="array" ref="O2">IFERROR(FIND_DUPLICATES(C2,#REF!,$C$2:$C$348,#REF!,0.1),"")</f>
         <v/>
       </c>
       <c r="P2" s="10" t="s">
@@ -4292,11 +4293,11 @@
       <c r="AM2" s="17"/>
     </row>
     <row r="3" spans="1:45" s="5" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="7">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" s="7">
-        <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>49</v>
@@ -4323,11 +4324,11 @@
         <v>52</v>
       </c>
       <c r="M3" s="9" t="str" cm="1">
-        <f t="array" ref="M3">PAGE_NAME(A3)</f>
+        <f t="array" ref="M3">PAGE_NAME(B3)</f>
         <v>components</v>
       </c>
       <c r="N3" s="9" t="str" cm="1">
-        <f t="array" ref="N3">SECTION_NAME(A3)</f>
+        <f t="array" ref="N3">SECTION_NAME(B3)</f>
         <v>subscription-topics-in-r4</v>
       </c>
       <c r="O3" s="24" t="s">
@@ -4358,11 +4359,11 @@
       <c r="AM3" s="17"/>
     </row>
     <row r="4" spans="1:45" ht="102" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="7">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" s="7">
-        <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>56</v>
@@ -4383,11 +4384,11 @@
         <v>57</v>
       </c>
       <c r="M4" s="9" t="str" cm="1">
-        <f t="array" ref="M4">PAGE_NAME(A4)</f>
+        <f t="array" ref="M4">PAGE_NAME(B4)</f>
         <v>components</v>
       </c>
       <c r="N4" s="9" t="str" cm="1">
-        <f t="array" ref="N4">SECTION_NAME(A4)</f>
+        <f t="array" ref="N4">SECTION_NAME(B4)</f>
         <v>subscription-topics-in-r4</v>
       </c>
       <c r="O4" s="14"/>
@@ -4419,11 +4420,11 @@
       <c r="AS4" s="5"/>
     </row>
     <row r="5" spans="1:45" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="7">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="B5" s="7">
-        <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>60</v>
@@ -4432,11 +4433,11 @@
         <v>61</v>
       </c>
       <c r="M5" s="9" t="str" cm="1">
-        <f t="array" ref="M5">PAGE_NAME(A5)</f>
+        <f t="array" ref="M5">PAGE_NAME(B5)</f>
         <v>components</v>
       </c>
       <c r="N5" s="9" t="str" cm="1">
-        <f t="array" ref="N5">SECTION_NAME(A5)</f>
+        <f t="array" ref="N5">SECTION_NAME(B5)</f>
         <v>subscriptions</v>
       </c>
       <c r="O5" s="14"/>
@@ -4456,11 +4457,11 @@
       <c r="AO5" s="5"/>
     </row>
     <row r="6" spans="1:45" ht="170" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="7">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="B6" s="7">
-        <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>65</v>
@@ -4469,11 +4470,11 @@
         <v>61</v>
       </c>
       <c r="M6" s="9" t="str" cm="1">
-        <f t="array" ref="M6">PAGE_NAME(A6)</f>
+        <f t="array" ref="M6">PAGE_NAME(B6)</f>
         <v>components</v>
       </c>
       <c r="N6" s="9" t="str" cm="1">
-        <f t="array" ref="N6">SECTION_NAME(A6)</f>
+        <f t="array" ref="N6">SECTION_NAME(B6)</f>
         <v>subscriptions-and-fhir-versions</v>
       </c>
       <c r="O6" s="14"/>
@@ -4486,11 +4487,11 @@
       <c r="AC6"/>
     </row>
     <row r="7" spans="1:45" ht="153" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B7" s="7">
-        <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>69</v>
@@ -4508,11 +4509,11 @@
         <v>39</v>
       </c>
       <c r="M7" s="9" t="str" cm="1">
-        <f t="array" ref="M7">PAGE_NAME(A7)</f>
+        <f t="array" ref="M7">PAGE_NAME(B7)</f>
         <v>components</v>
       </c>
       <c r="N7" s="9" t="str" cm="1">
-        <f t="array" ref="N7">SECTION_NAME(A7)</f>
+        <f t="array" ref="N7">SECTION_NAME(B7)</f>
         <v>accepting-subscription-requests</v>
       </c>
       <c r="O7" s="14"/>
@@ -4540,11 +4541,11 @@
       <c r="AC7"/>
     </row>
     <row r="8" spans="1:45" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="7">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B8" s="7">
-        <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>78</v>
@@ -4562,11 +4563,11 @@
         <v>39</v>
       </c>
       <c r="M8" s="9" t="str" cm="1">
-        <f t="array" ref="M8">PAGE_NAME(A8)</f>
+        <f t="array" ref="M8">PAGE_NAME(B8)</f>
         <v>components</v>
       </c>
       <c r="N8" s="9" t="str" cm="1">
-        <f t="array" ref="N8">SECTION_NAME(A8)</f>
+        <f t="array" ref="N8">SECTION_NAME(B8)</f>
         <v>accepting-subscription-requests</v>
       </c>
       <c r="O8" s="14"/>
@@ -4588,11 +4589,11 @@
       <c r="AC8"/>
     </row>
     <row r="9" spans="1:45" ht="85" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="7">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B9" s="7">
-        <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>83</v>
@@ -4610,11 +4611,11 @@
         <v>39</v>
       </c>
       <c r="M9" s="9" t="str" cm="1">
-        <f t="array" ref="M9">PAGE_NAME(A9)</f>
+        <f t="array" ref="M9">PAGE_NAME(B9)</f>
         <v>components</v>
       </c>
       <c r="N9" s="9" t="str" cm="1">
-        <f t="array" ref="N9">SECTION_NAME(A9)</f>
+        <f t="array" ref="N9">SECTION_NAME(B9)</f>
         <v>accepting-subscription-requests</v>
       </c>
       <c r="O9" s="14"/>
@@ -4636,11 +4637,11 @@
       <c r="AC9"/>
     </row>
     <row r="10" spans="1:45" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="7">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B10" s="7">
-        <v>10</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>86</v>
@@ -4658,11 +4659,11 @@
         <v>39</v>
       </c>
       <c r="M10" s="9" t="str" cm="1">
-        <f t="array" ref="M10">PAGE_NAME(A10)</f>
+        <f t="array" ref="M10">PAGE_NAME(B10)</f>
         <v>components</v>
       </c>
       <c r="N10" s="9" t="str" cm="1">
-        <f t="array" ref="N10">SECTION_NAME(A10)</f>
+        <f t="array" ref="N10">SECTION_NAME(B10)</f>
         <v>accepting-subscription-requests</v>
       </c>
       <c r="O10" s="14"/>
@@ -4687,11 +4688,11 @@
       <c r="AC10"/>
     </row>
     <row r="11" spans="1:45" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="7">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B11" s="7">
-        <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>90</v>
@@ -4709,11 +4710,11 @@
         <v>39</v>
       </c>
       <c r="M11" s="9" t="str" cm="1">
-        <f t="array" ref="M11">PAGE_NAME(A11)</f>
+        <f t="array" ref="M11">PAGE_NAME(B11)</f>
         <v>components</v>
       </c>
       <c r="N11" s="9" t="str" cm="1">
-        <f t="array" ref="N11">SECTION_NAME(A11)</f>
+        <f t="array" ref="N11">SECTION_NAME(B11)</f>
         <v>accepting-subscription-requests</v>
       </c>
       <c r="O11" s="14"/>
@@ -4738,11 +4739,11 @@
       <c r="AC11"/>
     </row>
     <row r="12" spans="1:45" ht="85" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="7">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B12" s="7">
-        <v>12</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>94</v>
@@ -4760,11 +4761,11 @@
         <v>39</v>
       </c>
       <c r="M12" s="9" t="str" cm="1">
-        <f t="array" ref="M12">PAGE_NAME(A12)</f>
+        <f t="array" ref="M12">PAGE_NAME(B12)</f>
         <v>components</v>
       </c>
       <c r="N12" s="9" t="str" cm="1">
-        <f t="array" ref="N12">SECTION_NAME(A12)</f>
+        <f t="array" ref="N12">SECTION_NAME(B12)</f>
         <v>accepting-subscription-requests</v>
       </c>
       <c r="O12" s="14"/>
@@ -4786,11 +4787,11 @@
       <c r="AC12"/>
     </row>
     <row r="13" spans="1:45" ht="85" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="7">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B13" s="7">
-        <v>13</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>98</v>
@@ -4808,11 +4809,11 @@
         <v>39</v>
       </c>
       <c r="M13" s="9" t="str" cm="1">
-        <f t="array" ref="M13">PAGE_NAME(A13)</f>
+        <f t="array" ref="M13">PAGE_NAME(B13)</f>
         <v>components</v>
       </c>
       <c r="N13" s="9" t="str" cm="1">
-        <f t="array" ref="N13">SECTION_NAME(A13)</f>
+        <f t="array" ref="N13">SECTION_NAME(B13)</f>
         <v>accepting-subscription-requests</v>
       </c>
       <c r="O13" s="14"/>
@@ -4834,11 +4835,11 @@
       <c r="AC13"/>
     </row>
     <row r="14" spans="1:45" ht="119" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="7">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="B14" s="7">
-        <v>14</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>101</v>
@@ -4856,11 +4857,11 @@
         <v>39</v>
       </c>
       <c r="M14" s="9" t="str" cm="1">
-        <f t="array" ref="M14">PAGE_NAME(A14)</f>
+        <f t="array" ref="M14">PAGE_NAME(B14)</f>
         <v>components</v>
       </c>
       <c r="N14" s="9" t="str" cm="1">
-        <f t="array" ref="N14">SECTION_NAME(A14)</f>
+        <f t="array" ref="N14">SECTION_NAME(B14)</f>
         <v>subscription-notifications</v>
       </c>
       <c r="O14" s="14"/>
@@ -4888,11 +4889,11 @@
       <c r="AC14"/>
     </row>
     <row r="15" spans="1:45" ht="272" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="7">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="B15" s="7">
-        <v>15</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>108</v>
@@ -4910,11 +4911,11 @@
         <v>39</v>
       </c>
       <c r="M15" s="9" t="str" cm="1">
-        <f t="array" ref="M15">PAGE_NAME(A15)</f>
+        <f t="array" ref="M15">PAGE_NAME(B15)</f>
         <v>components</v>
       </c>
       <c r="N15" s="9" t="str" cm="1">
-        <f t="array" ref="N15">SECTION_NAME(A15)</f>
+        <f t="array" ref="N15">SECTION_NAME(B15)</f>
         <v>subscription-notifications</v>
       </c>
       <c r="O15" s="14"/>
@@ -4942,11 +4943,11 @@
       <c r="AC15"/>
     </row>
     <row r="16" spans="1:45" ht="221" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="7">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="B16" s="7">
-        <v>16</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>111</v>
@@ -4970,11 +4971,11 @@
         <v>112</v>
       </c>
       <c r="M16" s="9" t="str" cm="1">
-        <f t="array" ref="M16">PAGE_NAME(A16)</f>
+        <f t="array" ref="M16">PAGE_NAME(B16)</f>
         <v>components</v>
       </c>
       <c r="N16" s="9" t="str" cm="1">
-        <f t="array" ref="N16">SECTION_NAME(A16)</f>
+        <f t="array" ref="N16">SECTION_NAME(B16)</f>
         <v>scoping-responsibilities</v>
       </c>
       <c r="O16" s="14"/>
@@ -4993,11 +4994,11 @@
       <c r="AC16"/>
     </row>
     <row r="17" spans="1:29" ht="204" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="7">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="B17" s="7">
-        <v>17</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>116</v>
@@ -5021,11 +5022,11 @@
         <v>118</v>
       </c>
       <c r="M17" s="9" t="str" cm="1">
-        <f t="array" ref="M17">PAGE_NAME(A17)</f>
+        <f t="array" ref="M17">PAGE_NAME(B17)</f>
         <v>components</v>
       </c>
       <c r="N17" s="9" t="str" cm="1">
-        <f t="array" ref="N17">SECTION_NAME(A17)</f>
+        <f t="array" ref="N17">SECTION_NAME(B17)</f>
         <v>scoping-responsibilities</v>
       </c>
       <c r="O17" s="14"/>
@@ -5044,11 +5045,11 @@
       <c r="AC17"/>
     </row>
     <row r="18" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="7">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="B18" s="7">
-        <v>18</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>120</v>
@@ -5069,11 +5070,11 @@
         <v>121</v>
       </c>
       <c r="M18" s="9" t="str" cm="1">
-        <f t="array" ref="M18">PAGE_NAME(A18)</f>
+        <f t="array" ref="M18">PAGE_NAME(B18)</f>
         <v>workflow</v>
       </c>
       <c r="N18" s="9" t="str" cm="1">
-        <f t="array" ref="N18">SECTION_NAME(A18)</f>
+        <f t="array" ref="N18">SECTION_NAME(B18)</f>
         <v>workflow-fhir-r4</v>
       </c>
       <c r="O18" s="14"/>
@@ -5095,11 +5096,11 @@
       <c r="AC18"/>
     </row>
     <row r="19" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="7">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="B19" s="7">
-        <v>19</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>125</v>
@@ -5120,11 +5121,11 @@
         <v>121</v>
       </c>
       <c r="M19" s="9" t="str" cm="1">
-        <f t="array" ref="M19">PAGE_NAME(A19)</f>
+        <f t="array" ref="M19">PAGE_NAME(B19)</f>
         <v>workflow</v>
       </c>
       <c r="N19" s="9" t="str" cm="1">
-        <f t="array" ref="N19">SECTION_NAME(A19)</f>
+        <f t="array" ref="N19">SECTION_NAME(B19)</f>
         <v>workflow-fhir-r4</v>
       </c>
       <c r="O19" s="14"/>
@@ -5149,11 +5150,11 @@
       <c r="AC19"/>
     </row>
     <row r="20" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="7">
+        <v>20</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="B20" s="7">
-        <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>127</v>
@@ -5171,11 +5172,11 @@
         <v>39</v>
       </c>
       <c r="M20" s="9" t="str" cm="1">
-        <f t="array" ref="M20">PAGE_NAME(A20)</f>
+        <f t="array" ref="M20">PAGE_NAME(B20)</f>
         <v>workflow</v>
       </c>
       <c r="N20" s="9" t="str" cm="1">
-        <f t="array" ref="N20">SECTION_NAME(A20)</f>
+        <f t="array" ref="N20">SECTION_NAME(B20)</f>
         <v>workflow-fhir-r4</v>
       </c>
       <c r="O20" s="14"/>
@@ -5203,11 +5204,11 @@
       <c r="AC20"/>
     </row>
     <row r="21" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="7">
+        <v>21</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="B21" s="7">
-        <v>21</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>133</v>
@@ -5225,11 +5226,11 @@
         <v>39</v>
       </c>
       <c r="M21" s="9" t="str" cm="1">
-        <f t="array" ref="M21">PAGE_NAME(A21)</f>
+        <f t="array" ref="M21">PAGE_NAME(B21)</f>
         <v>workflow</v>
       </c>
       <c r="N21" s="9" t="str" cm="1">
-        <f t="array" ref="N21">SECTION_NAME(A21)</f>
+        <f t="array" ref="N21">SECTION_NAME(B21)</f>
         <v>workflow-fhir-r4</v>
       </c>
       <c r="O21" s="14"/>
@@ -5257,11 +5258,11 @@
       <c r="AC21"/>
     </row>
     <row r="22" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="7">
+        <v>22</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="B22" s="7">
-        <v>22</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>136</v>
@@ -5282,11 +5283,11 @@
         <v>121</v>
       </c>
       <c r="M22" s="9" t="str" cm="1">
-        <f t="array" ref="M22">PAGE_NAME(A22)</f>
+        <f t="array" ref="M22">PAGE_NAME(B22)</f>
         <v>workflow</v>
       </c>
       <c r="N22" s="9" t="str" cm="1">
-        <f t="array" ref="N22">SECTION_NAME(A22)</f>
+        <f t="array" ref="N22">SECTION_NAME(B22)</f>
         <v>workflow-fhir-r4</v>
       </c>
       <c r="O22" s="14"/>
@@ -5305,11 +5306,11 @@
       <c r="AC22"/>
     </row>
     <row r="23" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="7">
+        <v>23</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="B23" s="7">
-        <v>23</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>139</v>
@@ -5327,11 +5328,11 @@
         <v>39</v>
       </c>
       <c r="M23" s="9" t="str" cm="1">
-        <f t="array" ref="M23">PAGE_NAME(A23)</f>
+        <f t="array" ref="M23">PAGE_NAME(B23)</f>
         <v>channels</v>
       </c>
       <c r="N23" s="9" t="str" cm="1">
-        <f t="array" ref="N23">SECTION_NAME(A23)</f>
+        <f t="array" ref="N23">SECTION_NAME(B23)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O23" s="14"/>
@@ -5350,11 +5351,11 @@
       <c r="AC23"/>
     </row>
     <row r="24" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="7">
+        <v>24</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="B24" s="7">
-        <v>24</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>144</v>
@@ -5372,11 +5373,11 @@
         <v>39</v>
       </c>
       <c r="M24" s="9" t="str" cm="1">
-        <f t="array" ref="M24">PAGE_NAME(A24)</f>
+        <f t="array" ref="M24">PAGE_NAME(B24)</f>
         <v>channels</v>
       </c>
       <c r="N24" s="9" t="str" cm="1">
-        <f t="array" ref="N24">SECTION_NAME(A24)</f>
+        <f t="array" ref="N24">SECTION_NAME(B24)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O24" s="14"/>
@@ -5395,11 +5396,11 @@
       <c r="AC24"/>
     </row>
     <row r="25" spans="1:29" ht="136" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="7">
+        <v>25</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="B25" s="7">
-        <v>25</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>147</v>
@@ -5417,11 +5418,11 @@
         <v>39</v>
       </c>
       <c r="M25" s="9" t="str" cm="1">
-        <f t="array" ref="M25">PAGE_NAME(A25)</f>
+        <f t="array" ref="M25">PAGE_NAME(B25)</f>
         <v>channels</v>
       </c>
       <c r="N25" s="9" t="str" cm="1">
-        <f t="array" ref="N25">SECTION_NAME(A25)</f>
+        <f t="array" ref="N25">SECTION_NAME(B25)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O25" s="14"/>
@@ -5446,11 +5447,11 @@
       <c r="AC25"/>
     </row>
     <row r="26" spans="1:29" ht="153" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="7">
+        <v>26</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="B26" s="7">
-        <v>26</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>151</v>
@@ -5468,11 +5469,11 @@
         <v>39</v>
       </c>
       <c r="M26" s="9" t="str" cm="1">
-        <f t="array" ref="M26">PAGE_NAME(A26)</f>
+        <f t="array" ref="M26">PAGE_NAME(B26)</f>
         <v>channels</v>
       </c>
       <c r="N26" s="9" t="str" cm="1">
-        <f t="array" ref="N26">SECTION_NAME(A26)</f>
+        <f t="array" ref="N26">SECTION_NAME(B26)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O26" s="14"/>
@@ -5503,11 +5504,11 @@
       <c r="AC26"/>
     </row>
     <row r="27" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="7">
+        <v>27</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="B27" s="7">
-        <v>27</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>156</v>
@@ -5525,11 +5526,11 @@
         <v>39</v>
       </c>
       <c r="M27" s="9" t="str" cm="1">
-        <f t="array" ref="M27">PAGE_NAME(A27)</f>
+        <f t="array" ref="M27">PAGE_NAME(B27)</f>
         <v>channels</v>
       </c>
       <c r="N27" s="9" t="str" cm="1">
-        <f t="array" ref="N27">SECTION_NAME(A27)</f>
+        <f t="array" ref="N27">SECTION_NAME(B27)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O27" s="14"/>
@@ -5556,15 +5557,15 @@
       </c>
       <c r="AC27"/>
     </row>
-    <row r="28" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:29" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>28</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="7">
-        <v>28</v>
-      </c>
       <c r="C28" s="8" t="s">
-        <v>159</v>
+        <v>537</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>70</v>
@@ -5579,11 +5580,11 @@
         <v>39</v>
       </c>
       <c r="M28" s="9" t="str" cm="1">
-        <f t="array" ref="M28">PAGE_NAME(A28)</f>
+        <f t="array" ref="M28">PAGE_NAME(B28)</f>
         <v>channels</v>
       </c>
       <c r="N28" s="9" t="str" cm="1">
-        <f t="array" ref="N28">SECTION_NAME(A28)</f>
+        <f t="array" ref="N28">SECTION_NAME(B28)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O28" s="14"/>
@@ -5594,7 +5595,7 @@
         <v>103</v>
       </c>
       <c r="U28" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V28" s="20" t="s">
         <v>105</v>
@@ -5611,14 +5612,14 @@
       <c r="AC28"/>
     </row>
     <row r="29" spans="1:29" ht="102" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="7">
+        <v>29</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="7">
-        <v>29</v>
-      </c>
       <c r="C29" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>70</v>
@@ -5633,11 +5634,11 @@
         <v>39</v>
       </c>
       <c r="M29" s="9" t="str" cm="1">
-        <f t="array" ref="M29">PAGE_NAME(A29)</f>
+        <f t="array" ref="M29">PAGE_NAME(B29)</f>
         <v>channels</v>
       </c>
       <c r="N29" s="9" t="str" cm="1">
-        <f t="array" ref="N29">SECTION_NAME(A29)</f>
+        <f t="array" ref="N29">SECTION_NAME(B29)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O29" s="14"/>
@@ -5648,10 +5649,10 @@
         <v>141</v>
       </c>
       <c r="U29" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="V29" s="20" t="s">
         <v>162</v>
-      </c>
-      <c r="V29" s="20" t="s">
-        <v>163</v>
       </c>
       <c r="W29" s="20" t="s">
         <v>131</v>
@@ -5665,14 +5666,14 @@
       <c r="AC29"/>
     </row>
     <row r="30" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="7">
+        <v>30</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="7">
-        <v>30</v>
-      </c>
       <c r="C30" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>70</v>
@@ -5687,11 +5688,11 @@
         <v>39</v>
       </c>
       <c r="M30" s="9" t="str" cm="1">
-        <f t="array" ref="M30">PAGE_NAME(A30)</f>
+        <f t="array" ref="M30">PAGE_NAME(B30)</f>
         <v>channels</v>
       </c>
       <c r="N30" s="9" t="str" cm="1">
-        <f t="array" ref="N30">SECTION_NAME(A30)</f>
+        <f t="array" ref="N30">SECTION_NAME(B30)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O30" s="14"/>
@@ -5699,13 +5700,13 @@
         <v>140</v>
       </c>
       <c r="Q30" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="U30" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="U30" s="20" t="s">
-        <v>166</v>
-      </c>
       <c r="V30" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W30" s="20" t="s">
         <v>131</v>
@@ -5719,14 +5720,14 @@
       <c r="AC30"/>
     </row>
     <row r="31" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="7">
+        <v>31</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="7">
-        <v>31</v>
-      </c>
       <c r="C31" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>70</v>
@@ -5741,11 +5742,11 @@
         <v>39</v>
       </c>
       <c r="M31" s="9" t="str" cm="1">
-        <f t="array" ref="M31">PAGE_NAME(A31)</f>
+        <f t="array" ref="M31">PAGE_NAME(B31)</f>
         <v>channels</v>
       </c>
       <c r="N31" s="9" t="str" cm="1">
-        <f t="array" ref="N31">SECTION_NAME(A31)</f>
+        <f t="array" ref="N31">SECTION_NAME(B31)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O31" s="14"/>
@@ -5753,10 +5754,10 @@
         <v>140</v>
       </c>
       <c r="Q31" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U31" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="V31" s="20" t="s">
         <v>135</v>
@@ -5773,14 +5774,14 @@
       <c r="AC31"/>
     </row>
     <row r="32" spans="1:29" ht="102" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="7">
+        <v>32</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="B32" s="7">
-        <v>32</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>79</v>
@@ -5795,25 +5796,25 @@
         <v>39</v>
       </c>
       <c r="M32" s="9" t="str" cm="1">
-        <f t="array" ref="M32">PAGE_NAME(A32)</f>
+        <f t="array" ref="M32">PAGE_NAME(B32)</f>
         <v>channels</v>
       </c>
       <c r="N32" s="9" t="str" cm="1">
-        <f t="array" ref="N32">SECTION_NAME(A32)</f>
+        <f t="array" ref="N32">SECTION_NAME(B32)</f>
         <v>security-notes</v>
       </c>
       <c r="O32" s="14"/>
       <c r="P32" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q32" s="20" t="s">
         <v>141</v>
       </c>
       <c r="U32" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="V32" s="20" t="s">
         <v>172</v>
-      </c>
-      <c r="V32" s="20" t="s">
-        <v>173</v>
       </c>
       <c r="W32" s="33" t="s">
         <v>93</v>
@@ -5822,14 +5823,14 @@
       <c r="AC32"/>
     </row>
     <row r="33" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="7">
+        <v>33</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="B33" s="7">
-        <v>33</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>37</v>
@@ -5847,34 +5848,34 @@
         <v>121</v>
       </c>
       <c r="M33" s="9" t="str" cm="1">
-        <f t="array" ref="M33">PAGE_NAME(A33)</f>
+        <f t="array" ref="M33">PAGE_NAME(B33)</f>
         <v>notifications</v>
       </c>
       <c r="N33" s="9" t="str" cm="1">
-        <f t="array" ref="N33">SECTION_NAME(A33)</f>
+        <f t="array" ref="N33">SECTION_NAME(B33)</f>
         <v>event-notifications-and-what-to-include</v>
       </c>
       <c r="O33" s="14"/>
       <c r="P33" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q33" s="20" t="s">
         <v>103</v>
       </c>
       <c r="V33" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC33"/>
+    </row>
+    <row r="34" spans="1:29" ht="85" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>34</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="AC33"/>
-    </row>
-    <row r="34" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="B34" s="7">
-        <v>34</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>37</v>
@@ -5892,34 +5893,34 @@
         <v>121</v>
       </c>
       <c r="M34" s="9" t="str" cm="1">
-        <f t="array" ref="M34">PAGE_NAME(A34)</f>
+        <f t="array" ref="M34">PAGE_NAME(B34)</f>
         <v>notifications</v>
       </c>
       <c r="N34" s="9" t="str" cm="1">
-        <f t="array" ref="N34">SECTION_NAME(A34)</f>
+        <f t="array" ref="N34">SECTION_NAME(B34)</f>
         <v>additional-resources</v>
       </c>
       <c r="O34" s="14"/>
       <c r="P34" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q34" s="20" t="s">
         <v>103</v>
       </c>
       <c r="V34" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC34"/>
+    </row>
+    <row r="35" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>35</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="AC34"/>
-    </row>
-    <row r="35" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B35" s="7">
-        <v>35</v>
-      </c>
       <c r="C35" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>70</v>
@@ -5934,22 +5935,22 @@
         <v>39</v>
       </c>
       <c r="M35" s="9" t="str" cm="1">
-        <f t="array" ref="M35">PAGE_NAME(A35)</f>
+        <f t="array" ref="M35">PAGE_NAME(B35)</f>
         <v>notifications</v>
       </c>
       <c r="N35" s="9" t="str" cm="1">
-        <f t="array" ref="N35">SECTION_NAME(A35)</f>
+        <f t="array" ref="N35">SECTION_NAME(B35)</f>
         <v>additional-resources</v>
       </c>
       <c r="O35" s="14"/>
       <c r="P35" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q35" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U35" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V35" s="20" t="s">
         <v>105</v>
@@ -5963,14 +5964,14 @@
       <c r="AC35"/>
     </row>
     <row r="36" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="7">
+        <v>36</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="B36" s="7">
-        <v>36</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>79</v>
@@ -5985,22 +5986,22 @@
         <v>39</v>
       </c>
       <c r="M36" s="9" t="str" cm="1">
-        <f t="array" ref="M36">PAGE_NAME(A36)</f>
+        <f t="array" ref="M36">PAGE_NAME(B36)</f>
         <v>payloads</v>
       </c>
       <c r="N36" s="9" t="str" cm="1">
-        <f t="array" ref="N36">SECTION_NAME(A36)</f>
+        <f t="array" ref="N36">SECTION_NAME(B36)</f>
         <v>payload-types</v>
       </c>
       <c r="O36" s="14"/>
       <c r="P36" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q36" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U36" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V36" s="20" t="s">
         <v>96</v>
@@ -6011,14 +6012,14 @@
       <c r="AC36"/>
     </row>
     <row r="37" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B37" s="7">
+      <c r="A37" s="7">
         <v>37</v>
       </c>
+      <c r="B37" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="C37" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>37</v>
@@ -6036,37 +6037,37 @@
         <v>121</v>
       </c>
       <c r="M37" s="9" t="str" cm="1">
-        <f t="array" ref="M37">PAGE_NAME(A37)</f>
+        <f t="array" ref="M37">PAGE_NAME(B37)</f>
         <v>payloads</v>
       </c>
       <c r="N37" s="9" t="str" cm="1">
-        <f t="array" ref="N37">SECTION_NAME(A37)</f>
+        <f t="array" ref="N37">SECTION_NAME(B37)</f>
         <v>payload-types</v>
       </c>
       <c r="O37" s="14"/>
       <c r="P37" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q37" s="20" t="s">
         <v>72</v>
       </c>
       <c r="V37" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC37"/>
+    </row>
+    <row r="38" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>38</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="AC37"/>
-    </row>
-    <row r="38" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="7">
-        <v>38</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>38</v>
@@ -6078,22 +6079,22 @@
         <v>39</v>
       </c>
       <c r="M38" s="9" t="str" cm="1">
-        <f t="array" ref="M38">PAGE_NAME(A38)</f>
+        <f t="array" ref="M38">PAGE_NAME(B38)</f>
         <v>payloads</v>
       </c>
       <c r="N38" s="9" t="str" cm="1">
-        <f t="array" ref="N38">SECTION_NAME(A38)</f>
+        <f t="array" ref="N38">SECTION_NAME(B38)</f>
         <v>empty</v>
       </c>
       <c r="O38" s="14"/>
       <c r="P38" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q38" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="Q38" s="20" t="s">
+      <c r="U38" s="20" t="s">
         <v>193</v>
-      </c>
-      <c r="U38" s="20" t="s">
-        <v>194</v>
       </c>
       <c r="V38" s="20" t="s">
         <v>105</v>
@@ -6107,17 +6108,17 @@
       <c r="AC38"/>
     </row>
     <row r="39" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B39" s="7">
-        <v>39</v>
+      <c r="A39" s="7">
+        <v>39</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>38</v>
@@ -6129,22 +6130,22 @@
         <v>39</v>
       </c>
       <c r="M39" s="9" t="str" cm="1">
-        <f t="array" ref="M39">PAGE_NAME(A39)</f>
+        <f t="array" ref="M39">PAGE_NAME(B39)</f>
         <v>payloads</v>
       </c>
       <c r="N39" s="9" t="str" cm="1">
-        <f t="array" ref="N39">SECTION_NAME(A39)</f>
+        <f t="array" ref="N39">SECTION_NAME(B39)</f>
         <v>empty</v>
       </c>
       <c r="O39" s="14"/>
       <c r="P39" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q39" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="Q39" s="20" t="s">
-        <v>193</v>
-      </c>
       <c r="U39" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V39" s="20" t="s">
         <v>105</v>
@@ -6158,14 +6159,14 @@
       <c r="AC39"/>
     </row>
     <row r="40" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="7">
+        <v>40</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="B40" s="7">
-        <v>40</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>70</v>
@@ -6180,22 +6181,22 @@
         <v>39</v>
       </c>
       <c r="M40" s="9" t="str" cm="1">
-        <f t="array" ref="M40">PAGE_NAME(A40)</f>
+        <f t="array" ref="M40">PAGE_NAME(B40)</f>
         <v>payloads</v>
       </c>
       <c r="N40" s="9" t="str" cm="1">
-        <f t="array" ref="N40">SECTION_NAME(A40)</f>
+        <f t="array" ref="N40">SECTION_NAME(B40)</f>
         <v>id-only</v>
       </c>
       <c r="O40" s="14"/>
       <c r="P40" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q40" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="Q40" s="20" t="s">
+      <c r="U40" s="20" t="s">
         <v>200</v>
-      </c>
-      <c r="U40" s="20" t="s">
-        <v>201</v>
       </c>
       <c r="V40" s="33" t="s">
         <v>105</v>
@@ -6209,14 +6210,14 @@
       <c r="AC40"/>
     </row>
     <row r="41" spans="1:29" ht="153" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B41" s="7">
+      <c r="A41" s="7">
         <v>41</v>
       </c>
+      <c r="B41" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="C41" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>37</v>
@@ -6234,34 +6235,34 @@
         <v>121</v>
       </c>
       <c r="M41" s="9" t="str" cm="1">
-        <f t="array" ref="M41">PAGE_NAME(A41)</f>
+        <f t="array" ref="M41">PAGE_NAME(B41)</f>
         <v>payloads</v>
       </c>
       <c r="N41" s="9" t="str" cm="1">
-        <f t="array" ref="N41">SECTION_NAME(A41)</f>
+        <f t="array" ref="N41">SECTION_NAME(B41)</f>
         <v>id-only</v>
       </c>
       <c r="O41" s="14"/>
       <c r="P41" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q41" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="Q41" s="20" t="s">
-        <v>200</v>
-      </c>
       <c r="V41" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC41"/>
     </row>
     <row r="42" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B42" s="7">
+      <c r="A42" s="7">
         <v>42</v>
       </c>
+      <c r="B42" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="C42" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>70</v>
@@ -6276,22 +6277,22 @@
         <v>39</v>
       </c>
       <c r="M42" s="9" t="str" cm="1">
-        <f t="array" ref="M42">PAGE_NAME(A42)</f>
+        <f t="array" ref="M42">PAGE_NAME(B42)</f>
         <v>payloads</v>
       </c>
       <c r="N42" s="9" t="str" cm="1">
-        <f t="array" ref="N42">SECTION_NAME(A42)</f>
+        <f t="array" ref="N42">SECTION_NAME(B42)</f>
         <v>id-only</v>
       </c>
       <c r="O42" s="14"/>
       <c r="P42" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q42" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="Q42" s="20" t="s">
-        <v>200</v>
-      </c>
       <c r="U42" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V42" s="33" t="s">
         <v>105</v>
@@ -6303,19 +6304,19 @@
         <v>154</v>
       </c>
       <c r="AB42" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC42"/>
+    </row>
+    <row r="43" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>43</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="AC42"/>
-    </row>
-    <row r="43" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="B43" s="7">
-        <v>43</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>70</v>
@@ -6330,22 +6331,22 @@
         <v>39</v>
       </c>
       <c r="M43" s="9" t="str" cm="1">
-        <f t="array" ref="M43">PAGE_NAME(A43)</f>
+        <f t="array" ref="M43">PAGE_NAME(B43)</f>
         <v>payloads</v>
       </c>
       <c r="N43" s="9" t="str" cm="1">
-        <f t="array" ref="N43">SECTION_NAME(A43)</f>
+        <f t="array" ref="N43">SECTION_NAME(B43)</f>
         <v>full-resource</v>
       </c>
       <c r="O43" s="14"/>
       <c r="P43" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q43" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="Q43" s="20" t="s">
+      <c r="U43" s="20" t="s">
         <v>209</v>
-      </c>
-      <c r="U43" s="20" t="s">
-        <v>210</v>
       </c>
       <c r="V43" s="33" t="s">
         <v>105</v>
@@ -6359,14 +6360,14 @@
       <c r="AC43"/>
     </row>
     <row r="44" spans="1:29" ht="136" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B44" s="7">
+      <c r="A44" s="7">
         <v>44</v>
       </c>
+      <c r="B44" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C44" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>70</v>
@@ -6381,28 +6382,28 @@
         <v>39</v>
       </c>
       <c r="M44" s="9" t="str" cm="1">
-        <f t="array" ref="M44">PAGE_NAME(A44)</f>
+        <f t="array" ref="M44">PAGE_NAME(B44)</f>
         <v>payloads</v>
       </c>
       <c r="N44" s="9" t="str" cm="1">
-        <f t="array" ref="N44">SECTION_NAME(A44)</f>
+        <f t="array" ref="N44">SECTION_NAME(B44)</f>
         <v>full-resource</v>
       </c>
       <c r="O44" s="14"/>
       <c r="P44" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q44" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="Q44" s="20" t="s">
-        <v>209</v>
-      </c>
       <c r="U44" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="V44" s="33" t="s">
         <v>105</v>
       </c>
       <c r="W44" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X44" s="20" t="s">
         <v>154</v>
@@ -6410,14 +6411,14 @@
       <c r="AC44"/>
     </row>
     <row r="45" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B45" s="7">
+      <c r="A45" s="7">
         <v>45</v>
       </c>
+      <c r="B45" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C45" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>70</v>
@@ -6432,22 +6433,22 @@
         <v>39</v>
       </c>
       <c r="M45" s="9" t="str" cm="1">
-        <f t="array" ref="M45">PAGE_NAME(A45)</f>
+        <f t="array" ref="M45">PAGE_NAME(B45)</f>
         <v>payloads</v>
       </c>
       <c r="N45" s="9" t="str" cm="1">
-        <f t="array" ref="N45">SECTION_NAME(A45)</f>
+        <f t="array" ref="N45">SECTION_NAME(B45)</f>
         <v>full-resource</v>
       </c>
       <c r="O45" s="14"/>
       <c r="P45" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q45" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="Q45" s="20" t="s">
-        <v>209</v>
-      </c>
       <c r="U45" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V45" s="33" t="s">
         <v>105</v>
@@ -6459,19 +6460,19 @@
         <v>154</v>
       </c>
       <c r="AB45" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC45"/>
+    </row>
+    <row r="46" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>46</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="AC45"/>
-    </row>
-    <row r="46" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="C46" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="B46" s="7">
-        <v>46</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>61</v>
@@ -6480,34 +6481,34 @@
         <v>38</v>
       </c>
       <c r="M46" s="9" t="str" cm="1">
-        <f t="array" ref="M46">PAGE_NAME(A46)</f>
+        <f t="array" ref="M46">PAGE_NAME(B46)</f>
         <v>conformance</v>
       </c>
       <c r="N46" s="9" t="str" cm="1">
-        <f t="array" ref="N46">SECTION_NAME(A46)</f>
+        <f t="array" ref="N46">SECTION_NAME(B46)</f>
         <v>conformance-in-fhir-r4</v>
       </c>
       <c r="O46" s="14"/>
       <c r="P46" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q46" s="20" t="s">
         <v>72</v>
       </c>
       <c r="AA46" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC46"/>
+    </row>
+    <row r="47" spans="1:29" ht="136" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>47</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="AC46"/>
-    </row>
-    <row r="47" spans="1:29" ht="136" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B47" s="7">
-        <v>47</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>70</v>
@@ -6522,28 +6523,28 @@
         <v>39</v>
       </c>
       <c r="M47" s="9" t="str" cm="1">
-        <f t="array" ref="M47">PAGE_NAME(A47)</f>
+        <f t="array" ref="M47">PAGE_NAME(B47)</f>
         <v>conformance</v>
       </c>
       <c r="N47" s="9" t="str" cm="1">
-        <f t="array" ref="N47">SECTION_NAME(A47)</f>
+        <f t="array" ref="N47">SECTION_NAME(B47)</f>
         <v>conformance-in-fhir-r4</v>
       </c>
       <c r="O47" s="14"/>
       <c r="P47" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q47" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="U47" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="U47" s="20" t="s">
+      <c r="V47" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="V47" s="20" t="s">
+      <c r="W47" s="20" t="s">
         <v>224</v>
-      </c>
-      <c r="W47" s="20" t="s">
-        <v>225</v>
       </c>
       <c r="X47" s="20" t="s">
         <v>76</v>
@@ -6554,14 +6555,14 @@
       <c r="AC47"/>
     </row>
     <row r="48" spans="1:29" ht="187" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B48" s="7">
+      <c r="A48" s="7">
         <v>48</v>
       </c>
+      <c r="B48" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="C48" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>79</v>
@@ -6576,22 +6577,22 @@
         <v>39</v>
       </c>
       <c r="M48" s="9" t="str" cm="1">
-        <f t="array" ref="M48">PAGE_NAME(A48)</f>
+        <f t="array" ref="M48">PAGE_NAME(B48)</f>
         <v>conformance</v>
       </c>
       <c r="N48" s="9" t="str" cm="1">
-        <f t="array" ref="N48">SECTION_NAME(A48)</f>
+        <f t="array" ref="N48">SECTION_NAME(B48)</f>
         <v>conformance-in-fhir-r4</v>
       </c>
       <c r="O48" s="14"/>
       <c r="P48" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q48" s="20" t="s">
         <v>42</v>
       </c>
       <c r="U48" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V48" s="20" t="s">
         <v>45</v>
@@ -6608,14 +6609,14 @@
       <c r="AC48"/>
     </row>
     <row r="49" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B49" s="7">
+      <c r="A49" s="7">
         <v>49</v>
       </c>
+      <c r="B49" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="C49" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>70</v>
@@ -6630,43 +6631,43 @@
         <v>39</v>
       </c>
       <c r="M49" s="9" t="str" cm="1">
-        <f t="array" ref="M49">PAGE_NAME(A49)</f>
+        <f t="array" ref="M49">PAGE_NAME(B49)</f>
         <v>conformance</v>
       </c>
       <c r="N49" s="9" t="str" cm="1">
-        <f t="array" ref="N49">SECTION_NAME(A49)</f>
+        <f t="array" ref="N49">SECTION_NAME(B49)</f>
         <v>conformance-in-fhir-r4</v>
       </c>
       <c r="O49" s="14"/>
       <c r="P49" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q49" s="20" t="s">
         <v>114</v>
       </c>
       <c r="U49" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="V49" s="20" t="s">
         <v>229</v>
-      </c>
-      <c r="V49" s="20" t="s">
-        <v>230</v>
       </c>
       <c r="W49" s="20" t="s">
         <v>89</v>
       </c>
       <c r="AA49" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC49"/>
+    </row>
+    <row r="50" spans="1:29" ht="85" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>50</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="AC49"/>
-    </row>
-    <row r="50" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B50" s="7">
-        <v>50</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>232</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>79</v>
@@ -6681,37 +6682,37 @@
         <v>39</v>
       </c>
       <c r="L50" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M50" s="9" t="str" cm="1">
-        <f t="array" ref="M50">PAGE_NAME(A50)</f>
+        <f t="array" ref="M50">PAGE_NAME(B50)</f>
         <v>conformance</v>
       </c>
       <c r="N50" s="9" t="str" cm="1">
-        <f t="array" ref="N50">SECTION_NAME(A50)</f>
+        <f t="array" ref="N50">SECTION_NAME(B50)</f>
         <v>conformance-in-fhir-r4</v>
       </c>
       <c r="O50" s="14"/>
       <c r="P50" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q50" s="20" t="s">
         <v>114</v>
       </c>
       <c r="V50" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AC50"/>
     </row>
     <row r="51" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B51" s="7">
+      <c r="A51" s="7">
         <v>51</v>
       </c>
+      <c r="B51" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="C51" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>70</v>
@@ -6726,22 +6727,22 @@
         <v>39</v>
       </c>
       <c r="M51" s="9" t="str" cm="1">
-        <f t="array" ref="M51">PAGE_NAME(A51)</f>
+        <f t="array" ref="M51">PAGE_NAME(B51)</f>
         <v>conformance</v>
       </c>
       <c r="N51" s="9" t="str" cm="1">
-        <f t="array" ref="N51">SECTION_NAME(A51)</f>
+        <f t="array" ref="N51">SECTION_NAME(B51)</f>
         <v>conformance-in-fhir-r4</v>
       </c>
       <c r="O51" s="14"/>
       <c r="P51" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q51" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U51" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="V51" s="20" t="s">
         <v>96</v>
@@ -6752,14 +6753,14 @@
       <c r="AC51"/>
     </row>
     <row r="52" spans="1:29" ht="153" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="7">
+        <v>52</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="B52" s="7">
-        <v>52</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>237</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>70</v>
@@ -6774,25 +6775,25 @@
         <v>39</v>
       </c>
       <c r="M52" s="9" t="str" cm="1">
-        <f t="array" ref="M52">PAGE_NAME(A52)</f>
+        <f t="array" ref="M52">PAGE_NAME(B52)</f>
         <v>conformance</v>
       </c>
       <c r="N52" s="9" t="str" cm="1">
-        <f t="array" ref="N52">SECTION_NAME(A52)</f>
+        <f t="array" ref="N52">SECTION_NAME(B52)</f>
         <v>conformance-artifacts-1</v>
       </c>
       <c r="O52" s="14"/>
       <c r="P52" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q52" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U52" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="V52" s="20" t="s">
         <v>239</v>
-      </c>
-      <c r="V52" s="20" t="s">
-        <v>240</v>
       </c>
       <c r="W52" s="20" t="s">
         <v>46</v>
@@ -6803,14 +6804,14 @@
       <c r="AC52"/>
     </row>
     <row r="53" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B53" s="7">
+      <c r="A53" s="7">
         <v>53</v>
       </c>
+      <c r="B53" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="C53" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>70</v>
@@ -6825,22 +6826,22 @@
         <v>39</v>
       </c>
       <c r="M53" s="9" t="str" cm="1">
-        <f t="array" ref="M53">PAGE_NAME(A53)</f>
+        <f t="array" ref="M53">PAGE_NAME(B53)</f>
         <v>conformance</v>
       </c>
       <c r="N53" s="9" t="str" cm="1">
-        <f t="array" ref="N53">SECTION_NAME(A53)</f>
+        <f t="array" ref="N53">SECTION_NAME(B53)</f>
         <v>conformance-artifacts-1</v>
       </c>
       <c r="O53" s="14"/>
       <c r="P53" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q53" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U53" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="V53" s="20" t="s">
         <v>96</v>
@@ -6851,14 +6852,14 @@
       <c r="AC53"/>
     </row>
     <row r="54" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B54" s="7">
+      <c r="A54" s="7">
         <v>54</v>
       </c>
+      <c r="B54" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="C54" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>79</v>
@@ -6873,34 +6874,34 @@
         <v>39</v>
       </c>
       <c r="L54" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M54" s="9" t="str" cm="1">
-        <f t="array" ref="M54">PAGE_NAME(A54)</f>
+        <f t="array" ref="M54">PAGE_NAME(B54)</f>
         <v>conformance</v>
       </c>
       <c r="N54" s="9" t="str" cm="1">
-        <f t="array" ref="N54">SECTION_NAME(A54)</f>
+        <f t="array" ref="N54">SECTION_NAME(B54)</f>
         <v>conformance-artifacts-1</v>
       </c>
       <c r="O54" s="14"/>
       <c r="P54" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q54" s="20" t="s">
         <v>114</v>
       </c>
       <c r="V54" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AC54"/>
     </row>
     <row r="55" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B55" s="7">
+      <c r="A55" s="7">
         <v>55</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>60</v>
@@ -6909,31 +6910,31 @@
         <v>61</v>
       </c>
       <c r="M55" s="9" t="str" cm="1">
-        <f t="array" ref="M55">PAGE_NAME(A55)</f>
+        <f t="array" ref="M55">PAGE_NAME(B55)</f>
         <v>conformance</v>
       </c>
       <c r="N55" s="9" t="str" cm="1">
-        <f t="array" ref="N55">SECTION_NAME(A55)</f>
+        <f t="array" ref="N55">SECTION_NAME(B55)</f>
         <v>conformance-artifacts-1</v>
       </c>
       <c r="O55" s="14"/>
       <c r="P55" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA55" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC55"/>
+    </row>
+    <row r="56" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>56</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="AC55"/>
-    </row>
-    <row r="56" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
+      <c r="C56" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="B56" s="7">
-        <v>56</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>245</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>61</v>
@@ -6945,46 +6946,46 @@
         <v>39</v>
       </c>
       <c r="M56" s="9" t="str" cm="1">
-        <f t="array" ref="M56">PAGE_NAME(A56)</f>
+        <f t="array" ref="M56">PAGE_NAME(B56)</f>
         <v>conformance</v>
       </c>
       <c r="N56" s="9" t="str" cm="1">
-        <f t="array" ref="N56">SECTION_NAME(A56)</f>
+        <f t="array" ref="N56">SECTION_NAME(B56)</f>
         <v>profile-support-1</v>
       </c>
       <c r="O56" s="14"/>
       <c r="P56" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q56" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="Q56" s="20" t="s">
+      <c r="U56" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="U56" s="20" t="s">
+      <c r="V56" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="V56" s="20" t="s">
+      <c r="W56" s="20" t="s">
         <v>249</v>
-      </c>
-      <c r="W56" s="20" t="s">
-        <v>250</v>
       </c>
       <c r="X56" s="20" t="s">
         <v>76</v>
       </c>
       <c r="AA56" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC56"/>
+    </row>
+    <row r="57" spans="1:29" ht="136" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>57</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="AC56"/>
-    </row>
-    <row r="57" spans="1:29" ht="136" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B57" s="7">
-        <v>57</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>79</v>
@@ -6999,25 +7000,25 @@
         <v>39</v>
       </c>
       <c r="M57" s="9" t="str" cm="1">
-        <f t="array" ref="M57">PAGE_NAME(A57)</f>
+        <f t="array" ref="M57">PAGE_NAME(B57)</f>
         <v>conformance</v>
       </c>
       <c r="N57" s="9" t="str" cm="1">
-        <f t="array" ref="N57">SECTION_NAME(A57)</f>
+        <f t="array" ref="N57">SECTION_NAME(B57)</f>
         <v>profile-support-1</v>
       </c>
       <c r="O57" s="14"/>
       <c r="P57" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q57" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U57" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="V57" s="20" t="s">
         <v>253</v>
-      </c>
-      <c r="V57" s="20" t="s">
-        <v>254</v>
       </c>
       <c r="W57" s="20" t="s">
         <v>46</v>
@@ -7028,14 +7029,14 @@
       <c r="AC57"/>
     </row>
     <row r="58" spans="1:29" ht="170" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B58" s="7">
+      <c r="A58" s="7">
         <v>58</v>
       </c>
+      <c r="B58" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="C58" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>70</v>
@@ -7050,37 +7051,37 @@
         <v>50</v>
       </c>
       <c r="L58" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M58" s="9" t="str" cm="1">
-        <f t="array" ref="M58">PAGE_NAME(A58)</f>
+        <f t="array" ref="M58">PAGE_NAME(B58)</f>
         <v>conformance</v>
       </c>
       <c r="N58" s="9" t="str" cm="1">
-        <f t="array" ref="N58">SECTION_NAME(A58)</f>
+        <f t="array" ref="N58">SECTION_NAME(B58)</f>
         <v>profile-support-1</v>
       </c>
       <c r="O58" s="14"/>
       <c r="P58" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q58" s="20" t="s">
         <v>46</v>
       </c>
       <c r="V58" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC58"/>
+    </row>
+    <row r="59" spans="1:29" ht="102" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>59</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="AC58"/>
-    </row>
-    <row r="59" spans="1:29" ht="102" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+      <c r="C59" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="B59" s="7">
-        <v>59</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>259</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>70</v>
@@ -7095,25 +7096,25 @@
         <v>39</v>
       </c>
       <c r="M59" s="9" t="str" cm="1">
-        <f t="array" ref="M59">PAGE_NAME(A59)</f>
+        <f t="array" ref="M59">PAGE_NAME(B59)</f>
         <v>conformance</v>
       </c>
       <c r="N59" s="9" t="str" cm="1">
-        <f t="array" ref="N59">SECTION_NAME(A59)</f>
+        <f t="array" ref="N59">SECTION_NAME(B59)</f>
         <v>backport-channel-type-1</v>
       </c>
       <c r="O59" s="14"/>
       <c r="P59" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q59" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U59" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="V59" s="20" t="s">
         <v>261</v>
-      </c>
-      <c r="V59" s="20" t="s">
-        <v>262</v>
       </c>
       <c r="W59" s="20" t="s">
         <v>89</v>
@@ -7124,14 +7125,14 @@
       <c r="AC59"/>
     </row>
     <row r="60" spans="1:29" ht="102" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B60" s="7">
+      <c r="A60" s="7">
         <v>60</v>
       </c>
+      <c r="B60" s="7" t="s">
+        <v>257</v>
+      </c>
       <c r="C60" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>70</v>
@@ -7146,25 +7147,25 @@
         <v>39</v>
       </c>
       <c r="M60" s="9" t="str" cm="1">
-        <f t="array" ref="M60">PAGE_NAME(A60)</f>
+        <f t="array" ref="M60">PAGE_NAME(B60)</f>
         <v>conformance</v>
       </c>
       <c r="N60" s="9" t="str" cm="1">
-        <f t="array" ref="N60">SECTION_NAME(A60)</f>
+        <f t="array" ref="N60">SECTION_NAME(B60)</f>
         <v>backport-channel-type-1</v>
       </c>
       <c r="O60" s="14"/>
       <c r="P60" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q60" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U60" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V60" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W60" s="20" t="s">
         <v>89</v>
@@ -7173,19 +7174,19 @@
         <v>76</v>
       </c>
       <c r="AB60" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC60"/>
+    </row>
+    <row r="61" spans="1:29" ht="102" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>61</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="AC60"/>
-    </row>
-    <row r="61" spans="1:29" ht="102" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B61" s="7">
-        <v>61</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>37</v>
@@ -7197,7 +7198,7 @@
         <v>50</v>
       </c>
       <c r="J61" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K61" s="37" t="s">
         <v>50</v>
@@ -7206,34 +7207,34 @@
         <v>52</v>
       </c>
       <c r="M61" s="9" t="str" cm="1">
-        <f t="array" ref="M61">PAGE_NAME(A61)</f>
+        <f t="array" ref="M61">PAGE_NAME(B61)</f>
         <v>conformance</v>
       </c>
       <c r="N61" s="9" t="str" cm="1">
-        <f t="array" ref="N61">SECTION_NAME(A61)</f>
+        <f t="array" ref="N61">SECTION_NAME(B61)</f>
         <v>backport-channel-type-1</v>
       </c>
       <c r="O61" s="14"/>
       <c r="P61" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q61" s="20" t="s">
         <v>72</v>
       </c>
       <c r="V61" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC61"/>
+    </row>
+    <row r="62" spans="1:29" ht="255" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <v>62</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="AC61"/>
-    </row>
-    <row r="62" spans="1:29" ht="255" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
+      <c r="C62" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="B62" s="7">
-        <v>62</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>270</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>61</v>
@@ -7242,34 +7243,34 @@
         <v>38</v>
       </c>
       <c r="M62" s="9" t="str" cm="1">
-        <f t="array" ref="M62">PAGE_NAME(A62)</f>
+        <f t="array" ref="M62">PAGE_NAME(B62)</f>
         <v>conformance</v>
       </c>
       <c r="N62" s="9" t="str" cm="1">
-        <f t="array" ref="N62">SECTION_NAME(A62)</f>
+        <f t="array" ref="N62">SECTION_NAME(B62)</f>
         <v>backport-filter-criteria-1</v>
       </c>
       <c r="O62" s="14"/>
       <c r="P62" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q62" s="20" t="s">
         <v>72</v>
       </c>
       <c r="AA62" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC62"/>
+    </row>
+    <row r="63" spans="1:29" ht="136" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <v>63</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="AC62"/>
-    </row>
-    <row r="63" spans="1:29" ht="136" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B63" s="7">
-        <v>63</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>70</v>
@@ -7284,43 +7285,43 @@
         <v>39</v>
       </c>
       <c r="M63" s="9" t="str" cm="1">
-        <f t="array" ref="M63">PAGE_NAME(A63)</f>
+        <f t="array" ref="M63">PAGE_NAME(B63)</f>
         <v>conformance</v>
       </c>
       <c r="N63" s="9" t="str" cm="1">
-        <f t="array" ref="N63">SECTION_NAME(A63)</f>
+        <f t="array" ref="N63">SECTION_NAME(B63)</f>
         <v>backport-filter-criteria-1</v>
       </c>
       <c r="O63" s="14"/>
       <c r="P63" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q63" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U63" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V63" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W63" s="20" t="s">
         <v>55</v>
       </c>
       <c r="AB63" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC63"/>
+    </row>
+    <row r="64" spans="1:29" ht="85" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
+        <v>64</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>275</v>
-      </c>
-      <c r="AC63"/>
-    </row>
-    <row r="64" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B64" s="7">
-        <v>64</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>276</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>70</v>
@@ -7335,37 +7336,37 @@
         <v>39</v>
       </c>
       <c r="M64" s="9" t="str" cm="1">
-        <f t="array" ref="M64">PAGE_NAME(A64)</f>
+        <f t="array" ref="M64">PAGE_NAME(B64)</f>
         <v>conformance</v>
       </c>
       <c r="N64" s="9" t="str" cm="1">
-        <f t="array" ref="N64">SECTION_NAME(A64)</f>
+        <f t="array" ref="N64">SECTION_NAME(B64)</f>
         <v>backport-filter-criteria-1</v>
       </c>
       <c r="O64" s="14"/>
       <c r="P64" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q64" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U64" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="V64" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="V64" s="20" t="s">
+      <c r="AC64"/>
+    </row>
+    <row r="65" spans="1:29" ht="102" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <v>65</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="AC64"/>
-    </row>
-    <row r="65" spans="1:29" ht="102" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
+      <c r="C65" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="B65" s="7">
-        <v>65</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>280</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>70</v>
@@ -7380,25 +7381,25 @@
         <v>39</v>
       </c>
       <c r="M65" s="9" t="str" cm="1">
-        <f t="array" ref="M65">PAGE_NAME(A65)</f>
+        <f t="array" ref="M65">PAGE_NAME(B65)</f>
         <v>conformance</v>
       </c>
       <c r="N65" s="9" t="str" cm="1">
-        <f t="array" ref="N65">SECTION_NAME(A65)</f>
+        <f t="array" ref="N65">SECTION_NAME(B65)</f>
         <v>backport-payload-content-1</v>
       </c>
       <c r="O65" s="14"/>
       <c r="P65" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q65" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U65" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="V65" s="20" t="s">
         <v>282</v>
-      </c>
-      <c r="V65" s="20" t="s">
-        <v>283</v>
       </c>
       <c r="W65" s="20" t="s">
         <v>106</v>
@@ -7409,14 +7410,14 @@
       <c r="AC65"/>
     </row>
     <row r="66" spans="1:29" ht="136" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B66" s="7">
+      <c r="A66" s="7">
         <v>66</v>
       </c>
+      <c r="B66" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="C66" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>70</v>
@@ -7431,43 +7432,43 @@
         <v>39</v>
       </c>
       <c r="M66" s="9" t="str" cm="1">
-        <f t="array" ref="M66">PAGE_NAME(A66)</f>
+        <f t="array" ref="M66">PAGE_NAME(B66)</f>
         <v>conformance</v>
       </c>
       <c r="N66" s="9" t="str" cm="1">
-        <f t="array" ref="N66">SECTION_NAME(A66)</f>
+        <f t="array" ref="N66">SECTION_NAME(B66)</f>
         <v>backport-payload-content-1</v>
       </c>
       <c r="O66" s="14"/>
       <c r="P66" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q66" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U66" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V66" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W66" s="20" t="s">
         <v>55</v>
       </c>
       <c r="AB66" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC66"/>
     </row>
     <row r="67" spans="1:29" ht="102" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B67" s="7">
+      <c r="A67" s="7">
         <v>67</v>
       </c>
+      <c r="B67" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="C67" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>70</v>
@@ -7482,25 +7483,25 @@
         <v>39</v>
       </c>
       <c r="M67" s="9" t="str" cm="1">
-        <f t="array" ref="M67">PAGE_NAME(A67)</f>
+        <f t="array" ref="M67">PAGE_NAME(B67)</f>
         <v>conformance</v>
       </c>
       <c r="N67" s="9" t="str" cm="1">
-        <f t="array" ref="N67">SECTION_NAME(A67)</f>
+        <f t="array" ref="N67">SECTION_NAME(B67)</f>
         <v>backport-payload-content-1</v>
       </c>
       <c r="O67" s="14"/>
       <c r="P67" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q67" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U67" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V67" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="W67" s="20" t="s">
         <v>106</v>
@@ -7511,14 +7512,14 @@
       <c r="AC67"/>
     </row>
     <row r="68" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B68" s="7">
+      <c r="A68" s="7">
         <v>68</v>
       </c>
+      <c r="B68" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="C68" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>70</v>
@@ -7533,37 +7534,37 @@
         <v>39</v>
       </c>
       <c r="M68" s="9" t="str" cm="1">
-        <f t="array" ref="M68">PAGE_NAME(A68)</f>
+        <f t="array" ref="M68">PAGE_NAME(B68)</f>
         <v>conformance</v>
       </c>
       <c r="N68" s="9" t="str" cm="1">
-        <f t="array" ref="N68">SECTION_NAME(A68)</f>
+        <f t="array" ref="N68">SECTION_NAME(B68)</f>
         <v>backport-payload-content-1</v>
       </c>
       <c r="O68" s="14"/>
       <c r="P68" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q68" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U68" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="V68" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC68"/>
+    </row>
+    <row r="69" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
+        <v>69</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="V68" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC68"/>
-    </row>
-    <row r="69" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
+      <c r="C69" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="B69" s="7">
-        <v>69</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>70</v>
@@ -7578,22 +7579,22 @@
         <v>39</v>
       </c>
       <c r="M69" s="9" t="str" cm="1">
-        <f t="array" ref="M69">PAGE_NAME(A69)</f>
+        <f t="array" ref="M69">PAGE_NAME(B69)</f>
         <v>conformance</v>
       </c>
       <c r="N69" s="9" t="str" cm="1">
-        <f t="array" ref="N69">SECTION_NAME(A69)</f>
+        <f t="array" ref="N69">SECTION_NAME(B69)</f>
         <v>notification-entry-subscriptionstatus-1</v>
       </c>
       <c r="O69" s="14"/>
       <c r="P69" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q69" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U69" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V69" s="33" t="s">
         <v>105</v>
@@ -7610,14 +7611,14 @@
       <c r="AC69"/>
     </row>
     <row r="70" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B70" s="7">
+      <c r="A70" s="7">
         <v>70</v>
       </c>
+      <c r="B70" s="7" t="s">
+        <v>289</v>
+      </c>
       <c r="C70" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>70</v>
@@ -7632,22 +7633,22 @@
         <v>39</v>
       </c>
       <c r="M70" s="9" t="str" cm="1">
-        <f t="array" ref="M70">PAGE_NAME(A70)</f>
+        <f t="array" ref="M70">PAGE_NAME(B70)</f>
         <v>conformance</v>
       </c>
       <c r="N70" s="9" t="str" cm="1">
-        <f t="array" ref="N70">SECTION_NAME(A70)</f>
+        <f t="array" ref="N70">SECTION_NAME(B70)</f>
         <v>notification-entry-subscriptionstatus-1</v>
       </c>
       <c r="O70" s="14"/>
       <c r="P70" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q70" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U70" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V70" s="33" t="s">
         <v>105</v>
@@ -7664,14 +7665,14 @@
       <c r="AC70"/>
     </row>
     <row r="71" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B71" s="7">
+      <c r="A71" s="7">
         <v>71</v>
       </c>
+      <c r="B71" s="7" t="s">
+        <v>289</v>
+      </c>
       <c r="C71" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>70</v>
@@ -7686,40 +7687,40 @@
         <v>39</v>
       </c>
       <c r="M71" s="9" t="str" cm="1">
-        <f t="array" ref="M71">PAGE_NAME(A71)</f>
+        <f t="array" ref="M71">PAGE_NAME(B71)</f>
         <v>conformance</v>
       </c>
       <c r="N71" s="9" t="str" cm="1">
-        <f t="array" ref="N71">SECTION_NAME(A71)</f>
+        <f t="array" ref="N71">SECTION_NAME(B71)</f>
         <v>notification-entry-subscriptionstatus-1</v>
       </c>
       <c r="O71" s="14"/>
       <c r="P71" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q71" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U71" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="V71" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="V71" s="20" t="s">
+      <c r="AB71" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="AB71" s="20" t="s">
+      <c r="AC71"/>
+    </row>
+    <row r="72" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
+        <v>72</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="AC71"/>
-    </row>
-    <row r="72" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
+      <c r="C72" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="B72" s="7">
-        <v>72</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>70</v>
@@ -7734,22 +7735,22 @@
         <v>39</v>
       </c>
       <c r="M72" s="9" t="str" cm="1">
-        <f t="array" ref="M72">PAGE_NAME(A72)</f>
+        <f t="array" ref="M72">PAGE_NAME(B72)</f>
         <v>conformance</v>
       </c>
       <c r="N72" s="9" t="str" cm="1">
-        <f t="array" ref="N72">SECTION_NAME(A72)</f>
+        <f t="array" ref="N72">SECTION_NAME(B72)</f>
         <v>subscriptioncriteria-1</v>
       </c>
       <c r="O72" s="14"/>
       <c r="P72" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q72" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U72" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V72" s="33" t="s">
         <v>105</v>
@@ -7763,14 +7764,14 @@
       <c r="AC72"/>
     </row>
     <row r="73" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B73" s="7">
+      <c r="A73" s="7">
         <v>73</v>
       </c>
+      <c r="B73" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="C73" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>70</v>
@@ -7785,40 +7786,40 @@
         <v>39</v>
       </c>
       <c r="M73" s="9" t="str" cm="1">
-        <f t="array" ref="M73">PAGE_NAME(A73)</f>
+        <f t="array" ref="M73">PAGE_NAME(B73)</f>
         <v>conformance</v>
       </c>
       <c r="N73" s="9" t="str" cm="1">
-        <f t="array" ref="N73">SECTION_NAME(A73)</f>
+        <f t="array" ref="N73">SECTION_NAME(B73)</f>
         <v>subscriptioncriteria-1</v>
       </c>
       <c r="O73" s="14"/>
       <c r="P73" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q73" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U73" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V73" s="33" t="s">
         <v>105</v>
       </c>
       <c r="W73" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC73"/>
     </row>
     <row r="74" spans="1:29" ht="204" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B74" s="7">
+      <c r="A74" s="7">
         <v>74</v>
       </c>
+      <c r="B74" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="C74" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>70</v>
@@ -7833,40 +7834,40 @@
         <v>39</v>
       </c>
       <c r="L74" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M74" s="9" t="str" cm="1">
-        <f t="array" ref="M74">PAGE_NAME(A74)</f>
+        <f t="array" ref="M74">PAGE_NAME(B74)</f>
         <v>conformance</v>
       </c>
       <c r="N74" s="9" t="str" cm="1">
-        <f t="array" ref="N74">SECTION_NAME(A74)</f>
+        <f t="array" ref="N74">SECTION_NAME(B74)</f>
         <v>subscriptioncriteria-1</v>
       </c>
       <c r="O74" s="14"/>
       <c r="P74" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q74" s="20" t="s">
         <v>72</v>
       </c>
       <c r="V74" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB74" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="AB74" s="20" t="s">
+      <c r="AC74"/>
+    </row>
+    <row r="75" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+      <c r="A75" s="7">
+        <v>75</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="AC74"/>
-    </row>
-    <row r="75" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B75" s="7">
-        <v>75</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>309</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>70</v>
@@ -7881,25 +7882,25 @@
         <v>39</v>
       </c>
       <c r="M75" s="9" t="str" cm="1">
-        <f t="array" ref="M75">PAGE_NAME(A75)</f>
+        <f t="array" ref="M75">PAGE_NAME(B75)</f>
         <v>conformance</v>
       </c>
       <c r="N75" s="9" t="str" cm="1">
-        <f t="array" ref="N75">SECTION_NAME(A75)</f>
+        <f t="array" ref="N75">SECTION_NAME(B75)</f>
         <v>subscriptioncriteria-1</v>
       </c>
       <c r="O75" s="14"/>
       <c r="P75" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q75" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U75" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V75" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W75" s="20" t="s">
         <v>55</v>
@@ -7907,14 +7908,14 @@
       <c r="AC75"/>
     </row>
     <row r="76" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B76" s="7">
+      <c r="A76" s="7">
         <v>76</v>
       </c>
+      <c r="B76" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="C76" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>70</v>
@@ -7929,37 +7930,37 @@
         <v>39</v>
       </c>
       <c r="M76" s="9" t="str" cm="1">
-        <f t="array" ref="M76">PAGE_NAME(A76)</f>
+        <f t="array" ref="M76">PAGE_NAME(B76)</f>
         <v>conformance</v>
       </c>
       <c r="N76" s="9" t="str" cm="1">
-        <f t="array" ref="N76">SECTION_NAME(A76)</f>
+        <f t="array" ref="N76">SECTION_NAME(B76)</f>
         <v>subscriptioncriteria-1</v>
       </c>
       <c r="O76" s="14"/>
       <c r="P76" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q76" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U76" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="V76" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC76"/>
+    </row>
+    <row r="77" spans="1:29" ht="356" x14ac:dyDescent="0.2">
+      <c r="A77" s="7">
+        <v>77</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="V76" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC76"/>
-    </row>
-    <row r="77" spans="1:29" ht="356" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
+      <c r="C77" s="8" t="s">
         <v>313</v>
-      </c>
-      <c r="B77" s="7">
-        <v>77</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>314</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>70</v>
@@ -7974,43 +7975,43 @@
         <v>39</v>
       </c>
       <c r="M77" s="9" t="str" cm="1">
-        <f t="array" ref="M77">PAGE_NAME(A77)</f>
+        <f t="array" ref="M77">PAGE_NAME(B77)</f>
         <v>errors</v>
       </c>
       <c r="N77" s="9" t="str" cm="1">
-        <f t="array" ref="N77">SECTION_NAME(A77)</f>
+        <f t="array" ref="N77">SECTION_NAME(B77)</f>
         <v>handling-errors-as-a-server</v>
       </c>
       <c r="O77" s="14"/>
       <c r="P77" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q77" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="Q77" s="20" t="s">
+      <c r="U77" s="20" t="s">
         <v>316</v>
-      </c>
-      <c r="U77" s="20" t="s">
-        <v>317</v>
       </c>
       <c r="V77" s="33" t="s">
         <v>105</v>
       </c>
       <c r="W77" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AB77" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC77"/>
+    </row>
+    <row r="78" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="A78" s="7">
+        <v>78</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="AC77"/>
-    </row>
-    <row r="78" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A78" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B78" s="7">
-        <v>78</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>70</v>
@@ -8025,25 +8026,25 @@
         <v>39</v>
       </c>
       <c r="M78" s="9" t="str" cm="1">
-        <f t="array" ref="M78">PAGE_NAME(A78)</f>
+        <f t="array" ref="M78">PAGE_NAME(B78)</f>
         <v>errors</v>
       </c>
       <c r="N78" s="9" t="str" cm="1">
-        <f t="array" ref="N78">SECTION_NAME(A78)</f>
+        <f t="array" ref="N78">SECTION_NAME(B78)</f>
         <v>handling-errors-as-a-server</v>
       </c>
       <c r="O78" s="14"/>
       <c r="P78" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q78" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="Q78" s="20" t="s">
-        <v>316</v>
-      </c>
       <c r="U78" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="V78" s="20" t="s">
         <v>320</v>
-      </c>
-      <c r="V78" s="20" t="s">
-        <v>321</v>
       </c>
       <c r="W78" s="20" t="s">
         <v>131</v>
@@ -8057,14 +8058,14 @@
       <c r="AC78"/>
     </row>
     <row r="79" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B79" s="7">
+      <c r="A79" s="7">
         <v>79</v>
       </c>
+      <c r="B79" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="C79" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>70</v>
@@ -8079,28 +8080,28 @@
         <v>39</v>
       </c>
       <c r="M79" s="9" t="str" cm="1">
-        <f t="array" ref="M79">PAGE_NAME(A79)</f>
+        <f t="array" ref="M79">PAGE_NAME(B79)</f>
         <v>errors</v>
       </c>
       <c r="N79" s="9" t="str" cm="1">
-        <f t="array" ref="N79">SECTION_NAME(A79)</f>
+        <f t="array" ref="N79">SECTION_NAME(B79)</f>
         <v>handling-errors-as-a-server</v>
       </c>
       <c r="O79" s="14"/>
       <c r="P79" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q79" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U79" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="V79" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="V79" s="20" t="s">
-        <v>324</v>
-      </c>
       <c r="W79" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X79" s="20" t="s">
         <v>76</v>
@@ -8111,14 +8112,14 @@
       <c r="AC79"/>
     </row>
     <row r="80" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B80" s="7">
+      <c r="A80" s="7">
         <v>80</v>
       </c>
+      <c r="B80" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="C80" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>37</v>
@@ -8136,34 +8137,34 @@
         <v>121</v>
       </c>
       <c r="M80" s="9" t="str" cm="1">
-        <f t="array" ref="M80">PAGE_NAME(A80)</f>
+        <f t="array" ref="M80">PAGE_NAME(B80)</f>
         <v>errors</v>
       </c>
       <c r="N80" s="9" t="str" cm="1">
-        <f t="array" ref="N80">SECTION_NAME(A80)</f>
+        <f t="array" ref="N80">SECTION_NAME(B80)</f>
         <v>handling-errors-as-a-server</v>
       </c>
       <c r="O80" s="14"/>
       <c r="P80" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q80" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="V80" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="V80" s="20" t="s">
+      <c r="AC80"/>
+    </row>
+    <row r="81" spans="1:41" ht="170" x14ac:dyDescent="0.2">
+      <c r="A81" s="7">
+        <v>81</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>327</v>
-      </c>
-      <c r="AC80"/>
-    </row>
-    <row r="81" spans="1:41" ht="170" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B81" s="7">
-        <v>81</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>328</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>70</v>
@@ -8178,43 +8179,43 @@
         <v>39</v>
       </c>
       <c r="M81" s="9" t="str" cm="1">
-        <f t="array" ref="M81">PAGE_NAME(A81)</f>
+        <f t="array" ref="M81">PAGE_NAME(B81)</f>
         <v>errors</v>
       </c>
       <c r="N81" s="9" t="str" cm="1">
-        <f t="array" ref="N81">SECTION_NAME(A81)</f>
+        <f t="array" ref="N81">SECTION_NAME(B81)</f>
         <v>handling-errors-as-a-server</v>
       </c>
       <c r="O81" s="14"/>
       <c r="P81" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q81" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="Q81" s="20" t="s">
-        <v>316</v>
-      </c>
       <c r="U81" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="V81" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="V81" s="20" t="s">
+      <c r="AA81" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="AA81" s="20" t="s">
+      <c r="AB81" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="AB81" s="20" t="s">
+      <c r="AC81"/>
+    </row>
+    <row r="82" spans="1:41" ht="68" x14ac:dyDescent="0.2">
+      <c r="A82" s="7">
+        <v>82</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="AC81"/>
-    </row>
-    <row r="82" spans="1:41" ht="68" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
+      <c r="C82" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="B82" s="7">
-        <v>82</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>70</v>
@@ -8229,43 +8230,43 @@
         <v>39</v>
       </c>
       <c r="M82" s="9" t="str" cm="1">
-        <f t="array" ref="M82">PAGE_NAME(A82)</f>
+        <f t="array" ref="M82">PAGE_NAME(B82)</f>
         <v>errors</v>
       </c>
       <c r="N82" s="9" t="str" cm="1">
-        <f t="array" ref="N82">SECTION_NAME(A82)</f>
+        <f t="array" ref="N82">SECTION_NAME(B82)</f>
         <v>recovering-from-errors</v>
       </c>
       <c r="O82" s="14"/>
       <c r="P82" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q82" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="U82" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="V82" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA82" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB82" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC82"/>
+    </row>
+    <row r="83" spans="1:41" ht="102" x14ac:dyDescent="0.2">
+      <c r="A83" s="7">
+        <v>83</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="Q82" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="U82" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="V82" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="AA82" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="AB82" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="AC82"/>
-    </row>
-    <row r="83" spans="1:41" ht="102" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
+      <c r="C83" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="B83" s="7">
-        <v>83</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>37</v>
@@ -8280,46 +8281,46 @@
         <v>39</v>
       </c>
       <c r="L83" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M83" s="9" t="str" cm="1">
-        <f t="array" ref="M83">PAGE_NAME(A83)</f>
+        <f t="array" ref="M83">PAGE_NAME(B83)</f>
         <v>errors</v>
       </c>
       <c r="N83" s="9" t="str" cm="1">
-        <f t="array" ref="N83">SECTION_NAME(A83)</f>
+        <f t="array" ref="N83">SECTION_NAME(B83)</f>
         <v>using-the-events-operation</v>
       </c>
       <c r="O83" s="14"/>
       <c r="P83" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q83" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="Q83" s="20" t="s">
+      <c r="U83" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="U83" s="20" t="s">
+      <c r="V83" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="V83" s="20" t="s">
+      <c r="W83" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="W83" s="20" t="s">
+      <c r="AB83" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="AB83" s="20" t="s">
+      <c r="AC83"/>
+    </row>
+    <row r="84" spans="1:41" ht="68" x14ac:dyDescent="0.2">
+      <c r="A84" s="7">
+        <v>84</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="AC83"/>
-    </row>
-    <row r="84" spans="1:41" ht="68" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B84" s="7">
-        <v>84</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>345</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>37</v>
@@ -8337,34 +8338,34 @@
         <v>121</v>
       </c>
       <c r="M84" s="9" t="str" cm="1">
-        <f t="array" ref="M84">PAGE_NAME(A84)</f>
+        <f t="array" ref="M84">PAGE_NAME(B84)</f>
         <v>errors</v>
       </c>
       <c r="N84" s="9" t="str" cm="1">
-        <f t="array" ref="N84">SECTION_NAME(A84)</f>
+        <f t="array" ref="N84">SECTION_NAME(B84)</f>
         <v>using-the-events-operation</v>
       </c>
       <c r="O84" s="14"/>
       <c r="P84" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q84" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="Q84" s="20" t="s">
-        <v>340</v>
-      </c>
       <c r="V84" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC84"/>
+    </row>
+    <row r="85" spans="1:41" ht="102" x14ac:dyDescent="0.2">
+      <c r="A85" s="7">
+        <v>85</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="AC84"/>
-    </row>
-    <row r="85" spans="1:41" ht="102" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B85" s="7">
-        <v>85</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>37</v>
@@ -8379,28 +8380,28 @@
         <v>39</v>
       </c>
       <c r="L85" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M85" s="9" t="str" cm="1">
-        <f t="array" ref="M85">PAGE_NAME(A85)</f>
+        <f t="array" ref="M85">PAGE_NAME(B85)</f>
         <v>errors</v>
       </c>
       <c r="N85" s="9" t="str" cm="1">
-        <f t="array" ref="N85">SECTION_NAME(A85)</f>
+        <f t="array" ref="N85">SECTION_NAME(B85)</f>
         <v>using-the-events-operation</v>
       </c>
       <c r="O85" s="14"/>
       <c r="P85" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q85" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U85" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="V85" s="20" t="s">
         <v>348</v>
-      </c>
-      <c r="V85" s="20" t="s">
-        <v>349</v>
       </c>
       <c r="AB85" s="20" t="s">
         <v>132</v>
@@ -8408,17 +8409,17 @@
       <c r="AC85"/>
     </row>
     <row r="86" spans="1:41" ht="153" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="7">
+        <v>86</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B86" s="7">
-        <v>86</v>
-      </c>
       <c r="C86" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>117</v>
@@ -8430,11 +8431,11 @@
         <v>39</v>
       </c>
       <c r="M86" s="9" t="str" cm="1">
-        <f t="array" ref="M86">PAGE_NAME(A86)</f>
+        <f t="array" ref="M86">PAGE_NAME(B86)</f>
         <v>components</v>
       </c>
       <c r="N86" s="9" t="str" cm="1">
-        <f t="array" ref="N86">SECTION_NAME(A86)</f>
+        <f t="array" ref="N86">SECTION_NAME(B86)</f>
         <v>subscriptions</v>
       </c>
       <c r="O86" s="14"/>
@@ -8445,10 +8446,10 @@
         <v>72</v>
       </c>
       <c r="U86" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V86" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AC86"/>
       <c r="AI86" s="17"/>
@@ -8460,30 +8461,30 @@
       <c r="AO86" s="5"/>
     </row>
     <row r="87" spans="1:41" ht="85" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="7">
+        <v>87</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B87" s="7">
-        <v>87</v>
-      </c>
       <c r="C87" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>61</v>
       </c>
       <c r="M87" s="9" t="str" cm="1">
-        <f t="array" ref="M87">PAGE_NAME(A87)</f>
+        <f t="array" ref="M87">PAGE_NAME(B87)</f>
         <v>components</v>
       </c>
       <c r="N87" s="9" t="str" cm="1">
-        <f t="array" ref="N87">SECTION_NAME(A87)</f>
+        <f t="array" ref="N87">SECTION_NAME(B87)</f>
         <v>subscriptions</v>
       </c>
       <c r="O87" s="14"/>
       <c r="V87" s="33"/>
       <c r="AA87" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC87"/>
       <c r="AI87" s="17"/>
@@ -8495,14 +8496,14 @@
       <c r="AO87" s="5"/>
     </row>
     <row r="88" spans="1:41" ht="102" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="7">
+        <v>88</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B88" s="7">
-        <v>88</v>
-      </c>
       <c r="C88" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>37</v>
@@ -8517,14 +8518,14 @@
         <v>50</v>
       </c>
       <c r="L88" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M88" s="9" t="str" cm="1">
-        <f t="array" ref="M88">PAGE_NAME(A88)</f>
+        <f t="array" ref="M88">PAGE_NAME(B88)</f>
         <v>components</v>
       </c>
       <c r="N88" s="9" t="str" cm="1">
-        <f t="array" ref="N88">SECTION_NAME(A88)</f>
+        <f t="array" ref="N88">SECTION_NAME(B88)</f>
         <v>subscriptions-and-fhir-versions</v>
       </c>
       <c r="O88" s="14"/>
@@ -8535,7 +8536,7 @@
         <v>72</v>
       </c>
       <c r="V88" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC88"/>
       <c r="AH88" s="18"/>
@@ -8548,33 +8549,33 @@
       <c r="AO88" s="5"/>
     </row>
     <row r="89" spans="1:41" ht="51" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="7">
+        <v>89</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B89" s="7">
-        <v>89</v>
-      </c>
       <c r="C89" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>61</v>
       </c>
       <c r="O89" s="14"/>
       <c r="AA89" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="AC89"/>
+    </row>
+    <row r="90" spans="1:41" ht="136" x14ac:dyDescent="0.2">
+      <c r="A90" s="7">
+        <v>90</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="AC89"/>
-    </row>
-    <row r="90" spans="1:41" ht="136" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B90" s="7">
-        <v>90</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>360</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>70</v>
@@ -8589,14 +8590,14 @@
         <v>39</v>
       </c>
       <c r="L90" s="37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M90" s="9" t="str" cm="1">
-        <f t="array" ref="M90">PAGE_NAME(A90)</f>
+        <f t="array" ref="M90">PAGE_NAME(B90)</f>
         <v>components</v>
       </c>
       <c r="N90" s="9" t="str" cm="1">
-        <f t="array" ref="N90">SECTION_NAME(A90)</f>
+        <f t="array" ref="N90">SECTION_NAME(B90)</f>
         <v>subscriptions-and-fhir-versions</v>
       </c>
       <c r="O90" s="14"/>
@@ -8607,38 +8608,38 @@
         <v>72</v>
       </c>
       <c r="V90" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC90"/>
+    </row>
+    <row r="91" spans="1:41" ht="51" x14ac:dyDescent="0.2">
+      <c r="A91" s="7">
+        <v>91</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>362</v>
-      </c>
-      <c r="AC90"/>
-    </row>
-    <row r="91" spans="1:41" ht="51" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B91" s="7">
-        <v>91</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>363</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>61</v>
       </c>
       <c r="O91" s="14"/>
       <c r="AA91" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AC91"/>
     </row>
     <row r="92" spans="1:41" ht="68" x14ac:dyDescent="0.2">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="7">
+        <v>92</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B92" s="7">
-        <v>92</v>
-      </c>
       <c r="C92" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>37</v>
@@ -8656,11 +8657,11 @@
         <v>121</v>
       </c>
       <c r="M92" s="9" t="str" cm="1">
-        <f t="array" ref="M92">PAGE_NAME(A92)</f>
+        <f t="array" ref="M92">PAGE_NAME(B92)</f>
         <v>channels</v>
       </c>
       <c r="N92" s="9" t="str" cm="1">
-        <f t="array" ref="N92">SECTION_NAME(A92)</f>
+        <f t="array" ref="N92">SECTION_NAME(B92)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O92" s="14"/>
@@ -8668,25 +8669,25 @@
         <v>140</v>
       </c>
       <c r="Q92" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="V92" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="V92" s="20" t="s">
+      <c r="AB92" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="AB92" s="20" t="s">
+      <c r="AC92"/>
+    </row>
+    <row r="93" spans="1:41" ht="102" x14ac:dyDescent="0.2">
+      <c r="A93" s="7">
+        <v>93</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="AC92"/>
-    </row>
-    <row r="93" spans="1:41" ht="102" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
+      <c r="C93" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="B93" s="7">
-        <v>93</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>369</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>70</v>
@@ -8701,43 +8702,43 @@
         <v>39</v>
       </c>
       <c r="M93" s="9" t="str" cm="1">
-        <f t="array" ref="M93">PAGE_NAME(A93)</f>
+        <f t="array" ref="M93">PAGE_NAME(B93)</f>
         <v>StructureDefinition-backport-subscription-definitions</v>
       </c>
       <c r="N93" s="9" t="str" cm="1">
-        <f t="array" ref="N93">SECTION_NAME(A93)</f>
+        <f t="array" ref="N93">SECTION_NAME(B93)</f>
         <v>root</v>
       </c>
       <c r="O93" s="14"/>
       <c r="P93" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q93" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="U93" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="Q93" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="U93" s="20" t="s">
+      <c r="V93" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="V93" s="20" t="s">
+      <c r="W93" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB93" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="W93" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB93" s="20" t="s">
+      <c r="AC93"/>
+    </row>
+    <row r="94" spans="1:41" ht="68" x14ac:dyDescent="0.2">
+      <c r="A94" s="7">
+        <v>94</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>373</v>
-      </c>
-      <c r="AC93"/>
-    </row>
-    <row r="94" spans="1:41" ht="68" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B94" s="7">
-        <v>94</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>374</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>70</v>
@@ -8752,43 +8753,43 @@
         <v>39</v>
       </c>
       <c r="M94" s="9" t="str" cm="1">
-        <f t="array" ref="M94">PAGE_NAME(A94)</f>
+        <f t="array" ref="M94">PAGE_NAME(B94)</f>
         <v>StructureDefinition-backport-subscription-definitions</v>
       </c>
       <c r="N94" s="9" t="str" cm="1">
-        <f t="array" ref="N94">SECTION_NAME(A94)</f>
+        <f t="array" ref="N94">SECTION_NAME(B94)</f>
         <v>root</v>
       </c>
       <c r="O94" s="14"/>
       <c r="P94" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q94" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U94" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="V94" s="20" t="s">
         <v>375</v>
-      </c>
-      <c r="V94" s="20" t="s">
-        <v>376</v>
       </c>
       <c r="W94" s="20" t="s">
         <v>97</v>
       </c>
       <c r="AB94" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC94"/>
+    </row>
+    <row r="95" spans="1:41" ht="119" x14ac:dyDescent="0.2">
+      <c r="A95" s="7">
+        <v>95</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C95" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="AC94"/>
-    </row>
-    <row r="95" spans="1:41" ht="119" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B95" s="7">
-        <v>95</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>378</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>70</v>
@@ -8803,37 +8804,37 @@
         <v>39</v>
       </c>
       <c r="L95" s="37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M95" s="9" t="str" cm="1">
-        <f t="array" ref="M95">PAGE_NAME(A95)</f>
+        <f t="array" ref="M95">PAGE_NAME(B95)</f>
         <v>StructureDefinition-backport-subscription-definitions</v>
       </c>
       <c r="N95" s="9" t="str" cm="1">
-        <f t="array" ref="N95">SECTION_NAME(A95)</f>
+        <f t="array" ref="N95">SECTION_NAME(B95)</f>
         <v>root</v>
       </c>
       <c r="O95" s="14"/>
       <c r="P95" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q95" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="V95" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="V95" s="20" t="s">
+      <c r="AC95"/>
+    </row>
+    <row r="96" spans="1:41" ht="85" x14ac:dyDescent="0.2">
+      <c r="A96" s="12">
+        <v>96</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="AC95"/>
-    </row>
-    <row r="96" spans="1:41" ht="85" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B96" s="12">
-        <v>96</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>382</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>70</v>
@@ -8849,37 +8850,37 @@
         <v>39</v>
       </c>
       <c r="L96" s="37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M96" s="9" t="str" cm="1">
-        <f t="array" ref="M96">PAGE_NAME(A96)</f>
+        <f t="array" ref="M96">PAGE_NAME(B96)</f>
         <v>StructureDefinition-backport-subscription-definitions</v>
       </c>
       <c r="N96" s="9" t="str" cm="1">
-        <f t="array" ref="N96">SECTION_NAME(A96)</f>
+        <f t="array" ref="N96">SECTION_NAME(B96)</f>
         <v>root</v>
       </c>
       <c r="O96" s="14"/>
       <c r="P96" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q96" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V96" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AC96"/>
     </row>
     <row r="97" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B97" s="7">
+      <c r="A97" s="7">
         <v>97</v>
       </c>
+      <c r="B97" s="7" t="s">
+        <v>367</v>
+      </c>
       <c r="C97" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>70</v>
@@ -8894,43 +8895,43 @@
         <v>39</v>
       </c>
       <c r="M97" s="9" t="str" cm="1">
-        <f t="array" ref="M97">PAGE_NAME(A97)</f>
+        <f t="array" ref="M97">PAGE_NAME(B97)</f>
         <v>StructureDefinition-backport-subscription-definitions</v>
       </c>
       <c r="N97" s="9" t="str" cm="1">
-        <f t="array" ref="N97">SECTION_NAME(A97)</f>
+        <f t="array" ref="N97">SECTION_NAME(B97)</f>
         <v>root</v>
       </c>
       <c r="O97" s="14"/>
       <c r="P97" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q97" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U97" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="V97" s="20" t="s">
         <v>385</v>
-      </c>
-      <c r="V97" s="20" t="s">
-        <v>386</v>
       </c>
       <c r="W97" s="20" t="s">
         <v>97</v>
       </c>
       <c r="AB97" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC97"/>
+    </row>
+    <row r="98" spans="1:29" ht="136" x14ac:dyDescent="0.2">
+      <c r="A98" s="7">
+        <v>98</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>387</v>
-      </c>
-      <c r="AC97"/>
-    </row>
-    <row r="98" spans="1:29" ht="136" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B98" s="7">
-        <v>98</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>388</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>70</v>
@@ -8945,46 +8946,46 @@
         <v>39</v>
       </c>
       <c r="L98" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M98" s="9" t="str" cm="1">
-        <f t="array" ref="M98">PAGE_NAME(A98)</f>
+        <f t="array" ref="M98">PAGE_NAME(B98)</f>
         <v>StructureDefinition-backport-subscription-definitions</v>
       </c>
       <c r="N98" s="9" t="str" cm="1">
-        <f t="array" ref="N98">SECTION_NAME(A98)</f>
+        <f t="array" ref="N98">SECTION_NAME(B98)</f>
         <v>root</v>
       </c>
       <c r="O98" s="14"/>
       <c r="P98" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q98" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U98" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V98" s="33" t="s">
         <v>105</v>
       </c>
       <c r="W98" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC98"/>
     </row>
     <row r="99" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="7">
+        <v>99</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C99" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="B99" s="7">
-        <v>99</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>392</v>
-      </c>
       <c r="D99" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>38</v>
@@ -8996,40 +8997,40 @@
         <v>39</v>
       </c>
       <c r="M99" s="9" t="str" cm="1">
-        <f t="array" ref="M99">PAGE_NAME(A99)</f>
+        <f t="array" ref="M99">PAGE_NAME(B99)</f>
         <v/>
       </c>
       <c r="N99" s="9" t="str" cm="1">
-        <f t="array" ref="N99">SECTION_NAME(A99)</f>
+        <f t="array" ref="N99">SECTION_NAME(B99)</f>
         <v/>
       </c>
       <c r="O99" s="14"/>
       <c r="P99" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q99" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="U99" s="20" t="s">
         <v>393</v>
-      </c>
-      <c r="Q99" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="U99" s="20" t="s">
-        <v>394</v>
       </c>
       <c r="V99" s="20" t="s">
         <v>105</v>
       </c>
       <c r="W99" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC99"/>
     </row>
     <row r="100" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B100" s="7">
+      <c r="A100" s="7">
         <v>100</v>
       </c>
+      <c r="B100" s="7" t="s">
+        <v>390</v>
+      </c>
       <c r="C100" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>37</v>
@@ -9047,34 +9048,34 @@
         <v>121</v>
       </c>
       <c r="M100" s="9" t="str" cm="1">
-        <f t="array" ref="M100">PAGE_NAME(A100)</f>
+        <f t="array" ref="M100">PAGE_NAME(B100)</f>
         <v/>
       </c>
       <c r="N100" s="9" t="str" cm="1">
-        <f t="array" ref="N100">SECTION_NAME(A100)</f>
+        <f t="array" ref="N100">SECTION_NAME(B100)</f>
         <v/>
       </c>
       <c r="O100" s="14"/>
       <c r="P100" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q100" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V100" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC100"/>
     </row>
     <row r="101" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B101" s="7">
+      <c r="A101" s="7">
         <v>101</v>
       </c>
+      <c r="B101" s="7" t="s">
+        <v>390</v>
+      </c>
       <c r="C101" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>79</v>
@@ -9089,40 +9090,40 @@
         <v>39</v>
       </c>
       <c r="M101" s="9" t="str" cm="1">
-        <f t="array" ref="M101">PAGE_NAME(A101)</f>
+        <f t="array" ref="M101">PAGE_NAME(B101)</f>
         <v/>
       </c>
       <c r="N101" s="9" t="str" cm="1">
-        <f t="array" ref="N101">SECTION_NAME(A101)</f>
+        <f t="array" ref="N101">SECTION_NAME(B101)</f>
         <v/>
       </c>
       <c r="O101" s="14"/>
       <c r="P101" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q101" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U101" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="V101" s="20" t="s">
         <v>105</v>
       </c>
       <c r="W101" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC101"/>
     </row>
     <row r="102" spans="1:29" ht="136" x14ac:dyDescent="0.2">
-      <c r="A102" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B102" s="7">
+      <c r="A102" s="7">
         <v>102</v>
       </c>
+      <c r="B102" s="7" t="s">
+        <v>390</v>
+      </c>
       <c r="C102" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>70</v>
@@ -9137,43 +9138,43 @@
         <v>39</v>
       </c>
       <c r="M102" s="9" t="str" cm="1">
-        <f t="array" ref="M102">PAGE_NAME(A102)</f>
+        <f t="array" ref="M102">PAGE_NAME(B102)</f>
         <v/>
       </c>
       <c r="N102" s="9" t="str" cm="1">
-        <f t="array" ref="N102">SECTION_NAME(A102)</f>
+        <f t="array" ref="N102">SECTION_NAME(B102)</f>
         <v/>
       </c>
       <c r="O102" s="14"/>
       <c r="P102" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q102" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U102" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="V102" s="20" t="s">
         <v>105</v>
       </c>
       <c r="W102" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA102" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC102"/>
+    </row>
+    <row r="103" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+      <c r="A103" s="7">
+        <v>103</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C103" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="AC102"/>
-    </row>
-    <row r="103" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A103" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B103" s="7">
-        <v>103</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>401</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>70</v>
@@ -9188,43 +9189,43 @@
         <v>39</v>
       </c>
       <c r="M103" s="9" t="str" cm="1">
-        <f t="array" ref="M103">PAGE_NAME(A103)</f>
+        <f t="array" ref="M103">PAGE_NAME(B103)</f>
         <v/>
       </c>
       <c r="N103" s="9" t="str" cm="1">
-        <f t="array" ref="N103">SECTION_NAME(A103)</f>
+        <f t="array" ref="N103">SECTION_NAME(B103)</f>
         <v/>
       </c>
       <c r="O103" s="14"/>
       <c r="P103" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q103" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U103" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="V103" s="20" t="s">
         <v>105</v>
       </c>
       <c r="W103" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA103" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AC103"/>
     </row>
     <row r="104" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B104" s="7">
+      <c r="A104" s="7">
         <v>104</v>
       </c>
+      <c r="B104" s="7" t="s">
+        <v>390</v>
+      </c>
       <c r="C104" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>37</v>
@@ -9242,34 +9243,34 @@
         <v>121</v>
       </c>
       <c r="M104" s="9" t="str" cm="1">
-        <f t="array" ref="M104">PAGE_NAME(A104)</f>
+        <f t="array" ref="M104">PAGE_NAME(B104)</f>
         <v/>
       </c>
       <c r="N104" s="9" t="str" cm="1">
-        <f t="array" ref="N104">SECTION_NAME(A104)</f>
+        <f t="array" ref="N104">SECTION_NAME(B104)</f>
         <v/>
       </c>
       <c r="O104" s="14"/>
       <c r="P104" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q104" s="20" t="s">
         <v>103</v>
       </c>
       <c r="V104" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC104"/>
     </row>
     <row r="105" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A105" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B105" s="7">
+      <c r="A105" s="7">
         <v>105</v>
       </c>
+      <c r="B105" s="7" t="s">
+        <v>390</v>
+      </c>
       <c r="C105" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>37</v>
@@ -9287,34 +9288,34 @@
         <v>121</v>
       </c>
       <c r="M105" s="9" t="str" cm="1">
-        <f t="array" ref="M105">PAGE_NAME(A105)</f>
+        <f t="array" ref="M105">PAGE_NAME(B105)</f>
         <v/>
       </c>
       <c r="N105" s="9" t="str" cm="1">
-        <f t="array" ref="N105">SECTION_NAME(A105)</f>
+        <f t="array" ref="N105">SECTION_NAME(B105)</f>
         <v/>
       </c>
       <c r="O105" s="14"/>
       <c r="P105" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q105" s="20" t="s">
         <v>103</v>
       </c>
       <c r="V105" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC105"/>
     </row>
     <row r="106" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="7">
+        <v>106</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>405</v>
-      </c>
-      <c r="B106" s="7">
-        <v>106</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>406</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>70</v>
@@ -9329,40 +9330,40 @@
         <v>39</v>
       </c>
       <c r="M106" s="9" t="str" cm="1">
-        <f t="array" ref="M106">PAGE_NAME(A106)</f>
+        <f t="array" ref="M106">PAGE_NAME(B106)</f>
         <v/>
       </c>
       <c r="N106" s="9" t="str" cm="1">
-        <f t="array" ref="N106">SECTION_NAME(A106)</f>
+        <f t="array" ref="N106">SECTION_NAME(B106)</f>
         <v/>
       </c>
       <c r="O106" s="14"/>
       <c r="P106" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q106" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="U106" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="Q106" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="U106" s="20" t="s">
+      <c r="V106" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="V106" s="20" t="s">
+      <c r="W106" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC106"/>
+    </row>
+    <row r="107" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="A107" s="7">
+        <v>107</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>409</v>
-      </c>
-      <c r="W106" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC106"/>
-    </row>
-    <row r="107" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A107" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B107" s="7">
-        <v>107</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>410</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>70</v>
@@ -9377,40 +9378,40 @@
         <v>39</v>
       </c>
       <c r="M107" s="9" t="str" cm="1">
-        <f t="array" ref="M107">PAGE_NAME(A107)</f>
+        <f t="array" ref="M107">PAGE_NAME(B107)</f>
         <v/>
       </c>
       <c r="N107" s="9" t="str" cm="1">
-        <f t="array" ref="N107">SECTION_NAME(A107)</f>
+        <f t="array" ref="N107">SECTION_NAME(B107)</f>
         <v/>
       </c>
       <c r="O107" s="14"/>
       <c r="P107" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q107" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U107" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="V107" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="V107" s="20" t="s">
+      <c r="W107" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC107"/>
+    </row>
+    <row r="108" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+      <c r="A108" s="7">
+        <v>108</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C108" s="8" t="s">
         <v>412</v>
-      </c>
-      <c r="W107" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC107"/>
-    </row>
-    <row r="108" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A108" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B108" s="7">
-        <v>108</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>413</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>70</v>
@@ -9425,40 +9426,40 @@
         <v>39</v>
       </c>
       <c r="M108" s="9" t="str" cm="1">
-        <f t="array" ref="M108">PAGE_NAME(A108)</f>
+        <f t="array" ref="M108">PAGE_NAME(B108)</f>
         <v/>
       </c>
       <c r="N108" s="9" t="str" cm="1">
-        <f t="array" ref="N108">SECTION_NAME(A108)</f>
+        <f t="array" ref="N108">SECTION_NAME(B108)</f>
         <v/>
       </c>
       <c r="O108" s="14"/>
       <c r="P108" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q108" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U108" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="V108" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="V108" s="20" t="s">
+      <c r="W108" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC108"/>
+    </row>
+    <row r="109" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+      <c r="A109" s="7">
+        <v>109</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="W108" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC108"/>
-    </row>
-    <row r="109" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A109" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B109" s="7">
-        <v>109</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>416</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>70</v>
@@ -9473,40 +9474,40 @@
         <v>39</v>
       </c>
       <c r="M109" s="9" t="str" cm="1">
-        <f t="array" ref="M109">PAGE_NAME(A109)</f>
+        <f t="array" ref="M109">PAGE_NAME(B109)</f>
         <v/>
       </c>
       <c r="N109" s="9" t="str" cm="1">
-        <f t="array" ref="N109">SECTION_NAME(A109)</f>
+        <f t="array" ref="N109">SECTION_NAME(B109)</f>
         <v/>
       </c>
       <c r="O109" s="14"/>
       <c r="P109" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q109" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U109" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="V109" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="V109" s="20" t="s">
+      <c r="W109" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC109"/>
+    </row>
+    <row r="110" spans="1:29" ht="102" x14ac:dyDescent="0.2">
+      <c r="A110" s="7">
+        <v>110</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C110" s="8" t="s">
         <v>418</v>
-      </c>
-      <c r="W109" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC109"/>
-    </row>
-    <row r="110" spans="1:29" ht="102" x14ac:dyDescent="0.2">
-      <c r="A110" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B110" s="7">
-        <v>110</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>419</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>70</v>
@@ -9521,40 +9522,40 @@
         <v>39</v>
       </c>
       <c r="M110" s="9" t="str" cm="1">
-        <f t="array" ref="M110">PAGE_NAME(A110)</f>
+        <f t="array" ref="M110">PAGE_NAME(B110)</f>
         <v/>
       </c>
       <c r="N110" s="9" t="str" cm="1">
-        <f t="array" ref="N110">SECTION_NAME(A110)</f>
+        <f t="array" ref="N110">SECTION_NAME(B110)</f>
         <v/>
       </c>
       <c r="O110" s="14"/>
       <c r="P110" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q110" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U110" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="V110" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="V110" s="20" t="s">
+      <c r="W110" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC110"/>
+    </row>
+    <row r="111" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+      <c r="A111" s="7">
+        <v>111</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C111" s="8" t="s">
         <v>421</v>
-      </c>
-      <c r="W110" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC110"/>
-    </row>
-    <row r="111" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A111" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B111" s="7">
-        <v>111</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>422</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>70</v>
@@ -9569,40 +9570,40 @@
         <v>39</v>
       </c>
       <c r="M111" s="9" t="str" cm="1">
-        <f t="array" ref="M111">PAGE_NAME(A111)</f>
+        <f t="array" ref="M111">PAGE_NAME(B111)</f>
         <v/>
       </c>
       <c r="N111" s="9" t="str" cm="1">
-        <f t="array" ref="N111">SECTION_NAME(A111)</f>
+        <f t="array" ref="N111">SECTION_NAME(B111)</f>
         <v/>
       </c>
       <c r="O111" s="14"/>
       <c r="P111" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q111" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U111" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="V111" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="V111" s="20" t="s">
+      <c r="W111" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC111"/>
+    </row>
+    <row r="112" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+      <c r="A112" s="7">
+        <v>112</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C112" s="8" t="s">
         <v>424</v>
-      </c>
-      <c r="W111" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC111"/>
-    </row>
-    <row r="112" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B112" s="7">
-        <v>112</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>425</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>70</v>
@@ -9617,40 +9618,40 @@
         <v>39</v>
       </c>
       <c r="M112" s="9" t="str" cm="1">
-        <f t="array" ref="M112">PAGE_NAME(A112)</f>
+        <f t="array" ref="M112">PAGE_NAME(B112)</f>
         <v/>
       </c>
       <c r="N112" s="9" t="str" cm="1">
-        <f t="array" ref="N112">SECTION_NAME(A112)</f>
+        <f t="array" ref="N112">SECTION_NAME(B112)</f>
         <v/>
       </c>
       <c r="O112" s="14"/>
       <c r="P112" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q112" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U112" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="V112" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="V112" s="20" t="s">
+      <c r="W112" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC112"/>
+    </row>
+    <row r="113" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A113" s="7">
+        <v>113</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>427</v>
-      </c>
-      <c r="W112" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC112"/>
-    </row>
-    <row r="113" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B113" s="7">
-        <v>113</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>428</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>37</v>
@@ -9665,11 +9666,11 @@
         <v>39</v>
       </c>
       <c r="M113" s="9" t="str" cm="1">
-        <f t="array" ref="M113">PAGE_NAME(A113)</f>
+        <f t="array" ref="M113">PAGE_NAME(B113)</f>
         <v>channels</v>
       </c>
       <c r="N113" s="9" t="str" cm="1">
-        <f t="array" ref="N113">SECTION_NAME(A113)</f>
+        <f t="array" ref="N113">SECTION_NAME(B113)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O113" s="14"/>
@@ -9680,10 +9681,10 @@
         <v>148</v>
       </c>
       <c r="U113" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="V113" s="20" t="s">
         <v>429</v>
-      </c>
-      <c r="V113" s="20" t="s">
-        <v>430</v>
       </c>
       <c r="W113" s="20" t="s">
         <v>75</v>
@@ -9693,14 +9694,14 @@
       </c>
     </row>
     <row r="114" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="7">
+        <v>114</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>431</v>
-      </c>
-      <c r="B114" s="7">
-        <v>114</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>432</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>70</v>
@@ -9715,39 +9716,39 @@
         <v>39</v>
       </c>
       <c r="M114" s="9" t="str" cm="1">
-        <f t="array" ref="M114">PAGE_NAME(A114)</f>
+        <f t="array" ref="M114">PAGE_NAME(B114)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N114" s="9" t="str" cm="1">
-        <f t="array" ref="N114">SECTION_NAME(A114)</f>
+        <f t="array" ref="N114">SECTION_NAME(B114)</f>
         <v>subscription</v>
       </c>
       <c r="O114" s="14"/>
       <c r="P114" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q114" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U114" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="V114" s="20" t="s">
         <v>434</v>
-      </c>
-      <c r="V114" s="20" t="s">
-        <v>435</v>
       </c>
       <c r="W114" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="85" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="7">
+        <v>115</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C115" s="8" t="s">
         <v>436</v>
-      </c>
-      <c r="B115" s="7">
-        <v>115</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>437</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>70</v>
@@ -9762,39 +9763,39 @@
         <v>39</v>
       </c>
       <c r="M115" s="9" t="str" cm="1">
-        <f t="array" ref="M115">PAGE_NAME(A115)</f>
+        <f t="array" ref="M115">PAGE_NAME(B115)</f>
         <v/>
       </c>
       <c r="N115" s="9" t="str" cm="1">
-        <f t="array" ref="N115">SECTION_NAME(A115)</f>
+        <f t="array" ref="N115">SECTION_NAME(B115)</f>
         <v/>
       </c>
       <c r="O115" s="14"/>
       <c r="P115" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q115" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="U115" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="Q115" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="U115" s="20" t="s">
+      <c r="V115" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="V115" s="20" t="s">
+      <c r="W115" s="20" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+      <c r="A116" s="7">
+        <v>116</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>440</v>
-      </c>
-      <c r="W115" s="20" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="116" spans="1:28" ht="68" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B116" s="7">
-        <v>116</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>441</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>70</v>
@@ -9809,36 +9810,36 @@
         <v>39</v>
       </c>
       <c r="M116" s="9" t="str" cm="1">
-        <f t="array" ref="M116">PAGE_NAME(A116)</f>
+        <f t="array" ref="M116">PAGE_NAME(B116)</f>
         <v/>
       </c>
       <c r="N116" s="9" t="str" cm="1">
-        <f t="array" ref="N116">SECTION_NAME(A116)</f>
+        <f t="array" ref="N116">SECTION_NAME(B116)</f>
         <v/>
       </c>
       <c r="O116" s="14"/>
       <c r="P116" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q116" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U116" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="V116" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="V116" s="20" t="s">
+    </row>
+    <row r="117" spans="1:28" ht="85" x14ac:dyDescent="0.2">
+      <c r="A117" s="7">
+        <v>117</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>443</v>
-      </c>
-    </row>
-    <row r="117" spans="1:28" ht="85" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B117" s="7">
-        <v>117</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>444</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>37</v>
@@ -9856,33 +9857,33 @@
         <v>121</v>
       </c>
       <c r="M117" s="9" t="str" cm="1">
-        <f t="array" ref="M117">PAGE_NAME(A117)</f>
+        <f t="array" ref="M117">PAGE_NAME(B117)</f>
         <v/>
       </c>
       <c r="N117" s="9" t="str" cm="1">
-        <f t="array" ref="N117">SECTION_NAME(A117)</f>
+        <f t="array" ref="N117">SECTION_NAME(B117)</f>
         <v/>
       </c>
       <c r="O117" s="14"/>
       <c r="P117" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q117" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V117" s="20" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A118" s="7">
+        <v>118</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>445</v>
-      </c>
-    </row>
-    <row r="118" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B118" s="7">
-        <v>118</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>70</v>
@@ -9897,39 +9898,39 @@
         <v>39</v>
       </c>
       <c r="M118" s="9" t="str" cm="1">
-        <f t="array" ref="M118">PAGE_NAME(A118)</f>
+        <f t="array" ref="M118">PAGE_NAME(B118)</f>
         <v/>
       </c>
       <c r="N118" s="9" t="str" cm="1">
-        <f t="array" ref="N118">SECTION_NAME(A118)</f>
+        <f t="array" ref="N118">SECTION_NAME(B118)</f>
         <v/>
       </c>
       <c r="O118" s="14"/>
       <c r="P118" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q118" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U118" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="V118" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="V118" s="20" t="s">
+      <c r="W118" s="20" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A119" s="7">
+        <v>119</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C119" s="8" t="s">
         <v>448</v>
-      </c>
-      <c r="W118" s="20" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="119" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B119" s="7">
-        <v>119</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>449</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>70</v>
@@ -9944,39 +9945,39 @@
         <v>39</v>
       </c>
       <c r="M119" s="9" t="str" cm="1">
-        <f t="array" ref="M119">PAGE_NAME(A119)</f>
+        <f t="array" ref="M119">PAGE_NAME(B119)</f>
         <v/>
       </c>
       <c r="N119" s="9" t="str" cm="1">
-        <f t="array" ref="N119">SECTION_NAME(A119)</f>
+        <f t="array" ref="N119">SECTION_NAME(B119)</f>
         <v/>
       </c>
       <c r="O119" s="14"/>
       <c r="P119" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q119" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U119" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="V119" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="W119" s="20" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" ht="85" x14ac:dyDescent="0.2">
+      <c r="A120" s="7">
+        <v>120</v>
+      </c>
+      <c r="B120" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="V119" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="W119" s="20" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="120" spans="1:28" ht="85" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
+      <c r="C120" s="8" t="s">
         <v>451</v>
-      </c>
-      <c r="B120" s="7">
-        <v>120</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>452</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>79</v>
@@ -9991,39 +9992,39 @@
         <v>39</v>
       </c>
       <c r="M120" s="9" t="str" cm="1">
-        <f t="array" ref="M120">PAGE_NAME(A120)</f>
+        <f t="array" ref="M120">PAGE_NAME(B120)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N120" s="9" t="str" cm="1">
-        <f t="array" ref="N120">SECTION_NAME(A120)</f>
+        <f t="array" ref="N120">SECTION_NAME(B120)</f>
         <v>summary</v>
       </c>
       <c r="O120" s="14"/>
       <c r="P120" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q120" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U120" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="V120" s="20" t="s">
         <v>453</v>
-      </c>
-      <c r="V120" s="20" t="s">
-        <v>454</v>
       </c>
       <c r="W120" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B121" s="7">
+      <c r="A121" s="7">
         <v>121</v>
       </c>
+      <c r="B121" s="7" t="s">
+        <v>450</v>
+      </c>
       <c r="C121" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>70</v>
@@ -10038,42 +10039,42 @@
         <v>39</v>
       </c>
       <c r="M121" s="9" t="str" cm="1">
-        <f t="array" ref="M121">PAGE_NAME(A121)</f>
+        <f t="array" ref="M121">PAGE_NAME(B121)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N121" s="9" t="str" cm="1">
-        <f t="array" ref="N121">SECTION_NAME(A121)</f>
+        <f t="array" ref="N121">SECTION_NAME(B121)</f>
         <v>summary</v>
       </c>
       <c r="O121" s="14"/>
       <c r="P121" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q121" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U121" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="V121" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="V121" s="20" t="s">
+      <c r="W121" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA121" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="W121" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA121" s="20" t="s">
+    </row>
+    <row r="122" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A122" s="7">
+        <v>122</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>458</v>
-      </c>
-    </row>
-    <row r="122" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B122" s="7">
-        <v>122</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>459</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>37</v>
@@ -10090,16 +10091,16 @@
       </c>
       <c r="L122" s="38"/>
       <c r="M122" s="9" t="str" cm="1">
-        <f t="array" ref="M122">PAGE_NAME(A122)</f>
+        <f t="array" ref="M122">PAGE_NAME(B122)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N122" s="9" t="str" cm="1">
-        <f t="array" ref="N122">SECTION_NAME(A122)</f>
+        <f t="array" ref="N122">SECTION_NAME(B122)</f>
         <v>summary</v>
       </c>
       <c r="O122" s="14"/>
       <c r="P122" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q122" s="20" t="s">
         <v>46</v>
@@ -10107,27 +10108,27 @@
       <c r="S122" s="10"/>
       <c r="T122" s="10"/>
       <c r="U122" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="V122" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="V122" s="20" t="s">
+      <c r="W122" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA122" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="W122" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA122" s="20" t="s">
+    </row>
+    <row r="123" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A123" s="7">
+        <v>123</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>462</v>
-      </c>
-    </row>
-    <row r="123" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B123" s="7">
-        <v>123</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>463</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>37</v>
@@ -10142,36 +10143,36 @@
         <v>50</v>
       </c>
       <c r="L123" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M123" s="9" t="str" cm="1">
-        <f t="array" ref="M123">PAGE_NAME(A123)</f>
+        <f t="array" ref="M123">PAGE_NAME(B123)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N123" s="9" t="str" cm="1">
-        <f t="array" ref="N123">SECTION_NAME(A123)</f>
+        <f t="array" ref="N123">SECTION_NAME(B123)</f>
         <v>summary</v>
       </c>
       <c r="O123" s="14"/>
       <c r="P123" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q123" s="20" t="s">
         <v>46</v>
       </c>
       <c r="V123" s="20" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A124" s="7">
+        <v>124</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C124" s="8" t="s">
         <v>465</v>
-      </c>
-    </row>
-    <row r="124" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B124" s="7">
-        <v>124</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>466</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>70</v>
@@ -10186,42 +10187,42 @@
         <v>39</v>
       </c>
       <c r="M124" s="9" t="str" cm="1">
-        <f t="array" ref="M124">PAGE_NAME(A124)</f>
+        <f t="array" ref="M124">PAGE_NAME(B124)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N124" s="9" t="str" cm="1">
-        <f t="array" ref="N124">SECTION_NAME(A124)</f>
+        <f t="array" ref="N124">SECTION_NAME(B124)</f>
         <v>summary</v>
       </c>
       <c r="O124" s="14"/>
       <c r="P124" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q124" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U124" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="V124" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="V124" s="20" t="s">
+      <c r="W124" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA124" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="W124" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA124" s="20" t="s">
+    </row>
+    <row r="125" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+      <c r="A125" s="7">
+        <v>125</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C125" s="8" t="s">
         <v>469</v>
-      </c>
-    </row>
-    <row r="125" spans="1:28" ht="68" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B125" s="7">
-        <v>125</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>470</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>79</v>
@@ -10236,42 +10237,42 @@
         <v>39</v>
       </c>
       <c r="M125" s="9" t="str" cm="1">
-        <f t="array" ref="M125">PAGE_NAME(A125)</f>
+        <f t="array" ref="M125">PAGE_NAME(B125)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N125" s="9" t="str" cm="1">
-        <f t="array" ref="N125">SECTION_NAME(A125)</f>
+        <f t="array" ref="N125">SECTION_NAME(B125)</f>
         <v>summary</v>
       </c>
       <c r="O125" s="14"/>
       <c r="P125" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q125" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U125" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="V125" s="20" t="s">
         <v>471</v>
-      </c>
-      <c r="V125" s="20" t="s">
-        <v>472</v>
       </c>
       <c r="W125" s="20" t="s">
         <v>46</v>
       </c>
       <c r="AB125" s="20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+      <c r="A126" s="7">
+        <v>126</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>473</v>
-      </c>
-    </row>
-    <row r="126" spans="1:28" ht="68" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B126" s="7">
-        <v>126</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>474</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>79</v>
@@ -10286,39 +10287,39 @@
         <v>39</v>
       </c>
       <c r="M126" s="9" t="str" cm="1">
-        <f t="array" ref="M126">PAGE_NAME(A126)</f>
+        <f t="array" ref="M126">PAGE_NAME(B126)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N126" s="9" t="str" cm="1">
-        <f t="array" ref="N126">SECTION_NAME(A126)</f>
+        <f t="array" ref="N126">SECTION_NAME(B126)</f>
         <v>summary</v>
       </c>
       <c r="O126" s="14"/>
       <c r="P126" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q126" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U126" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="V126" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="V126" s="20" t="s">
+      <c r="W126" s="20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A127" s="7">
+        <v>127</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C127" s="8" t="s">
         <v>476</v>
-      </c>
-      <c r="W126" s="20" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="127" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B127" s="7">
-        <v>127</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>477</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>79</v>
@@ -10333,39 +10334,39 @@
         <v>39</v>
       </c>
       <c r="M127" s="9" t="str" cm="1">
-        <f t="array" ref="M127">PAGE_NAME(A127)</f>
+        <f t="array" ref="M127">PAGE_NAME(B127)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N127" s="9" t="str" cm="1">
-        <f t="array" ref="N127">SECTION_NAME(A127)</f>
+        <f t="array" ref="N127">SECTION_NAME(B127)</f>
         <v>summary</v>
       </c>
       <c r="O127" s="14"/>
       <c r="P127" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q127" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U127" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="V127" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="V127" s="20" t="s">
+      <c r="W127" s="20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28" ht="136" x14ac:dyDescent="0.2">
+      <c r="A128" s="7">
+        <v>128</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C128" s="8" t="s">
         <v>479</v>
-      </c>
-      <c r="W127" s="20" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="128" spans="1:28" ht="136" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B128" s="7">
-        <v>128</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>480</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>37</v>
@@ -10380,39 +10381,39 @@
         <v>39</v>
       </c>
       <c r="L128" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M128" s="9" t="str" cm="1">
-        <f t="array" ref="M128">PAGE_NAME(A128)</f>
+        <f t="array" ref="M128">PAGE_NAME(B128)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N128" s="9" t="str" cm="1">
-        <f t="array" ref="N128">SECTION_NAME(A128)</f>
+        <f t="array" ref="N128">SECTION_NAME(B128)</f>
         <v>summary</v>
       </c>
       <c r="O128" s="14"/>
       <c r="P128" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q128" s="20" t="s">
         <v>46</v>
       </c>
       <c r="V128" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AA128" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="AA128" s="20" t="s">
-        <v>483</v>
-      </c>
     </row>
     <row r="129" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A129" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B129" s="7">
+      <c r="A129" s="7">
         <v>129</v>
       </c>
+      <c r="B129" s="7" t="s">
+        <v>450</v>
+      </c>
       <c r="C129" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>70</v>
@@ -10427,39 +10428,39 @@
         <v>39</v>
       </c>
       <c r="M129" s="9" t="str" cm="1">
-        <f t="array" ref="M129">PAGE_NAME(A129)</f>
+        <f t="array" ref="M129">PAGE_NAME(B129)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N129" s="9" t="str" cm="1">
-        <f t="array" ref="N129">SECTION_NAME(A129)</f>
+        <f t="array" ref="N129">SECTION_NAME(B129)</f>
         <v>summary</v>
       </c>
       <c r="O129" s="14"/>
       <c r="P129" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q129" s="20" t="s">
         <v>46</v>
       </c>
       <c r="V129" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA129" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="AB129" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="AA129" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="AB129" s="20" t="s">
+    </row>
+    <row r="130" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+      <c r="A130" s="7">
+        <v>130</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C130" s="8" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="130" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A130" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B130" s="7">
-        <v>130</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>486</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>79</v>
@@ -10474,36 +10475,36 @@
         <v>39</v>
       </c>
       <c r="M130" s="9" t="str" cm="1">
-        <f t="array" ref="M130">PAGE_NAME(A130)</f>
+        <f t="array" ref="M130">PAGE_NAME(B130)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N130" s="9" t="str" cm="1">
-        <f t="array" ref="N130">SECTION_NAME(A130)</f>
+        <f t="array" ref="N130">SECTION_NAME(B130)</f>
         <v>summary</v>
       </c>
       <c r="O130" s="14"/>
       <c r="P130" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q130" s="20" t="s">
         <v>46</v>
       </c>
       <c r="V130" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB130" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="AB130" s="20" t="s">
-        <v>485</v>
-      </c>
     </row>
     <row r="131" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="7">
+        <v>131</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C131" s="8" t="s">
         <v>487</v>
-      </c>
-      <c r="B131" s="7">
-        <v>131</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>488</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>37</v>
@@ -10515,7 +10516,7 @@
         <v>50</v>
       </c>
       <c r="J131" s="37" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K131" s="37" t="s">
         <v>50</v>
@@ -10524,36 +10525,36 @@
         <v>52</v>
       </c>
       <c r="M131" s="9" t="str" cm="1">
-        <f t="array" ref="M131">PAGE_NAME(A131)</f>
+        <f t="array" ref="M131">PAGE_NAME(B131)</f>
         <v/>
       </c>
       <c r="N131" s="9" t="str" cm="1">
-        <f t="array" ref="N131">SECTION_NAME(A131)</f>
+        <f t="array" ref="N131">SECTION_NAME(B131)</f>
         <v/>
       </c>
       <c r="O131" s="14"/>
       <c r="P131" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Q131" s="20" t="s">
         <v>103</v>
       </c>
       <c r="V131" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="AB131" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="AB131" s="20" t="s">
-        <v>492</v>
-      </c>
     </row>
     <row r="132" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="7">
+        <v>132</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C132" s="8" t="s">
         <v>487</v>
-      </c>
-      <c r="B132" s="7">
-        <v>132</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>488</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>37</v>
@@ -10565,7 +10566,7 @@
         <v>50</v>
       </c>
       <c r="J132" s="37" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K132" s="37" t="s">
         <v>50</v>
@@ -10574,37 +10575,37 @@
         <v>52</v>
       </c>
       <c r="M132" s="9" t="str" cm="1">
-        <f t="array" ref="M132">PAGE_NAME(A132)</f>
+        <f t="array" ref="M132">PAGE_NAME(B132)</f>
         <v/>
       </c>
       <c r="N132" s="9" t="str" cm="1">
-        <f t="array" ref="N132">SECTION_NAME(A132)</f>
+        <f t="array" ref="N132">SECTION_NAME(B132)</f>
         <v/>
       </c>
       <c r="O132" s="14"/>
       <c r="P132" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Q132" s="20" t="s">
         <v>103</v>
       </c>
       <c r="V132" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="AB132" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="AB132" s="20" t="s">
+      <c r="AC132"/>
+    </row>
+    <row r="133" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="A133" s="7">
+        <v>133</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C133" s="8" t="s">
         <v>492</v>
-      </c>
-      <c r="AC132"/>
-    </row>
-    <row r="133" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B133" s="7">
-        <v>133</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>493</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>70</v>
@@ -10619,25 +10620,25 @@
         <v>39</v>
       </c>
       <c r="M133" s="9" t="str" cm="1">
-        <f t="array" ref="M133">PAGE_NAME(A133)</f>
+        <f t="array" ref="M133">PAGE_NAME(B133)</f>
         <v>conformance</v>
       </c>
       <c r="N133" s="9" t="str" cm="1">
-        <f t="array" ref="N133">SECTION_NAME(A133)</f>
+        <f t="array" ref="N133">SECTION_NAME(B133)</f>
         <v>conformance-in-fhir-r4</v>
       </c>
       <c r="O133" s="14"/>
       <c r="P133" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q133" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U133" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="V133" s="20" t="s">
         <v>494</v>
-      </c>
-      <c r="V133" s="20" t="s">
-        <v>495</v>
       </c>
       <c r="W133" s="20" t="s">
         <v>75</v>
@@ -10646,19 +10647,19 @@
         <v>76</v>
       </c>
       <c r="AB133" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="AC133"/>
+    </row>
+    <row r="134" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+      <c r="A134" s="7">
+        <v>134</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C134" s="8" t="s">
         <v>496</v>
-      </c>
-      <c r="AC133"/>
-    </row>
-    <row r="134" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A134" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B134" s="7">
-        <v>134</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>497</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>70</v>
@@ -10673,28 +10674,28 @@
         <v>39</v>
       </c>
       <c r="M134" s="9" t="str" cm="1">
-        <f t="array" ref="M134">PAGE_NAME(A134)</f>
+        <f t="array" ref="M134">PAGE_NAME(B134)</f>
         <v>conformance</v>
       </c>
       <c r="N134" s="9" t="str" cm="1">
-        <f t="array" ref="N134">SECTION_NAME(A134)</f>
+        <f t="array" ref="N134">SECTION_NAME(B134)</f>
         <v>conformance-in-fhir-r4</v>
       </c>
       <c r="O134" s="14"/>
       <c r="P134" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q134" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U134" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="V134" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="V134" s="20" t="s">
-        <v>499</v>
-      </c>
       <c r="W134" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X134" s="20" t="s">
         <v>76</v>
@@ -10702,14 +10703,14 @@
       <c r="AC134"/>
     </row>
     <row r="135" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A135" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B135" s="7">
+      <c r="A135" s="7">
         <v>135</v>
       </c>
+      <c r="B135" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="C135" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>70</v>
@@ -10724,25 +10725,25 @@
         <v>39</v>
       </c>
       <c r="M135" s="9" t="str" cm="1">
-        <f t="array" ref="M135">PAGE_NAME(A135)</f>
+        <f t="array" ref="M135">PAGE_NAME(B135)</f>
         <v>conformance</v>
       </c>
       <c r="N135" s="9" t="str" cm="1">
-        <f t="array" ref="N135">SECTION_NAME(A135)</f>
+        <f t="array" ref="N135">SECTION_NAME(B135)</f>
         <v>backport-filter-criteria-1</v>
       </c>
       <c r="O135" s="14"/>
       <c r="P135" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q135" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U135" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="V135" s="20" t="s">
         <v>501</v>
-      </c>
-      <c r="V135" s="20" t="s">
-        <v>502</v>
       </c>
       <c r="W135" s="20" t="s">
         <v>55</v>
@@ -10750,14 +10751,14 @@
       <c r="AC135"/>
     </row>
     <row r="136" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A136" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B136" s="7">
+      <c r="A136" s="7">
         <v>136</v>
       </c>
+      <c r="B136" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="C136" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>70</v>
@@ -10772,39 +10773,39 @@
         <v>39</v>
       </c>
       <c r="L136" s="37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M136" s="9" t="str" cm="1">
-        <f t="array" ref="M136">PAGE_NAME(A136)</f>
+        <f t="array" ref="M136">PAGE_NAME(B136)</f>
         <v>conformance</v>
       </c>
       <c r="N136" s="9" t="str" cm="1">
-        <f t="array" ref="N136">SECTION_NAME(A136)</f>
+        <f t="array" ref="N136">SECTION_NAME(B136)</f>
         <v>backport-filter-criteria-1</v>
       </c>
       <c r="O136" s="14"/>
       <c r="P136" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q136" s="20" t="s">
         <v>72</v>
       </c>
       <c r="V136" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="AB136" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="AB136" s="20" t="s">
+    </row>
+    <row r="137" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+      <c r="A137" s="7">
+        <v>137</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>505</v>
-      </c>
-    </row>
-    <row r="137" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A137" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B137" s="7">
-        <v>137</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>506</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>70</v>
@@ -10819,33 +10820,33 @@
         <v>39</v>
       </c>
       <c r="M137" s="9" t="str" cm="1">
-        <f t="array" ref="M137">PAGE_NAME(A137)</f>
+        <f t="array" ref="M137">PAGE_NAME(B137)</f>
         <v>conformance</v>
       </c>
       <c r="N137" s="9" t="str" cm="1">
-        <f t="array" ref="N137">SECTION_NAME(A137)</f>
+        <f t="array" ref="N137">SECTION_NAME(B137)</f>
         <v>profile-support-1</v>
       </c>
       <c r="O137" s="14"/>
       <c r="U137" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V137" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="AA137" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="AA137" s="20" t="s">
+    </row>
+    <row r="138" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+      <c r="A138" s="7">
+        <v>138</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C138" s="8" t="s">
         <v>508</v>
-      </c>
-    </row>
-    <row r="138" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A138" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B138" s="7">
-        <v>138</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>509</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>70</v>
@@ -10860,30 +10861,30 @@
         <v>39</v>
       </c>
       <c r="M138" s="9" t="str" cm="1">
-        <f t="array" ref="M138">PAGE_NAME(A138)</f>
+        <f t="array" ref="M138">PAGE_NAME(B138)</f>
         <v>conformance</v>
       </c>
       <c r="N138" s="9" t="str" cm="1">
-        <f t="array" ref="N138">SECTION_NAME(A138)</f>
+        <f t="array" ref="N138">SECTION_NAME(B138)</f>
         <v>profile-support-1</v>
       </c>
       <c r="O138" s="14"/>
       <c r="U138" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="V138" s="20" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+      <c r="A139" s="7">
+        <v>139</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C139" s="8" t="s">
         <v>510</v>
-      </c>
-      <c r="V138" s="20" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="139" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B139" s="7">
-        <v>139</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>511</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>70</v>
@@ -10898,2221 +10899,2217 @@
         <v>39</v>
       </c>
       <c r="M139" s="9" t="str" cm="1">
-        <f t="array" ref="M139">PAGE_NAME(A139)</f>
+        <f t="array" ref="M139">PAGE_NAME(B139)</f>
         <v>conformance</v>
       </c>
       <c r="N139" s="9" t="str" cm="1">
-        <f t="array" ref="N139">SECTION_NAME(A139)</f>
+        <f t="array" ref="N139">SECTION_NAME(B139)</f>
         <v>profile-support-1</v>
       </c>
       <c r="O139" s="14"/>
       <c r="U139" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="V139" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.2">
       <c r="M140" s="9" t="str" cm="1">
-        <f t="array" ref="M140">PAGE_NAME(A140)</f>
+        <f t="array" ref="M140">PAGE_NAME(B140)</f>
         <v/>
       </c>
       <c r="N140" s="9" t="str" cm="1">
-        <f t="array" ref="N140">SECTION_NAME(A140)</f>
+        <f t="array" ref="N140">SECTION_NAME(B140)</f>
         <v/>
       </c>
       <c r="O140" s="14"/>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.2">
       <c r="M141" s="9" t="str" cm="1">
-        <f t="array" ref="M141">PAGE_NAME(A141)</f>
+        <f t="array" ref="M141">PAGE_NAME(B141)</f>
         <v/>
       </c>
       <c r="N141" s="9" t="str" cm="1">
-        <f t="array" ref="N141">SECTION_NAME(A141)</f>
+        <f t="array" ref="N141">SECTION_NAME(B141)</f>
         <v/>
       </c>
       <c r="O141" s="14"/>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.2">
       <c r="M142" s="9" t="str" cm="1">
-        <f t="array" ref="M142">PAGE_NAME(A142)</f>
+        <f t="array" ref="M142">PAGE_NAME(B142)</f>
         <v/>
       </c>
       <c r="N142" s="9" t="str" cm="1">
-        <f t="array" ref="N142">SECTION_NAME(A142)</f>
+        <f t="array" ref="N142">SECTION_NAME(B142)</f>
         <v/>
       </c>
       <c r="O142" s="14"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.2">
       <c r="M143" s="9" t="str" cm="1">
-        <f t="array" ref="M143">PAGE_NAME(A143)</f>
+        <f t="array" ref="M143">PAGE_NAME(B143)</f>
         <v/>
       </c>
       <c r="N143" s="9" t="str" cm="1">
-        <f t="array" ref="N143">SECTION_NAME(A143)</f>
+        <f t="array" ref="N143">SECTION_NAME(B143)</f>
         <v/>
       </c>
       <c r="O143" s="14"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.2">
       <c r="M144" s="9" t="str" cm="1">
-        <f t="array" ref="M144">PAGE_NAME(A144)</f>
+        <f t="array" ref="M144">PAGE_NAME(B144)</f>
         <v/>
       </c>
       <c r="N144" s="9" t="str" cm="1">
-        <f t="array" ref="N144">SECTION_NAME(A144)</f>
+        <f t="array" ref="N144">SECTION_NAME(B144)</f>
         <v/>
       </c>
       <c r="O144" s="14"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M145" s="9" t="str" cm="1">
-        <f t="array" ref="M145">PAGE_NAME(A145)</f>
+        <f t="array" ref="M145">PAGE_NAME(B145)</f>
         <v/>
       </c>
       <c r="N145" s="9" t="str" cm="1">
-        <f t="array" ref="N145">SECTION_NAME(A145)</f>
+        <f t="array" ref="N145">SECTION_NAME(B145)</f>
         <v/>
       </c>
       <c r="O145" s="14"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M146" s="9" t="str" cm="1">
-        <f t="array" ref="M146">PAGE_NAME(A146)</f>
+        <f t="array" ref="M146">PAGE_NAME(B146)</f>
         <v/>
       </c>
       <c r="N146" s="9" t="str" cm="1">
-        <f t="array" ref="N146">SECTION_NAME(A146)</f>
+        <f t="array" ref="N146">SECTION_NAME(B146)</f>
         <v/>
       </c>
       <c r="O146" s="14"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M147" s="9" t="str" cm="1">
-        <f t="array" ref="M147">PAGE_NAME(A147)</f>
+        <f t="array" ref="M147">PAGE_NAME(B147)</f>
         <v/>
       </c>
       <c r="N147" s="9" t="str" cm="1">
-        <f t="array" ref="N147">SECTION_NAME(A147)</f>
+        <f t="array" ref="N147">SECTION_NAME(B147)</f>
         <v/>
       </c>
       <c r="O147" s="14"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M148" s="9" t="str" cm="1">
-        <f t="array" ref="M148">PAGE_NAME(A148)</f>
+        <f t="array" ref="M148">PAGE_NAME(B148)</f>
         <v/>
       </c>
       <c r="N148" s="9" t="str" cm="1">
-        <f t="array" ref="N148">SECTION_NAME(A148)</f>
+        <f t="array" ref="N148">SECTION_NAME(B148)</f>
         <v/>
       </c>
       <c r="O148" s="14"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A149" s="11"/>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B149" s="11"/>
       <c r="M149" s="9" t="str" cm="1">
-        <f t="array" ref="M149">PAGE_NAME(A149)</f>
+        <f t="array" ref="M149">PAGE_NAME(B149)</f>
         <v/>
       </c>
       <c r="N149" s="9" t="str" cm="1">
-        <f t="array" ref="N149">SECTION_NAME(A149)</f>
+        <f t="array" ref="N149">SECTION_NAME(B149)</f>
         <v/>
       </c>
       <c r="O149" s="14"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M150" s="9" t="str" cm="1">
-        <f t="array" ref="M150">PAGE_NAME(A150)</f>
+        <f t="array" ref="M150">PAGE_NAME(B150)</f>
         <v/>
       </c>
       <c r="N150" s="9" t="str" cm="1">
-        <f t="array" ref="N150">SECTION_NAME(A150)</f>
+        <f t="array" ref="N150">SECTION_NAME(B150)</f>
         <v/>
       </c>
       <c r="O150" s="14"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M151" s="9" t="str" cm="1">
-        <f t="array" ref="M151">PAGE_NAME(A151)</f>
+        <f t="array" ref="M151">PAGE_NAME(B151)</f>
         <v/>
       </c>
       <c r="N151" s="9" t="str" cm="1">
-        <f t="array" ref="N151">SECTION_NAME(A151)</f>
+        <f t="array" ref="N151">SECTION_NAME(B151)</f>
         <v/>
       </c>
       <c r="O151" s="14"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M152" s="9" t="str" cm="1">
-        <f t="array" ref="M152">PAGE_NAME(A152)</f>
+        <f t="array" ref="M152">PAGE_NAME(B152)</f>
         <v/>
       </c>
       <c r="N152" s="9" t="str" cm="1">
-        <f t="array" ref="N152">SECTION_NAME(A152)</f>
+        <f t="array" ref="N152">SECTION_NAME(B152)</f>
         <v/>
       </c>
       <c r="O152" s="14"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A153" s="11"/>
+    <row r="153" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B153" s="11"/>
       <c r="M153" s="9" t="str" cm="1">
-        <f t="array" ref="M153">PAGE_NAME(A153)</f>
+        <f t="array" ref="M153">PAGE_NAME(B153)</f>
         <v/>
       </c>
       <c r="N153" s="9" t="str" cm="1">
-        <f t="array" ref="N153">SECTION_NAME(A153)</f>
+        <f t="array" ref="N153">SECTION_NAME(B153)</f>
         <v/>
       </c>
       <c r="O153" s="14"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M154" s="9" t="str" cm="1">
-        <f t="array" ref="M154">PAGE_NAME(A154)</f>
+        <f t="array" ref="M154">PAGE_NAME(B154)</f>
         <v/>
       </c>
       <c r="N154" s="9" t="str" cm="1">
-        <f t="array" ref="N154">SECTION_NAME(A154)</f>
+        <f t="array" ref="N154">SECTION_NAME(B154)</f>
         <v/>
       </c>
       <c r="O154" s="14"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M155" s="9" t="str" cm="1">
-        <f t="array" ref="M155">PAGE_NAME(A155)</f>
+        <f t="array" ref="M155">PAGE_NAME(B155)</f>
         <v/>
       </c>
       <c r="N155" s="9" t="str" cm="1">
-        <f t="array" ref="N155">SECTION_NAME(A155)</f>
+        <f t="array" ref="N155">SECTION_NAME(B155)</f>
         <v/>
       </c>
       <c r="O155" s="14"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M156" s="9" t="str" cm="1">
-        <f t="array" ref="M156">PAGE_NAME(A156)</f>
+        <f t="array" ref="M156">PAGE_NAME(B156)</f>
         <v/>
       </c>
       <c r="N156" s="9" t="str" cm="1">
-        <f t="array" ref="N156">SECTION_NAME(A156)</f>
+        <f t="array" ref="N156">SECTION_NAME(B156)</f>
         <v/>
       </c>
       <c r="O156" s="14"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M157" s="9" t="str" cm="1">
-        <f t="array" ref="M157">PAGE_NAME(A157)</f>
+        <f t="array" ref="M157">PAGE_NAME(B157)</f>
         <v/>
       </c>
       <c r="N157" s="9" t="str" cm="1">
-        <f t="array" ref="N157">SECTION_NAME(A157)</f>
+        <f t="array" ref="N157">SECTION_NAME(B157)</f>
         <v/>
       </c>
       <c r="O157" s="14"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M158" s="9" t="str" cm="1">
-        <f t="array" ref="M158">PAGE_NAME(A158)</f>
+        <f t="array" ref="M158">PAGE_NAME(B158)</f>
         <v/>
       </c>
       <c r="N158" s="9" t="str" cm="1">
-        <f t="array" ref="N158">SECTION_NAME(A158)</f>
+        <f t="array" ref="N158">SECTION_NAME(B158)</f>
         <v/>
       </c>
       <c r="O158" s="14"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M159" s="9" t="str" cm="1">
-        <f t="array" ref="M159">PAGE_NAME(A159)</f>
+        <f t="array" ref="M159">PAGE_NAME(B159)</f>
         <v/>
       </c>
       <c r="N159" s="9" t="str" cm="1">
-        <f t="array" ref="N159">SECTION_NAME(A159)</f>
+        <f t="array" ref="N159">SECTION_NAME(B159)</f>
         <v/>
       </c>
       <c r="O159" s="14"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M160" s="9" t="str" cm="1">
-        <f t="array" ref="M160">PAGE_NAME(A160)</f>
+        <f t="array" ref="M160">PAGE_NAME(B160)</f>
         <v/>
       </c>
       <c r="N160" s="9" t="str" cm="1">
-        <f t="array" ref="N160">SECTION_NAME(A160)</f>
+        <f t="array" ref="N160">SECTION_NAME(B160)</f>
         <v/>
       </c>
       <c r="O160" s="14"/>
     </row>
     <row r="161" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M161" s="9" t="str" cm="1">
-        <f t="array" ref="M161">PAGE_NAME(A161)</f>
+        <f t="array" ref="M161">PAGE_NAME(B161)</f>
         <v/>
       </c>
       <c r="N161" s="9" t="str" cm="1">
-        <f t="array" ref="N161">SECTION_NAME(A161)</f>
+        <f t="array" ref="N161">SECTION_NAME(B161)</f>
         <v/>
       </c>
       <c r="O161" s="14"/>
     </row>
     <row r="162" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M162" s="9" t="str" cm="1">
-        <f t="array" ref="M162">PAGE_NAME(A162)</f>
+        <f t="array" ref="M162">PAGE_NAME(B162)</f>
         <v/>
       </c>
       <c r="N162" s="9" t="str" cm="1">
-        <f t="array" ref="N162">SECTION_NAME(A162)</f>
+        <f t="array" ref="N162">SECTION_NAME(B162)</f>
         <v/>
       </c>
       <c r="O162" s="14"/>
     </row>
     <row r="163" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M163" s="9" t="str" cm="1">
-        <f t="array" ref="M163">PAGE_NAME(A163)</f>
+        <f t="array" ref="M163">PAGE_NAME(B163)</f>
         <v/>
       </c>
       <c r="N163" s="9" t="str" cm="1">
-        <f t="array" ref="N163">SECTION_NAME(A163)</f>
+        <f t="array" ref="N163">SECTION_NAME(B163)</f>
         <v/>
       </c>
       <c r="O163" s="14"/>
     </row>
     <row r="164" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M164" s="9" t="str" cm="1">
-        <f t="array" ref="M164">PAGE_NAME(A164)</f>
+        <f t="array" ref="M164">PAGE_NAME(B164)</f>
         <v/>
       </c>
       <c r="N164" s="9" t="str" cm="1">
-        <f t="array" ref="N164">SECTION_NAME(A164)</f>
+        <f t="array" ref="N164">SECTION_NAME(B164)</f>
         <v/>
       </c>
       <c r="O164" s="14"/>
     </row>
     <row r="165" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M165" s="9" t="str" cm="1">
-        <f t="array" ref="M165">PAGE_NAME(A165)</f>
+        <f t="array" ref="M165">PAGE_NAME(B165)</f>
         <v/>
       </c>
       <c r="N165" s="9" t="str" cm="1">
-        <f t="array" ref="N165">SECTION_NAME(A165)</f>
+        <f t="array" ref="N165">SECTION_NAME(B165)</f>
         <v/>
       </c>
       <c r="O165" s="14"/>
     </row>
     <row r="166" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M166" s="9" t="str" cm="1">
-        <f t="array" ref="M166">PAGE_NAME(A166)</f>
+        <f t="array" ref="M166">PAGE_NAME(B166)</f>
         <v/>
       </c>
       <c r="N166" s="9" t="str" cm="1">
-        <f t="array" ref="N166">SECTION_NAME(A166)</f>
+        <f t="array" ref="N166">SECTION_NAME(B166)</f>
         <v/>
       </c>
       <c r="O166" s="14"/>
     </row>
     <row r="167" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M167" s="9" t="str" cm="1">
-        <f t="array" ref="M167">PAGE_NAME(A167)</f>
+        <f t="array" ref="M167">PAGE_NAME(B167)</f>
         <v/>
       </c>
       <c r="N167" s="9" t="str" cm="1">
-        <f t="array" ref="N167">SECTION_NAME(A167)</f>
+        <f t="array" ref="N167">SECTION_NAME(B167)</f>
         <v/>
       </c>
     </row>
     <row r="168" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M168" s="9" t="str" cm="1">
-        <f t="array" ref="M168">PAGE_NAME(A168)</f>
+        <f t="array" ref="M168">PAGE_NAME(B168)</f>
         <v/>
       </c>
       <c r="N168" s="9" t="str" cm="1">
-        <f t="array" ref="N168">SECTION_NAME(A168)</f>
+        <f t="array" ref="N168">SECTION_NAME(B168)</f>
         <v/>
       </c>
       <c r="O168" s="14"/>
     </row>
     <row r="169" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M169" s="9" t="str" cm="1">
-        <f t="array" ref="M169">PAGE_NAME(A169)</f>
+        <f t="array" ref="M169">PAGE_NAME(B169)</f>
         <v/>
       </c>
       <c r="N169" s="9" t="str" cm="1">
-        <f t="array" ref="N169">SECTION_NAME(A169)</f>
+        <f t="array" ref="N169">SECTION_NAME(B169)</f>
         <v/>
       </c>
     </row>
     <row r="170" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M170" s="9" t="str" cm="1">
-        <f t="array" ref="M170">PAGE_NAME(A170)</f>
+        <f t="array" ref="M170">PAGE_NAME(B170)</f>
         <v/>
       </c>
       <c r="N170" s="9" t="str" cm="1">
-        <f t="array" ref="N170">SECTION_NAME(A170)</f>
+        <f t="array" ref="N170">SECTION_NAME(B170)</f>
         <v/>
       </c>
       <c r="O170" s="14"/>
     </row>
     <row r="171" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M171" s="9" t="str" cm="1">
-        <f t="array" ref="M171">PAGE_NAME(A171)</f>
+        <f t="array" ref="M171">PAGE_NAME(B171)</f>
         <v/>
       </c>
       <c r="N171" s="9" t="str" cm="1">
-        <f t="array" ref="N171">SECTION_NAME(A171)</f>
+        <f t="array" ref="N171">SECTION_NAME(B171)</f>
         <v/>
       </c>
       <c r="O171" s="14"/>
     </row>
     <row r="172" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M172" s="9" t="str" cm="1">
-        <f t="array" ref="M172">PAGE_NAME(A172)</f>
+        <f t="array" ref="M172">PAGE_NAME(B172)</f>
         <v/>
       </c>
       <c r="N172" s="9" t="str" cm="1">
-        <f t="array" ref="N172">SECTION_NAME(A172)</f>
+        <f t="array" ref="N172">SECTION_NAME(B172)</f>
         <v/>
       </c>
     </row>
     <row r="173" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M173" s="9" t="str" cm="1">
-        <f t="array" ref="M173">PAGE_NAME(A173)</f>
+        <f t="array" ref="M173">PAGE_NAME(B173)</f>
         <v/>
       </c>
       <c r="N173" s="9" t="str" cm="1">
-        <f t="array" ref="N173">SECTION_NAME(A173)</f>
+        <f t="array" ref="N173">SECTION_NAME(B173)</f>
         <v/>
       </c>
     </row>
     <row r="174" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M174" s="9" t="str" cm="1">
-        <f t="array" ref="M174">PAGE_NAME(A174)</f>
+        <f t="array" ref="M174">PAGE_NAME(B174)</f>
         <v/>
       </c>
       <c r="N174" s="9" t="str" cm="1">
-        <f t="array" ref="N174">SECTION_NAME(A174)</f>
+        <f t="array" ref="N174">SECTION_NAME(B174)</f>
         <v/>
       </c>
       <c r="O174" s="14"/>
     </row>
     <row r="175" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M175" s="9" t="str" cm="1">
-        <f t="array" ref="M175">PAGE_NAME(A175)</f>
+        <f t="array" ref="M175">PAGE_NAME(B175)</f>
         <v/>
       </c>
       <c r="N175" s="9" t="str" cm="1">
-        <f t="array" ref="N175">SECTION_NAME(A175)</f>
+        <f t="array" ref="N175">SECTION_NAME(B175)</f>
         <v/>
       </c>
     </row>
     <row r="176" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M176" s="9" t="str" cm="1">
-        <f t="array" ref="M176">PAGE_NAME(A176)</f>
+        <f t="array" ref="M176">PAGE_NAME(B176)</f>
         <v/>
       </c>
       <c r="N176" s="9" t="str" cm="1">
-        <f t="array" ref="N176">SECTION_NAME(A176)</f>
+        <f t="array" ref="N176">SECTION_NAME(B176)</f>
         <v/>
       </c>
     </row>
     <row r="177" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M177" s="9" t="str" cm="1">
-        <f t="array" ref="M177">PAGE_NAME(A177)</f>
+        <f t="array" ref="M177">PAGE_NAME(B177)</f>
         <v/>
       </c>
       <c r="N177" s="9" t="str" cm="1">
-        <f t="array" ref="N177">SECTION_NAME(A177)</f>
+        <f t="array" ref="N177">SECTION_NAME(B177)</f>
         <v/>
       </c>
       <c r="O177" s="14"/>
     </row>
     <row r="178" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M178" s="9" t="str" cm="1">
-        <f t="array" ref="M178">PAGE_NAME(A178)</f>
+        <f t="array" ref="M178">PAGE_NAME(B178)</f>
         <v/>
       </c>
       <c r="N178" s="9" t="str" cm="1">
-        <f t="array" ref="N178">SECTION_NAME(A178)</f>
+        <f t="array" ref="N178">SECTION_NAME(B178)</f>
         <v/>
       </c>
     </row>
     <row r="179" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M179" s="9" t="str" cm="1">
-        <f t="array" ref="M179">PAGE_NAME(A179)</f>
+        <f t="array" ref="M179">PAGE_NAME(B179)</f>
         <v/>
       </c>
       <c r="N179" s="9" t="str" cm="1">
-        <f t="array" ref="N179">SECTION_NAME(A179)</f>
+        <f t="array" ref="N179">SECTION_NAME(B179)</f>
         <v/>
       </c>
     </row>
     <row r="180" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M180" s="9" t="str" cm="1">
-        <f t="array" ref="M180">PAGE_NAME(A180)</f>
+        <f t="array" ref="M180">PAGE_NAME(B180)</f>
         <v/>
       </c>
       <c r="N180" s="9" t="str" cm="1">
-        <f t="array" ref="N180">SECTION_NAME(A180)</f>
+        <f t="array" ref="N180">SECTION_NAME(B180)</f>
         <v/>
       </c>
     </row>
     <row r="181" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M181" s="9" t="str" cm="1">
-        <f t="array" ref="M181">PAGE_NAME(A181)</f>
+        <f t="array" ref="M181">PAGE_NAME(B181)</f>
         <v/>
       </c>
       <c r="N181" s="9" t="str" cm="1">
-        <f t="array" ref="N181">SECTION_NAME(A181)</f>
+        <f t="array" ref="N181">SECTION_NAME(B181)</f>
         <v/>
       </c>
       <c r="O181" s="14"/>
     </row>
     <row r="182" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M182" s="9" t="str" cm="1">
-        <f t="array" ref="M182">PAGE_NAME(A182)</f>
+        <f t="array" ref="M182">PAGE_NAME(B182)</f>
         <v/>
       </c>
       <c r="N182" s="9" t="str" cm="1">
-        <f t="array" ref="N182">SECTION_NAME(A182)</f>
+        <f t="array" ref="N182">SECTION_NAME(B182)</f>
         <v/>
       </c>
     </row>
     <row r="183" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M183" s="9" t="str" cm="1">
-        <f t="array" ref="M183">PAGE_NAME(A183)</f>
+        <f t="array" ref="M183">PAGE_NAME(B183)</f>
         <v/>
       </c>
       <c r="N183" s="9" t="str" cm="1">
-        <f t="array" ref="N183">SECTION_NAME(A183)</f>
+        <f t="array" ref="N183">SECTION_NAME(B183)</f>
         <v/>
       </c>
     </row>
     <row r="184" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M184" s="9" t="str" cm="1">
-        <f t="array" ref="M184">PAGE_NAME(A184)</f>
+        <f t="array" ref="M184">PAGE_NAME(B184)</f>
         <v/>
       </c>
       <c r="N184" s="9" t="str" cm="1">
-        <f t="array" ref="N184">SECTION_NAME(A184)</f>
+        <f t="array" ref="N184">SECTION_NAME(B184)</f>
         <v/>
       </c>
       <c r="O184" s="14"/>
     </row>
     <row r="185" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M185" s="9" t="str" cm="1">
-        <f t="array" ref="M185">PAGE_NAME(A185)</f>
+        <f t="array" ref="M185">PAGE_NAME(B185)</f>
         <v/>
       </c>
       <c r="N185" s="9" t="str" cm="1">
-        <f t="array" ref="N185">SECTION_NAME(A185)</f>
+        <f t="array" ref="N185">SECTION_NAME(B185)</f>
         <v/>
       </c>
     </row>
     <row r="186" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M186" s="9" t="str" cm="1">
-        <f t="array" ref="M186">PAGE_NAME(A186)</f>
+        <f t="array" ref="M186">PAGE_NAME(B186)</f>
         <v/>
       </c>
       <c r="N186" s="9" t="str" cm="1">
-        <f t="array" ref="N186">SECTION_NAME(A186)</f>
+        <f t="array" ref="N186">SECTION_NAME(B186)</f>
         <v/>
       </c>
       <c r="O186" s="14"/>
     </row>
     <row r="187" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M187" s="9" t="str" cm="1">
-        <f t="array" ref="M187">PAGE_NAME(A187)</f>
+        <f t="array" ref="M187">PAGE_NAME(B187)</f>
         <v/>
       </c>
       <c r="N187" s="9" t="str" cm="1">
-        <f t="array" ref="N187">SECTION_NAME(A187)</f>
+        <f t="array" ref="N187">SECTION_NAME(B187)</f>
         <v/>
       </c>
       <c r="O187" s="14"/>
     </row>
     <row r="188" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M188" s="9" t="str" cm="1">
-        <f t="array" ref="M188">PAGE_NAME(A188)</f>
+        <f t="array" ref="M188">PAGE_NAME(B188)</f>
         <v/>
       </c>
       <c r="N188" s="9" t="str" cm="1">
-        <f t="array" ref="N188">SECTION_NAME(A188)</f>
+        <f t="array" ref="N188">SECTION_NAME(B188)</f>
         <v/>
       </c>
       <c r="O188" s="14"/>
     </row>
     <row r="189" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M189" s="9" t="str" cm="1">
-        <f t="array" ref="M189">PAGE_NAME(A189)</f>
+        <f t="array" ref="M189">PAGE_NAME(B189)</f>
         <v/>
       </c>
       <c r="N189" s="9" t="str" cm="1">
-        <f t="array" ref="N189">SECTION_NAME(A189)</f>
+        <f t="array" ref="N189">SECTION_NAME(B189)</f>
         <v/>
       </c>
       <c r="O189" s="14"/>
     </row>
     <row r="190" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M190" s="9" t="str" cm="1">
-        <f t="array" ref="M190">PAGE_NAME(A190)</f>
+        <f t="array" ref="M190">PAGE_NAME(B190)</f>
         <v/>
       </c>
       <c r="N190" s="9" t="str" cm="1">
-        <f t="array" ref="N190">SECTION_NAME(A190)</f>
+        <f t="array" ref="N190">SECTION_NAME(B190)</f>
         <v/>
       </c>
       <c r="O190" s="14"/>
     </row>
     <row r="191" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M191" s="9" t="str" cm="1">
-        <f t="array" ref="M191">PAGE_NAME(A191)</f>
+        <f t="array" ref="M191">PAGE_NAME(B191)</f>
         <v/>
       </c>
       <c r="N191" s="9" t="str" cm="1">
-        <f t="array" ref="N191">SECTION_NAME(A191)</f>
+        <f t="array" ref="N191">SECTION_NAME(B191)</f>
         <v/>
       </c>
       <c r="O191" s="14"/>
     </row>
     <row r="192" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M192" s="9" t="str" cm="1">
-        <f t="array" ref="M192">PAGE_NAME(A192)</f>
+        <f t="array" ref="M192">PAGE_NAME(B192)</f>
         <v/>
       </c>
       <c r="N192" s="9" t="str" cm="1">
-        <f t="array" ref="N192">SECTION_NAME(A192)</f>
+        <f t="array" ref="N192">SECTION_NAME(B192)</f>
         <v/>
       </c>
       <c r="O192" s="14"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M193" s="9" t="str" cm="1">
-        <f t="array" ref="M193">PAGE_NAME(A193)</f>
+        <f t="array" ref="M193">PAGE_NAME(B193)</f>
         <v/>
       </c>
       <c r="N193" s="9" t="str" cm="1">
-        <f t="array" ref="N193">SECTION_NAME(A193)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N193">SECTION_NAME(B193)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M194" s="9" t="str" cm="1">
-        <f t="array" ref="M194">PAGE_NAME(A194)</f>
+        <f t="array" ref="M194">PAGE_NAME(B194)</f>
         <v/>
       </c>
       <c r="N194" s="9" t="str" cm="1">
-        <f t="array" ref="N194">SECTION_NAME(A194)</f>
+        <f t="array" ref="N194">SECTION_NAME(B194)</f>
         <v/>
       </c>
       <c r="O194" s="14"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M195" s="9" t="str" cm="1">
-        <f t="array" ref="M195">PAGE_NAME(A195)</f>
+        <f t="array" ref="M195">PAGE_NAME(B195)</f>
         <v/>
       </c>
       <c r="N195" s="9" t="str" cm="1">
-        <f t="array" ref="N195">SECTION_NAME(A195)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N195">SECTION_NAME(B195)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M196" s="9" t="str" cm="1">
-        <f t="array" ref="M196">PAGE_NAME(A196)</f>
+        <f t="array" ref="M196">PAGE_NAME(B196)</f>
         <v/>
       </c>
       <c r="N196" s="9" t="str" cm="1">
-        <f t="array" ref="N196">SECTION_NAME(A196)</f>
+        <f t="array" ref="N196">SECTION_NAME(B196)</f>
         <v/>
       </c>
       <c r="O196" s="14"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M197" s="9" t="str" cm="1">
-        <f t="array" ref="M197">PAGE_NAME(A197)</f>
+        <f t="array" ref="M197">PAGE_NAME(B197)</f>
         <v/>
       </c>
       <c r="N197" s="9" t="str" cm="1">
-        <f t="array" ref="N197">SECTION_NAME(A197)</f>
+        <f t="array" ref="N197">SECTION_NAME(B197)</f>
         <v/>
       </c>
       <c r="O197" s="14"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A198" s="11"/>
+    <row r="198" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B198" s="11"/>
       <c r="M198" s="9" t="str" cm="1">
-        <f t="array" ref="M198">PAGE_NAME(A198)</f>
+        <f t="array" ref="M198">PAGE_NAME(B198)</f>
         <v/>
       </c>
       <c r="N198" s="9" t="str" cm="1">
-        <f t="array" ref="N198">SECTION_NAME(A198)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N198">SECTION_NAME(B198)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M199" s="9" t="str" cm="1">
-        <f t="array" ref="M199">PAGE_NAME(A199)</f>
+        <f t="array" ref="M199">PAGE_NAME(B199)</f>
         <v/>
       </c>
       <c r="N199" s="9" t="str" cm="1">
-        <f t="array" ref="N199">SECTION_NAME(A199)</f>
+        <f t="array" ref="N199">SECTION_NAME(B199)</f>
         <v/>
       </c>
       <c r="O199" s="14"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M200" s="9" t="str" cm="1">
-        <f t="array" ref="M200">PAGE_NAME(A200)</f>
+        <f t="array" ref="M200">PAGE_NAME(B200)</f>
         <v/>
       </c>
       <c r="N200" s="9" t="str" cm="1">
-        <f t="array" ref="N200">SECTION_NAME(A200)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N200">SECTION_NAME(B200)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M201" s="9" t="str" cm="1">
-        <f t="array" ref="M201">PAGE_NAME(A201)</f>
+        <f t="array" ref="M201">PAGE_NAME(B201)</f>
         <v/>
       </c>
       <c r="N201" s="9" t="str" cm="1">
-        <f t="array" ref="N201">SECTION_NAME(A201)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N201">SECTION_NAME(B201)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M202" s="9" t="str" cm="1">
-        <f t="array" ref="M202">PAGE_NAME(A202)</f>
+        <f t="array" ref="M202">PAGE_NAME(B202)</f>
         <v/>
       </c>
       <c r="N202" s="9" t="str" cm="1">
-        <f t="array" ref="N202">SECTION_NAME(A202)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N202">SECTION_NAME(B202)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M203" s="9" t="str" cm="1">
-        <f t="array" ref="M203">PAGE_NAME(A203)</f>
+        <f t="array" ref="M203">PAGE_NAME(B203)</f>
         <v/>
       </c>
       <c r="N203" s="9" t="str" cm="1">
-        <f t="array" ref="N203">SECTION_NAME(A203)</f>
+        <f t="array" ref="N203">SECTION_NAME(B203)</f>
         <v/>
       </c>
       <c r="O203" s="14"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M204" s="9" t="str" cm="1">
-        <f t="array" ref="M204">PAGE_NAME(A204)</f>
+        <f t="array" ref="M204">PAGE_NAME(B204)</f>
         <v/>
       </c>
       <c r="N204" s="9" t="str" cm="1">
-        <f t="array" ref="N204">SECTION_NAME(A204)</f>
+        <f t="array" ref="N204">SECTION_NAME(B204)</f>
         <v/>
       </c>
       <c r="O204" s="14"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M205" s="9" t="str" cm="1">
-        <f t="array" ref="M205">PAGE_NAME(A205)</f>
+        <f t="array" ref="M205">PAGE_NAME(B205)</f>
         <v/>
       </c>
       <c r="N205" s="9" t="str" cm="1">
-        <f t="array" ref="N205">SECTION_NAME(A205)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N205">SECTION_NAME(B205)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M206" s="9" t="str" cm="1">
-        <f t="array" ref="M206">PAGE_NAME(A206)</f>
+        <f t="array" ref="M206">PAGE_NAME(B206)</f>
         <v/>
       </c>
       <c r="N206" s="9" t="str" cm="1">
-        <f t="array" ref="N206">SECTION_NAME(A206)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N206">SECTION_NAME(B206)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M207" s="9" t="str" cm="1">
-        <f t="array" ref="M207">PAGE_NAME(A207)</f>
+        <f t="array" ref="M207">PAGE_NAME(B207)</f>
         <v/>
       </c>
       <c r="N207" s="9" t="str" cm="1">
-        <f t="array" ref="N207">SECTION_NAME(A207)</f>
+        <f t="array" ref="N207">SECTION_NAME(B207)</f>
         <v/>
       </c>
       <c r="O207" s="14"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M208" s="9" t="str" cm="1">
-        <f t="array" ref="M208">PAGE_NAME(A208)</f>
+        <f t="array" ref="M208">PAGE_NAME(B208)</f>
         <v/>
       </c>
       <c r="N208" s="9" t="str" cm="1">
-        <f t="array" ref="N208">SECTION_NAME(A208)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N208">SECTION_NAME(B208)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M209" s="9" t="str" cm="1">
-        <f t="array" ref="M209">PAGE_NAME(A209)</f>
+        <f t="array" ref="M209">PAGE_NAME(B209)</f>
         <v/>
       </c>
       <c r="N209" s="9" t="str" cm="1">
-        <f t="array" ref="N209">SECTION_NAME(A209)</f>
+        <f t="array" ref="N209">SECTION_NAME(B209)</f>
         <v/>
       </c>
       <c r="O209" s="14"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M210" s="9" t="str" cm="1">
-        <f t="array" ref="M210">PAGE_NAME(A210)</f>
+        <f t="array" ref="M210">PAGE_NAME(B210)</f>
         <v/>
       </c>
       <c r="N210" s="9" t="str" cm="1">
-        <f t="array" ref="N210">SECTION_NAME(A210)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N210">SECTION_NAME(B210)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M211" s="9" t="str" cm="1">
-        <f t="array" ref="M211">PAGE_NAME(A211)</f>
+        <f t="array" ref="M211">PAGE_NAME(B211)</f>
         <v/>
       </c>
       <c r="N211" s="9" t="str" cm="1">
-        <f t="array" ref="N211">SECTION_NAME(A211)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N211">SECTION_NAME(B211)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M212" s="9" t="str" cm="1">
-        <f t="array" ref="M212">PAGE_NAME(A212)</f>
+        <f t="array" ref="M212">PAGE_NAME(B212)</f>
         <v/>
       </c>
       <c r="N212" s="9" t="str" cm="1">
-        <f t="array" ref="N212">SECTION_NAME(A212)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N212">SECTION_NAME(B212)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M213" s="9" t="str" cm="1">
-        <f t="array" ref="M213">PAGE_NAME(A213)</f>
+        <f t="array" ref="M213">PAGE_NAME(B213)</f>
         <v/>
       </c>
       <c r="N213" s="9" t="str" cm="1">
-        <f t="array" ref="N213">SECTION_NAME(A213)</f>
+        <f t="array" ref="N213">SECTION_NAME(B213)</f>
         <v/>
       </c>
       <c r="O213" s="14"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A214" s="11"/>
+    <row r="214" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B214" s="11"/>
       <c r="M214" s="9" t="str" cm="1">
-        <f t="array" ref="M214">PAGE_NAME(A214)</f>
+        <f t="array" ref="M214">PAGE_NAME(B214)</f>
         <v/>
       </c>
       <c r="N214" s="9" t="str" cm="1">
-        <f t="array" ref="N214">SECTION_NAME(A214)</f>
+        <f t="array" ref="N214">SECTION_NAME(B214)</f>
         <v/>
       </c>
       <c r="O214" s="14"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A215" s="11"/>
+    <row r="215" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B215" s="11"/>
       <c r="M215" s="9" t="str" cm="1">
-        <f t="array" ref="M215">PAGE_NAME(A215)</f>
+        <f t="array" ref="M215">PAGE_NAME(B215)</f>
         <v/>
       </c>
       <c r="N215" s="9" t="str" cm="1">
-        <f t="array" ref="N215">SECTION_NAME(A215)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N215">SECTION_NAME(B215)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M216" s="9" t="str" cm="1">
-        <f t="array" ref="M216">PAGE_NAME(A216)</f>
+        <f t="array" ref="M216">PAGE_NAME(B216)</f>
         <v/>
       </c>
       <c r="N216" s="9" t="str" cm="1">
-        <f t="array" ref="N216">SECTION_NAME(A216)</f>
+        <f t="array" ref="N216">SECTION_NAME(B216)</f>
         <v/>
       </c>
       <c r="O216" s="14"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M217" s="9" t="str" cm="1">
-        <f t="array" ref="M217">PAGE_NAME(A217)</f>
+        <f t="array" ref="M217">PAGE_NAME(B217)</f>
         <v/>
       </c>
       <c r="N217" s="9" t="str" cm="1">
-        <f t="array" ref="N217">SECTION_NAME(A217)</f>
+        <f t="array" ref="N217">SECTION_NAME(B217)</f>
         <v/>
       </c>
       <c r="O217" s="14"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M218" s="9" t="str" cm="1">
-        <f t="array" ref="M218">PAGE_NAME(A218)</f>
+        <f t="array" ref="M218">PAGE_NAME(B218)</f>
         <v/>
       </c>
       <c r="N218" s="9" t="str" cm="1">
-        <f t="array" ref="N218">SECTION_NAME(A218)</f>
+        <f t="array" ref="N218">SECTION_NAME(B218)</f>
         <v/>
       </c>
       <c r="O218" s="14"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M219" s="9" t="str" cm="1">
-        <f t="array" ref="M219">PAGE_NAME(A219)</f>
+        <f t="array" ref="M219">PAGE_NAME(B219)</f>
         <v/>
       </c>
       <c r="N219" s="9" t="str" cm="1">
-        <f t="array" ref="N219">SECTION_NAME(A219)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N219">SECTION_NAME(B219)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M220" s="9" t="str" cm="1">
-        <f t="array" ref="M220">PAGE_NAME(A220)</f>
+        <f t="array" ref="M220">PAGE_NAME(B220)</f>
         <v/>
       </c>
       <c r="N220" s="9" t="str" cm="1">
-        <f t="array" ref="N220">SECTION_NAME(A220)</f>
+        <f t="array" ref="N220">SECTION_NAME(B220)</f>
         <v/>
       </c>
       <c r="O220" s="14"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M221" s="9" t="str" cm="1">
-        <f t="array" ref="M221">PAGE_NAME(A221)</f>
+        <f t="array" ref="M221">PAGE_NAME(B221)</f>
         <v/>
       </c>
       <c r="N221" s="9" t="str" cm="1">
-        <f t="array" ref="N221">SECTION_NAME(A221)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N221">SECTION_NAME(B221)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M222" s="9" t="str" cm="1">
-        <f t="array" ref="M222">PAGE_NAME(A222)</f>
+        <f t="array" ref="M222">PAGE_NAME(B222)</f>
         <v/>
       </c>
       <c r="N222" s="9" t="str" cm="1">
-        <f t="array" ref="N222">SECTION_NAME(A222)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N222">SECTION_NAME(B222)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M223" s="9" t="str" cm="1">
-        <f t="array" ref="M223">PAGE_NAME(A223)</f>
+        <f t="array" ref="M223">PAGE_NAME(B223)</f>
         <v/>
       </c>
       <c r="N223" s="9" t="str" cm="1">
-        <f t="array" ref="N223">SECTION_NAME(A223)</f>
+        <f t="array" ref="N223">SECTION_NAME(B223)</f>
         <v/>
       </c>
       <c r="O223" s="14"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M224" s="9" t="str" cm="1">
-        <f t="array" ref="M224">PAGE_NAME(A224)</f>
+        <f t="array" ref="M224">PAGE_NAME(B224)</f>
         <v/>
       </c>
       <c r="N224" s="9" t="str" cm="1">
-        <f t="array" ref="N224">SECTION_NAME(A224)</f>
+        <f t="array" ref="N224">SECTION_NAME(B224)</f>
         <v/>
       </c>
       <c r="O224" s="14"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M225" s="9" t="str" cm="1">
-        <f t="array" ref="M225">PAGE_NAME(A225)</f>
+        <f t="array" ref="M225">PAGE_NAME(B225)</f>
         <v/>
       </c>
       <c r="N225" s="9" t="str" cm="1">
-        <f t="array" ref="N225">SECTION_NAME(A225)</f>
+        <f t="array" ref="N225">SECTION_NAME(B225)</f>
         <v/>
       </c>
       <c r="O225" s="14"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A226" s="11"/>
+    <row r="226" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B226" s="11"/>
       <c r="M226" s="9" t="str" cm="1">
-        <f t="array" ref="M226">PAGE_NAME(A226)</f>
+        <f t="array" ref="M226">PAGE_NAME(B226)</f>
         <v/>
       </c>
       <c r="N226" s="9" t="str" cm="1">
-        <f t="array" ref="N226">SECTION_NAME(A226)</f>
+        <f t="array" ref="N226">SECTION_NAME(B226)</f>
         <v/>
       </c>
       <c r="O226" s="14"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A227" s="11"/>
+    <row r="227" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B227" s="11"/>
       <c r="M227" s="9" t="str" cm="1">
-        <f t="array" ref="M227">PAGE_NAME(A227)</f>
+        <f t="array" ref="M227">PAGE_NAME(B227)</f>
         <v/>
       </c>
       <c r="N227" s="9" t="str" cm="1">
-        <f t="array" ref="N227">SECTION_NAME(A227)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A228" s="11"/>
+        <f t="array" ref="N227">SECTION_NAME(B227)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B228" s="11"/>
       <c r="M228" s="9" t="str" cm="1">
-        <f t="array" ref="M228">PAGE_NAME(A228)</f>
+        <f t="array" ref="M228">PAGE_NAME(B228)</f>
         <v/>
       </c>
       <c r="N228" s="9" t="str" cm="1">
-        <f t="array" ref="N228">SECTION_NAME(A228)</f>
+        <f t="array" ref="N228">SECTION_NAME(B228)</f>
         <v/>
       </c>
       <c r="O228" s="14"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A229" s="11"/>
+    <row r="229" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B229" s="11"/>
       <c r="M229" s="9" t="str" cm="1">
-        <f t="array" ref="M229">PAGE_NAME(A229)</f>
+        <f t="array" ref="M229">PAGE_NAME(B229)</f>
         <v/>
       </c>
       <c r="N229" s="9" t="str" cm="1">
-        <f t="array" ref="N229">SECTION_NAME(A229)</f>
+        <f t="array" ref="N229">SECTION_NAME(B229)</f>
         <v/>
       </c>
       <c r="O229" s="14"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A230" s="11"/>
+    <row r="230" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B230" s="11"/>
       <c r="M230" s="9" t="str" cm="1">
-        <f t="array" ref="M230">PAGE_NAME(A230)</f>
+        <f t="array" ref="M230">PAGE_NAME(B230)</f>
         <v/>
       </c>
       <c r="N230" s="9" t="str" cm="1">
-        <f t="array" ref="N230">SECTION_NAME(A230)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A231" s="11"/>
+        <f t="array" ref="N230">SECTION_NAME(B230)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B231" s="11"/>
       <c r="M231" s="9" t="str" cm="1">
-        <f t="array" ref="M231">PAGE_NAME(A231)</f>
+        <f t="array" ref="M231">PAGE_NAME(B231)</f>
         <v/>
       </c>
       <c r="N231" s="9" t="str" cm="1">
-        <f t="array" ref="N231">SECTION_NAME(A231)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A232" s="11"/>
+        <f t="array" ref="N231">SECTION_NAME(B231)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B232" s="11"/>
       <c r="M232" s="9" t="str" cm="1">
-        <f t="array" ref="M232">PAGE_NAME(A232)</f>
+        <f t="array" ref="M232">PAGE_NAME(B232)</f>
         <v/>
       </c>
       <c r="N232" s="9" t="str" cm="1">
-        <f t="array" ref="N232">SECTION_NAME(A232)</f>
+        <f t="array" ref="N232">SECTION_NAME(B232)</f>
         <v/>
       </c>
       <c r="O232" s="14"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A233" s="11"/>
+    <row r="233" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B233" s="11"/>
       <c r="M233" s="9" t="str" cm="1">
-        <f t="array" ref="M233">PAGE_NAME(A233)</f>
+        <f t="array" ref="M233">PAGE_NAME(B233)</f>
         <v/>
       </c>
       <c r="N233" s="9" t="str" cm="1">
-        <f t="array" ref="N233">SECTION_NAME(A233)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A234" s="11"/>
+        <f t="array" ref="N233">SECTION_NAME(B233)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B234" s="11"/>
       <c r="M234" s="9" t="str" cm="1">
-        <f t="array" ref="M234">PAGE_NAME(A234)</f>
+        <f t="array" ref="M234">PAGE_NAME(B234)</f>
         <v/>
       </c>
       <c r="N234" s="9" t="str" cm="1">
-        <f t="array" ref="N234">SECTION_NAME(A234)</f>
+        <f t="array" ref="N234">SECTION_NAME(B234)</f>
         <v/>
       </c>
       <c r="O234" s="14"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A235" s="11"/>
+    <row r="235" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B235" s="11"/>
       <c r="M235" s="9" t="str" cm="1">
-        <f t="array" ref="M235">PAGE_NAME(A235)</f>
+        <f t="array" ref="M235">PAGE_NAME(B235)</f>
         <v/>
       </c>
       <c r="N235" s="9" t="str" cm="1">
-        <f t="array" ref="N235">SECTION_NAME(A235)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A236" s="11"/>
+        <f t="array" ref="N235">SECTION_NAME(B235)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B236" s="11"/>
       <c r="M236" s="9" t="str" cm="1">
-        <f t="array" ref="M236">PAGE_NAME(A236)</f>
+        <f t="array" ref="M236">PAGE_NAME(B236)</f>
         <v/>
       </c>
       <c r="N236" s="9" t="str" cm="1">
-        <f t="array" ref="N236">SECTION_NAME(A236)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A237" s="11"/>
+        <f t="array" ref="N236">SECTION_NAME(B236)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B237" s="11"/>
       <c r="M237" s="9" t="str" cm="1">
-        <f t="array" ref="M237">PAGE_NAME(A237)</f>
+        <f t="array" ref="M237">PAGE_NAME(B237)</f>
         <v/>
       </c>
       <c r="N237" s="9" t="str" cm="1">
-        <f t="array" ref="N237">SECTION_NAME(A237)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A238" s="11"/>
+        <f t="array" ref="N237">SECTION_NAME(B237)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B238" s="11"/>
       <c r="M238" s="9" t="str" cm="1">
-        <f t="array" ref="M238">PAGE_NAME(A238)</f>
+        <f t="array" ref="M238">PAGE_NAME(B238)</f>
         <v/>
       </c>
       <c r="N238" s="9" t="str" cm="1">
-        <f t="array" ref="N238">SECTION_NAME(A238)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A239" s="11"/>
+        <f t="array" ref="N238">SECTION_NAME(B238)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B239" s="11"/>
       <c r="M239" s="9" t="str" cm="1">
-        <f t="array" ref="M239">PAGE_NAME(A239)</f>
+        <f t="array" ref="M239">PAGE_NAME(B239)</f>
         <v/>
       </c>
       <c r="N239" s="9" t="str" cm="1">
-        <f t="array" ref="N239">SECTION_NAME(A239)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N239">SECTION_NAME(B239)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M240" s="9" t="str" cm="1">
-        <f t="array" ref="M240">PAGE_NAME(A240)</f>
+        <f t="array" ref="M240">PAGE_NAME(B240)</f>
         <v/>
       </c>
       <c r="N240" s="9" t="str" cm="1">
-        <f t="array" ref="N240">SECTION_NAME(A240)</f>
+        <f t="array" ref="N240">SECTION_NAME(B240)</f>
         <v/>
       </c>
       <c r="O240" s="14"/>
     </row>
     <row r="241" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M241" s="9" t="str" cm="1">
-        <f t="array" ref="M241">PAGE_NAME(A241)</f>
+        <f t="array" ref="M241">PAGE_NAME(B241)</f>
         <v/>
       </c>
       <c r="N241" s="9" t="str" cm="1">
-        <f t="array" ref="N241">SECTION_NAME(A241)</f>
+        <f t="array" ref="N241">SECTION_NAME(B241)</f>
         <v/>
       </c>
       <c r="O241" s="14"/>
     </row>
     <row r="242" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M242" s="9" t="str" cm="1">
-        <f t="array" ref="M242">PAGE_NAME(A242)</f>
+        <f t="array" ref="M242">PAGE_NAME(B242)</f>
         <v/>
       </c>
       <c r="N242" s="9" t="str" cm="1">
-        <f t="array" ref="N242">SECTION_NAME(A242)</f>
+        <f t="array" ref="N242">SECTION_NAME(B242)</f>
         <v/>
       </c>
       <c r="O242" s="14"/>
     </row>
     <row r="243" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M243" s="9" t="str" cm="1">
-        <f t="array" ref="M243">PAGE_NAME(A243)</f>
+        <f t="array" ref="M243">PAGE_NAME(B243)</f>
         <v/>
       </c>
       <c r="N243" s="9" t="str" cm="1">
-        <f t="array" ref="N243">SECTION_NAME(A243)</f>
+        <f t="array" ref="N243">SECTION_NAME(B243)</f>
         <v/>
       </c>
     </row>
     <row r="244" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M244" s="9" t="str" cm="1">
-        <f t="array" ref="M244">PAGE_NAME(A244)</f>
+        <f t="array" ref="M244">PAGE_NAME(B244)</f>
         <v/>
       </c>
       <c r="N244" s="9" t="str" cm="1">
-        <f t="array" ref="N244">SECTION_NAME(A244)</f>
+        <f t="array" ref="N244">SECTION_NAME(B244)</f>
         <v/>
       </c>
       <c r="O244" s="14"/>
     </row>
     <row r="245" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M245" s="9" t="str" cm="1">
-        <f t="array" ref="M245">PAGE_NAME(A245)</f>
+        <f t="array" ref="M245">PAGE_NAME(B245)</f>
         <v/>
       </c>
       <c r="N245" s="9" t="str" cm="1">
-        <f t="array" ref="N245">SECTION_NAME(A245)</f>
+        <f t="array" ref="N245">SECTION_NAME(B245)</f>
         <v/>
       </c>
       <c r="O245" s="14"/>
     </row>
     <row r="246" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M246" s="9" t="str" cm="1">
-        <f t="array" ref="M246">PAGE_NAME(A246)</f>
+        <f t="array" ref="M246">PAGE_NAME(B246)</f>
         <v/>
       </c>
       <c r="N246" s="9" t="str" cm="1">
-        <f t="array" ref="N246">SECTION_NAME(A246)</f>
+        <f t="array" ref="N246">SECTION_NAME(B246)</f>
         <v/>
       </c>
       <c r="O246" s="14"/>
     </row>
     <row r="247" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M247" s="9" t="str" cm="1">
-        <f t="array" ref="M247">PAGE_NAME(A247)</f>
+        <f t="array" ref="M247">PAGE_NAME(B247)</f>
         <v/>
       </c>
       <c r="N247" s="9" t="str" cm="1">
-        <f t="array" ref="N247">SECTION_NAME(A247)</f>
+        <f t="array" ref="N247">SECTION_NAME(B247)</f>
         <v/>
       </c>
       <c r="O247" s="14"/>
     </row>
     <row r="248" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M248" s="9" t="str" cm="1">
-        <f t="array" ref="M248">PAGE_NAME(A248)</f>
+        <f t="array" ref="M248">PAGE_NAME(B248)</f>
         <v/>
       </c>
       <c r="N248" s="9" t="str" cm="1">
-        <f t="array" ref="N248">SECTION_NAME(A248)</f>
+        <f t="array" ref="N248">SECTION_NAME(B248)</f>
         <v/>
       </c>
       <c r="O248" s="14"/>
     </row>
     <row r="249" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M249" s="9" t="str" cm="1">
-        <f t="array" ref="M249">PAGE_NAME(A249)</f>
+        <f t="array" ref="M249">PAGE_NAME(B249)</f>
         <v/>
       </c>
       <c r="N249" s="9" t="str" cm="1">
-        <f t="array" ref="N249">SECTION_NAME(A249)</f>
+        <f t="array" ref="N249">SECTION_NAME(B249)</f>
         <v/>
       </c>
       <c r="O249" s="14"/>
     </row>
     <row r="250" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M250" s="9" t="str" cm="1">
-        <f t="array" ref="M250">PAGE_NAME(A250)</f>
+        <f t="array" ref="M250">PAGE_NAME(B250)</f>
         <v/>
       </c>
       <c r="N250" s="9" t="str" cm="1">
-        <f t="array" ref="N250">SECTION_NAME(A250)</f>
+        <f t="array" ref="N250">SECTION_NAME(B250)</f>
         <v/>
       </c>
     </row>
     <row r="251" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M251" s="9" t="str" cm="1">
-        <f t="array" ref="M251">PAGE_NAME(A251)</f>
+        <f t="array" ref="M251">PAGE_NAME(B251)</f>
         <v/>
       </c>
       <c r="N251" s="9" t="str" cm="1">
-        <f t="array" ref="N251">SECTION_NAME(A251)</f>
+        <f t="array" ref="N251">SECTION_NAME(B251)</f>
         <v/>
       </c>
     </row>
     <row r="252" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M252" s="9" t="str" cm="1">
-        <f t="array" ref="M252">PAGE_NAME(A252)</f>
+        <f t="array" ref="M252">PAGE_NAME(B252)</f>
         <v/>
       </c>
       <c r="N252" s="9" t="str" cm="1">
-        <f t="array" ref="N252">SECTION_NAME(A252)</f>
+        <f t="array" ref="N252">SECTION_NAME(B252)</f>
         <v/>
       </c>
       <c r="O252" s="14"/>
     </row>
     <row r="253" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M253" s="9" t="str" cm="1">
-        <f t="array" ref="M253">PAGE_NAME(A253)</f>
+        <f t="array" ref="M253">PAGE_NAME(B253)</f>
         <v/>
       </c>
       <c r="N253" s="9" t="str" cm="1">
-        <f t="array" ref="N253">SECTION_NAME(A253)</f>
+        <f t="array" ref="N253">SECTION_NAME(B253)</f>
         <v/>
       </c>
       <c r="O253" s="14"/>
     </row>
     <row r="254" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M254" s="9" t="str" cm="1">
-        <f t="array" ref="M254">PAGE_NAME(A254)</f>
+        <f t="array" ref="M254">PAGE_NAME(B254)</f>
         <v/>
       </c>
       <c r="N254" s="9" t="str" cm="1">
-        <f t="array" ref="N254">SECTION_NAME(A254)</f>
+        <f t="array" ref="N254">SECTION_NAME(B254)</f>
         <v/>
       </c>
     </row>
     <row r="255" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M255" s="9" t="str" cm="1">
-        <f t="array" ref="M255">PAGE_NAME(A255)</f>
+        <f t="array" ref="M255">PAGE_NAME(B255)</f>
         <v/>
       </c>
       <c r="N255" s="9" t="str" cm="1">
-        <f t="array" ref="N255">SECTION_NAME(A255)</f>
+        <f t="array" ref="N255">SECTION_NAME(B255)</f>
         <v/>
       </c>
     </row>
     <row r="256" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M256" s="9" t="str" cm="1">
-        <f t="array" ref="M256">PAGE_NAME(A256)</f>
+        <f t="array" ref="M256">PAGE_NAME(B256)</f>
         <v/>
       </c>
       <c r="N256" s="9" t="str" cm="1">
-        <f t="array" ref="N256">SECTION_NAME(A256)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N256">SECTION_NAME(B256)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M257" s="9" t="str" cm="1">
-        <f t="array" ref="M257">PAGE_NAME(A257)</f>
+        <f t="array" ref="M257">PAGE_NAME(B257)</f>
         <v/>
       </c>
       <c r="N257" s="9" t="str" cm="1">
-        <f t="array" ref="N257">SECTION_NAME(A257)</f>
+        <f t="array" ref="N257">SECTION_NAME(B257)</f>
         <v/>
       </c>
       <c r="O257" s="14"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M258" s="9" t="str" cm="1">
-        <f t="array" ref="M258">PAGE_NAME(A258)</f>
+        <f t="array" ref="M258">PAGE_NAME(B258)</f>
         <v/>
       </c>
       <c r="N258" s="9" t="str" cm="1">
-        <f t="array" ref="N258">SECTION_NAME(A258)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N258">SECTION_NAME(B258)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M259" s="9" t="str" cm="1">
-        <f t="array" ref="M259">PAGE_NAME(A259)</f>
+        <f t="array" ref="M259">PAGE_NAME(B259)</f>
         <v/>
       </c>
       <c r="N259" s="9" t="str" cm="1">
-        <f t="array" ref="N259">SECTION_NAME(A259)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A260" s="11"/>
+        <f t="array" ref="N259">SECTION_NAME(B259)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B260" s="11"/>
       <c r="M260" s="9" t="str" cm="1">
-        <f t="array" ref="M260">PAGE_NAME(A260)</f>
+        <f t="array" ref="M260">PAGE_NAME(B260)</f>
         <v/>
       </c>
       <c r="N260" s="9" t="str" cm="1">
-        <f t="array" ref="N260">SECTION_NAME(A260)</f>
+        <f t="array" ref="N260">SECTION_NAME(B260)</f>
         <v/>
       </c>
       <c r="O260" s="14"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M261" s="9" t="str" cm="1">
-        <f t="array" ref="M261">PAGE_NAME(A261)</f>
+        <f t="array" ref="M261">PAGE_NAME(B261)</f>
         <v/>
       </c>
       <c r="N261" s="9" t="str" cm="1">
-        <f t="array" ref="N261">SECTION_NAME(A261)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N261">SECTION_NAME(B261)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M262" s="9" t="str" cm="1">
-        <f t="array" ref="M262">PAGE_NAME(A262)</f>
+        <f t="array" ref="M262">PAGE_NAME(B262)</f>
         <v/>
       </c>
       <c r="N262" s="9" t="str" cm="1">
-        <f t="array" ref="N262">SECTION_NAME(A262)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N262">SECTION_NAME(B262)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M263" s="9" t="str" cm="1">
-        <f t="array" ref="M263">PAGE_NAME(A263)</f>
+        <f t="array" ref="M263">PAGE_NAME(B263)</f>
         <v/>
       </c>
       <c r="N263" s="9" t="str" cm="1">
-        <f t="array" ref="N263">SECTION_NAME(A263)</f>
+        <f t="array" ref="N263">SECTION_NAME(B263)</f>
         <v/>
       </c>
       <c r="O263" s="14"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M264" s="9" t="str" cm="1">
-        <f t="array" ref="M264">PAGE_NAME(A264)</f>
+        <f t="array" ref="M264">PAGE_NAME(B264)</f>
         <v/>
       </c>
       <c r="N264" s="9" t="str" cm="1">
-        <f t="array" ref="N264">SECTION_NAME(A264)</f>
+        <f t="array" ref="N264">SECTION_NAME(B264)</f>
         <v/>
       </c>
       <c r="O264" s="14"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M265" s="9" t="str" cm="1">
-        <f t="array" ref="M265">PAGE_NAME(A265)</f>
+        <f t="array" ref="M265">PAGE_NAME(B265)</f>
         <v/>
       </c>
       <c r="N265" s="9" t="str" cm="1">
-        <f t="array" ref="N265">SECTION_NAME(A265)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N265">SECTION_NAME(B265)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M266" s="9" t="str" cm="1">
-        <f t="array" ref="M266">PAGE_NAME(A266)</f>
+        <f t="array" ref="M266">PAGE_NAME(B266)</f>
         <v/>
       </c>
       <c r="N266" s="9" t="str" cm="1">
-        <f t="array" ref="N266">SECTION_NAME(A266)</f>
+        <f t="array" ref="N266">SECTION_NAME(B266)</f>
         <v/>
       </c>
       <c r="O266" s="14"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M267" s="9" t="str" cm="1">
-        <f t="array" ref="M267">PAGE_NAME(A267)</f>
+        <f t="array" ref="M267">PAGE_NAME(B267)</f>
         <v/>
       </c>
       <c r="N267" s="9" t="str" cm="1">
-        <f t="array" ref="N267">SECTION_NAME(A267)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N267">SECTION_NAME(B267)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M268" s="9" t="str" cm="1">
-        <f t="array" ref="M268">PAGE_NAME(A268)</f>
+        <f t="array" ref="M268">PAGE_NAME(B268)</f>
         <v/>
       </c>
       <c r="N268" s="9" t="str" cm="1">
-        <f t="array" ref="N268">SECTION_NAME(A268)</f>
+        <f t="array" ref="N268">SECTION_NAME(B268)</f>
         <v/>
       </c>
       <c r="O268" s="14"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M269" s="9" t="str" cm="1">
-        <f t="array" ref="M269">PAGE_NAME(A269)</f>
+        <f t="array" ref="M269">PAGE_NAME(B269)</f>
         <v/>
       </c>
       <c r="N269" s="9" t="str" cm="1">
-        <f t="array" ref="N269">SECTION_NAME(A269)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N269">SECTION_NAME(B269)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M270" s="9" t="str" cm="1">
-        <f t="array" ref="M270">PAGE_NAME(A270)</f>
+        <f t="array" ref="M270">PAGE_NAME(B270)</f>
         <v/>
       </c>
       <c r="N270" s="9" t="str" cm="1">
-        <f t="array" ref="N270">SECTION_NAME(A270)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N270">SECTION_NAME(B270)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M271" s="9" t="str" cm="1">
-        <f t="array" ref="M271">PAGE_NAME(A271)</f>
+        <f t="array" ref="M271">PAGE_NAME(B271)</f>
         <v/>
       </c>
       <c r="N271" s="9" t="str" cm="1">
-        <f t="array" ref="N271">SECTION_NAME(A271)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N271">SECTION_NAME(B271)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M272" s="9" t="str" cm="1">
-        <f t="array" ref="M272">PAGE_NAME(A272)</f>
+        <f t="array" ref="M272">PAGE_NAME(B272)</f>
         <v/>
       </c>
       <c r="N272" s="9" t="str" cm="1">
-        <f t="array" ref="N272">SECTION_NAME(A272)</f>
+        <f t="array" ref="N272">SECTION_NAME(B272)</f>
         <v/>
       </c>
     </row>
     <row r="273" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M273" s="9" t="str" cm="1">
-        <f t="array" ref="M273">PAGE_NAME(A273)</f>
+        <f t="array" ref="M273">PAGE_NAME(B273)</f>
         <v/>
       </c>
       <c r="N273" s="9" t="str" cm="1">
-        <f t="array" ref="N273">SECTION_NAME(A273)</f>
+        <f t="array" ref="N273">SECTION_NAME(B273)</f>
         <v/>
       </c>
     </row>
     <row r="274" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M274" s="9" t="str" cm="1">
-        <f t="array" ref="M274">PAGE_NAME(A274)</f>
+        <f t="array" ref="M274">PAGE_NAME(B274)</f>
         <v/>
       </c>
       <c r="N274" s="9" t="str" cm="1">
-        <f t="array" ref="N274">SECTION_NAME(A274)</f>
+        <f t="array" ref="N274">SECTION_NAME(B274)</f>
         <v/>
       </c>
     </row>
     <row r="275" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M275" s="9" t="str" cm="1">
-        <f t="array" ref="M275">PAGE_NAME(A275)</f>
+        <f t="array" ref="M275">PAGE_NAME(B275)</f>
         <v/>
       </c>
       <c r="N275" s="9" t="str" cm="1">
-        <f t="array" ref="N275">SECTION_NAME(A275)</f>
+        <f t="array" ref="N275">SECTION_NAME(B275)</f>
         <v/>
       </c>
     </row>
     <row r="276" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M276" s="9" t="str" cm="1">
-        <f t="array" ref="M276">PAGE_NAME(A276)</f>
+        <f t="array" ref="M276">PAGE_NAME(B276)</f>
         <v/>
       </c>
       <c r="N276" s="9" t="str" cm="1">
-        <f t="array" ref="N276">SECTION_NAME(A276)</f>
+        <f t="array" ref="N276">SECTION_NAME(B276)</f>
         <v/>
       </c>
     </row>
     <row r="277" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M277" s="9" t="str" cm="1">
-        <f t="array" ref="M277">PAGE_NAME(A277)</f>
+        <f t="array" ref="M277">PAGE_NAME(B277)</f>
         <v/>
       </c>
       <c r="N277" s="9" t="str" cm="1">
-        <f t="array" ref="N277">SECTION_NAME(A277)</f>
+        <f t="array" ref="N277">SECTION_NAME(B277)</f>
         <v/>
       </c>
     </row>
     <row r="278" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M278" s="9" t="str" cm="1">
-        <f t="array" ref="M278">PAGE_NAME(A278)</f>
+        <f t="array" ref="M278">PAGE_NAME(B278)</f>
         <v/>
       </c>
       <c r="N278" s="9" t="str" cm="1">
-        <f t="array" ref="N278">SECTION_NAME(A278)</f>
+        <f t="array" ref="N278">SECTION_NAME(B278)</f>
         <v/>
       </c>
     </row>
     <row r="279" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M279" s="9" t="str" cm="1">
-        <f t="array" ref="M279">PAGE_NAME(A279)</f>
+        <f t="array" ref="M279">PAGE_NAME(B279)</f>
         <v/>
       </c>
       <c r="N279" s="9" t="str" cm="1">
-        <f t="array" ref="N279">SECTION_NAME(A279)</f>
+        <f t="array" ref="N279">SECTION_NAME(B279)</f>
         <v/>
       </c>
     </row>
     <row r="280" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M280" s="9" t="str" cm="1">
-        <f t="array" ref="M280">PAGE_NAME(A280)</f>
+        <f t="array" ref="M280">PAGE_NAME(B280)</f>
         <v/>
       </c>
       <c r="N280" s="9" t="str" cm="1">
-        <f t="array" ref="N280">SECTION_NAME(A280)</f>
+        <f t="array" ref="N280">SECTION_NAME(B280)</f>
         <v/>
       </c>
     </row>
     <row r="281" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M281" s="9" t="str" cm="1">
-        <f t="array" ref="M281">PAGE_NAME(A281)</f>
+        <f t="array" ref="M281">PAGE_NAME(B281)</f>
         <v/>
       </c>
       <c r="N281" s="9" t="str" cm="1">
-        <f t="array" ref="N281">SECTION_NAME(A281)</f>
+        <f t="array" ref="N281">SECTION_NAME(B281)</f>
         <v/>
       </c>
     </row>
     <row r="282" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M282" s="9" t="str" cm="1">
-        <f t="array" ref="M282">PAGE_NAME(A282)</f>
+        <f t="array" ref="M282">PAGE_NAME(B282)</f>
         <v/>
       </c>
       <c r="N282" s="9" t="str" cm="1">
-        <f t="array" ref="N282">SECTION_NAME(A282)</f>
+        <f t="array" ref="N282">SECTION_NAME(B282)</f>
         <v/>
       </c>
     </row>
     <row r="283" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M283" s="9" t="str" cm="1">
-        <f t="array" ref="M283">PAGE_NAME(A283)</f>
+        <f t="array" ref="M283">PAGE_NAME(B283)</f>
         <v/>
       </c>
       <c r="N283" s="9" t="str" cm="1">
-        <f t="array" ref="N283">SECTION_NAME(A283)</f>
+        <f t="array" ref="N283">SECTION_NAME(B283)</f>
         <v/>
       </c>
     </row>
     <row r="284" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M284" s="9" t="str" cm="1">
-        <f t="array" ref="M284">PAGE_NAME(A284)</f>
+        <f t="array" ref="M284">PAGE_NAME(B284)</f>
         <v/>
       </c>
       <c r="N284" s="9" t="str" cm="1">
-        <f t="array" ref="N284">SECTION_NAME(A284)</f>
+        <f t="array" ref="N284">SECTION_NAME(B284)</f>
         <v/>
       </c>
     </row>
     <row r="285" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M285" s="9" t="str" cm="1">
-        <f t="array" ref="M285">PAGE_NAME(A285)</f>
+        <f t="array" ref="M285">PAGE_NAME(B285)</f>
         <v/>
       </c>
       <c r="N285" s="9" t="str" cm="1">
-        <f t="array" ref="N285">SECTION_NAME(A285)</f>
+        <f t="array" ref="N285">SECTION_NAME(B285)</f>
         <v/>
       </c>
     </row>
     <row r="286" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M286" s="9" t="str" cm="1">
-        <f t="array" ref="M286">PAGE_NAME(A286)</f>
+        <f t="array" ref="M286">PAGE_NAME(B286)</f>
         <v/>
       </c>
       <c r="N286" s="9" t="str" cm="1">
-        <f t="array" ref="N286">SECTION_NAME(A286)</f>
+        <f t="array" ref="N286">SECTION_NAME(B286)</f>
         <v/>
       </c>
     </row>
     <row r="287" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M287" s="9" t="str" cm="1">
-        <f t="array" ref="M287">PAGE_NAME(A287)</f>
+        <f t="array" ref="M287">PAGE_NAME(B287)</f>
         <v/>
       </c>
       <c r="N287" s="9" t="str" cm="1">
-        <f t="array" ref="N287">SECTION_NAME(A287)</f>
+        <f t="array" ref="N287">SECTION_NAME(B287)</f>
         <v/>
       </c>
     </row>
     <row r="288" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M288" s="9" t="str" cm="1">
-        <f t="array" ref="M288">PAGE_NAME(A288)</f>
+        <f t="array" ref="M288">PAGE_NAME(B288)</f>
         <v/>
       </c>
       <c r="N288" s="9" t="str" cm="1">
-        <f t="array" ref="N288">SECTION_NAME(A288)</f>
+        <f t="array" ref="N288">SECTION_NAME(B288)</f>
         <v/>
       </c>
     </row>
     <row r="289" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M289" s="9" t="str" cm="1">
-        <f t="array" ref="M289">PAGE_NAME(A289)</f>
+        <f t="array" ref="M289">PAGE_NAME(B289)</f>
         <v/>
       </c>
       <c r="N289" s="9" t="str" cm="1">
-        <f t="array" ref="N289">SECTION_NAME(A289)</f>
+        <f t="array" ref="N289">SECTION_NAME(B289)</f>
         <v/>
       </c>
     </row>
     <row r="290" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M290" s="9" t="str" cm="1">
-        <f t="array" ref="M290">PAGE_NAME(A290)</f>
+        <f t="array" ref="M290">PAGE_NAME(B290)</f>
         <v/>
       </c>
       <c r="N290" s="9" t="str" cm="1">
-        <f t="array" ref="N290">SECTION_NAME(A290)</f>
+        <f t="array" ref="N290">SECTION_NAME(B290)</f>
         <v/>
       </c>
     </row>
     <row r="291" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M291" s="9" t="str" cm="1">
-        <f t="array" ref="M291">PAGE_NAME(A291)</f>
+        <f t="array" ref="M291">PAGE_NAME(B291)</f>
         <v/>
       </c>
       <c r="N291" s="9" t="str" cm="1">
-        <f t="array" ref="N291">SECTION_NAME(A291)</f>
+        <f t="array" ref="N291">SECTION_NAME(B291)</f>
         <v/>
       </c>
     </row>
     <row r="292" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M292" s="9" t="str" cm="1">
-        <f t="array" ref="M292">PAGE_NAME(A292)</f>
+        <f t="array" ref="M292">PAGE_NAME(B292)</f>
         <v/>
       </c>
       <c r="N292" s="9" t="str" cm="1">
-        <f t="array" ref="N292">SECTION_NAME(A292)</f>
+        <f t="array" ref="N292">SECTION_NAME(B292)</f>
         <v/>
       </c>
     </row>
     <row r="293" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M293" s="9" t="str" cm="1">
-        <f t="array" ref="M293">PAGE_NAME(A293)</f>
+        <f t="array" ref="M293">PAGE_NAME(B293)</f>
         <v/>
       </c>
       <c r="N293" s="9" t="str" cm="1">
-        <f t="array" ref="N293">SECTION_NAME(A293)</f>
+        <f t="array" ref="N293">SECTION_NAME(B293)</f>
         <v/>
       </c>
     </row>
     <row r="294" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M294" s="9" t="str" cm="1">
-        <f t="array" ref="M294">PAGE_NAME(A294)</f>
+        <f t="array" ref="M294">PAGE_NAME(B294)</f>
         <v/>
       </c>
       <c r="N294" s="9" t="str" cm="1">
-        <f t="array" ref="N294">SECTION_NAME(A294)</f>
+        <f t="array" ref="N294">SECTION_NAME(B294)</f>
         <v/>
       </c>
     </row>
     <row r="295" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M295" s="9" t="str" cm="1">
-        <f t="array" ref="M295">PAGE_NAME(A295)</f>
+        <f t="array" ref="M295">PAGE_NAME(B295)</f>
         <v/>
       </c>
       <c r="N295" s="9" t="str" cm="1">
-        <f t="array" ref="N295">SECTION_NAME(A295)</f>
+        <f t="array" ref="N295">SECTION_NAME(B295)</f>
         <v/>
       </c>
     </row>
     <row r="296" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M296" s="9" t="str" cm="1">
-        <f t="array" ref="M296">PAGE_NAME(A296)</f>
+        <f t="array" ref="M296">PAGE_NAME(B296)</f>
         <v/>
       </c>
       <c r="N296" s="9" t="str" cm="1">
-        <f t="array" ref="N296">SECTION_NAME(A296)</f>
+        <f t="array" ref="N296">SECTION_NAME(B296)</f>
         <v/>
       </c>
     </row>
     <row r="297" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M297" s="9" t="str" cm="1">
-        <f t="array" ref="M297">PAGE_NAME(A297)</f>
+        <f t="array" ref="M297">PAGE_NAME(B297)</f>
         <v/>
       </c>
       <c r="N297" s="9" t="str" cm="1">
-        <f t="array" ref="N297">SECTION_NAME(A297)</f>
+        <f t="array" ref="N297">SECTION_NAME(B297)</f>
         <v/>
       </c>
     </row>
     <row r="298" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M298" s="9" t="str" cm="1">
-        <f t="array" ref="M298">PAGE_NAME(A298)</f>
+        <f t="array" ref="M298">PAGE_NAME(B298)</f>
         <v/>
       </c>
       <c r="N298" s="9" t="str" cm="1">
-        <f t="array" ref="N298">SECTION_NAME(A298)</f>
+        <f t="array" ref="N298">SECTION_NAME(B298)</f>
         <v/>
       </c>
     </row>
     <row r="299" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M299" s="9" t="str" cm="1">
-        <f t="array" ref="M299">PAGE_NAME(A299)</f>
+        <f t="array" ref="M299">PAGE_NAME(B299)</f>
         <v/>
       </c>
       <c r="N299" s="9" t="str" cm="1">
-        <f t="array" ref="N299">SECTION_NAME(A299)</f>
+        <f t="array" ref="N299">SECTION_NAME(B299)</f>
         <v/>
       </c>
     </row>
     <row r="300" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M300" s="9" t="str" cm="1">
-        <f t="array" ref="M300">PAGE_NAME(A300)</f>
+        <f t="array" ref="M300">PAGE_NAME(B300)</f>
         <v/>
       </c>
       <c r="N300" s="9" t="str" cm="1">
-        <f t="array" ref="N300">SECTION_NAME(A300)</f>
+        <f t="array" ref="N300">SECTION_NAME(B300)</f>
         <v/>
       </c>
     </row>
     <row r="301" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M301" s="9" t="str" cm="1">
-        <f t="array" ref="M301">PAGE_NAME(A301)</f>
+        <f t="array" ref="M301">PAGE_NAME(B301)</f>
         <v/>
       </c>
       <c r="N301" s="9" t="str" cm="1">
-        <f t="array" ref="N301">SECTION_NAME(A301)</f>
+        <f t="array" ref="N301">SECTION_NAME(B301)</f>
         <v/>
       </c>
     </row>
     <row r="302" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M302" s="9" t="str" cm="1">
-        <f t="array" ref="M302">PAGE_NAME(A302)</f>
+        <f t="array" ref="M302">PAGE_NAME(B302)</f>
         <v/>
       </c>
       <c r="N302" s="9" t="str" cm="1">
-        <f t="array" ref="N302">SECTION_NAME(A302)</f>
+        <f t="array" ref="N302">SECTION_NAME(B302)</f>
         <v/>
       </c>
     </row>
     <row r="303" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M303" s="9" t="str" cm="1">
-        <f t="array" ref="M303">PAGE_NAME(A303)</f>
+        <f t="array" ref="M303">PAGE_NAME(B303)</f>
         <v/>
       </c>
       <c r="N303" s="9" t="str" cm="1">
-        <f t="array" ref="N303">SECTION_NAME(A303)</f>
+        <f t="array" ref="N303">SECTION_NAME(B303)</f>
         <v/>
       </c>
     </row>
     <row r="304" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M304" s="9" t="str" cm="1">
-        <f t="array" ref="M304">PAGE_NAME(A304)</f>
+        <f t="array" ref="M304">PAGE_NAME(B304)</f>
         <v/>
       </c>
       <c r="N304" s="9" t="str" cm="1">
-        <f t="array" ref="N304">SECTION_NAME(A304)</f>
+        <f t="array" ref="N304">SECTION_NAME(B304)</f>
         <v/>
       </c>
     </row>
     <row r="305" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M305" s="9" t="str" cm="1">
-        <f t="array" ref="M305">PAGE_NAME(A305)</f>
+        <f t="array" ref="M305">PAGE_NAME(B305)</f>
         <v/>
       </c>
       <c r="N305" s="9" t="str" cm="1">
-        <f t="array" ref="N305">SECTION_NAME(A305)</f>
+        <f t="array" ref="N305">SECTION_NAME(B305)</f>
         <v/>
       </c>
     </row>
     <row r="306" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M306" s="9" t="str" cm="1">
-        <f t="array" ref="M306">PAGE_NAME(A306)</f>
+        <f t="array" ref="M306">PAGE_NAME(B306)</f>
         <v/>
       </c>
       <c r="N306" s="9" t="str" cm="1">
-        <f t="array" ref="N306">SECTION_NAME(A306)</f>
+        <f t="array" ref="N306">SECTION_NAME(B306)</f>
         <v/>
       </c>
     </row>
     <row r="307" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M307" s="9" t="str" cm="1">
-        <f t="array" ref="M307">PAGE_NAME(A307)</f>
+        <f t="array" ref="M307">PAGE_NAME(B307)</f>
         <v/>
       </c>
       <c r="N307" s="9" t="str" cm="1">
-        <f t="array" ref="N307">SECTION_NAME(A307)</f>
+        <f t="array" ref="N307">SECTION_NAME(B307)</f>
         <v/>
       </c>
     </row>
     <row r="308" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M308" s="9" t="str" cm="1">
-        <f t="array" ref="M308">PAGE_NAME(A308)</f>
+        <f t="array" ref="M308">PAGE_NAME(B308)</f>
         <v/>
       </c>
       <c r="N308" s="9" t="str" cm="1">
-        <f t="array" ref="N308">SECTION_NAME(A308)</f>
+        <f t="array" ref="N308">SECTION_NAME(B308)</f>
         <v/>
       </c>
     </row>
     <row r="309" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M309" s="9" t="str" cm="1">
-        <f t="array" ref="M309">PAGE_NAME(A309)</f>
+        <f t="array" ref="M309">PAGE_NAME(B309)</f>
         <v/>
       </c>
       <c r="N309" s="9" t="str" cm="1">
-        <f t="array" ref="N309">SECTION_NAME(A309)</f>
+        <f t="array" ref="N309">SECTION_NAME(B309)</f>
         <v/>
       </c>
     </row>
     <row r="310" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M310" s="9" t="str" cm="1">
-        <f t="array" ref="M310">PAGE_NAME(A310)</f>
+        <f t="array" ref="M310">PAGE_NAME(B310)</f>
         <v/>
       </c>
       <c r="N310" s="9" t="str" cm="1">
-        <f t="array" ref="N310">SECTION_NAME(A310)</f>
+        <f t="array" ref="N310">SECTION_NAME(B310)</f>
         <v/>
       </c>
     </row>
     <row r="311" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M311" s="9" t="str" cm="1">
-        <f t="array" ref="M311">PAGE_NAME(A311)</f>
+        <f t="array" ref="M311">PAGE_NAME(B311)</f>
         <v/>
       </c>
       <c r="N311" s="9" t="str" cm="1">
-        <f t="array" ref="N311">SECTION_NAME(A311)</f>
+        <f t="array" ref="N311">SECTION_NAME(B311)</f>
         <v/>
       </c>
     </row>
     <row r="312" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M312" s="9" t="str" cm="1">
-        <f t="array" ref="M312">PAGE_NAME(A312)</f>
+        <f t="array" ref="M312">PAGE_NAME(B312)</f>
         <v/>
       </c>
       <c r="N312" s="9" t="str" cm="1">
-        <f t="array" ref="N312">SECTION_NAME(A312)</f>
+        <f t="array" ref="N312">SECTION_NAME(B312)</f>
         <v/>
       </c>
     </row>
     <row r="313" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M313" s="9" t="str" cm="1">
-        <f t="array" ref="M313">PAGE_NAME(A313)</f>
+        <f t="array" ref="M313">PAGE_NAME(B313)</f>
         <v/>
       </c>
       <c r="N313" s="9" t="str" cm="1">
-        <f t="array" ref="N313">SECTION_NAME(A313)</f>
+        <f t="array" ref="N313">SECTION_NAME(B313)</f>
         <v/>
       </c>
     </row>
     <row r="314" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M314" s="9" t="str" cm="1">
-        <f t="array" ref="M314">PAGE_NAME(A314)</f>
+        <f t="array" ref="M314">PAGE_NAME(B314)</f>
         <v/>
       </c>
       <c r="N314" s="9" t="str" cm="1">
-        <f t="array" ref="N314">SECTION_NAME(A314)</f>
+        <f t="array" ref="N314">SECTION_NAME(B314)</f>
         <v/>
       </c>
     </row>
     <row r="315" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M315" s="9" t="str" cm="1">
-        <f t="array" ref="M315">PAGE_NAME(A315)</f>
+        <f t="array" ref="M315">PAGE_NAME(B315)</f>
         <v/>
       </c>
       <c r="N315" s="9" t="str" cm="1">
-        <f t="array" ref="N315">SECTION_NAME(A315)</f>
+        <f t="array" ref="N315">SECTION_NAME(B315)</f>
         <v/>
       </c>
     </row>
     <row r="316" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M316" s="9" t="str" cm="1">
-        <f t="array" ref="M316">PAGE_NAME(A316)</f>
+        <f t="array" ref="M316">PAGE_NAME(B316)</f>
         <v/>
       </c>
       <c r="N316" s="9" t="str" cm="1">
-        <f t="array" ref="N316">SECTION_NAME(A316)</f>
+        <f t="array" ref="N316">SECTION_NAME(B316)</f>
         <v/>
       </c>
     </row>
     <row r="317" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M317" s="9" t="str" cm="1">
-        <f t="array" ref="M317">PAGE_NAME(A317)</f>
+        <f t="array" ref="M317">PAGE_NAME(B317)</f>
         <v/>
       </c>
       <c r="N317" s="9" t="str" cm="1">
-        <f t="array" ref="N317">SECTION_NAME(A317)</f>
+        <f t="array" ref="N317">SECTION_NAME(B317)</f>
         <v/>
       </c>
     </row>
     <row r="318" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M318" s="9" t="str" cm="1">
-        <f t="array" ref="M318">PAGE_NAME(A318)</f>
+        <f t="array" ref="M318">PAGE_NAME(B318)</f>
         <v/>
       </c>
       <c r="N318" s="9" t="str" cm="1">
-        <f t="array" ref="N318">SECTION_NAME(A318)</f>
+        <f t="array" ref="N318">SECTION_NAME(B318)</f>
         <v/>
       </c>
     </row>
     <row r="319" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M319" s="9" t="str" cm="1">
-        <f t="array" ref="M319">PAGE_NAME(A319)</f>
+        <f t="array" ref="M319">PAGE_NAME(B319)</f>
         <v/>
       </c>
       <c r="N319" s="9" t="str" cm="1">
-        <f t="array" ref="N319">SECTION_NAME(A319)</f>
+        <f t="array" ref="N319">SECTION_NAME(B319)</f>
         <v/>
       </c>
     </row>
     <row r="320" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M320" s="9" t="str" cm="1">
-        <f t="array" ref="M320">PAGE_NAME(A320)</f>
+        <f t="array" ref="M320">PAGE_NAME(B320)</f>
         <v/>
       </c>
       <c r="N320" s="9" t="str" cm="1">
-        <f t="array" ref="N320">SECTION_NAME(A320)</f>
+        <f t="array" ref="N320">SECTION_NAME(B320)</f>
         <v/>
       </c>
     </row>
     <row r="321" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M321" s="9" t="str" cm="1">
-        <f t="array" ref="M321">PAGE_NAME(A321)</f>
+        <f t="array" ref="M321">PAGE_NAME(B321)</f>
         <v/>
       </c>
       <c r="N321" s="9" t="str" cm="1">
-        <f t="array" ref="N321">SECTION_NAME(A321)</f>
+        <f t="array" ref="N321">SECTION_NAME(B321)</f>
         <v/>
       </c>
     </row>
     <row r="322" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M322" s="9" t="str" cm="1">
-        <f t="array" ref="M322">PAGE_NAME(A322)</f>
+        <f t="array" ref="M322">PAGE_NAME(B322)</f>
         <v/>
       </c>
       <c r="N322" s="9" t="str" cm="1">
-        <f t="array" ref="N322">SECTION_NAME(A322)</f>
+        <f t="array" ref="N322">SECTION_NAME(B322)</f>
         <v/>
       </c>
     </row>
     <row r="323" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M323" s="9" t="str" cm="1">
-        <f t="array" ref="M323">PAGE_NAME(A323)</f>
+        <f t="array" ref="M323">PAGE_NAME(B323)</f>
         <v/>
       </c>
       <c r="N323" s="9" t="str" cm="1">
-        <f t="array" ref="N323">SECTION_NAME(A323)</f>
+        <f t="array" ref="N323">SECTION_NAME(B323)</f>
         <v/>
       </c>
     </row>
     <row r="324" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M324" s="9" t="str" cm="1">
-        <f t="array" ref="M324">PAGE_NAME(A324)</f>
+        <f t="array" ref="M324">PAGE_NAME(B324)</f>
         <v/>
       </c>
       <c r="N324" s="9" t="str" cm="1">
-        <f t="array" ref="N324">SECTION_NAME(A324)</f>
+        <f t="array" ref="N324">SECTION_NAME(B324)</f>
         <v/>
       </c>
     </row>
     <row r="325" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M325" s="9" t="str" cm="1">
-        <f t="array" ref="M325">PAGE_NAME(A325)</f>
+        <f t="array" ref="M325">PAGE_NAME(B325)</f>
         <v/>
       </c>
       <c r="N325" s="9" t="str" cm="1">
-        <f t="array" ref="N325">SECTION_NAME(A325)</f>
+        <f t="array" ref="N325">SECTION_NAME(B325)</f>
         <v/>
       </c>
     </row>
     <row r="326" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M326" s="9" t="str" cm="1">
-        <f t="array" ref="M326">PAGE_NAME(A326)</f>
+        <f t="array" ref="M326">PAGE_NAME(B326)</f>
         <v/>
       </c>
       <c r="N326" s="9" t="str" cm="1">
-        <f t="array" ref="N326">SECTION_NAME(A326)</f>
+        <f t="array" ref="N326">SECTION_NAME(B326)</f>
         <v/>
       </c>
     </row>
     <row r="327" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M327" s="9" t="str" cm="1">
-        <f t="array" ref="M327">PAGE_NAME(A327)</f>
+        <f t="array" ref="M327">PAGE_NAME(B327)</f>
         <v/>
       </c>
       <c r="N327" s="9" t="str" cm="1">
-        <f t="array" ref="N327">SECTION_NAME(A327)</f>
+        <f t="array" ref="N327">SECTION_NAME(B327)</f>
         <v/>
       </c>
     </row>
     <row r="328" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M328" s="9" t="str" cm="1">
-        <f t="array" ref="M328">PAGE_NAME(A328)</f>
+        <f t="array" ref="M328">PAGE_NAME(B328)</f>
         <v/>
       </c>
       <c r="N328" s="9" t="str" cm="1">
-        <f t="array" ref="N328">SECTION_NAME(A328)</f>
+        <f t="array" ref="N328">SECTION_NAME(B328)</f>
         <v/>
       </c>
     </row>
     <row r="329" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M329" s="9" t="str" cm="1">
-        <f t="array" ref="M329">PAGE_NAME(A329)</f>
+        <f t="array" ref="M329">PAGE_NAME(B329)</f>
         <v/>
       </c>
       <c r="N329" s="9" t="str" cm="1">
-        <f t="array" ref="N329">SECTION_NAME(A329)</f>
+        <f t="array" ref="N329">SECTION_NAME(B329)</f>
         <v/>
       </c>
     </row>
     <row r="330" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M330" s="9" t="str" cm="1">
-        <f t="array" ref="M330">PAGE_NAME(A330)</f>
+        <f t="array" ref="M330">PAGE_NAME(B330)</f>
         <v/>
       </c>
       <c r="N330" s="9" t="str" cm="1">
-        <f t="array" ref="N330">SECTION_NAME(A330)</f>
+        <f t="array" ref="N330">SECTION_NAME(B330)</f>
         <v/>
       </c>
     </row>
     <row r="331" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M331" s="9" t="str" cm="1">
-        <f t="array" ref="M331">PAGE_NAME(A331)</f>
+        <f t="array" ref="M331">PAGE_NAME(B331)</f>
         <v/>
       </c>
       <c r="N331" s="9" t="str" cm="1">
-        <f t="array" ref="N331">SECTION_NAME(A331)</f>
+        <f t="array" ref="N331">SECTION_NAME(B331)</f>
         <v/>
       </c>
     </row>
     <row r="332" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M332" s="9" t="str" cm="1">
-        <f t="array" ref="M332">PAGE_NAME(A332)</f>
+        <f t="array" ref="M332">PAGE_NAME(B332)</f>
         <v/>
       </c>
       <c r="N332" s="9" t="str" cm="1">
-        <f t="array" ref="N332">SECTION_NAME(A332)</f>
+        <f t="array" ref="N332">SECTION_NAME(B332)</f>
         <v/>
       </c>
     </row>
     <row r="333" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M333" s="9" t="str" cm="1">
-        <f t="array" ref="M333">PAGE_NAME(A333)</f>
+        <f t="array" ref="M333">PAGE_NAME(B333)</f>
         <v/>
       </c>
       <c r="N333" s="9" t="str" cm="1">
-        <f t="array" ref="N333">SECTION_NAME(A333)</f>
+        <f t="array" ref="N333">SECTION_NAME(B333)</f>
         <v/>
       </c>
     </row>
     <row r="334" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M334" s="9" t="str" cm="1">
-        <f t="array" ref="M334">PAGE_NAME(A334)</f>
+        <f t="array" ref="M334">PAGE_NAME(B334)</f>
         <v/>
       </c>
       <c r="N334" s="9" t="str" cm="1">
-        <f t="array" ref="N334">SECTION_NAME(A334)</f>
+        <f t="array" ref="N334">SECTION_NAME(B334)</f>
         <v/>
       </c>
     </row>
     <row r="335" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M335" s="9" t="str" cm="1">
-        <f t="array" ref="M335">PAGE_NAME(A335)</f>
+        <f t="array" ref="M335">PAGE_NAME(B335)</f>
         <v/>
       </c>
       <c r="N335" s="9" t="str" cm="1">
-        <f t="array" ref="N335">SECTION_NAME(A335)</f>
+        <f t="array" ref="N335">SECTION_NAME(B335)</f>
         <v/>
       </c>
     </row>
     <row r="336" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M336" s="9" t="str" cm="1">
-        <f t="array" ref="M336">PAGE_NAME(A336)</f>
+        <f t="array" ref="M336">PAGE_NAME(B336)</f>
         <v/>
       </c>
       <c r="N336" s="9" t="str" cm="1">
-        <f t="array" ref="N336">SECTION_NAME(A336)</f>
+        <f t="array" ref="N336">SECTION_NAME(B336)</f>
         <v/>
       </c>
     </row>
     <row r="337" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M337" s="9" t="str" cm="1">
-        <f t="array" ref="M337">PAGE_NAME(A337)</f>
+        <f t="array" ref="M337">PAGE_NAME(B337)</f>
         <v/>
       </c>
       <c r="N337" s="9" t="str" cm="1">
-        <f t="array" ref="N337">SECTION_NAME(A337)</f>
+        <f t="array" ref="N337">SECTION_NAME(B337)</f>
         <v/>
       </c>
     </row>
     <row r="338" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M338" s="9" t="str" cm="1">
-        <f t="array" ref="M338">PAGE_NAME(A338)</f>
+        <f t="array" ref="M338">PAGE_NAME(B338)</f>
         <v/>
       </c>
       <c r="N338" s="9" t="str" cm="1">
-        <f t="array" ref="N338">SECTION_NAME(A338)</f>
+        <f t="array" ref="N338">SECTION_NAME(B338)</f>
         <v/>
       </c>
     </row>
     <row r="339" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M339" s="9" t="str" cm="1">
-        <f t="array" ref="M339">PAGE_NAME(A339)</f>
+        <f t="array" ref="M339">PAGE_NAME(B339)</f>
         <v/>
       </c>
       <c r="N339" s="9" t="str" cm="1">
-        <f t="array" ref="N339">SECTION_NAME(A339)</f>
+        <f t="array" ref="N339">SECTION_NAME(B339)</f>
         <v/>
       </c>
     </row>
     <row r="340" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M340" s="9" t="str" cm="1">
-        <f t="array" ref="M340">PAGE_NAME(A340)</f>
+        <f t="array" ref="M340">PAGE_NAME(B340)</f>
         <v/>
       </c>
       <c r="N340" s="9" t="str" cm="1">
-        <f t="array" ref="N340">SECTION_NAME(A340)</f>
+        <f t="array" ref="N340">SECTION_NAME(B340)</f>
         <v/>
       </c>
     </row>
     <row r="341" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M341" s="9" t="str" cm="1">
-        <f t="array" ref="M341">PAGE_NAME(A341)</f>
+        <f t="array" ref="M341">PAGE_NAME(B341)</f>
         <v/>
       </c>
       <c r="N341" s="9" t="str" cm="1">
-        <f t="array" ref="N341">SECTION_NAME(A341)</f>
+        <f t="array" ref="N341">SECTION_NAME(B341)</f>
         <v/>
       </c>
     </row>
     <row r="342" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M342" s="9" t="str" cm="1">
-        <f t="array" ref="M342">PAGE_NAME(A342)</f>
+        <f t="array" ref="M342">PAGE_NAME(B342)</f>
         <v/>
       </c>
       <c r="N342" s="9" t="str" cm="1">
-        <f t="array" ref="N342">SECTION_NAME(A342)</f>
+        <f t="array" ref="N342">SECTION_NAME(B342)</f>
         <v/>
       </c>
     </row>
     <row r="343" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M343" s="9" t="str" cm="1">
-        <f t="array" ref="M343">PAGE_NAME(A343)</f>
+        <f t="array" ref="M343">PAGE_NAME(B343)</f>
         <v/>
       </c>
       <c r="N343" s="9" t="str" cm="1">
-        <f t="array" ref="N343">SECTION_NAME(A343)</f>
+        <f t="array" ref="N343">SECTION_NAME(B343)</f>
         <v/>
       </c>
     </row>
     <row r="344" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M344" s="9" t="str" cm="1">
-        <f t="array" ref="M344">PAGE_NAME(A344)</f>
+        <f t="array" ref="M344">PAGE_NAME(B344)</f>
         <v/>
       </c>
       <c r="N344" s="9" t="str" cm="1">
-        <f t="array" ref="N344">SECTION_NAME(A344)</f>
+        <f t="array" ref="N344">SECTION_NAME(B344)</f>
         <v/>
       </c>
     </row>
     <row r="345" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M345" s="9" t="str" cm="1">
-        <f t="array" ref="M345">PAGE_NAME(A345)</f>
+        <f t="array" ref="M345">PAGE_NAME(B345)</f>
         <v/>
       </c>
       <c r="N345" s="9" t="str" cm="1">
-        <f t="array" ref="N345">SECTION_NAME(A345)</f>
+        <f t="array" ref="N345">SECTION_NAME(B345)</f>
         <v/>
       </c>
     </row>
     <row r="346" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M346" s="9" t="str" cm="1">
-        <f t="array" ref="M346">PAGE_NAME(A346)</f>
+        <f t="array" ref="M346">PAGE_NAME(B346)</f>
         <v/>
       </c>
       <c r="N346" s="9" t="str" cm="1">
-        <f t="array" ref="N346">SECTION_NAME(A346)</f>
+        <f t="array" ref="N346">SECTION_NAME(B346)</f>
         <v/>
       </c>
     </row>
     <row r="347" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M347" s="9" t="str" cm="1">
-        <f t="array" ref="M347">PAGE_NAME(A347)</f>
+        <f t="array" ref="M347">PAGE_NAME(B347)</f>
         <v/>
       </c>
       <c r="N347" s="9" t="str" cm="1">
-        <f t="array" ref="N347">SECTION_NAME(A347)</f>
+        <f t="array" ref="N347">SECTION_NAME(B347)</f>
         <v/>
       </c>
     </row>
     <row r="348" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M348" s="9" t="str" cm="1">
-        <f t="array" ref="M348">PAGE_NAME(A348)</f>
+        <f t="array" ref="M348">PAGE_NAME(B348)</f>
         <v/>
       </c>
       <c r="N348" s="9" t="str" cm="1">
-        <f t="array" ref="N348">SECTION_NAME(A348)</f>
+        <f t="array" ref="N348">SECTION_NAME(B348)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS348" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS348">
-      <sortCondition ref="B1:B348"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:AS348" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="subscription-topics-in-r4" xr:uid="{01189513-4302-9D49-8243-5832BA905E4D}"/>
-    <hyperlink ref="A26" r:id="rId2" location="rest-hook-1" xr:uid="{924FC3BB-3513-4E79-AA56-87C10D497448}"/>
-    <hyperlink ref="A27" r:id="rId3" location="rest-hook-1" xr:uid="{0CB4AC5E-F70B-453E-A0D3-C94B020D78B9}"/>
+    <hyperlink ref="B2" r:id="rId1" location="subscription-topics-in-r4" xr:uid="{01189513-4302-9D49-8243-5832BA905E4D}"/>
+    <hyperlink ref="B26" r:id="rId2" location="rest-hook-1" xr:uid="{924FC3BB-3513-4E79-AA56-87C10D497448}"/>
+    <hyperlink ref="B27" r:id="rId3" location="rest-hook-1" xr:uid="{0CB4AC5E-F70B-453E-A0D3-C94B020D78B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -13166,7 +13163,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B1" s="54"/>
     </row>
@@ -13176,76 +13173,76 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>530</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -13272,7 +13269,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -13292,7 +13289,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -13306,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -13317,17 +13314,17 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -13341,15 +13338,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -13603,6 +13591,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -13617,14 +13614,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6384F4-7D50-4B36-A6F8-C77244590866}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13640,6 +13629,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/lib/subscriptions_test_kit/requirements/hl7.fhir.uv.subscriptions_1.1.0_requirements.xlsx
+++ b/lib/subscriptions_test_kit/requirements/hl7.fhir.uv.subscriptions_1.1.0_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/subscriptions-test-kit/lib/subscriptions_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC91D447-8F1B-CC46-B826-CD3AFFEC8605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC7A791-FF95-9C41-A29A-FBE4E2974E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34560" windowHeight="19980" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
@@ -1292,9 +1292,6 @@
     <t>SIMULATED: Inferno will POST the client-provided notification.</t>
   </si>
   <si>
-    <t>The content-type of the POST SHALL match the MIME type on the Subscription (Subscription.channel.payload).</t>
-  </si>
-  <si>
     <t>For a rest-hook subscription, verify that the content-type header of the POST request matches the Subscription's MIME type (including handshake and heartbeats).</t>
   </si>
   <si>
@@ -1306,9 +1303,6 @@
   <si>
     <t>IG AUTHORS: is Subscription.channel.payload required in addition to the content extension? Validation rules will pass without it because an element with children is considered to be populated.
 TEST DESIGN: do we need to verify / adjust the provided notification body to make sure it meets the Subscription MIME type?</t>
-  </si>
-  <si>
-    <t>Each Subscription.channel.header value SHALL be conveyed as an HTTP request header.</t>
   </si>
   <si>
     <t>For a rest-hook subscription, verify that each Subscription.channel.header entry appears within the headers of the POST request for a notification (including handshake and heartbeats).</t>
@@ -3128,6 +3122,12 @@
   </si>
   <si>
     <t>The [server's event notification] bundle SHALL comply with the [Backported R5 Notification Bundle Profile](https://hl7.org/fhir/uv/subscriptions-backport/STU1.1/StructureDefinition-backport-subscription-notification.html).</t>
+  </si>
+  <si>
+    <t>The content-type of the [server's event notification] POST SHALL match the MIME type on the Subscription ([Subscription.channel.payload](http://hl7.org/fhir/subscription-definitions.html#Subscription.channel.payload)).</t>
+  </si>
+  <si>
+    <t>Each [Subscription.channel.header](http://hl7.org/fhir/subscription-definitions.html#Subscription.channel.header) value SHALL be conveyed as an HTTP request header [in the server's event notification POST].</t>
   </si>
 </sst>
 </file>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="46" t="s">
@@ -4090,10 +4090,10 @@
   <dimension ref="A1:AS348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4141,7 +4141,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="AC14"/>
     </row>
-    <row r="15" spans="1:45" ht="272" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" ht="238" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>15</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>138</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>151</v>
+        <v>536</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>70</v>
@@ -5484,26 +5484,26 @@
         <v>148</v>
       </c>
       <c r="U26" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="V26" s="20" t="s">
         <v>152</v>
-      </c>
-      <c r="V26" s="20" t="s">
-        <v>153</v>
       </c>
       <c r="W26" s="20" t="s">
         <v>75</v>
       </c>
       <c r="X26" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z26" s="10" t="s">
         <v>107</v>
       </c>
       <c r="AB26" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AC26"/>
     </row>
-    <row r="27" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>27</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>138</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>156</v>
+        <v>537</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>70</v>
@@ -5541,16 +5541,16 @@
         <v>148</v>
       </c>
       <c r="U27" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V27" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="W27" s="20" t="s">
         <v>75</v>
       </c>
       <c r="X27" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z27" s="10" t="s">
         <v>107</v>
@@ -5565,7 +5565,7 @@
         <v>138</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>70</v>
@@ -5595,7 +5595,7 @@
         <v>103</v>
       </c>
       <c r="U28" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V28" s="20" t="s">
         <v>105</v>
@@ -5619,7 +5619,7 @@
         <v>138</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>70</v>
@@ -5649,10 +5649,10 @@
         <v>141</v>
       </c>
       <c r="U29" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="V29" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="W29" s="20" t="s">
         <v>131</v>
@@ -5673,7 +5673,7 @@
         <v>138</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>70</v>
@@ -5700,13 +5700,13 @@
         <v>140</v>
       </c>
       <c r="Q30" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U30" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V30" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="W30" s="20" t="s">
         <v>131</v>
@@ -5727,7 +5727,7 @@
         <v>138</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>70</v>
@@ -5754,10 +5754,10 @@
         <v>140</v>
       </c>
       <c r="Q31" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U31" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V31" s="20" t="s">
         <v>135</v>
@@ -5773,15 +5773,15 @@
       </c>
       <c r="AC31"/>
     </row>
-    <row r="32" spans="1:29" ht="102" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>32</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>79</v>
@@ -5805,16 +5805,16 @@
       </c>
       <c r="O32" s="14"/>
       <c r="P32" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q32" s="20" t="s">
         <v>141</v>
       </c>
       <c r="U32" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V32" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W32" s="33" t="s">
         <v>93</v>
@@ -5827,10 +5827,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>37</v>
@@ -5857,13 +5857,13 @@
       </c>
       <c r="O33" s="14"/>
       <c r="P33" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q33" s="20" t="s">
         <v>103</v>
       </c>
       <c r="V33" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AC33"/>
     </row>
@@ -5872,10 +5872,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>37</v>
@@ -5902,13 +5902,13 @@
       </c>
       <c r="O34" s="14"/>
       <c r="P34" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q34" s="20" t="s">
         <v>103</v>
       </c>
       <c r="V34" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AC34"/>
     </row>
@@ -5917,10 +5917,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>70</v>
@@ -5944,13 +5944,13 @@
       </c>
       <c r="O35" s="14"/>
       <c r="P35" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q35" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U35" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V35" s="20" t="s">
         <v>105</v>
@@ -5968,10 +5968,10 @@
         <v>36</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>79</v>
@@ -5995,13 +5995,13 @@
       </c>
       <c r="O36" s="14"/>
       <c r="P36" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q36" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U36" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="V36" s="20" t="s">
         <v>96</v>
@@ -6016,10 +6016,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>37</v>
@@ -6046,13 +6046,13 @@
       </c>
       <c r="O37" s="14"/>
       <c r="P37" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q37" s="20" t="s">
         <v>72</v>
       </c>
       <c r="V37" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AC37"/>
     </row>
@@ -6061,13 +6061,13 @@
         <v>38</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>38</v>
@@ -6088,13 +6088,13 @@
       </c>
       <c r="O38" s="14"/>
       <c r="P38" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q38" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="U38" s="20" t="s">
         <v>191</v>
-      </c>
-      <c r="Q38" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="U38" s="20" t="s">
-        <v>193</v>
       </c>
       <c r="V38" s="20" t="s">
         <v>105</v>
@@ -6103,7 +6103,7 @@
         <v>106</v>
       </c>
       <c r="X38" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC38"/>
     </row>
@@ -6112,13 +6112,13 @@
         <v>39</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>38</v>
@@ -6139,13 +6139,13 @@
       </c>
       <c r="O39" s="14"/>
       <c r="P39" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q39" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="U39" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V39" s="20" t="s">
         <v>105</v>
@@ -6154,7 +6154,7 @@
         <v>106</v>
       </c>
       <c r="X39" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC39"/>
     </row>
@@ -6163,10 +6163,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>70</v>
@@ -6190,13 +6190,13 @@
       </c>
       <c r="O40" s="14"/>
       <c r="P40" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q40" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="U40" s="20" t="s">
         <v>198</v>
-      </c>
-      <c r="Q40" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="U40" s="20" t="s">
-        <v>200</v>
       </c>
       <c r="V40" s="33" t="s">
         <v>105</v>
@@ -6205,19 +6205,19 @@
         <v>106</v>
       </c>
       <c r="X40" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC40"/>
     </row>
-    <row r="41" spans="1:29" ht="153" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" ht="136" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>41</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>37</v>
@@ -6244,13 +6244,13 @@
       </c>
       <c r="O41" s="14"/>
       <c r="P41" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q41" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="V41" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AC41"/>
     </row>
@@ -6259,10 +6259,10 @@
         <v>42</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>70</v>
@@ -6286,13 +6286,13 @@
       </c>
       <c r="O42" s="14"/>
       <c r="P42" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q42" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U42" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="V42" s="33" t="s">
         <v>105</v>
@@ -6301,10 +6301,10 @@
         <v>106</v>
       </c>
       <c r="X42" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB42" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AC42"/>
     </row>
@@ -6313,10 +6313,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>70</v>
@@ -6340,13 +6340,13 @@
       </c>
       <c r="O43" s="14"/>
       <c r="P43" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q43" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="U43" s="20" t="s">
         <v>207</v>
-      </c>
-      <c r="Q43" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="U43" s="20" t="s">
-        <v>209</v>
       </c>
       <c r="V43" s="33" t="s">
         <v>105</v>
@@ -6355,7 +6355,7 @@
         <v>106</v>
       </c>
       <c r="X43" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC43"/>
     </row>
@@ -6364,10 +6364,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>70</v>
@@ -6391,22 +6391,22 @@
       </c>
       <c r="O44" s="14"/>
       <c r="P44" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q44" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="U44" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V44" s="33" t="s">
         <v>105</v>
       </c>
       <c r="W44" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="X44" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC44"/>
     </row>
@@ -6415,10 +6415,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>70</v>
@@ -6442,13 +6442,13 @@
       </c>
       <c r="O45" s="14"/>
       <c r="P45" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q45" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="U45" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="V45" s="33" t="s">
         <v>105</v>
@@ -6457,10 +6457,10 @@
         <v>106</v>
       </c>
       <c r="X45" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB45" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AC45"/>
     </row>
@@ -6469,10 +6469,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>61</v>
@@ -6490,13 +6490,13 @@
       </c>
       <c r="O46" s="14"/>
       <c r="P46" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q46" s="20" t="s">
         <v>72</v>
       </c>
       <c r="AA46" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AC46"/>
     </row>
@@ -6505,10 +6505,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>70</v>
@@ -6532,19 +6532,19 @@
       </c>
       <c r="O47" s="14"/>
       <c r="P47" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q47" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="U47" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="V47" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="U47" s="20" t="s">
+      <c r="W47" s="20" t="s">
         <v>222</v>
-      </c>
-      <c r="V47" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="W47" s="20" t="s">
-        <v>224</v>
       </c>
       <c r="X47" s="20" t="s">
         <v>76</v>
@@ -6559,10 +6559,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>79</v>
@@ -6586,13 +6586,13 @@
       </c>
       <c r="O48" s="14"/>
       <c r="P48" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q48" s="20" t="s">
         <v>42</v>
       </c>
       <c r="U48" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="V48" s="20" t="s">
         <v>45</v>
@@ -6613,10 +6613,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>70</v>
@@ -6640,22 +6640,22 @@
       </c>
       <c r="O49" s="14"/>
       <c r="P49" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q49" s="20" t="s">
         <v>114</v>
       </c>
       <c r="U49" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="V49" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="W49" s="20" t="s">
         <v>89</v>
       </c>
       <c r="AA49" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AC49"/>
     </row>
@@ -6664,10 +6664,10 @@
         <v>50</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>79</v>
@@ -6682,7 +6682,7 @@
         <v>39</v>
       </c>
       <c r="L50" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M50" s="9" t="str" cm="1">
         <f t="array" ref="M50">PAGE_NAME(B50)</f>
@@ -6694,13 +6694,13 @@
       </c>
       <c r="O50" s="14"/>
       <c r="P50" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q50" s="20" t="s">
         <v>114</v>
       </c>
       <c r="V50" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AC50"/>
     </row>
@@ -6709,10 +6709,10 @@
         <v>51</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>70</v>
@@ -6736,13 +6736,13 @@
       </c>
       <c r="O51" s="14"/>
       <c r="P51" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q51" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U51" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="V51" s="20" t="s">
         <v>96</v>
@@ -6757,10 +6757,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>70</v>
@@ -6784,16 +6784,16 @@
       </c>
       <c r="O52" s="14"/>
       <c r="P52" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q52" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U52" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="V52" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="W52" s="20" t="s">
         <v>46</v>
@@ -6808,10 +6808,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>70</v>
@@ -6835,13 +6835,13 @@
       </c>
       <c r="O53" s="14"/>
       <c r="P53" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q53" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U53" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="V53" s="20" t="s">
         <v>96</v>
@@ -6856,10 +6856,10 @@
         <v>54</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>79</v>
@@ -6874,7 +6874,7 @@
         <v>39</v>
       </c>
       <c r="L54" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M54" s="9" t="str" cm="1">
         <f t="array" ref="M54">PAGE_NAME(B54)</f>
@@ -6886,13 +6886,13 @@
       </c>
       <c r="O54" s="14"/>
       <c r="P54" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q54" s="20" t="s">
         <v>114</v>
       </c>
       <c r="V54" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AC54"/>
     </row>
@@ -6901,7 +6901,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>60</v>
@@ -6919,10 +6919,10 @@
       </c>
       <c r="O55" s="14"/>
       <c r="P55" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AA55" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AC55"/>
     </row>
@@ -6931,10 +6931,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>61</v>
@@ -6955,37 +6955,37 @@
       </c>
       <c r="O56" s="14"/>
       <c r="P56" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q56" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="U56" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="Q56" s="20" t="s">
+      <c r="V56" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="U56" s="20" t="s">
+      <c r="W56" s="20" t="s">
         <v>247</v>
-      </c>
-      <c r="V56" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="W56" s="20" t="s">
-        <v>249</v>
       </c>
       <c r="X56" s="20" t="s">
         <v>76</v>
       </c>
       <c r="AA56" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC56"/>
     </row>
-    <row r="57" spans="1:29" ht="136" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>57</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>79</v>
@@ -7009,16 +7009,16 @@
       </c>
       <c r="O57" s="14"/>
       <c r="P57" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q57" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U57" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V57" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="W57" s="20" t="s">
         <v>46</v>
@@ -7028,15 +7028,15 @@
       </c>
       <c r="AC57"/>
     </row>
-    <row r="58" spans="1:29" ht="170" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="136" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>58</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>70</v>
@@ -7051,7 +7051,7 @@
         <v>50</v>
       </c>
       <c r="L58" s="37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M58" s="9" t="str" cm="1">
         <f t="array" ref="M58">PAGE_NAME(B58)</f>
@@ -7063,25 +7063,25 @@
       </c>
       <c r="O58" s="14"/>
       <c r="P58" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q58" s="20" t="s">
         <v>46</v>
       </c>
       <c r="V58" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AC58"/>
     </row>
-    <row r="59" spans="1:29" ht="102" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>59</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>70</v>
@@ -7105,16 +7105,16 @@
       </c>
       <c r="O59" s="14"/>
       <c r="P59" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q59" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U59" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="V59" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="W59" s="20" t="s">
         <v>89</v>
@@ -7129,10 +7129,10 @@
         <v>60</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>70</v>
@@ -7156,16 +7156,16 @@
       </c>
       <c r="O60" s="14"/>
       <c r="P60" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q60" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U60" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V60" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="W60" s="20" t="s">
         <v>89</v>
@@ -7174,7 +7174,7 @@
         <v>76</v>
       </c>
       <c r="AB60" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AC60"/>
     </row>
@@ -7183,10 +7183,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>37</v>
@@ -7198,7 +7198,7 @@
         <v>50</v>
       </c>
       <c r="J61" s="37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K61" s="37" t="s">
         <v>50</v>
@@ -7216,13 +7216,13 @@
       </c>
       <c r="O61" s="14"/>
       <c r="P61" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q61" s="20" t="s">
         <v>72</v>
       </c>
       <c r="V61" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AC61"/>
     </row>
@@ -7231,10 +7231,10 @@
         <v>62</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>61</v>
@@ -7252,25 +7252,25 @@
       </c>
       <c r="O62" s="14"/>
       <c r="P62" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q62" s="20" t="s">
         <v>72</v>
       </c>
       <c r="AA62" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AC62"/>
     </row>
-    <row r="63" spans="1:29" ht="136" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>63</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>70</v>
@@ -7294,22 +7294,22 @@
       </c>
       <c r="O63" s="14"/>
       <c r="P63" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q63" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U63" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V63" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="W63" s="20" t="s">
         <v>55</v>
       </c>
       <c r="AB63" s="32" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AC63"/>
     </row>
@@ -7318,10 +7318,10 @@
         <v>64</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>70</v>
@@ -7345,16 +7345,16 @@
       </c>
       <c r="O64" s="14"/>
       <c r="P64" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q64" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U64" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="V64" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AC64"/>
     </row>
@@ -7363,10 +7363,10 @@
         <v>65</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>70</v>
@@ -7390,22 +7390,22 @@
       </c>
       <c r="O65" s="14"/>
       <c r="P65" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q65" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U65" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="V65" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="W65" s="20" t="s">
         <v>106</v>
       </c>
       <c r="X65" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC65"/>
     </row>
@@ -7414,10 +7414,10 @@
         <v>66</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>70</v>
@@ -7441,22 +7441,22 @@
       </c>
       <c r="O66" s="14"/>
       <c r="P66" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q66" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U66" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V66" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="W66" s="20" t="s">
         <v>55</v>
       </c>
       <c r="AB66" s="32" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AC66"/>
     </row>
@@ -7465,10 +7465,10 @@
         <v>67</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>70</v>
@@ -7492,22 +7492,22 @@
       </c>
       <c r="O67" s="14"/>
       <c r="P67" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q67" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U67" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V67" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="W67" s="20" t="s">
         <v>106</v>
       </c>
       <c r="X67" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC67"/>
     </row>
@@ -7516,10 +7516,10 @@
         <v>68</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>70</v>
@@ -7543,16 +7543,16 @@
       </c>
       <c r="O68" s="14"/>
       <c r="P68" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q68" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U68" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="V68" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AC68"/>
     </row>
@@ -7561,10 +7561,10 @@
         <v>69</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>70</v>
@@ -7588,13 +7588,13 @@
       </c>
       <c r="O69" s="14"/>
       <c r="P69" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q69" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U69" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V69" s="33" t="s">
         <v>105</v>
@@ -7615,10 +7615,10 @@
         <v>70</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>70</v>
@@ -7642,13 +7642,13 @@
       </c>
       <c r="O70" s="14"/>
       <c r="P70" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q70" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U70" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V70" s="33" t="s">
         <v>105</v>
@@ -7669,10 +7669,10 @@
         <v>71</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>70</v>
@@ -7696,19 +7696,19 @@
       </c>
       <c r="O71" s="14"/>
       <c r="P71" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q71" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U71" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="V71" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB71" s="20" t="s">
         <v>295</v>
-      </c>
-      <c r="V71" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="AB71" s="20" t="s">
-        <v>297</v>
       </c>
       <c r="AC71"/>
     </row>
@@ -7717,10 +7717,10 @@
         <v>72</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>70</v>
@@ -7744,13 +7744,13 @@
       </c>
       <c r="O72" s="14"/>
       <c r="P72" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q72" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U72" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="V72" s="33" t="s">
         <v>105</v>
@@ -7768,10 +7768,10 @@
         <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>70</v>
@@ -7795,19 +7795,19 @@
       </c>
       <c r="O73" s="14"/>
       <c r="P73" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q73" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U73" s="20" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V73" s="33" t="s">
         <v>105</v>
       </c>
       <c r="W73" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AC73"/>
     </row>
@@ -7816,10 +7816,10 @@
         <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>70</v>
@@ -7834,7 +7834,7 @@
         <v>39</v>
       </c>
       <c r="L74" s="37" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M74" s="9" t="str" cm="1">
         <f t="array" ref="M74">PAGE_NAME(B74)</f>
@@ -7846,16 +7846,16 @@
       </c>
       <c r="O74" s="14"/>
       <c r="P74" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q74" s="20" t="s">
         <v>72</v>
       </c>
       <c r="V74" s="20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AB74" s="20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AC74"/>
     </row>
@@ -7864,10 +7864,10 @@
         <v>75</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>70</v>
@@ -7891,16 +7891,16 @@
       </c>
       <c r="O75" s="14"/>
       <c r="P75" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q75" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U75" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V75" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="W75" s="20" t="s">
         <v>55</v>
@@ -7912,10 +7912,10 @@
         <v>76</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>70</v>
@@ -7939,16 +7939,16 @@
       </c>
       <c r="O76" s="14"/>
       <c r="P76" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q76" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U76" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="V76" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AC76"/>
     </row>
@@ -7957,10 +7957,10 @@
         <v>77</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>70</v>
@@ -7984,22 +7984,22 @@
       </c>
       <c r="O77" s="14"/>
       <c r="P77" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q77" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="U77" s="20" t="s">
         <v>314</v>
-      </c>
-      <c r="Q77" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="U77" s="20" t="s">
-        <v>316</v>
       </c>
       <c r="V77" s="33" t="s">
         <v>105</v>
       </c>
       <c r="W77" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB77" s="20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AC77"/>
     </row>
@@ -8008,10 +8008,10 @@
         <v>78</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>70</v>
@@ -8035,16 +8035,16 @@
       </c>
       <c r="O78" s="14"/>
       <c r="P78" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q78" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U78" s="20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="V78" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="W78" s="20" t="s">
         <v>131</v>
@@ -8062,10 +8062,10 @@
         <v>79</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>70</v>
@@ -8089,19 +8089,19 @@
       </c>
       <c r="O79" s="14"/>
       <c r="P79" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q79" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="U79" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="V79" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="W79" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="X79" s="20" t="s">
         <v>76</v>
@@ -8116,10 +8116,10 @@
         <v>80</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>37</v>
@@ -8146,25 +8146,25 @@
       </c>
       <c r="O80" s="14"/>
       <c r="P80" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q80" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="V80" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AC80"/>
     </row>
-    <row r="81" spans="1:41" ht="170" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:41" ht="153" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>81</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>70</v>
@@ -8188,22 +8188,22 @@
       </c>
       <c r="O81" s="14"/>
       <c r="P81" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q81" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U81" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="V81" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA81" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="V81" s="20" t="s">
+      <c r="AB81" s="20" t="s">
         <v>329</v>
-      </c>
-      <c r="AA81" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="AB81" s="20" t="s">
-        <v>331</v>
       </c>
       <c r="AC81"/>
     </row>
@@ -8212,10 +8212,10 @@
         <v>82</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>70</v>
@@ -8239,22 +8239,22 @@
       </c>
       <c r="O82" s="14"/>
       <c r="P82" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Q82" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U82" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="V82" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA82" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="V82" s="20" t="s">
+      <c r="AB82" s="20" t="s">
         <v>329</v>
-      </c>
-      <c r="AA82" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="AB82" s="20" t="s">
-        <v>331</v>
       </c>
       <c r="AC82"/>
     </row>
@@ -8263,10 +8263,10 @@
         <v>83</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>37</v>
@@ -8281,7 +8281,7 @@
         <v>39</v>
       </c>
       <c r="L83" s="37" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M83" s="9" t="str" cm="1">
         <f t="array" ref="M83">PAGE_NAME(B83)</f>
@@ -8293,22 +8293,22 @@
       </c>
       <c r="O83" s="14"/>
       <c r="P83" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q83" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="U83" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="Q83" s="20" t="s">
+      <c r="V83" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="U83" s="20" t="s">
+      <c r="W83" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="V83" s="20" t="s">
+      <c r="AB83" s="20" t="s">
         <v>341</v>
-      </c>
-      <c r="W83" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB83" s="20" t="s">
-        <v>343</v>
       </c>
       <c r="AC83"/>
     </row>
@@ -8317,10 +8317,10 @@
         <v>84</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>37</v>
@@ -8347,13 +8347,13 @@
       </c>
       <c r="O84" s="14"/>
       <c r="P84" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q84" s="20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="V84" s="20" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AC84"/>
     </row>
@@ -8362,10 +8362,10 @@
         <v>85</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>37</v>
@@ -8380,7 +8380,7 @@
         <v>39</v>
       </c>
       <c r="L85" s="37" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M85" s="9" t="str" cm="1">
         <f t="array" ref="M85">PAGE_NAME(B85)</f>
@@ -8392,16 +8392,16 @@
       </c>
       <c r="O85" s="14"/>
       <c r="P85" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q85" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U85" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="V85" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AB85" s="20" t="s">
         <v>132</v>
@@ -8416,10 +8416,10 @@
         <v>59</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>117</v>
@@ -8446,10 +8446,10 @@
         <v>72</v>
       </c>
       <c r="U86" s="20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="V86" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AC86"/>
       <c r="AI86" s="17"/>
@@ -8468,7 +8468,7 @@
         <v>59</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>61</v>
@@ -8484,7 +8484,7 @@
       <c r="O87" s="14"/>
       <c r="V87" s="33"/>
       <c r="AA87" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AC87"/>
       <c r="AI87" s="17"/>
@@ -8503,7 +8503,7 @@
         <v>64</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>37</v>
@@ -8518,7 +8518,7 @@
         <v>50</v>
       </c>
       <c r="L88" s="37" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M88" s="9" t="str" cm="1">
         <f t="array" ref="M88">PAGE_NAME(B88)</f>
@@ -8536,7 +8536,7 @@
         <v>72</v>
       </c>
       <c r="V88" s="20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AC88"/>
       <c r="AH88" s="18"/>
@@ -8556,14 +8556,14 @@
         <v>64</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>61</v>
       </c>
       <c r="O89" s="14"/>
       <c r="AA89" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AC89"/>
     </row>
@@ -8575,7 +8575,7 @@
         <v>64</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>70</v>
@@ -8590,7 +8590,7 @@
         <v>39</v>
       </c>
       <c r="L90" s="37" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M90" s="9" t="str" cm="1">
         <f t="array" ref="M90">PAGE_NAME(B90)</f>
@@ -8608,7 +8608,7 @@
         <v>72</v>
       </c>
       <c r="V90" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AC90"/>
     </row>
@@ -8620,14 +8620,14 @@
         <v>64</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>61</v>
       </c>
       <c r="O91" s="14"/>
       <c r="AA91" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AC91"/>
     </row>
@@ -8639,7 +8639,7 @@
         <v>138</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>37</v>
@@ -8669,13 +8669,13 @@
         <v>140</v>
       </c>
       <c r="Q92" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="V92" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB92" s="20" t="s">
         <v>364</v>
-      </c>
-      <c r="V92" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB92" s="20" t="s">
-        <v>366</v>
       </c>
       <c r="AC92"/>
     </row>
@@ -8684,10 +8684,10 @@
         <v>93</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>70</v>
@@ -8711,22 +8711,22 @@
       </c>
       <c r="O93" s="14"/>
       <c r="P93" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q93" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="U93" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="V93" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="Q93" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="U93" s="20" t="s">
+      <c r="W93" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB93" s="20" t="s">
         <v>370</v>
-      </c>
-      <c r="V93" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="W93" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="AB93" s="20" t="s">
-        <v>372</v>
       </c>
       <c r="AC93"/>
     </row>
@@ -8735,10 +8735,10 @@
         <v>94</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>70</v>
@@ -8762,22 +8762,22 @@
       </c>
       <c r="O94" s="14"/>
       <c r="P94" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Q94" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U94" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="V94" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="W94" s="20" t="s">
         <v>97</v>
       </c>
       <c r="AB94" s="32" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AC94"/>
     </row>
@@ -8786,10 +8786,10 @@
         <v>95</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>70</v>
@@ -8804,7 +8804,7 @@
         <v>39</v>
       </c>
       <c r="L95" s="37" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M95" s="9" t="str" cm="1">
         <f t="array" ref="M95">PAGE_NAME(B95)</f>
@@ -8816,13 +8816,13 @@
       </c>
       <c r="O95" s="14"/>
       <c r="P95" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Q95" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="V95" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AC95"/>
     </row>
@@ -8831,10 +8831,10 @@
         <v>96</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>70</v>
@@ -8850,7 +8850,7 @@
         <v>39</v>
       </c>
       <c r="L96" s="37" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M96" s="9" t="str" cm="1">
         <f t="array" ref="M96">PAGE_NAME(B96)</f>
@@ -8862,13 +8862,13 @@
       </c>
       <c r="O96" s="14"/>
       <c r="P96" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Q96" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="V96" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AC96"/>
     </row>
@@ -8877,10 +8877,10 @@
         <v>97</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>70</v>
@@ -8904,22 +8904,22 @@
       </c>
       <c r="O97" s="14"/>
       <c r="P97" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Q97" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U97" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="V97" s="20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="W97" s="20" t="s">
         <v>97</v>
       </c>
       <c r="AB97" s="20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AC97"/>
     </row>
@@ -8928,10 +8928,10 @@
         <v>98</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>70</v>
@@ -8946,7 +8946,7 @@
         <v>39</v>
       </c>
       <c r="L98" s="37" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M98" s="9" t="str" cm="1">
         <f t="array" ref="M98">PAGE_NAME(B98)</f>
@@ -8958,19 +8958,19 @@
       </c>
       <c r="O98" s="14"/>
       <c r="P98" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Q98" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U98" s="20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="V98" s="33" t="s">
         <v>105</v>
       </c>
       <c r="W98" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AC98"/>
     </row>
@@ -8979,13 +8979,13 @@
         <v>99</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>38</v>
@@ -9006,19 +9006,19 @@
       </c>
       <c r="O99" s="14"/>
       <c r="P99" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Q99" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="U99" s="20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="V99" s="20" t="s">
         <v>105</v>
       </c>
       <c r="W99" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AC99"/>
     </row>
@@ -9027,10 +9027,10 @@
         <v>100</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>37</v>
@@ -9057,13 +9057,13 @@
       </c>
       <c r="O100" s="14"/>
       <c r="P100" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Q100" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="V100" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AC100"/>
     </row>
@@ -9072,10 +9072,10 @@
         <v>101</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>79</v>
@@ -9099,31 +9099,31 @@
       </c>
       <c r="O101" s="14"/>
       <c r="P101" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Q101" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="U101" s="20" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="V101" s="20" t="s">
         <v>105</v>
       </c>
       <c r="W101" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AC101"/>
     </row>
-    <row r="102" spans="1:29" ht="136" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>102</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>70</v>
@@ -9147,22 +9147,22 @@
       </c>
       <c r="O102" s="14"/>
       <c r="P102" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Q102" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U102" s="20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V102" s="20" t="s">
         <v>105</v>
       </c>
       <c r="W102" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AA102" s="20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AC102"/>
     </row>
@@ -9171,10 +9171,10 @@
         <v>103</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>70</v>
@@ -9198,22 +9198,22 @@
       </c>
       <c r="O103" s="14"/>
       <c r="P103" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Q103" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U103" s="20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="V103" s="20" t="s">
         <v>105</v>
       </c>
       <c r="W103" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AA103" s="20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AC103"/>
     </row>
@@ -9222,10 +9222,10 @@
         <v>104</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>37</v>
@@ -9252,13 +9252,13 @@
       </c>
       <c r="O104" s="14"/>
       <c r="P104" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Q104" s="20" t="s">
         <v>103</v>
       </c>
       <c r="V104" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AC104"/>
     </row>
@@ -9267,10 +9267,10 @@
         <v>105</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>37</v>
@@ -9297,13 +9297,13 @@
       </c>
       <c r="O105" s="14"/>
       <c r="P105" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Q105" s="20" t="s">
         <v>103</v>
       </c>
       <c r="V105" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AC105"/>
     </row>
@@ -9312,10 +9312,10 @@
         <v>106</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>70</v>
@@ -9339,19 +9339,19 @@
       </c>
       <c r="O106" s="14"/>
       <c r="P106" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q106" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="U106" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="V106" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="Q106" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="U106" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="V106" s="20" t="s">
-        <v>408</v>
-      </c>
       <c r="W106" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AC106"/>
     </row>
@@ -9360,10 +9360,10 @@
         <v>107</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>70</v>
@@ -9387,19 +9387,19 @@
       </c>
       <c r="O107" s="14"/>
       <c r="P107" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Q107" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="U107" s="20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="V107" s="20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="W107" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AC107"/>
     </row>
@@ -9408,10 +9408,10 @@
         <v>108</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>70</v>
@@ -9435,19 +9435,19 @@
       </c>
       <c r="O108" s="14"/>
       <c r="P108" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Q108" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="U108" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="V108" s="20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="W108" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AC108"/>
     </row>
@@ -9456,10 +9456,10 @@
         <v>109</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>70</v>
@@ -9483,19 +9483,19 @@
       </c>
       <c r="O109" s="14"/>
       <c r="P109" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Q109" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="U109" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="V109" s="20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="W109" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AC109"/>
     </row>
@@ -9504,10 +9504,10 @@
         <v>110</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>70</v>
@@ -9531,31 +9531,31 @@
       </c>
       <c r="O110" s="14"/>
       <c r="P110" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Q110" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="U110" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V110" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="W110" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AC110"/>
     </row>
-    <row r="111" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>111</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>70</v>
@@ -9579,19 +9579,19 @@
       </c>
       <c r="O111" s="14"/>
       <c r="P111" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Q111" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="U111" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="V111" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="W111" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AC111"/>
     </row>
@@ -9600,10 +9600,10 @@
         <v>112</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>70</v>
@@ -9627,19 +9627,19 @@
       </c>
       <c r="O112" s="14"/>
       <c r="P112" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Q112" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="U112" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="V112" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="W112" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AC112"/>
     </row>
@@ -9651,7 +9651,7 @@
         <v>138</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>37</v>
@@ -9681,10 +9681,10 @@
         <v>148</v>
       </c>
       <c r="U113" s="20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="V113" s="20" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="W113" s="20" t="s">
         <v>75</v>
@@ -9698,10 +9698,10 @@
         <v>114</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>70</v>
@@ -9725,16 +9725,16 @@
       </c>
       <c r="O114" s="14"/>
       <c r="P114" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q114" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U114" s="20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="V114" s="20" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="W114" s="20" t="s">
         <v>46</v>
@@ -9745,10 +9745,10 @@
         <v>115</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>70</v>
@@ -9772,30 +9772,30 @@
       </c>
       <c r="O115" s="14"/>
       <c r="P115" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q115" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="U115" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="V115" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="Q115" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="U115" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="V115" s="20" t="s">
-        <v>439</v>
-      </c>
       <c r="W115" s="20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="116" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>116</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>70</v>
@@ -9819,16 +9819,16 @@
       </c>
       <c r="O116" s="14"/>
       <c r="P116" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q116" s="20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="U116" s="20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V116" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="85" x14ac:dyDescent="0.2">
@@ -9836,10 +9836,10 @@
         <v>117</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>37</v>
@@ -9866,13 +9866,13 @@
       </c>
       <c r="O117" s="14"/>
       <c r="P117" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q117" s="20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="V117" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="51" x14ac:dyDescent="0.2">
@@ -9880,10 +9880,10 @@
         <v>118</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>70</v>
@@ -9907,19 +9907,19 @@
       </c>
       <c r="O118" s="14"/>
       <c r="P118" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q118" s="20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="U118" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="V118" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="W118" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="51" x14ac:dyDescent="0.2">
@@ -9927,10 +9927,10 @@
         <v>119</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>70</v>
@@ -9954,19 +9954,19 @@
       </c>
       <c r="O119" s="14"/>
       <c r="P119" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q119" s="20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="U119" s="20" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="V119" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="W119" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="120" spans="1:28" ht="85" x14ac:dyDescent="0.2">
@@ -9974,10 +9974,10 @@
         <v>120</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>79</v>
@@ -10001,16 +10001,16 @@
       </c>
       <c r="O120" s="14"/>
       <c r="P120" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q120" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U120" s="20" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="V120" s="20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="W120" s="20" t="s">
         <v>46</v>
@@ -10021,10 +10021,10 @@
         <v>121</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>70</v>
@@ -10048,22 +10048,22 @@
       </c>
       <c r="O121" s="14"/>
       <c r="P121" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q121" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U121" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="V121" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="W121" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA121" s="20" t="s">
         <v>455</v>
-      </c>
-      <c r="V121" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="W121" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA121" s="20" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="51" x14ac:dyDescent="0.2">
@@ -10071,10 +10071,10 @@
         <v>122</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>37</v>
@@ -10100,7 +10100,7 @@
       </c>
       <c r="O122" s="14"/>
       <c r="P122" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q122" s="20" t="s">
         <v>46</v>
@@ -10108,16 +10108,16 @@
       <c r="S122" s="10"/>
       <c r="T122" s="10"/>
       <c r="U122" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="V122" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="W122" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA122" s="20" t="s">
         <v>459</v>
-      </c>
-      <c r="V122" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="W122" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA122" s="20" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="51" x14ac:dyDescent="0.2">
@@ -10125,10 +10125,10 @@
         <v>123</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>37</v>
@@ -10143,7 +10143,7 @@
         <v>50</v>
       </c>
       <c r="L123" s="37" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M123" s="9" t="str" cm="1">
         <f t="array" ref="M123">PAGE_NAME(B123)</f>
@@ -10155,13 +10155,13 @@
       </c>
       <c r="O123" s="14"/>
       <c r="P123" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q123" s="20" t="s">
         <v>46</v>
       </c>
       <c r="V123" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="124" spans="1:28" ht="51" x14ac:dyDescent="0.2">
@@ -10169,10 +10169,10 @@
         <v>124</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>70</v>
@@ -10196,33 +10196,33 @@
       </c>
       <c r="O124" s="14"/>
       <c r="P124" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q124" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U124" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="V124" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="W124" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA124" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="V124" s="20" t="s">
-        <v>467</v>
-      </c>
-      <c r="W124" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA124" s="20" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="125" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
         <v>125</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>79</v>
@@ -10246,22 +10246,22 @@
       </c>
       <c r="O125" s="14"/>
       <c r="P125" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q125" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U125" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V125" s="20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="W125" s="20" t="s">
         <v>46</v>
       </c>
       <c r="AB125" s="20" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="68" x14ac:dyDescent="0.2">
@@ -10269,10 +10269,10 @@
         <v>126</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>79</v>
@@ -10296,19 +10296,19 @@
       </c>
       <c r="O126" s="14"/>
       <c r="P126" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q126" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U126" s="20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="V126" s="20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="W126" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="51" x14ac:dyDescent="0.2">
@@ -10316,10 +10316,10 @@
         <v>127</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>79</v>
@@ -10343,19 +10343,19 @@
       </c>
       <c r="O127" s="14"/>
       <c r="P127" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q127" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U127" s="20" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="V127" s="20" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="W127" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:28" ht="136" x14ac:dyDescent="0.2">
@@ -10363,10 +10363,10 @@
         <v>128</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>37</v>
@@ -10381,7 +10381,7 @@
         <v>39</v>
       </c>
       <c r="L128" s="37" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M128" s="9" t="str" cm="1">
         <f t="array" ref="M128">PAGE_NAME(B128)</f>
@@ -10393,16 +10393,16 @@
       </c>
       <c r="O128" s="14"/>
       <c r="P128" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q128" s="20" t="s">
         <v>46</v>
       </c>
       <c r="V128" s="20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AA128" s="20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="129" spans="1:29" ht="68" x14ac:dyDescent="0.2">
@@ -10410,10 +10410,10 @@
         <v>129</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>70</v>
@@ -10437,19 +10437,19 @@
       </c>
       <c r="O129" s="14"/>
       <c r="P129" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q129" s="20" t="s">
         <v>46</v>
       </c>
       <c r="V129" s="20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AA129" s="20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AB129" s="20" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="130" spans="1:29" ht="68" x14ac:dyDescent="0.2">
@@ -10457,10 +10457,10 @@
         <v>130</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>79</v>
@@ -10484,16 +10484,16 @@
       </c>
       <c r="O130" s="14"/>
       <c r="P130" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q130" s="20" t="s">
         <v>46</v>
       </c>
       <c r="V130" s="20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AB130" s="20" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="119" x14ac:dyDescent="0.2">
@@ -10501,10 +10501,10 @@
         <v>131</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>37</v>
@@ -10516,7 +10516,7 @@
         <v>50</v>
       </c>
       <c r="J131" s="37" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K131" s="37" t="s">
         <v>50</v>
@@ -10534,16 +10534,16 @@
       </c>
       <c r="O131" s="14"/>
       <c r="P131" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="Q131" s="20" t="s">
         <v>103</v>
       </c>
       <c r="V131" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AB131" s="20" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="132" spans="1:29" ht="119" x14ac:dyDescent="0.2">
@@ -10551,10 +10551,10 @@
         <v>132</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>37</v>
@@ -10566,7 +10566,7 @@
         <v>50</v>
       </c>
       <c r="J132" s="37" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K132" s="37" t="s">
         <v>50</v>
@@ -10584,16 +10584,16 @@
       </c>
       <c r="O132" s="14"/>
       <c r="P132" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="Q132" s="20" t="s">
         <v>103</v>
       </c>
       <c r="V132" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AB132" s="20" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AC132"/>
     </row>
@@ -10602,10 +10602,10 @@
         <v>133</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>70</v>
@@ -10629,16 +10629,16 @@
       </c>
       <c r="O133" s="14"/>
       <c r="P133" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q133" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U133" s="20" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="V133" s="20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="W133" s="20" t="s">
         <v>75</v>
@@ -10647,7 +10647,7 @@
         <v>76</v>
       </c>
       <c r="AB133" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AC133"/>
     </row>
@@ -10656,10 +10656,10 @@
         <v>134</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>70</v>
@@ -10683,19 +10683,19 @@
       </c>
       <c r="O134" s="14"/>
       <c r="P134" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q134" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="U134" s="20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="V134" s="20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="W134" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="X134" s="20" t="s">
         <v>76</v>
@@ -10707,10 +10707,10 @@
         <v>135</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>70</v>
@@ -10734,16 +10734,16 @@
       </c>
       <c r="O135" s="14"/>
       <c r="P135" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q135" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U135" s="20" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="V135" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="W135" s="20" t="s">
         <v>55</v>
@@ -10755,10 +10755,10 @@
         <v>136</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>70</v>
@@ -10773,7 +10773,7 @@
         <v>39</v>
       </c>
       <c r="L136" s="37" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M136" s="9" t="str" cm="1">
         <f t="array" ref="M136">PAGE_NAME(B136)</f>
@@ -10785,16 +10785,16 @@
       </c>
       <c r="O136" s="14"/>
       <c r="P136" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q136" s="20" t="s">
         <v>72</v>
       </c>
       <c r="V136" s="20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AB136" s="20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="68" x14ac:dyDescent="0.2">
@@ -10802,10 +10802,10 @@
         <v>137</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>70</v>
@@ -10829,13 +10829,13 @@
       </c>
       <c r="O137" s="14"/>
       <c r="U137" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="V137" s="20" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA137" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="68" x14ac:dyDescent="0.2">
@@ -10843,10 +10843,10 @@
         <v>138</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>70</v>
@@ -10870,10 +10870,10 @@
       </c>
       <c r="O138" s="14"/>
       <c r="U138" s="20" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="V138" s="20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="68" x14ac:dyDescent="0.2">
@@ -10881,10 +10881,10 @@
         <v>139</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>70</v>
@@ -10908,10 +10908,10 @@
       </c>
       <c r="O139" s="14"/>
       <c r="U139" s="20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="V139" s="20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.2">
@@ -13163,7 +13163,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B1" s="54"/>
     </row>
@@ -13173,76 +13173,76 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -13269,7 +13269,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -13289,7 +13289,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -13303,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -13314,17 +13314,17 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -13338,6 +13338,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -13591,29 +13613,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6384F4-7D50-4B36-A6F8-C77244590866}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13631,30 +13657,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/lib/subscriptions_test_kit/requirements/hl7.fhir.uv.subscriptions_1.1.0_requirements.xlsx
+++ b/lib/subscriptions_test_kit/requirements/hl7.fhir.uv.subscriptions_1.1.0_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/subscriptions-test-kit/lib/subscriptions_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E2D375-1C7E-224E-BBE3-EEA668788B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC7A791-FF95-9C41-A29A-FBE4E2974E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34560" windowHeight="19980" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1292,9 +1292,6 @@
     <t>SIMULATED: Inferno will POST the client-provided notification.</t>
   </si>
   <si>
-    <t>The content-type of the POST SHALL match the MIME type on the Subscription (Subscription.channel.payload).</t>
-  </si>
-  <si>
     <t>For a rest-hook subscription, verify that the content-type header of the POST request matches the Subscription's MIME type (including handshake and heartbeats).</t>
   </si>
   <si>
@@ -1308,16 +1305,10 @@
 TEST DESIGN: do we need to verify / adjust the provided notification body to make sure it meets the Subscription MIME type?</t>
   </si>
   <si>
-    <t>Each Subscription.channel.header value SHALL be conveyed as an HTTP request header.</t>
-  </si>
-  <si>
     <t>For a rest-hook subscription, verify that each Subscription.channel.header entry appears within the headers of the POST request for a notification (including handshake and heartbeats).</t>
   </si>
   <si>
     <t>SIMULATED: Inferno will add headers from the Subscription to notifications</t>
-  </si>
-  <si>
-    <t>The bundle SHALL comply with the Backported R5 Notification Bundle Profile.</t>
   </si>
   <si>
     <t>Verify using the HL7 validator.</t>
@@ -3128,6 +3119,15 @@
   </si>
   <si>
     <t>Actors*</t>
+  </si>
+  <si>
+    <t>The [server's event notification] bundle SHALL comply with the [Backported R5 Notification Bundle Profile](https://hl7.org/fhir/uv/subscriptions-backport/STU1.1/StructureDefinition-backport-subscription-notification.html).</t>
+  </si>
+  <si>
+    <t>The content-type of the [server's event notification] POST SHALL match the MIME type on the Subscription ([Subscription.channel.payload](http://hl7.org/fhir/subscription-definitions.html#Subscription.channel.payload)).</t>
+  </si>
+  <si>
+    <t>Each [Subscription.channel.header](http://hl7.org/fhir/subscription-definitions.html#Subscription.channel.header) value SHALL be conveyed as an HTTP request header [in the server's event notification POST].</t>
   </si>
 </sst>
 </file>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="46" t="s">
@@ -4090,16 +4090,17 @@
   <dimension ref="A1:AS348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="7"/>
-    <col min="3" max="3" width="41" style="8" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="7"/>
+    <col min="3" max="3" width="44.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="7"/>
     <col min="6" max="6" width="13.33203125" style="8" customWidth="1"/>
@@ -4126,12 +4127,12 @@
     <col min="34" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" s="5" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>10</v>
@@ -4140,7 +4141,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
@@ -4215,11 +4216,11 @@
       <c r="AI1" s="6"/>
     </row>
     <row r="2" spans="1:45" s="5" customFormat="1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="7">
-        <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>36</v>
@@ -4246,15 +4247,15 @@
         <v>40</v>
       </c>
       <c r="M2" s="9" t="str" cm="1">
-        <f t="array" ref="M2">PAGE_NAME(A2)</f>
+        <f t="array" ref="M2">PAGE_NAME(B2)</f>
         <v>components</v>
       </c>
       <c r="N2" s="9" t="str" cm="1">
-        <f t="array" ref="N2">SECTION_NAME(A2)</f>
+        <f t="array" ref="N2">SECTION_NAME(B2)</f>
         <v>subscription-topics-in-r4</v>
       </c>
       <c r="O2" s="14" t="str" cm="1">
-        <f t="array" ref="O2">IFERROR(FIND_DUPLICATES(C2,B2,$C$2:$C$348,$B$2:$B$348,0.1),"")</f>
+        <f t="array" ref="O2">IFERROR(FIND_DUPLICATES(C2,#REF!,$C$2:$C$348,#REF!,0.1),"")</f>
         <v/>
       </c>
       <c r="P2" s="10" t="s">
@@ -4292,11 +4293,11 @@
       <c r="AM2" s="17"/>
     </row>
     <row r="3" spans="1:45" s="5" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="7">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" s="7">
-        <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>49</v>
@@ -4323,11 +4324,11 @@
         <v>52</v>
       </c>
       <c r="M3" s="9" t="str" cm="1">
-        <f t="array" ref="M3">PAGE_NAME(A3)</f>
+        <f t="array" ref="M3">PAGE_NAME(B3)</f>
         <v>components</v>
       </c>
       <c r="N3" s="9" t="str" cm="1">
-        <f t="array" ref="N3">SECTION_NAME(A3)</f>
+        <f t="array" ref="N3">SECTION_NAME(B3)</f>
         <v>subscription-topics-in-r4</v>
       </c>
       <c r="O3" s="24" t="s">
@@ -4358,11 +4359,11 @@
       <c r="AM3" s="17"/>
     </row>
     <row r="4" spans="1:45" ht="102" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="7">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" s="7">
-        <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>56</v>
@@ -4383,11 +4384,11 @@
         <v>57</v>
       </c>
       <c r="M4" s="9" t="str" cm="1">
-        <f t="array" ref="M4">PAGE_NAME(A4)</f>
+        <f t="array" ref="M4">PAGE_NAME(B4)</f>
         <v>components</v>
       </c>
       <c r="N4" s="9" t="str" cm="1">
-        <f t="array" ref="N4">SECTION_NAME(A4)</f>
+        <f t="array" ref="N4">SECTION_NAME(B4)</f>
         <v>subscription-topics-in-r4</v>
       </c>
       <c r="O4" s="14"/>
@@ -4419,11 +4420,11 @@
       <c r="AS4" s="5"/>
     </row>
     <row r="5" spans="1:45" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="7">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="B5" s="7">
-        <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>60</v>
@@ -4432,11 +4433,11 @@
         <v>61</v>
       </c>
       <c r="M5" s="9" t="str" cm="1">
-        <f t="array" ref="M5">PAGE_NAME(A5)</f>
+        <f t="array" ref="M5">PAGE_NAME(B5)</f>
         <v>components</v>
       </c>
       <c r="N5" s="9" t="str" cm="1">
-        <f t="array" ref="N5">SECTION_NAME(A5)</f>
+        <f t="array" ref="N5">SECTION_NAME(B5)</f>
         <v>subscriptions</v>
       </c>
       <c r="O5" s="14"/>
@@ -4456,11 +4457,11 @@
       <c r="AO5" s="5"/>
     </row>
     <row r="6" spans="1:45" ht="170" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="7">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="B6" s="7">
-        <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>65</v>
@@ -4469,11 +4470,11 @@
         <v>61</v>
       </c>
       <c r="M6" s="9" t="str" cm="1">
-        <f t="array" ref="M6">PAGE_NAME(A6)</f>
+        <f t="array" ref="M6">PAGE_NAME(B6)</f>
         <v>components</v>
       </c>
       <c r="N6" s="9" t="str" cm="1">
-        <f t="array" ref="N6">SECTION_NAME(A6)</f>
+        <f t="array" ref="N6">SECTION_NAME(B6)</f>
         <v>subscriptions-and-fhir-versions</v>
       </c>
       <c r="O6" s="14"/>
@@ -4486,11 +4487,11 @@
       <c r="AC6"/>
     </row>
     <row r="7" spans="1:45" ht="153" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B7" s="7">
-        <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>69</v>
@@ -4508,11 +4509,11 @@
         <v>39</v>
       </c>
       <c r="M7" s="9" t="str" cm="1">
-        <f t="array" ref="M7">PAGE_NAME(A7)</f>
+        <f t="array" ref="M7">PAGE_NAME(B7)</f>
         <v>components</v>
       </c>
       <c r="N7" s="9" t="str" cm="1">
-        <f t="array" ref="N7">SECTION_NAME(A7)</f>
+        <f t="array" ref="N7">SECTION_NAME(B7)</f>
         <v>accepting-subscription-requests</v>
       </c>
       <c r="O7" s="14"/>
@@ -4540,11 +4541,11 @@
       <c r="AC7"/>
     </row>
     <row r="8" spans="1:45" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="7">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B8" s="7">
-        <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>78</v>
@@ -4562,11 +4563,11 @@
         <v>39</v>
       </c>
       <c r="M8" s="9" t="str" cm="1">
-        <f t="array" ref="M8">PAGE_NAME(A8)</f>
+        <f t="array" ref="M8">PAGE_NAME(B8)</f>
         <v>components</v>
       </c>
       <c r="N8" s="9" t="str" cm="1">
-        <f t="array" ref="N8">SECTION_NAME(A8)</f>
+        <f t="array" ref="N8">SECTION_NAME(B8)</f>
         <v>accepting-subscription-requests</v>
       </c>
       <c r="O8" s="14"/>
@@ -4588,11 +4589,11 @@
       <c r="AC8"/>
     </row>
     <row r="9" spans="1:45" ht="85" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="7">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B9" s="7">
-        <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>83</v>
@@ -4610,11 +4611,11 @@
         <v>39</v>
       </c>
       <c r="M9" s="9" t="str" cm="1">
-        <f t="array" ref="M9">PAGE_NAME(A9)</f>
+        <f t="array" ref="M9">PAGE_NAME(B9)</f>
         <v>components</v>
       </c>
       <c r="N9" s="9" t="str" cm="1">
-        <f t="array" ref="N9">SECTION_NAME(A9)</f>
+        <f t="array" ref="N9">SECTION_NAME(B9)</f>
         <v>accepting-subscription-requests</v>
       </c>
       <c r="O9" s="14"/>
@@ -4636,11 +4637,11 @@
       <c r="AC9"/>
     </row>
     <row r="10" spans="1:45" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="7">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B10" s="7">
-        <v>10</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>86</v>
@@ -4658,11 +4659,11 @@
         <v>39</v>
       </c>
       <c r="M10" s="9" t="str" cm="1">
-        <f t="array" ref="M10">PAGE_NAME(A10)</f>
+        <f t="array" ref="M10">PAGE_NAME(B10)</f>
         <v>components</v>
       </c>
       <c r="N10" s="9" t="str" cm="1">
-        <f t="array" ref="N10">SECTION_NAME(A10)</f>
+        <f t="array" ref="N10">SECTION_NAME(B10)</f>
         <v>accepting-subscription-requests</v>
       </c>
       <c r="O10" s="14"/>
@@ -4687,11 +4688,11 @@
       <c r="AC10"/>
     </row>
     <row r="11" spans="1:45" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="7">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B11" s="7">
-        <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>90</v>
@@ -4709,11 +4710,11 @@
         <v>39</v>
       </c>
       <c r="M11" s="9" t="str" cm="1">
-        <f t="array" ref="M11">PAGE_NAME(A11)</f>
+        <f t="array" ref="M11">PAGE_NAME(B11)</f>
         <v>components</v>
       </c>
       <c r="N11" s="9" t="str" cm="1">
-        <f t="array" ref="N11">SECTION_NAME(A11)</f>
+        <f t="array" ref="N11">SECTION_NAME(B11)</f>
         <v>accepting-subscription-requests</v>
       </c>
       <c r="O11" s="14"/>
@@ -4738,11 +4739,11 @@
       <c r="AC11"/>
     </row>
     <row r="12" spans="1:45" ht="85" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="7">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B12" s="7">
-        <v>12</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>94</v>
@@ -4760,11 +4761,11 @@
         <v>39</v>
       </c>
       <c r="M12" s="9" t="str" cm="1">
-        <f t="array" ref="M12">PAGE_NAME(A12)</f>
+        <f t="array" ref="M12">PAGE_NAME(B12)</f>
         <v>components</v>
       </c>
       <c r="N12" s="9" t="str" cm="1">
-        <f t="array" ref="N12">SECTION_NAME(A12)</f>
+        <f t="array" ref="N12">SECTION_NAME(B12)</f>
         <v>accepting-subscription-requests</v>
       </c>
       <c r="O12" s="14"/>
@@ -4786,11 +4787,11 @@
       <c r="AC12"/>
     </row>
     <row r="13" spans="1:45" ht="85" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="7">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B13" s="7">
-        <v>13</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>98</v>
@@ -4808,11 +4809,11 @@
         <v>39</v>
       </c>
       <c r="M13" s="9" t="str" cm="1">
-        <f t="array" ref="M13">PAGE_NAME(A13)</f>
+        <f t="array" ref="M13">PAGE_NAME(B13)</f>
         <v>components</v>
       </c>
       <c r="N13" s="9" t="str" cm="1">
-        <f t="array" ref="N13">SECTION_NAME(A13)</f>
+        <f t="array" ref="N13">SECTION_NAME(B13)</f>
         <v>accepting-subscription-requests</v>
       </c>
       <c r="O13" s="14"/>
@@ -4834,11 +4835,11 @@
       <c r="AC13"/>
     </row>
     <row r="14" spans="1:45" ht="119" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="7">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="B14" s="7">
-        <v>14</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>101</v>
@@ -4856,11 +4857,11 @@
         <v>39</v>
       </c>
       <c r="M14" s="9" t="str" cm="1">
-        <f t="array" ref="M14">PAGE_NAME(A14)</f>
+        <f t="array" ref="M14">PAGE_NAME(B14)</f>
         <v>components</v>
       </c>
       <c r="N14" s="9" t="str" cm="1">
-        <f t="array" ref="N14">SECTION_NAME(A14)</f>
+        <f t="array" ref="N14">SECTION_NAME(B14)</f>
         <v>subscription-notifications</v>
       </c>
       <c r="O14" s="14"/>
@@ -4887,12 +4888,12 @@
       </c>
       <c r="AC14"/>
     </row>
-    <row r="15" spans="1:45" ht="272" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:45" ht="238" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="B15" s="7">
-        <v>15</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>108</v>
@@ -4910,11 +4911,11 @@
         <v>39</v>
       </c>
       <c r="M15" s="9" t="str" cm="1">
-        <f t="array" ref="M15">PAGE_NAME(A15)</f>
+        <f t="array" ref="M15">PAGE_NAME(B15)</f>
         <v>components</v>
       </c>
       <c r="N15" s="9" t="str" cm="1">
-        <f t="array" ref="N15">SECTION_NAME(A15)</f>
+        <f t="array" ref="N15">SECTION_NAME(B15)</f>
         <v>subscription-notifications</v>
       </c>
       <c r="O15" s="14"/>
@@ -4942,11 +4943,11 @@
       <c r="AC15"/>
     </row>
     <row r="16" spans="1:45" ht="221" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="7">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="B16" s="7">
-        <v>16</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>111</v>
@@ -4970,11 +4971,11 @@
         <v>112</v>
       </c>
       <c r="M16" s="9" t="str" cm="1">
-        <f t="array" ref="M16">PAGE_NAME(A16)</f>
+        <f t="array" ref="M16">PAGE_NAME(B16)</f>
         <v>components</v>
       </c>
       <c r="N16" s="9" t="str" cm="1">
-        <f t="array" ref="N16">SECTION_NAME(A16)</f>
+        <f t="array" ref="N16">SECTION_NAME(B16)</f>
         <v>scoping-responsibilities</v>
       </c>
       <c r="O16" s="14"/>
@@ -4993,11 +4994,11 @@
       <c r="AC16"/>
     </row>
     <row r="17" spans="1:29" ht="204" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="7">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="B17" s="7">
-        <v>17</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>116</v>
@@ -5021,11 +5022,11 @@
         <v>118</v>
       </c>
       <c r="M17" s="9" t="str" cm="1">
-        <f t="array" ref="M17">PAGE_NAME(A17)</f>
+        <f t="array" ref="M17">PAGE_NAME(B17)</f>
         <v>components</v>
       </c>
       <c r="N17" s="9" t="str" cm="1">
-        <f t="array" ref="N17">SECTION_NAME(A17)</f>
+        <f t="array" ref="N17">SECTION_NAME(B17)</f>
         <v>scoping-responsibilities</v>
       </c>
       <c r="O17" s="14"/>
@@ -5044,11 +5045,11 @@
       <c r="AC17"/>
     </row>
     <row r="18" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="7">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="B18" s="7">
-        <v>18</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>120</v>
@@ -5069,11 +5070,11 @@
         <v>121</v>
       </c>
       <c r="M18" s="9" t="str" cm="1">
-        <f t="array" ref="M18">PAGE_NAME(A18)</f>
+        <f t="array" ref="M18">PAGE_NAME(B18)</f>
         <v>workflow</v>
       </c>
       <c r="N18" s="9" t="str" cm="1">
-        <f t="array" ref="N18">SECTION_NAME(A18)</f>
+        <f t="array" ref="N18">SECTION_NAME(B18)</f>
         <v>workflow-fhir-r4</v>
       </c>
       <c r="O18" s="14"/>
@@ -5095,11 +5096,11 @@
       <c r="AC18"/>
     </row>
     <row r="19" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="7">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="B19" s="7">
-        <v>19</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>125</v>
@@ -5120,11 +5121,11 @@
         <v>121</v>
       </c>
       <c r="M19" s="9" t="str" cm="1">
-        <f t="array" ref="M19">PAGE_NAME(A19)</f>
+        <f t="array" ref="M19">PAGE_NAME(B19)</f>
         <v>workflow</v>
       </c>
       <c r="N19" s="9" t="str" cm="1">
-        <f t="array" ref="N19">SECTION_NAME(A19)</f>
+        <f t="array" ref="N19">SECTION_NAME(B19)</f>
         <v>workflow-fhir-r4</v>
       </c>
       <c r="O19" s="14"/>
@@ -5149,11 +5150,11 @@
       <c r="AC19"/>
     </row>
     <row r="20" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="7">
+        <v>20</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="B20" s="7">
-        <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>127</v>
@@ -5171,11 +5172,11 @@
         <v>39</v>
       </c>
       <c r="M20" s="9" t="str" cm="1">
-        <f t="array" ref="M20">PAGE_NAME(A20)</f>
+        <f t="array" ref="M20">PAGE_NAME(B20)</f>
         <v>workflow</v>
       </c>
       <c r="N20" s="9" t="str" cm="1">
-        <f t="array" ref="N20">SECTION_NAME(A20)</f>
+        <f t="array" ref="N20">SECTION_NAME(B20)</f>
         <v>workflow-fhir-r4</v>
       </c>
       <c r="O20" s="14"/>
@@ -5203,11 +5204,11 @@
       <c r="AC20"/>
     </row>
     <row r="21" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="7">
+        <v>21</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="B21" s="7">
-        <v>21</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>133</v>
@@ -5225,11 +5226,11 @@
         <v>39</v>
       </c>
       <c r="M21" s="9" t="str" cm="1">
-        <f t="array" ref="M21">PAGE_NAME(A21)</f>
+        <f t="array" ref="M21">PAGE_NAME(B21)</f>
         <v>workflow</v>
       </c>
       <c r="N21" s="9" t="str" cm="1">
-        <f t="array" ref="N21">SECTION_NAME(A21)</f>
+        <f t="array" ref="N21">SECTION_NAME(B21)</f>
         <v>workflow-fhir-r4</v>
       </c>
       <c r="O21" s="14"/>
@@ -5257,11 +5258,11 @@
       <c r="AC21"/>
     </row>
     <row r="22" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="7">
+        <v>22</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="B22" s="7">
-        <v>22</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>136</v>
@@ -5282,11 +5283,11 @@
         <v>121</v>
       </c>
       <c r="M22" s="9" t="str" cm="1">
-        <f t="array" ref="M22">PAGE_NAME(A22)</f>
+        <f t="array" ref="M22">PAGE_NAME(B22)</f>
         <v>workflow</v>
       </c>
       <c r="N22" s="9" t="str" cm="1">
-        <f t="array" ref="N22">SECTION_NAME(A22)</f>
+        <f t="array" ref="N22">SECTION_NAME(B22)</f>
         <v>workflow-fhir-r4</v>
       </c>
       <c r="O22" s="14"/>
@@ -5305,11 +5306,11 @@
       <c r="AC22"/>
     </row>
     <row r="23" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="7">
+        <v>23</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="B23" s="7">
-        <v>23</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>139</v>
@@ -5327,11 +5328,11 @@
         <v>39</v>
       </c>
       <c r="M23" s="9" t="str" cm="1">
-        <f t="array" ref="M23">PAGE_NAME(A23)</f>
+        <f t="array" ref="M23">PAGE_NAME(B23)</f>
         <v>channels</v>
       </c>
       <c r="N23" s="9" t="str" cm="1">
-        <f t="array" ref="N23">SECTION_NAME(A23)</f>
+        <f t="array" ref="N23">SECTION_NAME(B23)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O23" s="14"/>
@@ -5350,11 +5351,11 @@
       <c r="AC23"/>
     </row>
     <row r="24" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="7">
+        <v>24</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="B24" s="7">
-        <v>24</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>144</v>
@@ -5372,11 +5373,11 @@
         <v>39</v>
       </c>
       <c r="M24" s="9" t="str" cm="1">
-        <f t="array" ref="M24">PAGE_NAME(A24)</f>
+        <f t="array" ref="M24">PAGE_NAME(B24)</f>
         <v>channels</v>
       </c>
       <c r="N24" s="9" t="str" cm="1">
-        <f t="array" ref="N24">SECTION_NAME(A24)</f>
+        <f t="array" ref="N24">SECTION_NAME(B24)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O24" s="14"/>
@@ -5395,11 +5396,11 @@
       <c r="AC24"/>
     </row>
     <row r="25" spans="1:29" ht="136" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="7">
+        <v>25</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="B25" s="7">
-        <v>25</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>147</v>
@@ -5417,11 +5418,11 @@
         <v>39</v>
       </c>
       <c r="M25" s="9" t="str" cm="1">
-        <f t="array" ref="M25">PAGE_NAME(A25)</f>
+        <f t="array" ref="M25">PAGE_NAME(B25)</f>
         <v>channels</v>
       </c>
       <c r="N25" s="9" t="str" cm="1">
-        <f t="array" ref="N25">SECTION_NAME(A25)</f>
+        <f t="array" ref="N25">SECTION_NAME(B25)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O25" s="14"/>
@@ -5446,14 +5447,14 @@
       <c r="AC25"/>
     </row>
     <row r="26" spans="1:29" ht="153" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="7">
+        <v>26</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="7">
-        <v>26</v>
-      </c>
       <c r="C26" s="8" t="s">
-        <v>151</v>
+        <v>536</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>70</v>
@@ -5468,11 +5469,11 @@
         <v>39</v>
       </c>
       <c r="M26" s="9" t="str" cm="1">
-        <f t="array" ref="M26">PAGE_NAME(A26)</f>
+        <f t="array" ref="M26">PAGE_NAME(B26)</f>
         <v>channels</v>
       </c>
       <c r="N26" s="9" t="str" cm="1">
-        <f t="array" ref="N26">SECTION_NAME(A26)</f>
+        <f t="array" ref="N26">SECTION_NAME(B26)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O26" s="14"/>
@@ -5483,34 +5484,34 @@
         <v>148</v>
       </c>
       <c r="U26" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="V26" s="20" t="s">
         <v>152</v>
-      </c>
-      <c r="V26" s="20" t="s">
-        <v>153</v>
       </c>
       <c r="W26" s="20" t="s">
         <v>75</v>
       </c>
       <c r="X26" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z26" s="10" t="s">
         <v>107</v>
       </c>
       <c r="AB26" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AC26"/>
     </row>
-    <row r="27" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:29" ht="102" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>27</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="7">
-        <v>27</v>
-      </c>
       <c r="C27" s="8" t="s">
-        <v>156</v>
+        <v>537</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>70</v>
@@ -5525,11 +5526,11 @@
         <v>39</v>
       </c>
       <c r="M27" s="9" t="str" cm="1">
-        <f t="array" ref="M27">PAGE_NAME(A27)</f>
+        <f t="array" ref="M27">PAGE_NAME(B27)</f>
         <v>channels</v>
       </c>
       <c r="N27" s="9" t="str" cm="1">
-        <f t="array" ref="N27">SECTION_NAME(A27)</f>
+        <f t="array" ref="N27">SECTION_NAME(B27)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O27" s="14"/>
@@ -5540,31 +5541,31 @@
         <v>148</v>
       </c>
       <c r="U27" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V27" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="W27" s="20" t="s">
         <v>75</v>
       </c>
       <c r="X27" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z27" s="10" t="s">
         <v>107</v>
       </c>
       <c r="AC27"/>
     </row>
-    <row r="28" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:29" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>28</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="7">
-        <v>28</v>
-      </c>
       <c r="C28" s="8" t="s">
-        <v>159</v>
+        <v>535</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>70</v>
@@ -5579,11 +5580,11 @@
         <v>39</v>
       </c>
       <c r="M28" s="9" t="str" cm="1">
-        <f t="array" ref="M28">PAGE_NAME(A28)</f>
+        <f t="array" ref="M28">PAGE_NAME(B28)</f>
         <v>channels</v>
       </c>
       <c r="N28" s="9" t="str" cm="1">
-        <f t="array" ref="N28">SECTION_NAME(A28)</f>
+        <f t="array" ref="N28">SECTION_NAME(B28)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O28" s="14"/>
@@ -5594,7 +5595,7 @@
         <v>103</v>
       </c>
       <c r="U28" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="V28" s="20" t="s">
         <v>105</v>
@@ -5611,14 +5612,14 @@
       <c r="AC28"/>
     </row>
     <row r="29" spans="1:29" ht="102" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="7">
+        <v>29</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="7">
-        <v>29</v>
-      </c>
       <c r="C29" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>70</v>
@@ -5633,11 +5634,11 @@
         <v>39</v>
       </c>
       <c r="M29" s="9" t="str" cm="1">
-        <f t="array" ref="M29">PAGE_NAME(A29)</f>
+        <f t="array" ref="M29">PAGE_NAME(B29)</f>
         <v>channels</v>
       </c>
       <c r="N29" s="9" t="str" cm="1">
-        <f t="array" ref="N29">SECTION_NAME(A29)</f>
+        <f t="array" ref="N29">SECTION_NAME(B29)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O29" s="14"/>
@@ -5648,10 +5649,10 @@
         <v>141</v>
       </c>
       <c r="U29" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="V29" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="W29" s="20" t="s">
         <v>131</v>
@@ -5665,14 +5666,14 @@
       <c r="AC29"/>
     </row>
     <row r="30" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="7">
+        <v>30</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="7">
-        <v>30</v>
-      </c>
       <c r="C30" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>70</v>
@@ -5687,11 +5688,11 @@
         <v>39</v>
       </c>
       <c r="M30" s="9" t="str" cm="1">
-        <f t="array" ref="M30">PAGE_NAME(A30)</f>
+        <f t="array" ref="M30">PAGE_NAME(B30)</f>
         <v>channels</v>
       </c>
       <c r="N30" s="9" t="str" cm="1">
-        <f t="array" ref="N30">SECTION_NAME(A30)</f>
+        <f t="array" ref="N30">SECTION_NAME(B30)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O30" s="14"/>
@@ -5699,13 +5700,13 @@
         <v>140</v>
       </c>
       <c r="Q30" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="U30" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V30" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="W30" s="20" t="s">
         <v>131</v>
@@ -5719,14 +5720,14 @@
       <c r="AC30"/>
     </row>
     <row r="31" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="7">
+        <v>31</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="7">
-        <v>31</v>
-      </c>
       <c r="C31" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>70</v>
@@ -5741,11 +5742,11 @@
         <v>39</v>
       </c>
       <c r="M31" s="9" t="str" cm="1">
-        <f t="array" ref="M31">PAGE_NAME(A31)</f>
+        <f t="array" ref="M31">PAGE_NAME(B31)</f>
         <v>channels</v>
       </c>
       <c r="N31" s="9" t="str" cm="1">
-        <f t="array" ref="N31">SECTION_NAME(A31)</f>
+        <f t="array" ref="N31">SECTION_NAME(B31)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O31" s="14"/>
@@ -5753,10 +5754,10 @@
         <v>140</v>
       </c>
       <c r="Q31" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="U31" s="20" t="s">
         <v>165</v>
-      </c>
-      <c r="U31" s="20" t="s">
-        <v>168</v>
       </c>
       <c r="V31" s="20" t="s">
         <v>135</v>
@@ -5772,15 +5773,15 @@
       </c>
       <c r="AC31"/>
     </row>
-    <row r="32" spans="1:29" ht="102" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B32" s="7">
+    <row r="32" spans="1:29" ht="85" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
         <v>32</v>
       </c>
+      <c r="B32" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="C32" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>79</v>
@@ -5795,25 +5796,25 @@
         <v>39</v>
       </c>
       <c r="M32" s="9" t="str" cm="1">
-        <f t="array" ref="M32">PAGE_NAME(A32)</f>
+        <f t="array" ref="M32">PAGE_NAME(B32)</f>
         <v>channels</v>
       </c>
       <c r="N32" s="9" t="str" cm="1">
-        <f t="array" ref="N32">SECTION_NAME(A32)</f>
+        <f t="array" ref="N32">SECTION_NAME(B32)</f>
         <v>security-notes</v>
       </c>
       <c r="O32" s="14"/>
       <c r="P32" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q32" s="20" t="s">
         <v>141</v>
       </c>
       <c r="U32" s="20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="V32" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="W32" s="33" t="s">
         <v>93</v>
@@ -5822,14 +5823,14 @@
       <c r="AC32"/>
     </row>
     <row r="33" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" s="7">
+      <c r="A33" s="7">
         <v>33</v>
       </c>
+      <c r="B33" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="C33" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>37</v>
@@ -5847,34 +5848,34 @@
         <v>121</v>
       </c>
       <c r="M33" s="9" t="str" cm="1">
-        <f t="array" ref="M33">PAGE_NAME(A33)</f>
+        <f t="array" ref="M33">PAGE_NAME(B33)</f>
         <v>notifications</v>
       </c>
       <c r="N33" s="9" t="str" cm="1">
-        <f t="array" ref="N33">SECTION_NAME(A33)</f>
+        <f t="array" ref="N33">SECTION_NAME(B33)</f>
         <v>event-notifications-and-what-to-include</v>
       </c>
       <c r="O33" s="14"/>
       <c r="P33" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q33" s="20" t="s">
         <v>103</v>
       </c>
       <c r="V33" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AC33"/>
     </row>
     <row r="34" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B34" s="7">
+      <c r="A34" s="7">
         <v>34</v>
       </c>
+      <c r="B34" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="C34" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>37</v>
@@ -5892,34 +5893,34 @@
         <v>121</v>
       </c>
       <c r="M34" s="9" t="str" cm="1">
-        <f t="array" ref="M34">PAGE_NAME(A34)</f>
+        <f t="array" ref="M34">PAGE_NAME(B34)</f>
         <v>notifications</v>
       </c>
       <c r="N34" s="9" t="str" cm="1">
-        <f t="array" ref="N34">SECTION_NAME(A34)</f>
+        <f t="array" ref="N34">SECTION_NAME(B34)</f>
         <v>additional-resources</v>
       </c>
       <c r="O34" s="14"/>
       <c r="P34" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q34" s="20" t="s">
         <v>103</v>
       </c>
       <c r="V34" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AC34"/>
     </row>
     <row r="35" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="7">
+        <v>35</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="B35" s="7">
-        <v>35</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>70</v>
@@ -5934,22 +5935,22 @@
         <v>39</v>
       </c>
       <c r="M35" s="9" t="str" cm="1">
-        <f t="array" ref="M35">PAGE_NAME(A35)</f>
+        <f t="array" ref="M35">PAGE_NAME(B35)</f>
         <v>notifications</v>
       </c>
       <c r="N35" s="9" t="str" cm="1">
-        <f t="array" ref="N35">SECTION_NAME(A35)</f>
+        <f t="array" ref="N35">SECTION_NAME(B35)</f>
         <v>additional-resources</v>
       </c>
       <c r="O35" s="14"/>
       <c r="P35" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q35" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U35" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="V35" s="20" t="s">
         <v>105</v>
@@ -5963,14 +5964,14 @@
       <c r="AC35"/>
     </row>
     <row r="36" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B36" s="7">
+      <c r="A36" s="7">
         <v>36</v>
       </c>
+      <c r="B36" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="C36" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>79</v>
@@ -5985,22 +5986,22 @@
         <v>39</v>
       </c>
       <c r="M36" s="9" t="str" cm="1">
-        <f t="array" ref="M36">PAGE_NAME(A36)</f>
+        <f t="array" ref="M36">PAGE_NAME(B36)</f>
         <v>payloads</v>
       </c>
       <c r="N36" s="9" t="str" cm="1">
-        <f t="array" ref="N36">SECTION_NAME(A36)</f>
+        <f t="array" ref="N36">SECTION_NAME(B36)</f>
         <v>payload-types</v>
       </c>
       <c r="O36" s="14"/>
       <c r="P36" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q36" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U36" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="V36" s="20" t="s">
         <v>96</v>
@@ -6011,14 +6012,14 @@
       <c r="AC36"/>
     </row>
     <row r="37" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B37" s="7">
+      <c r="A37" s="7">
         <v>37</v>
       </c>
+      <c r="B37" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="C37" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>37</v>
@@ -6036,37 +6037,37 @@
         <v>121</v>
       </c>
       <c r="M37" s="9" t="str" cm="1">
-        <f t="array" ref="M37">PAGE_NAME(A37)</f>
+        <f t="array" ref="M37">PAGE_NAME(B37)</f>
         <v>payloads</v>
       </c>
       <c r="N37" s="9" t="str" cm="1">
-        <f t="array" ref="N37">SECTION_NAME(A37)</f>
+        <f t="array" ref="N37">SECTION_NAME(B37)</f>
         <v>payload-types</v>
       </c>
       <c r="O37" s="14"/>
       <c r="P37" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q37" s="20" t="s">
         <v>72</v>
       </c>
       <c r="V37" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC37"/>
+    </row>
+    <row r="38" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>38</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="AC37"/>
-    </row>
-    <row r="38" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B38" s="7">
-        <v>38</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>38</v>
@@ -6078,22 +6079,22 @@
         <v>39</v>
       </c>
       <c r="M38" s="9" t="str" cm="1">
-        <f t="array" ref="M38">PAGE_NAME(A38)</f>
+        <f t="array" ref="M38">PAGE_NAME(B38)</f>
         <v>payloads</v>
       </c>
       <c r="N38" s="9" t="str" cm="1">
-        <f t="array" ref="N38">SECTION_NAME(A38)</f>
+        <f t="array" ref="N38">SECTION_NAME(B38)</f>
         <v>empty</v>
       </c>
       <c r="O38" s="14"/>
       <c r="P38" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q38" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="U38" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="V38" s="20" t="s">
         <v>105</v>
@@ -6102,22 +6103,22 @@
         <v>106</v>
       </c>
       <c r="X38" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC38"/>
     </row>
     <row r="39" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B39" s="7">
-        <v>39</v>
+      <c r="A39" s="7">
+        <v>39</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>38</v>
@@ -6129,22 +6130,22 @@
         <v>39</v>
       </c>
       <c r="M39" s="9" t="str" cm="1">
-        <f t="array" ref="M39">PAGE_NAME(A39)</f>
+        <f t="array" ref="M39">PAGE_NAME(B39)</f>
         <v>payloads</v>
       </c>
       <c r="N39" s="9" t="str" cm="1">
-        <f t="array" ref="N39">SECTION_NAME(A39)</f>
+        <f t="array" ref="N39">SECTION_NAME(B39)</f>
         <v>empty</v>
       </c>
       <c r="O39" s="14"/>
       <c r="P39" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q39" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="U39" s="20" t="s">
         <v>193</v>
-      </c>
-      <c r="U39" s="20" t="s">
-        <v>196</v>
       </c>
       <c r="V39" s="20" t="s">
         <v>105</v>
@@ -6153,19 +6154,19 @@
         <v>106</v>
       </c>
       <c r="X39" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC39"/>
     </row>
     <row r="40" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B40" s="7">
+      <c r="A40" s="7">
         <v>40</v>
       </c>
+      <c r="B40" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="C40" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>70</v>
@@ -6180,22 +6181,22 @@
         <v>39</v>
       </c>
       <c r="M40" s="9" t="str" cm="1">
-        <f t="array" ref="M40">PAGE_NAME(A40)</f>
+        <f t="array" ref="M40">PAGE_NAME(B40)</f>
         <v>payloads</v>
       </c>
       <c r="N40" s="9" t="str" cm="1">
-        <f t="array" ref="N40">SECTION_NAME(A40)</f>
+        <f t="array" ref="N40">SECTION_NAME(B40)</f>
         <v>id-only</v>
       </c>
       <c r="O40" s="14"/>
       <c r="P40" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q40" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="U40" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="V40" s="33" t="s">
         <v>105</v>
@@ -6204,19 +6205,19 @@
         <v>106</v>
       </c>
       <c r="X40" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC40"/>
     </row>
-    <row r="41" spans="1:29" ht="153" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B41" s="7">
+    <row r="41" spans="1:29" ht="136" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
         <v>41</v>
       </c>
+      <c r="B41" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="C41" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>37</v>
@@ -6234,34 +6235,34 @@
         <v>121</v>
       </c>
       <c r="M41" s="9" t="str" cm="1">
-        <f t="array" ref="M41">PAGE_NAME(A41)</f>
+        <f t="array" ref="M41">PAGE_NAME(B41)</f>
         <v>payloads</v>
       </c>
       <c r="N41" s="9" t="str" cm="1">
-        <f t="array" ref="N41">SECTION_NAME(A41)</f>
+        <f t="array" ref="N41">SECTION_NAME(B41)</f>
         <v>id-only</v>
       </c>
       <c r="O41" s="14"/>
       <c r="P41" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q41" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="V41" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC41"/>
+    </row>
+    <row r="42" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>42</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="V41" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC41"/>
-    </row>
-    <row r="42" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B42" s="7">
-        <v>42</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>203</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>70</v>
@@ -6276,22 +6277,22 @@
         <v>39</v>
       </c>
       <c r="M42" s="9" t="str" cm="1">
-        <f t="array" ref="M42">PAGE_NAME(A42)</f>
+        <f t="array" ref="M42">PAGE_NAME(B42)</f>
         <v>payloads</v>
       </c>
       <c r="N42" s="9" t="str" cm="1">
-        <f t="array" ref="N42">SECTION_NAME(A42)</f>
+        <f t="array" ref="N42">SECTION_NAME(B42)</f>
         <v>id-only</v>
       </c>
       <c r="O42" s="14"/>
       <c r="P42" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q42" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="U42" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="V42" s="33" t="s">
         <v>105</v>
@@ -6300,22 +6301,22 @@
         <v>106</v>
       </c>
       <c r="X42" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB42" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AC42"/>
     </row>
     <row r="43" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B43" s="7">
+      <c r="A43" s="7">
         <v>43</v>
       </c>
+      <c r="B43" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="C43" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>70</v>
@@ -6330,22 +6331,22 @@
         <v>39</v>
       </c>
       <c r="M43" s="9" t="str" cm="1">
-        <f t="array" ref="M43">PAGE_NAME(A43)</f>
+        <f t="array" ref="M43">PAGE_NAME(B43)</f>
         <v>payloads</v>
       </c>
       <c r="N43" s="9" t="str" cm="1">
-        <f t="array" ref="N43">SECTION_NAME(A43)</f>
+        <f t="array" ref="N43">SECTION_NAME(B43)</f>
         <v>full-resource</v>
       </c>
       <c r="O43" s="14"/>
       <c r="P43" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q43" s="20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U43" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="V43" s="33" t="s">
         <v>105</v>
@@ -6354,19 +6355,19 @@
         <v>106</v>
       </c>
       <c r="X43" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC43"/>
     </row>
     <row r="44" spans="1:29" ht="136" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B44" s="7">
+      <c r="A44" s="7">
         <v>44</v>
       </c>
+      <c r="B44" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="C44" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>70</v>
@@ -6381,43 +6382,43 @@
         <v>39</v>
       </c>
       <c r="M44" s="9" t="str" cm="1">
-        <f t="array" ref="M44">PAGE_NAME(A44)</f>
+        <f t="array" ref="M44">PAGE_NAME(B44)</f>
         <v>payloads</v>
       </c>
       <c r="N44" s="9" t="str" cm="1">
-        <f t="array" ref="N44">SECTION_NAME(A44)</f>
+        <f t="array" ref="N44">SECTION_NAME(B44)</f>
         <v>full-resource</v>
       </c>
       <c r="O44" s="14"/>
       <c r="P44" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q44" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="U44" s="20" t="s">
         <v>209</v>
-      </c>
-      <c r="U44" s="20" t="s">
-        <v>212</v>
       </c>
       <c r="V44" s="33" t="s">
         <v>105</v>
       </c>
       <c r="W44" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="X44" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC44"/>
     </row>
     <row r="45" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B45" s="7">
+      <c r="A45" s="7">
         <v>45</v>
       </c>
+      <c r="B45" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="C45" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>70</v>
@@ -6432,22 +6433,22 @@
         <v>39</v>
       </c>
       <c r="M45" s="9" t="str" cm="1">
-        <f t="array" ref="M45">PAGE_NAME(A45)</f>
+        <f t="array" ref="M45">PAGE_NAME(B45)</f>
         <v>payloads</v>
       </c>
       <c r="N45" s="9" t="str" cm="1">
-        <f t="array" ref="N45">SECTION_NAME(A45)</f>
+        <f t="array" ref="N45">SECTION_NAME(B45)</f>
         <v>full-resource</v>
       </c>
       <c r="O45" s="14"/>
       <c r="P45" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q45" s="20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U45" s="20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="V45" s="33" t="s">
         <v>105</v>
@@ -6456,22 +6457,22 @@
         <v>106</v>
       </c>
       <c r="X45" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB45" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AC45"/>
     </row>
     <row r="46" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B46" s="7">
+      <c r="A46" s="7">
         <v>46</v>
       </c>
+      <c r="B46" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="C46" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>61</v>
@@ -6480,34 +6481,34 @@
         <v>38</v>
       </c>
       <c r="M46" s="9" t="str" cm="1">
-        <f t="array" ref="M46">PAGE_NAME(A46)</f>
+        <f t="array" ref="M46">PAGE_NAME(B46)</f>
         <v>conformance</v>
       </c>
       <c r="N46" s="9" t="str" cm="1">
-        <f t="array" ref="N46">SECTION_NAME(A46)</f>
+        <f t="array" ref="N46">SECTION_NAME(B46)</f>
         <v>conformance-in-fhir-r4</v>
       </c>
       <c r="O46" s="14"/>
       <c r="P46" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q46" s="20" t="s">
         <v>72</v>
       </c>
       <c r="AA46" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AC46"/>
     </row>
     <row r="47" spans="1:29" ht="136" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B47" s="7">
+      <c r="A47" s="7">
         <v>47</v>
       </c>
+      <c r="B47" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="C47" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>70</v>
@@ -6522,28 +6523,28 @@
         <v>39</v>
       </c>
       <c r="M47" s="9" t="str" cm="1">
-        <f t="array" ref="M47">PAGE_NAME(A47)</f>
+        <f t="array" ref="M47">PAGE_NAME(B47)</f>
         <v>conformance</v>
       </c>
       <c r="N47" s="9" t="str" cm="1">
-        <f t="array" ref="N47">SECTION_NAME(A47)</f>
+        <f t="array" ref="N47">SECTION_NAME(B47)</f>
         <v>conformance-in-fhir-r4</v>
       </c>
       <c r="O47" s="14"/>
       <c r="P47" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q47" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="Q47" s="20" t="s">
+      <c r="U47" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="V47" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="W47" s="20" t="s">
         <v>222</v>
-      </c>
-      <c r="U47" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="V47" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="W47" s="20" t="s">
-        <v>225</v>
       </c>
       <c r="X47" s="20" t="s">
         <v>76</v>
@@ -6554,14 +6555,14 @@
       <c r="AC47"/>
     </row>
     <row r="48" spans="1:29" ht="187" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B48" s="7">
+      <c r="A48" s="7">
         <v>48</v>
       </c>
+      <c r="B48" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="C48" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>79</v>
@@ -6576,22 +6577,22 @@
         <v>39</v>
       </c>
       <c r="M48" s="9" t="str" cm="1">
-        <f t="array" ref="M48">PAGE_NAME(A48)</f>
+        <f t="array" ref="M48">PAGE_NAME(B48)</f>
         <v>conformance</v>
       </c>
       <c r="N48" s="9" t="str" cm="1">
-        <f t="array" ref="N48">SECTION_NAME(A48)</f>
+        <f t="array" ref="N48">SECTION_NAME(B48)</f>
         <v>conformance-in-fhir-r4</v>
       </c>
       <c r="O48" s="14"/>
       <c r="P48" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q48" s="20" t="s">
         <v>42</v>
       </c>
       <c r="U48" s="20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="V48" s="20" t="s">
         <v>45</v>
@@ -6608,14 +6609,14 @@
       <c r="AC48"/>
     </row>
     <row r="49" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B49" s="7">
+      <c r="A49" s="7">
         <v>49</v>
       </c>
+      <c r="B49" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="C49" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>70</v>
@@ -6630,43 +6631,43 @@
         <v>39</v>
       </c>
       <c r="M49" s="9" t="str" cm="1">
-        <f t="array" ref="M49">PAGE_NAME(A49)</f>
+        <f t="array" ref="M49">PAGE_NAME(B49)</f>
         <v>conformance</v>
       </c>
       <c r="N49" s="9" t="str" cm="1">
-        <f t="array" ref="N49">SECTION_NAME(A49)</f>
+        <f t="array" ref="N49">SECTION_NAME(B49)</f>
         <v>conformance-in-fhir-r4</v>
       </c>
       <c r="O49" s="14"/>
       <c r="P49" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q49" s="20" t="s">
         <v>114</v>
       </c>
       <c r="U49" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="V49" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="W49" s="20" t="s">
         <v>89</v>
       </c>
       <c r="AA49" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AC49"/>
     </row>
     <row r="50" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B50" s="7">
+      <c r="A50" s="7">
         <v>50</v>
       </c>
+      <c r="B50" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="C50" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>79</v>
@@ -6681,37 +6682,37 @@
         <v>39</v>
       </c>
       <c r="L50" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M50" s="9" t="str" cm="1">
-        <f t="array" ref="M50">PAGE_NAME(A50)</f>
+        <f t="array" ref="M50">PAGE_NAME(B50)</f>
         <v>conformance</v>
       </c>
       <c r="N50" s="9" t="str" cm="1">
-        <f t="array" ref="N50">SECTION_NAME(A50)</f>
+        <f t="array" ref="N50">SECTION_NAME(B50)</f>
         <v>conformance-in-fhir-r4</v>
       </c>
       <c r="O50" s="14"/>
       <c r="P50" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q50" s="20" t="s">
         <v>114</v>
       </c>
       <c r="V50" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AC50"/>
     </row>
     <row r="51" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B51" s="7">
+      <c r="A51" s="7">
         <v>51</v>
       </c>
+      <c r="B51" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="C51" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>70</v>
@@ -6726,22 +6727,22 @@
         <v>39</v>
       </c>
       <c r="M51" s="9" t="str" cm="1">
-        <f t="array" ref="M51">PAGE_NAME(A51)</f>
+        <f t="array" ref="M51">PAGE_NAME(B51)</f>
         <v>conformance</v>
       </c>
       <c r="N51" s="9" t="str" cm="1">
-        <f t="array" ref="N51">SECTION_NAME(A51)</f>
+        <f t="array" ref="N51">SECTION_NAME(B51)</f>
         <v>conformance-in-fhir-r4</v>
       </c>
       <c r="O51" s="14"/>
       <c r="P51" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q51" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U51" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V51" s="20" t="s">
         <v>96</v>
@@ -6752,14 +6753,14 @@
       <c r="AC51"/>
     </row>
     <row r="52" spans="1:29" ht="153" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B52" s="7">
+      <c r="A52" s="7">
         <v>52</v>
       </c>
+      <c r="B52" s="7" t="s">
+        <v>233</v>
+      </c>
       <c r="C52" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>70</v>
@@ -6774,25 +6775,25 @@
         <v>39</v>
       </c>
       <c r="M52" s="9" t="str" cm="1">
-        <f t="array" ref="M52">PAGE_NAME(A52)</f>
+        <f t="array" ref="M52">PAGE_NAME(B52)</f>
         <v>conformance</v>
       </c>
       <c r="N52" s="9" t="str" cm="1">
-        <f t="array" ref="N52">SECTION_NAME(A52)</f>
+        <f t="array" ref="N52">SECTION_NAME(B52)</f>
         <v>conformance-artifacts-1</v>
       </c>
       <c r="O52" s="14"/>
       <c r="P52" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q52" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U52" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="V52" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="W52" s="20" t="s">
         <v>46</v>
@@ -6803,14 +6804,14 @@
       <c r="AC52"/>
     </row>
     <row r="53" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B53" s="7">
+      <c r="A53" s="7">
         <v>53</v>
       </c>
+      <c r="B53" s="7" t="s">
+        <v>233</v>
+      </c>
       <c r="C53" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>70</v>
@@ -6825,22 +6826,22 @@
         <v>39</v>
       </c>
       <c r="M53" s="9" t="str" cm="1">
-        <f t="array" ref="M53">PAGE_NAME(A53)</f>
+        <f t="array" ref="M53">PAGE_NAME(B53)</f>
         <v>conformance</v>
       </c>
       <c r="N53" s="9" t="str" cm="1">
-        <f t="array" ref="N53">SECTION_NAME(A53)</f>
+        <f t="array" ref="N53">SECTION_NAME(B53)</f>
         <v>conformance-artifacts-1</v>
       </c>
       <c r="O53" s="14"/>
       <c r="P53" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q53" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U53" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V53" s="20" t="s">
         <v>96</v>
@@ -6851,14 +6852,14 @@
       <c r="AC53"/>
     </row>
     <row r="54" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B54" s="7">
+      <c r="A54" s="7">
         <v>54</v>
       </c>
+      <c r="B54" s="7" t="s">
+        <v>233</v>
+      </c>
       <c r="C54" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>79</v>
@@ -6873,34 +6874,34 @@
         <v>39</v>
       </c>
       <c r="L54" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M54" s="9" t="str" cm="1">
-        <f t="array" ref="M54">PAGE_NAME(A54)</f>
+        <f t="array" ref="M54">PAGE_NAME(B54)</f>
         <v>conformance</v>
       </c>
       <c r="N54" s="9" t="str" cm="1">
-        <f t="array" ref="N54">SECTION_NAME(A54)</f>
+        <f t="array" ref="N54">SECTION_NAME(B54)</f>
         <v>conformance-artifacts-1</v>
       </c>
       <c r="O54" s="14"/>
       <c r="P54" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q54" s="20" t="s">
         <v>114</v>
       </c>
       <c r="V54" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AC54"/>
     </row>
     <row r="55" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B55" s="7">
+      <c r="A55" s="7">
         <v>55</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>60</v>
@@ -6909,31 +6910,31 @@
         <v>61</v>
       </c>
       <c r="M55" s="9" t="str" cm="1">
-        <f t="array" ref="M55">PAGE_NAME(A55)</f>
+        <f t="array" ref="M55">PAGE_NAME(B55)</f>
         <v>conformance</v>
       </c>
       <c r="N55" s="9" t="str" cm="1">
-        <f t="array" ref="N55">SECTION_NAME(A55)</f>
+        <f t="array" ref="N55">SECTION_NAME(B55)</f>
         <v>conformance-artifacts-1</v>
       </c>
       <c r="O55" s="14"/>
       <c r="P55" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AA55" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AC55"/>
     </row>
     <row r="56" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B56" s="7">
+      <c r="A56" s="7">
         <v>56</v>
       </c>
+      <c r="B56" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="C56" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>61</v>
@@ -6945,46 +6946,46 @@
         <v>39</v>
       </c>
       <c r="M56" s="9" t="str" cm="1">
-        <f t="array" ref="M56">PAGE_NAME(A56)</f>
+        <f t="array" ref="M56">PAGE_NAME(B56)</f>
         <v>conformance</v>
       </c>
       <c r="N56" s="9" t="str" cm="1">
-        <f t="array" ref="N56">SECTION_NAME(A56)</f>
+        <f t="array" ref="N56">SECTION_NAME(B56)</f>
         <v>profile-support-1</v>
       </c>
       <c r="O56" s="14"/>
       <c r="P56" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q56" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="U56" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="V56" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="Q56" s="20" t="s">
+      <c r="W56" s="20" t="s">
         <v>247</v>
-      </c>
-      <c r="U56" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="V56" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="W56" s="20" t="s">
-        <v>250</v>
       </c>
       <c r="X56" s="20" t="s">
         <v>76</v>
       </c>
       <c r="AA56" s="20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AC56"/>
     </row>
-    <row r="57" spans="1:29" ht="136" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B57" s="7">
+    <row r="57" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
         <v>57</v>
       </c>
+      <c r="B57" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="C57" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>79</v>
@@ -6999,25 +7000,25 @@
         <v>39</v>
       </c>
       <c r="M57" s="9" t="str" cm="1">
-        <f t="array" ref="M57">PAGE_NAME(A57)</f>
+        <f t="array" ref="M57">PAGE_NAME(B57)</f>
         <v>conformance</v>
       </c>
       <c r="N57" s="9" t="str" cm="1">
-        <f t="array" ref="N57">SECTION_NAME(A57)</f>
+        <f t="array" ref="N57">SECTION_NAME(B57)</f>
         <v>profile-support-1</v>
       </c>
       <c r="O57" s="14"/>
       <c r="P57" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q57" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U57" s="20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="V57" s="20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W57" s="20" t="s">
         <v>46</v>
@@ -7027,15 +7028,15 @@
       </c>
       <c r="AC57"/>
     </row>
-    <row r="58" spans="1:29" ht="170" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B58" s="7">
+    <row r="58" spans="1:29" ht="136" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
         <v>58</v>
       </c>
+      <c r="B58" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="C58" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>70</v>
@@ -7050,37 +7051,37 @@
         <v>50</v>
       </c>
       <c r="L58" s="37" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M58" s="9" t="str" cm="1">
-        <f t="array" ref="M58">PAGE_NAME(A58)</f>
+        <f t="array" ref="M58">PAGE_NAME(B58)</f>
         <v>conformance</v>
       </c>
       <c r="N58" s="9" t="str" cm="1">
-        <f t="array" ref="N58">SECTION_NAME(A58)</f>
+        <f t="array" ref="N58">SECTION_NAME(B58)</f>
         <v>profile-support-1</v>
       </c>
       <c r="O58" s="14"/>
       <c r="P58" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q58" s="20" t="s">
         <v>46</v>
       </c>
       <c r="V58" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AC58"/>
     </row>
-    <row r="59" spans="1:29" ht="102" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B59" s="7">
+    <row r="59" spans="1:29" ht="85" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
         <v>59</v>
       </c>
+      <c r="B59" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="C59" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>70</v>
@@ -7095,25 +7096,25 @@
         <v>39</v>
       </c>
       <c r="M59" s="9" t="str" cm="1">
-        <f t="array" ref="M59">PAGE_NAME(A59)</f>
+        <f t="array" ref="M59">PAGE_NAME(B59)</f>
         <v>conformance</v>
       </c>
       <c r="N59" s="9" t="str" cm="1">
-        <f t="array" ref="N59">SECTION_NAME(A59)</f>
+        <f t="array" ref="N59">SECTION_NAME(B59)</f>
         <v>backport-channel-type-1</v>
       </c>
       <c r="O59" s="14"/>
       <c r="P59" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q59" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U59" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="V59" s="20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="W59" s="20" t="s">
         <v>89</v>
@@ -7124,14 +7125,14 @@
       <c r="AC59"/>
     </row>
     <row r="60" spans="1:29" ht="102" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B60" s="7">
+      <c r="A60" s="7">
         <v>60</v>
       </c>
+      <c r="B60" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="C60" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>70</v>
@@ -7146,25 +7147,25 @@
         <v>39</v>
       </c>
       <c r="M60" s="9" t="str" cm="1">
-        <f t="array" ref="M60">PAGE_NAME(A60)</f>
+        <f t="array" ref="M60">PAGE_NAME(B60)</f>
         <v>conformance</v>
       </c>
       <c r="N60" s="9" t="str" cm="1">
-        <f t="array" ref="N60">SECTION_NAME(A60)</f>
+        <f t="array" ref="N60">SECTION_NAME(B60)</f>
         <v>backport-channel-type-1</v>
       </c>
       <c r="O60" s="14"/>
       <c r="P60" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q60" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U60" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="V60" s="20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="W60" s="20" t="s">
         <v>89</v>
@@ -7173,19 +7174,19 @@
         <v>76</v>
       </c>
       <c r="AB60" s="32" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AC60"/>
     </row>
     <row r="61" spans="1:29" ht="102" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B61" s="7">
+      <c r="A61" s="7">
         <v>61</v>
       </c>
+      <c r="B61" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="C61" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>37</v>
@@ -7197,7 +7198,7 @@
         <v>50</v>
       </c>
       <c r="J61" s="37" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K61" s="37" t="s">
         <v>50</v>
@@ -7206,34 +7207,34 @@
         <v>52</v>
       </c>
       <c r="M61" s="9" t="str" cm="1">
-        <f t="array" ref="M61">PAGE_NAME(A61)</f>
+        <f t="array" ref="M61">PAGE_NAME(B61)</f>
         <v>conformance</v>
       </c>
       <c r="N61" s="9" t="str" cm="1">
-        <f t="array" ref="N61">SECTION_NAME(A61)</f>
+        <f t="array" ref="N61">SECTION_NAME(B61)</f>
         <v>backport-channel-type-1</v>
       </c>
       <c r="O61" s="14"/>
       <c r="P61" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q61" s="20" t="s">
         <v>72</v>
       </c>
       <c r="V61" s="20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AC61"/>
     </row>
     <row r="62" spans="1:29" ht="255" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B62" s="7">
+      <c r="A62" s="7">
         <v>62</v>
       </c>
+      <c r="B62" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="C62" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>61</v>
@@ -7242,34 +7243,34 @@
         <v>38</v>
       </c>
       <c r="M62" s="9" t="str" cm="1">
-        <f t="array" ref="M62">PAGE_NAME(A62)</f>
+        <f t="array" ref="M62">PAGE_NAME(B62)</f>
         <v>conformance</v>
       </c>
       <c r="N62" s="9" t="str" cm="1">
-        <f t="array" ref="N62">SECTION_NAME(A62)</f>
+        <f t="array" ref="N62">SECTION_NAME(B62)</f>
         <v>backport-filter-criteria-1</v>
       </c>
       <c r="O62" s="14"/>
       <c r="P62" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q62" s="20" t="s">
         <v>72</v>
       </c>
       <c r="AA62" s="20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AC62"/>
     </row>
-    <row r="63" spans="1:29" ht="136" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B63" s="7">
+    <row r="63" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
         <v>63</v>
       </c>
+      <c r="B63" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="C63" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>70</v>
@@ -7284,43 +7285,43 @@
         <v>39</v>
       </c>
       <c r="M63" s="9" t="str" cm="1">
-        <f t="array" ref="M63">PAGE_NAME(A63)</f>
+        <f t="array" ref="M63">PAGE_NAME(B63)</f>
         <v>conformance</v>
       </c>
       <c r="N63" s="9" t="str" cm="1">
-        <f t="array" ref="N63">SECTION_NAME(A63)</f>
+        <f t="array" ref="N63">SECTION_NAME(B63)</f>
         <v>backport-filter-criteria-1</v>
       </c>
       <c r="O63" s="14"/>
       <c r="P63" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q63" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U63" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="V63" s="20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="W63" s="20" t="s">
         <v>55</v>
       </c>
       <c r="AB63" s="32" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AC63"/>
     </row>
     <row r="64" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B64" s="7">
+      <c r="A64" s="7">
         <v>64</v>
       </c>
+      <c r="B64" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="C64" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>70</v>
@@ -7335,37 +7336,37 @@
         <v>39</v>
       </c>
       <c r="M64" s="9" t="str" cm="1">
-        <f t="array" ref="M64">PAGE_NAME(A64)</f>
+        <f t="array" ref="M64">PAGE_NAME(B64)</f>
         <v>conformance</v>
       </c>
       <c r="N64" s="9" t="str" cm="1">
-        <f t="array" ref="N64">SECTION_NAME(A64)</f>
+        <f t="array" ref="N64">SECTION_NAME(B64)</f>
         <v>backport-filter-criteria-1</v>
       </c>
       <c r="O64" s="14"/>
       <c r="P64" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q64" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U64" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="V64" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC64"/>
+    </row>
+    <row r="65" spans="1:29" ht="102" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <v>65</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="V64" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC64"/>
-    </row>
-    <row r="65" spans="1:29" ht="102" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B65" s="7">
-        <v>65</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>280</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>70</v>
@@ -7380,43 +7381,43 @@
         <v>39</v>
       </c>
       <c r="M65" s="9" t="str" cm="1">
-        <f t="array" ref="M65">PAGE_NAME(A65)</f>
+        <f t="array" ref="M65">PAGE_NAME(B65)</f>
         <v>conformance</v>
       </c>
       <c r="N65" s="9" t="str" cm="1">
-        <f t="array" ref="N65">SECTION_NAME(A65)</f>
+        <f t="array" ref="N65">SECTION_NAME(B65)</f>
         <v>backport-payload-content-1</v>
       </c>
       <c r="O65" s="14"/>
       <c r="P65" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q65" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U65" s="20" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="V65" s="20" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="W65" s="20" t="s">
         <v>106</v>
       </c>
       <c r="X65" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC65"/>
     </row>
     <row r="66" spans="1:29" ht="136" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B66" s="7">
+      <c r="A66" s="7">
         <v>66</v>
       </c>
+      <c r="B66" s="7" t="s">
+        <v>276</v>
+      </c>
       <c r="C66" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>70</v>
@@ -7431,43 +7432,43 @@
         <v>39</v>
       </c>
       <c r="M66" s="9" t="str" cm="1">
-        <f t="array" ref="M66">PAGE_NAME(A66)</f>
+        <f t="array" ref="M66">PAGE_NAME(B66)</f>
         <v>conformance</v>
       </c>
       <c r="N66" s="9" t="str" cm="1">
-        <f t="array" ref="N66">SECTION_NAME(A66)</f>
+        <f t="array" ref="N66">SECTION_NAME(B66)</f>
         <v>backport-payload-content-1</v>
       </c>
       <c r="O66" s="14"/>
       <c r="P66" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q66" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U66" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="V66" s="20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W66" s="20" t="s">
         <v>55</v>
       </c>
       <c r="AB66" s="32" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AC66"/>
     </row>
     <row r="67" spans="1:29" ht="102" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B67" s="7">
+      <c r="A67" s="7">
         <v>67</v>
       </c>
+      <c r="B67" s="7" t="s">
+        <v>276</v>
+      </c>
       <c r="C67" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>70</v>
@@ -7482,43 +7483,43 @@
         <v>39</v>
       </c>
       <c r="M67" s="9" t="str" cm="1">
-        <f t="array" ref="M67">PAGE_NAME(A67)</f>
+        <f t="array" ref="M67">PAGE_NAME(B67)</f>
         <v>conformance</v>
       </c>
       <c r="N67" s="9" t="str" cm="1">
-        <f t="array" ref="N67">SECTION_NAME(A67)</f>
+        <f t="array" ref="N67">SECTION_NAME(B67)</f>
         <v>backport-payload-content-1</v>
       </c>
       <c r="O67" s="14"/>
       <c r="P67" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q67" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U67" s="20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="V67" s="20" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="W67" s="20" t="s">
         <v>106</v>
       </c>
       <c r="X67" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC67"/>
     </row>
     <row r="68" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B68" s="7">
+      <c r="A68" s="7">
         <v>68</v>
       </c>
+      <c r="B68" s="7" t="s">
+        <v>276</v>
+      </c>
       <c r="C68" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>70</v>
@@ -7533,37 +7534,37 @@
         <v>39</v>
       </c>
       <c r="M68" s="9" t="str" cm="1">
-        <f t="array" ref="M68">PAGE_NAME(A68)</f>
+        <f t="array" ref="M68">PAGE_NAME(B68)</f>
         <v>conformance</v>
       </c>
       <c r="N68" s="9" t="str" cm="1">
-        <f t="array" ref="N68">SECTION_NAME(A68)</f>
+        <f t="array" ref="N68">SECTION_NAME(B68)</f>
         <v>backport-payload-content-1</v>
       </c>
       <c r="O68" s="14"/>
       <c r="P68" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q68" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U68" s="20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="V68" s="20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AC68"/>
     </row>
     <row r="69" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B69" s="7">
+      <c r="A69" s="7">
         <v>69</v>
       </c>
+      <c r="B69" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="C69" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>70</v>
@@ -7578,22 +7579,22 @@
         <v>39</v>
       </c>
       <c r="M69" s="9" t="str" cm="1">
-        <f t="array" ref="M69">PAGE_NAME(A69)</f>
+        <f t="array" ref="M69">PAGE_NAME(B69)</f>
         <v>conformance</v>
       </c>
       <c r="N69" s="9" t="str" cm="1">
-        <f t="array" ref="N69">SECTION_NAME(A69)</f>
+        <f t="array" ref="N69">SECTION_NAME(B69)</f>
         <v>notification-entry-subscriptionstatus-1</v>
       </c>
       <c r="O69" s="14"/>
       <c r="P69" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q69" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U69" s="20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="V69" s="33" t="s">
         <v>105</v>
@@ -7610,14 +7611,14 @@
       <c r="AC69"/>
     </row>
     <row r="70" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B70" s="7">
+      <c r="A70" s="7">
         <v>70</v>
       </c>
+      <c r="B70" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="C70" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>70</v>
@@ -7632,22 +7633,22 @@
         <v>39</v>
       </c>
       <c r="M70" s="9" t="str" cm="1">
-        <f t="array" ref="M70">PAGE_NAME(A70)</f>
+        <f t="array" ref="M70">PAGE_NAME(B70)</f>
         <v>conformance</v>
       </c>
       <c r="N70" s="9" t="str" cm="1">
-        <f t="array" ref="N70">SECTION_NAME(A70)</f>
+        <f t="array" ref="N70">SECTION_NAME(B70)</f>
         <v>notification-entry-subscriptionstatus-1</v>
       </c>
       <c r="O70" s="14"/>
       <c r="P70" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q70" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U70" s="20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="V70" s="33" t="s">
         <v>105</v>
@@ -7664,14 +7665,14 @@
       <c r="AC70"/>
     </row>
     <row r="71" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B71" s="7">
+      <c r="A71" s="7">
         <v>71</v>
       </c>
+      <c r="B71" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="C71" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>70</v>
@@ -7686,40 +7687,40 @@
         <v>39</v>
       </c>
       <c r="M71" s="9" t="str" cm="1">
-        <f t="array" ref="M71">PAGE_NAME(A71)</f>
+        <f t="array" ref="M71">PAGE_NAME(B71)</f>
         <v>conformance</v>
       </c>
       <c r="N71" s="9" t="str" cm="1">
-        <f t="array" ref="N71">SECTION_NAME(A71)</f>
+        <f t="array" ref="N71">SECTION_NAME(B71)</f>
         <v>notification-entry-subscriptionstatus-1</v>
       </c>
       <c r="O71" s="14"/>
       <c r="P71" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q71" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U71" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="V71" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB71" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC71"/>
+    </row>
+    <row r="72" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
+        <v>72</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="V71" s="20" t="s">
+      <c r="C72" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="AB71" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="AC71"/>
-    </row>
-    <row r="72" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B72" s="7">
-        <v>72</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>70</v>
@@ -7734,22 +7735,22 @@
         <v>39</v>
       </c>
       <c r="M72" s="9" t="str" cm="1">
-        <f t="array" ref="M72">PAGE_NAME(A72)</f>
+        <f t="array" ref="M72">PAGE_NAME(B72)</f>
         <v>conformance</v>
       </c>
       <c r="N72" s="9" t="str" cm="1">
-        <f t="array" ref="N72">SECTION_NAME(A72)</f>
+        <f t="array" ref="N72">SECTION_NAME(B72)</f>
         <v>subscriptioncriteria-1</v>
       </c>
       <c r="O72" s="14"/>
       <c r="P72" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q72" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U72" s="20" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="V72" s="33" t="s">
         <v>105</v>
@@ -7763,14 +7764,14 @@
       <c r="AC72"/>
     </row>
     <row r="73" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B73" s="7">
+      <c r="A73" s="7">
         <v>73</v>
       </c>
+      <c r="B73" s="7" t="s">
+        <v>296</v>
+      </c>
       <c r="C73" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>70</v>
@@ -7785,40 +7786,40 @@
         <v>39</v>
       </c>
       <c r="M73" s="9" t="str" cm="1">
-        <f t="array" ref="M73">PAGE_NAME(A73)</f>
+        <f t="array" ref="M73">PAGE_NAME(B73)</f>
         <v>conformance</v>
       </c>
       <c r="N73" s="9" t="str" cm="1">
-        <f t="array" ref="N73">SECTION_NAME(A73)</f>
+        <f t="array" ref="N73">SECTION_NAME(B73)</f>
         <v>subscriptioncriteria-1</v>
       </c>
       <c r="O73" s="14"/>
       <c r="P73" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q73" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U73" s="20" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="V73" s="33" t="s">
         <v>105</v>
       </c>
       <c r="W73" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AC73"/>
     </row>
     <row r="74" spans="1:29" ht="204" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B74" s="7">
+      <c r="A74" s="7">
         <v>74</v>
       </c>
+      <c r="B74" s="7" t="s">
+        <v>296</v>
+      </c>
       <c r="C74" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>70</v>
@@ -7833,40 +7834,40 @@
         <v>39</v>
       </c>
       <c r="L74" s="37" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M74" s="9" t="str" cm="1">
-        <f t="array" ref="M74">PAGE_NAME(A74)</f>
+        <f t="array" ref="M74">PAGE_NAME(B74)</f>
         <v>conformance</v>
       </c>
       <c r="N74" s="9" t="str" cm="1">
-        <f t="array" ref="N74">SECTION_NAME(A74)</f>
+        <f t="array" ref="N74">SECTION_NAME(B74)</f>
         <v>subscriptioncriteria-1</v>
       </c>
       <c r="O74" s="14"/>
       <c r="P74" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q74" s="20" t="s">
         <v>72</v>
       </c>
       <c r="V74" s="20" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AB74" s="20" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AC74"/>
     </row>
     <row r="75" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B75" s="7">
+      <c r="A75" s="7">
         <v>75</v>
       </c>
+      <c r="B75" s="7" t="s">
+        <v>296</v>
+      </c>
       <c r="C75" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>70</v>
@@ -7881,25 +7882,25 @@
         <v>39</v>
       </c>
       <c r="M75" s="9" t="str" cm="1">
-        <f t="array" ref="M75">PAGE_NAME(A75)</f>
+        <f t="array" ref="M75">PAGE_NAME(B75)</f>
         <v>conformance</v>
       </c>
       <c r="N75" s="9" t="str" cm="1">
-        <f t="array" ref="N75">SECTION_NAME(A75)</f>
+        <f t="array" ref="N75">SECTION_NAME(B75)</f>
         <v>subscriptioncriteria-1</v>
       </c>
       <c r="O75" s="14"/>
       <c r="P75" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q75" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U75" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="V75" s="20" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="W75" s="20" t="s">
         <v>55</v>
@@ -7907,14 +7908,14 @@
       <c r="AC75"/>
     </row>
     <row r="76" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B76" s="7">
+      <c r="A76" s="7">
         <v>76</v>
       </c>
+      <c r="B76" s="7" t="s">
+        <v>296</v>
+      </c>
       <c r="C76" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>70</v>
@@ -7929,37 +7930,37 @@
         <v>39</v>
       </c>
       <c r="M76" s="9" t="str" cm="1">
-        <f t="array" ref="M76">PAGE_NAME(A76)</f>
+        <f t="array" ref="M76">PAGE_NAME(B76)</f>
         <v>conformance</v>
       </c>
       <c r="N76" s="9" t="str" cm="1">
-        <f t="array" ref="N76">SECTION_NAME(A76)</f>
+        <f t="array" ref="N76">SECTION_NAME(B76)</f>
         <v>subscriptioncriteria-1</v>
       </c>
       <c r="O76" s="14"/>
       <c r="P76" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q76" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U76" s="20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="V76" s="20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AC76"/>
     </row>
     <row r="77" spans="1:29" ht="356" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B77" s="7">
+      <c r="A77" s="7">
         <v>77</v>
       </c>
+      <c r="B77" s="7" t="s">
+        <v>310</v>
+      </c>
       <c r="C77" s="8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>70</v>
@@ -7974,43 +7975,43 @@
         <v>39</v>
       </c>
       <c r="M77" s="9" t="str" cm="1">
-        <f t="array" ref="M77">PAGE_NAME(A77)</f>
+        <f t="array" ref="M77">PAGE_NAME(B77)</f>
         <v>errors</v>
       </c>
       <c r="N77" s="9" t="str" cm="1">
-        <f t="array" ref="N77">SECTION_NAME(A77)</f>
+        <f t="array" ref="N77">SECTION_NAME(B77)</f>
         <v>handling-errors-as-a-server</v>
       </c>
       <c r="O77" s="14"/>
       <c r="P77" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q77" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="U77" s="20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="V77" s="33" t="s">
         <v>105</v>
       </c>
       <c r="W77" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AB77" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AC77"/>
     </row>
     <row r="78" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A78" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B78" s="7">
+      <c r="A78" s="7">
         <v>78</v>
       </c>
+      <c r="B78" s="7" t="s">
+        <v>310</v>
+      </c>
       <c r="C78" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>70</v>
@@ -8025,25 +8026,25 @@
         <v>39</v>
       </c>
       <c r="M78" s="9" t="str" cm="1">
-        <f t="array" ref="M78">PAGE_NAME(A78)</f>
+        <f t="array" ref="M78">PAGE_NAME(B78)</f>
         <v>errors</v>
       </c>
       <c r="N78" s="9" t="str" cm="1">
-        <f t="array" ref="N78">SECTION_NAME(A78)</f>
+        <f t="array" ref="N78">SECTION_NAME(B78)</f>
         <v>handling-errors-as-a-server</v>
       </c>
       <c r="O78" s="14"/>
       <c r="P78" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q78" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="U78" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="V78" s="20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="W78" s="20" t="s">
         <v>131</v>
@@ -8057,14 +8058,14 @@
       <c r="AC78"/>
     </row>
     <row r="79" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B79" s="7">
+      <c r="A79" s="7">
         <v>79</v>
       </c>
+      <c r="B79" s="7" t="s">
+        <v>310</v>
+      </c>
       <c r="C79" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>70</v>
@@ -8079,28 +8080,28 @@
         <v>39</v>
       </c>
       <c r="M79" s="9" t="str" cm="1">
-        <f t="array" ref="M79">PAGE_NAME(A79)</f>
+        <f t="array" ref="M79">PAGE_NAME(B79)</f>
         <v>errors</v>
       </c>
       <c r="N79" s="9" t="str" cm="1">
-        <f t="array" ref="N79">SECTION_NAME(A79)</f>
+        <f t="array" ref="N79">SECTION_NAME(B79)</f>
         <v>handling-errors-as-a-server</v>
       </c>
       <c r="O79" s="14"/>
       <c r="P79" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q79" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="U79" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="V79" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="W79" s="20" t="s">
         <v>222</v>
-      </c>
-      <c r="U79" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="V79" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="W79" s="20" t="s">
-        <v>225</v>
       </c>
       <c r="X79" s="20" t="s">
         <v>76</v>
@@ -8111,14 +8112,14 @@
       <c r="AC79"/>
     </row>
     <row r="80" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B80" s="7">
+      <c r="A80" s="7">
         <v>80</v>
       </c>
+      <c r="B80" s="7" t="s">
+        <v>310</v>
+      </c>
       <c r="C80" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>37</v>
@@ -8136,34 +8137,34 @@
         <v>121</v>
       </c>
       <c r="M80" s="9" t="str" cm="1">
-        <f t="array" ref="M80">PAGE_NAME(A80)</f>
+        <f t="array" ref="M80">PAGE_NAME(B80)</f>
         <v>errors</v>
       </c>
       <c r="N80" s="9" t="str" cm="1">
-        <f t="array" ref="N80">SECTION_NAME(A80)</f>
+        <f t="array" ref="N80">SECTION_NAME(B80)</f>
         <v>handling-errors-as-a-server</v>
       </c>
       <c r="O80" s="14"/>
       <c r="P80" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q80" s="20" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="V80" s="20" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AC80"/>
     </row>
-    <row r="81" spans="1:41" ht="170" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B81" s="7">
+    <row r="81" spans="1:41" ht="153" x14ac:dyDescent="0.2">
+      <c r="A81" s="7">
         <v>81</v>
       </c>
+      <c r="B81" s="7" t="s">
+        <v>310</v>
+      </c>
       <c r="C81" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>70</v>
@@ -8178,43 +8179,43 @@
         <v>39</v>
       </c>
       <c r="M81" s="9" t="str" cm="1">
-        <f t="array" ref="M81">PAGE_NAME(A81)</f>
+        <f t="array" ref="M81">PAGE_NAME(B81)</f>
         <v>errors</v>
       </c>
       <c r="N81" s="9" t="str" cm="1">
-        <f t="array" ref="N81">SECTION_NAME(A81)</f>
+        <f t="array" ref="N81">SECTION_NAME(B81)</f>
         <v>handling-errors-as-a-server</v>
       </c>
       <c r="O81" s="14"/>
       <c r="P81" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q81" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="U81" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="V81" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA81" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB81" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="V81" s="20" t="s">
+      <c r="AC81"/>
+    </row>
+    <row r="82" spans="1:41" ht="68" x14ac:dyDescent="0.2">
+      <c r="A82" s="7">
+        <v>82</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="AA81" s="20" t="s">
+      <c r="C82" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="AB81" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="AC81"/>
-    </row>
-    <row r="82" spans="1:41" ht="68" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B82" s="7">
-        <v>82</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>70</v>
@@ -8229,43 +8230,43 @@
         <v>39</v>
       </c>
       <c r="M82" s="9" t="str" cm="1">
-        <f t="array" ref="M82">PAGE_NAME(A82)</f>
+        <f t="array" ref="M82">PAGE_NAME(B82)</f>
         <v>errors</v>
       </c>
       <c r="N82" s="9" t="str" cm="1">
-        <f t="array" ref="N82">SECTION_NAME(A82)</f>
+        <f t="array" ref="N82">SECTION_NAME(B82)</f>
         <v>recovering-from-errors</v>
       </c>
       <c r="O82" s="14"/>
       <c r="P82" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q82" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="U82" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="V82" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA82" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB82" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="V82" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="AA82" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="AB82" s="20" t="s">
-        <v>332</v>
-      </c>
       <c r="AC82"/>
     </row>
     <row r="83" spans="1:41" ht="102" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B83" s="7">
+      <c r="A83" s="7">
         <v>83</v>
       </c>
+      <c r="B83" s="7" t="s">
+        <v>333</v>
+      </c>
       <c r="C83" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>37</v>
@@ -8280,46 +8281,46 @@
         <v>39</v>
       </c>
       <c r="L83" s="37" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M83" s="9" t="str" cm="1">
-        <f t="array" ref="M83">PAGE_NAME(A83)</f>
+        <f t="array" ref="M83">PAGE_NAME(B83)</f>
         <v>errors</v>
       </c>
       <c r="N83" s="9" t="str" cm="1">
-        <f t="array" ref="N83">SECTION_NAME(A83)</f>
+        <f t="array" ref="N83">SECTION_NAME(B83)</f>
         <v>using-the-events-operation</v>
       </c>
       <c r="O83" s="14"/>
       <c r="P83" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q83" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="U83" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="V83" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="Q83" s="20" t="s">
+      <c r="W83" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="U83" s="20" t="s">
+      <c r="AB83" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="V83" s="20" t="s">
+      <c r="AC83"/>
+    </row>
+    <row r="84" spans="1:41" ht="68" x14ac:dyDescent="0.2">
+      <c r="A84" s="7">
+        <v>84</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="W83" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="AB83" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC83"/>
-    </row>
-    <row r="84" spans="1:41" ht="68" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B84" s="7">
-        <v>84</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>345</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>37</v>
@@ -8337,34 +8338,34 @@
         <v>121</v>
       </c>
       <c r="M84" s="9" t="str" cm="1">
-        <f t="array" ref="M84">PAGE_NAME(A84)</f>
+        <f t="array" ref="M84">PAGE_NAME(B84)</f>
         <v>errors</v>
       </c>
       <c r="N84" s="9" t="str" cm="1">
-        <f t="array" ref="N84">SECTION_NAME(A84)</f>
+        <f t="array" ref="N84">SECTION_NAME(B84)</f>
         <v>using-the-events-operation</v>
       </c>
       <c r="O84" s="14"/>
       <c r="P84" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Q84" s="20" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="V84" s="20" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AC84"/>
     </row>
     <row r="85" spans="1:41" ht="102" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B85" s="7">
+      <c r="A85" s="7">
         <v>85</v>
       </c>
+      <c r="B85" s="7" t="s">
+        <v>333</v>
+      </c>
       <c r="C85" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>37</v>
@@ -8379,28 +8380,28 @@
         <v>39</v>
       </c>
       <c r="L85" s="37" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M85" s="9" t="str" cm="1">
-        <f t="array" ref="M85">PAGE_NAME(A85)</f>
+        <f t="array" ref="M85">PAGE_NAME(B85)</f>
         <v>errors</v>
       </c>
       <c r="N85" s="9" t="str" cm="1">
-        <f t="array" ref="N85">SECTION_NAME(A85)</f>
+        <f t="array" ref="N85">SECTION_NAME(B85)</f>
         <v>using-the-events-operation</v>
       </c>
       <c r="O85" s="14"/>
       <c r="P85" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Q85" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="U85" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="V85" s="20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AB85" s="20" t="s">
         <v>132</v>
@@ -8408,17 +8409,17 @@
       <c r="AC85"/>
     </row>
     <row r="86" spans="1:41" ht="153" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="7">
+        <v>86</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B86" s="7">
-        <v>86</v>
-      </c>
       <c r="C86" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>117</v>
@@ -8430,11 +8431,11 @@
         <v>39</v>
       </c>
       <c r="M86" s="9" t="str" cm="1">
-        <f t="array" ref="M86">PAGE_NAME(A86)</f>
+        <f t="array" ref="M86">PAGE_NAME(B86)</f>
         <v>components</v>
       </c>
       <c r="N86" s="9" t="str" cm="1">
-        <f t="array" ref="N86">SECTION_NAME(A86)</f>
+        <f t="array" ref="N86">SECTION_NAME(B86)</f>
         <v>subscriptions</v>
       </c>
       <c r="O86" s="14"/>
@@ -8445,10 +8446,10 @@
         <v>72</v>
       </c>
       <c r="U86" s="20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="V86" s="20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AC86"/>
       <c r="AI86" s="17"/>
@@ -8460,30 +8461,30 @@
       <c r="AO86" s="5"/>
     </row>
     <row r="87" spans="1:41" ht="85" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="7">
+        <v>87</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B87" s="7">
-        <v>87</v>
-      </c>
       <c r="C87" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>61</v>
       </c>
       <c r="M87" s="9" t="str" cm="1">
-        <f t="array" ref="M87">PAGE_NAME(A87)</f>
+        <f t="array" ref="M87">PAGE_NAME(B87)</f>
         <v>components</v>
       </c>
       <c r="N87" s="9" t="str" cm="1">
-        <f t="array" ref="N87">SECTION_NAME(A87)</f>
+        <f t="array" ref="N87">SECTION_NAME(B87)</f>
         <v>subscriptions</v>
       </c>
       <c r="O87" s="14"/>
       <c r="V87" s="33"/>
       <c r="AA87" s="20" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AC87"/>
       <c r="AI87" s="17"/>
@@ -8495,14 +8496,14 @@
       <c r="AO87" s="5"/>
     </row>
     <row r="88" spans="1:41" ht="102" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="7">
+        <v>88</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B88" s="7">
-        <v>88</v>
-      </c>
       <c r="C88" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>37</v>
@@ -8517,14 +8518,14 @@
         <v>50</v>
       </c>
       <c r="L88" s="37" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M88" s="9" t="str" cm="1">
-        <f t="array" ref="M88">PAGE_NAME(A88)</f>
+        <f t="array" ref="M88">PAGE_NAME(B88)</f>
         <v>components</v>
       </c>
       <c r="N88" s="9" t="str" cm="1">
-        <f t="array" ref="N88">SECTION_NAME(A88)</f>
+        <f t="array" ref="N88">SECTION_NAME(B88)</f>
         <v>subscriptions-and-fhir-versions</v>
       </c>
       <c r="O88" s="14"/>
@@ -8535,7 +8536,7 @@
         <v>72</v>
       </c>
       <c r="V88" s="20" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AC88"/>
       <c r="AH88" s="18"/>
@@ -8548,33 +8549,33 @@
       <c r="AO88" s="5"/>
     </row>
     <row r="89" spans="1:41" ht="51" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="7">
+        <v>89</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B89" s="7">
-        <v>89</v>
-      </c>
       <c r="C89" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>61</v>
       </c>
       <c r="O89" s="14"/>
       <c r="AA89" s="20" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AC89"/>
     </row>
     <row r="90" spans="1:41" ht="136" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="7">
+        <v>90</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B90" s="7">
-        <v>90</v>
-      </c>
       <c r="C90" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>70</v>
@@ -8589,14 +8590,14 @@
         <v>39</v>
       </c>
       <c r="L90" s="37" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M90" s="9" t="str" cm="1">
-        <f t="array" ref="M90">PAGE_NAME(A90)</f>
+        <f t="array" ref="M90">PAGE_NAME(B90)</f>
         <v>components</v>
       </c>
       <c r="N90" s="9" t="str" cm="1">
-        <f t="array" ref="N90">SECTION_NAME(A90)</f>
+        <f t="array" ref="N90">SECTION_NAME(B90)</f>
         <v>subscriptions-and-fhir-versions</v>
       </c>
       <c r="O90" s="14"/>
@@ -8607,38 +8608,38 @@
         <v>72</v>
       </c>
       <c r="V90" s="20" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AC90"/>
     </row>
     <row r="91" spans="1:41" ht="51" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="7">
+        <v>91</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B91" s="7">
-        <v>91</v>
-      </c>
       <c r="C91" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>61</v>
       </c>
       <c r="O91" s="14"/>
       <c r="AA91" s="20" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AC91"/>
     </row>
     <row r="92" spans="1:41" ht="68" x14ac:dyDescent="0.2">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="7">
+        <v>92</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B92" s="7">
-        <v>92</v>
-      </c>
       <c r="C92" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>37</v>
@@ -8656,11 +8657,11 @@
         <v>121</v>
       </c>
       <c r="M92" s="9" t="str" cm="1">
-        <f t="array" ref="M92">PAGE_NAME(A92)</f>
+        <f t="array" ref="M92">PAGE_NAME(B92)</f>
         <v>channels</v>
       </c>
       <c r="N92" s="9" t="str" cm="1">
-        <f t="array" ref="N92">SECTION_NAME(A92)</f>
+        <f t="array" ref="N92">SECTION_NAME(B92)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O92" s="14"/>
@@ -8668,25 +8669,25 @@
         <v>140</v>
       </c>
       <c r="Q92" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="V92" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB92" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC92"/>
+    </row>
+    <row r="93" spans="1:41" ht="102" x14ac:dyDescent="0.2">
+      <c r="A93" s="7">
+        <v>93</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="V92" s="20" t="s">
+      <c r="C93" s="8" t="s">
         <v>366</v>
-      </c>
-      <c r="AB92" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="AC92"/>
-    </row>
-    <row r="93" spans="1:41" ht="102" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B93" s="7">
-        <v>93</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>369</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>70</v>
@@ -8701,43 +8702,43 @@
         <v>39</v>
       </c>
       <c r="M93" s="9" t="str" cm="1">
-        <f t="array" ref="M93">PAGE_NAME(A93)</f>
+        <f t="array" ref="M93">PAGE_NAME(B93)</f>
         <v>StructureDefinition-backport-subscription-definitions</v>
       </c>
       <c r="N93" s="9" t="str" cm="1">
-        <f t="array" ref="N93">SECTION_NAME(A93)</f>
+        <f t="array" ref="N93">SECTION_NAME(B93)</f>
         <v>root</v>
       </c>
       <c r="O93" s="14"/>
       <c r="P93" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q93" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="U93" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="V93" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="W93" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB93" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="Q93" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="U93" s="20" t="s">
+      <c r="AC93"/>
+    </row>
+    <row r="94" spans="1:41" ht="68" x14ac:dyDescent="0.2">
+      <c r="A94" s="7">
+        <v>94</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="V93" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="W93" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB93" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="AC93"/>
-    </row>
-    <row r="94" spans="1:41" ht="68" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B94" s="7">
-        <v>94</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>374</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>70</v>
@@ -8752,43 +8753,43 @@
         <v>39</v>
       </c>
       <c r="M94" s="9" t="str" cm="1">
-        <f t="array" ref="M94">PAGE_NAME(A94)</f>
+        <f t="array" ref="M94">PAGE_NAME(B94)</f>
         <v>StructureDefinition-backport-subscription-definitions</v>
       </c>
       <c r="N94" s="9" t="str" cm="1">
-        <f t="array" ref="N94">SECTION_NAME(A94)</f>
+        <f t="array" ref="N94">SECTION_NAME(B94)</f>
         <v>root</v>
       </c>
       <c r="O94" s="14"/>
       <c r="P94" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q94" s="20" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="U94" s="20" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="V94" s="20" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="W94" s="20" t="s">
         <v>97</v>
       </c>
       <c r="AB94" s="32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AC94"/>
     </row>
     <row r="95" spans="1:41" ht="119" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B95" s="7">
+      <c r="A95" s="7">
         <v>95</v>
       </c>
+      <c r="B95" s="7" t="s">
+        <v>365</v>
+      </c>
       <c r="C95" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>70</v>
@@ -8803,37 +8804,37 @@
         <v>39</v>
       </c>
       <c r="L95" s="37" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M95" s="9" t="str" cm="1">
-        <f t="array" ref="M95">PAGE_NAME(A95)</f>
+        <f t="array" ref="M95">PAGE_NAME(B95)</f>
         <v>StructureDefinition-backport-subscription-definitions</v>
       </c>
       <c r="N95" s="9" t="str" cm="1">
-        <f t="array" ref="N95">SECTION_NAME(A95)</f>
+        <f t="array" ref="N95">SECTION_NAME(B95)</f>
         <v>root</v>
       </c>
       <c r="O95" s="14"/>
       <c r="P95" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q95" s="20" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="V95" s="20" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AC95"/>
     </row>
     <row r="96" spans="1:41" ht="85" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B96" s="12">
+      <c r="A96" s="12">
         <v>96</v>
       </c>
+      <c r="B96" s="7" t="s">
+        <v>365</v>
+      </c>
       <c r="C96" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>70</v>
@@ -8849,37 +8850,37 @@
         <v>39</v>
       </c>
       <c r="L96" s="37" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M96" s="9" t="str" cm="1">
-        <f t="array" ref="M96">PAGE_NAME(A96)</f>
+        <f t="array" ref="M96">PAGE_NAME(B96)</f>
         <v>StructureDefinition-backport-subscription-definitions</v>
       </c>
       <c r="N96" s="9" t="str" cm="1">
-        <f t="array" ref="N96">SECTION_NAME(A96)</f>
+        <f t="array" ref="N96">SECTION_NAME(B96)</f>
         <v>root</v>
       </c>
       <c r="O96" s="14"/>
       <c r="P96" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q96" s="20" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="V96" s="20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AC96"/>
     </row>
     <row r="97" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B97" s="7">
+      <c r="A97" s="7">
         <v>97</v>
       </c>
+      <c r="B97" s="7" t="s">
+        <v>365</v>
+      </c>
       <c r="C97" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>70</v>
@@ -8894,43 +8895,43 @@
         <v>39</v>
       </c>
       <c r="M97" s="9" t="str" cm="1">
-        <f t="array" ref="M97">PAGE_NAME(A97)</f>
+        <f t="array" ref="M97">PAGE_NAME(B97)</f>
         <v>StructureDefinition-backport-subscription-definitions</v>
       </c>
       <c r="N97" s="9" t="str" cm="1">
-        <f t="array" ref="N97">SECTION_NAME(A97)</f>
+        <f t="array" ref="N97">SECTION_NAME(B97)</f>
         <v>root</v>
       </c>
       <c r="O97" s="14"/>
       <c r="P97" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q97" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="U97" s="20" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="V97" s="20" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="W97" s="20" t="s">
         <v>97</v>
       </c>
       <c r="AB97" s="20" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AC97"/>
     </row>
     <row r="98" spans="1:29" ht="136" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B98" s="7">
+      <c r="A98" s="7">
         <v>98</v>
       </c>
+      <c r="B98" s="7" t="s">
+        <v>365</v>
+      </c>
       <c r="C98" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>70</v>
@@ -8945,46 +8946,46 @@
         <v>39</v>
       </c>
       <c r="L98" s="37" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M98" s="9" t="str" cm="1">
-        <f t="array" ref="M98">PAGE_NAME(A98)</f>
+        <f t="array" ref="M98">PAGE_NAME(B98)</f>
         <v>StructureDefinition-backport-subscription-definitions</v>
       </c>
       <c r="N98" s="9" t="str" cm="1">
-        <f t="array" ref="N98">SECTION_NAME(A98)</f>
+        <f t="array" ref="N98">SECTION_NAME(B98)</f>
         <v>root</v>
       </c>
       <c r="O98" s="14"/>
       <c r="P98" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q98" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U98" s="20" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="V98" s="33" t="s">
         <v>105</v>
       </c>
       <c r="W98" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AC98"/>
     </row>
     <row r="99" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B99" s="7">
+      <c r="A99" s="7">
         <v>99</v>
       </c>
+      <c r="B99" s="7" t="s">
+        <v>388</v>
+      </c>
       <c r="C99" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>38</v>
@@ -8996,40 +8997,40 @@
         <v>39</v>
       </c>
       <c r="M99" s="9" t="str" cm="1">
-        <f t="array" ref="M99">PAGE_NAME(A99)</f>
+        <f t="array" ref="M99">PAGE_NAME(B99)</f>
         <v/>
       </c>
       <c r="N99" s="9" t="str" cm="1">
-        <f t="array" ref="N99">SECTION_NAME(A99)</f>
+        <f t="array" ref="N99">SECTION_NAME(B99)</f>
         <v/>
       </c>
       <c r="O99" s="14"/>
       <c r="P99" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q99" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="U99" s="20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="V99" s="20" t="s">
         <v>105</v>
       </c>
       <c r="W99" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AC99"/>
     </row>
     <row r="100" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B100" s="7">
+      <c r="A100" s="7">
         <v>100</v>
       </c>
+      <c r="B100" s="7" t="s">
+        <v>388</v>
+      </c>
       <c r="C100" s="8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>37</v>
@@ -9047,34 +9048,34 @@
         <v>121</v>
       </c>
       <c r="M100" s="9" t="str" cm="1">
-        <f t="array" ref="M100">PAGE_NAME(A100)</f>
+        <f t="array" ref="M100">PAGE_NAME(B100)</f>
         <v/>
       </c>
       <c r="N100" s="9" t="str" cm="1">
-        <f t="array" ref="N100">SECTION_NAME(A100)</f>
+        <f t="array" ref="N100">SECTION_NAME(B100)</f>
         <v/>
       </c>
       <c r="O100" s="14"/>
       <c r="P100" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q100" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="V100" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC100"/>
+    </row>
+    <row r="101" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+      <c r="A101" s="7">
+        <v>101</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C101" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="Q100" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="V100" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC100"/>
-    </row>
-    <row r="101" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B101" s="7">
-        <v>101</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>396</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>79</v>
@@ -9089,40 +9090,40 @@
         <v>39</v>
       </c>
       <c r="M101" s="9" t="str" cm="1">
-        <f t="array" ref="M101">PAGE_NAME(A101)</f>
+        <f t="array" ref="M101">PAGE_NAME(B101)</f>
         <v/>
       </c>
       <c r="N101" s="9" t="str" cm="1">
-        <f t="array" ref="N101">SECTION_NAME(A101)</f>
+        <f t="array" ref="N101">SECTION_NAME(B101)</f>
         <v/>
       </c>
       <c r="O101" s="14"/>
       <c r="P101" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q101" s="20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U101" s="20" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="V101" s="20" t="s">
         <v>105</v>
       </c>
       <c r="W101" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AC101"/>
     </row>
-    <row r="102" spans="1:29" ht="136" x14ac:dyDescent="0.2">
-      <c r="A102" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B102" s="7">
+    <row r="102" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+      <c r="A102" s="7">
         <v>102</v>
       </c>
+      <c r="B102" s="7" t="s">
+        <v>388</v>
+      </c>
       <c r="C102" s="8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>70</v>
@@ -9137,43 +9138,43 @@
         <v>39</v>
       </c>
       <c r="M102" s="9" t="str" cm="1">
-        <f t="array" ref="M102">PAGE_NAME(A102)</f>
+        <f t="array" ref="M102">PAGE_NAME(B102)</f>
         <v/>
       </c>
       <c r="N102" s="9" t="str" cm="1">
-        <f t="array" ref="N102">SECTION_NAME(A102)</f>
+        <f t="array" ref="N102">SECTION_NAME(B102)</f>
         <v/>
       </c>
       <c r="O102" s="14"/>
       <c r="P102" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q102" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U102" s="20" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="V102" s="20" t="s">
         <v>105</v>
       </c>
       <c r="W102" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AA102" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AC102"/>
     </row>
     <row r="103" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A103" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B103" s="7">
+      <c r="A103" s="7">
         <v>103</v>
       </c>
+      <c r="B103" s="7" t="s">
+        <v>388</v>
+      </c>
       <c r="C103" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>70</v>
@@ -9188,43 +9189,43 @@
         <v>39</v>
       </c>
       <c r="M103" s="9" t="str" cm="1">
-        <f t="array" ref="M103">PAGE_NAME(A103)</f>
+        <f t="array" ref="M103">PAGE_NAME(B103)</f>
         <v/>
       </c>
       <c r="N103" s="9" t="str" cm="1">
-        <f t="array" ref="N103">SECTION_NAME(A103)</f>
+        <f t="array" ref="N103">SECTION_NAME(B103)</f>
         <v/>
       </c>
       <c r="O103" s="14"/>
       <c r="P103" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q103" s="20" t="s">
         <v>103</v>
       </c>
       <c r="U103" s="20" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="V103" s="20" t="s">
         <v>105</v>
       </c>
       <c r="W103" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AA103" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC103"/>
+    </row>
+    <row r="104" spans="1:29" ht="85" x14ac:dyDescent="0.2">
+      <c r="A104" s="7">
+        <v>104</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C104" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="AC103"/>
-    </row>
-    <row r="104" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B104" s="7">
-        <v>104</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>403</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>37</v>
@@ -9242,34 +9243,34 @@
         <v>121</v>
       </c>
       <c r="M104" s="9" t="str" cm="1">
-        <f t="array" ref="M104">PAGE_NAME(A104)</f>
+        <f t="array" ref="M104">PAGE_NAME(B104)</f>
         <v/>
       </c>
       <c r="N104" s="9" t="str" cm="1">
-        <f t="array" ref="N104">SECTION_NAME(A104)</f>
+        <f t="array" ref="N104">SECTION_NAME(B104)</f>
         <v/>
       </c>
       <c r="O104" s="14"/>
       <c r="P104" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q104" s="20" t="s">
         <v>103</v>
       </c>
       <c r="V104" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AC104"/>
     </row>
     <row r="105" spans="1:29" ht="85" x14ac:dyDescent="0.2">
-      <c r="A105" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B105" s="7">
+      <c r="A105" s="7">
         <v>105</v>
       </c>
+      <c r="B105" s="7" t="s">
+        <v>388</v>
+      </c>
       <c r="C105" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>37</v>
@@ -9287,34 +9288,34 @@
         <v>121</v>
       </c>
       <c r="M105" s="9" t="str" cm="1">
-        <f t="array" ref="M105">PAGE_NAME(A105)</f>
+        <f t="array" ref="M105">PAGE_NAME(B105)</f>
         <v/>
       </c>
       <c r="N105" s="9" t="str" cm="1">
-        <f t="array" ref="N105">SECTION_NAME(A105)</f>
+        <f t="array" ref="N105">SECTION_NAME(B105)</f>
         <v/>
       </c>
       <c r="O105" s="14"/>
       <c r="P105" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q105" s="20" t="s">
         <v>103</v>
       </c>
       <c r="V105" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AC105"/>
     </row>
     <row r="106" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A106" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B106" s="7">
+      <c r="A106" s="7">
         <v>106</v>
       </c>
+      <c r="B106" s="7" t="s">
+        <v>402</v>
+      </c>
       <c r="C106" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>70</v>
@@ -9329,40 +9330,40 @@
         <v>39</v>
       </c>
       <c r="M106" s="9" t="str" cm="1">
-        <f t="array" ref="M106">PAGE_NAME(A106)</f>
+        <f t="array" ref="M106">PAGE_NAME(B106)</f>
         <v/>
       </c>
       <c r="N106" s="9" t="str" cm="1">
-        <f t="array" ref="N106">SECTION_NAME(A106)</f>
+        <f t="array" ref="N106">SECTION_NAME(B106)</f>
         <v/>
       </c>
       <c r="O106" s="14"/>
       <c r="P106" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q106" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="U106" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="V106" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="W106" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC106"/>
+    </row>
+    <row r="107" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="A107" s="7">
+        <v>107</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>407</v>
-      </c>
-      <c r="Q106" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="U106" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="V106" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="W106" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC106"/>
-    </row>
-    <row r="107" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A107" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B107" s="7">
-        <v>107</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>410</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>70</v>
@@ -9377,40 +9378,40 @@
         <v>39</v>
       </c>
       <c r="M107" s="9" t="str" cm="1">
-        <f t="array" ref="M107">PAGE_NAME(A107)</f>
+        <f t="array" ref="M107">PAGE_NAME(B107)</f>
         <v/>
       </c>
       <c r="N107" s="9" t="str" cm="1">
-        <f t="array" ref="N107">SECTION_NAME(A107)</f>
+        <f t="array" ref="N107">SECTION_NAME(B107)</f>
         <v/>
       </c>
       <c r="O107" s="14"/>
       <c r="P107" s="10" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q107" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="U107" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="V107" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="W107" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="U107" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="V107" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="W107" s="20" t="s">
-        <v>225</v>
-      </c>
       <c r="AC107"/>
     </row>
     <row r="108" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A108" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B108" s="7">
+      <c r="A108" s="7">
         <v>108</v>
       </c>
+      <c r="B108" s="7" t="s">
+        <v>402</v>
+      </c>
       <c r="C108" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>70</v>
@@ -9425,40 +9426,40 @@
         <v>39</v>
       </c>
       <c r="M108" s="9" t="str" cm="1">
-        <f t="array" ref="M108">PAGE_NAME(A108)</f>
+        <f t="array" ref="M108">PAGE_NAME(B108)</f>
         <v/>
       </c>
       <c r="N108" s="9" t="str" cm="1">
-        <f t="array" ref="N108">SECTION_NAME(A108)</f>
+        <f t="array" ref="N108">SECTION_NAME(B108)</f>
         <v/>
       </c>
       <c r="O108" s="14"/>
       <c r="P108" s="10" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q108" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="U108" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="V108" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="W108" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="U108" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="V108" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="W108" s="20" t="s">
-        <v>225</v>
-      </c>
       <c r="AC108"/>
     </row>
     <row r="109" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A109" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B109" s="7">
+      <c r="A109" s="7">
         <v>109</v>
       </c>
+      <c r="B109" s="7" t="s">
+        <v>402</v>
+      </c>
       <c r="C109" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>70</v>
@@ -9473,40 +9474,40 @@
         <v>39</v>
       </c>
       <c r="M109" s="9" t="str" cm="1">
-        <f t="array" ref="M109">PAGE_NAME(A109)</f>
+        <f t="array" ref="M109">PAGE_NAME(B109)</f>
         <v/>
       </c>
       <c r="N109" s="9" t="str" cm="1">
-        <f t="array" ref="N109">SECTION_NAME(A109)</f>
+        <f t="array" ref="N109">SECTION_NAME(B109)</f>
         <v/>
       </c>
       <c r="O109" s="14"/>
       <c r="P109" s="10" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q109" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="U109" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="V109" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="W109" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="U109" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="V109" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="W109" s="20" t="s">
-        <v>225</v>
-      </c>
       <c r="AC109"/>
     </row>
     <row r="110" spans="1:29" ht="102" x14ac:dyDescent="0.2">
-      <c r="A110" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B110" s="7">
+      <c r="A110" s="7">
         <v>110</v>
       </c>
+      <c r="B110" s="7" t="s">
+        <v>402</v>
+      </c>
       <c r="C110" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>70</v>
@@ -9521,40 +9522,40 @@
         <v>39</v>
       </c>
       <c r="M110" s="9" t="str" cm="1">
-        <f t="array" ref="M110">PAGE_NAME(A110)</f>
+        <f t="array" ref="M110">PAGE_NAME(B110)</f>
         <v/>
       </c>
       <c r="N110" s="9" t="str" cm="1">
-        <f t="array" ref="N110">SECTION_NAME(A110)</f>
+        <f t="array" ref="N110">SECTION_NAME(B110)</f>
         <v/>
       </c>
       <c r="O110" s="14"/>
       <c r="P110" s="10" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q110" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="U110" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="V110" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="W110" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="U110" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="V110" s="20" t="s">
-        <v>421</v>
-      </c>
-      <c r="W110" s="20" t="s">
-        <v>225</v>
-      </c>
       <c r="AC110"/>
     </row>
-    <row r="111" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A111" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B111" s="7">
+    <row r="111" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="A111" s="7">
         <v>111</v>
       </c>
+      <c r="B111" s="7" t="s">
+        <v>402</v>
+      </c>
       <c r="C111" s="8" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>70</v>
@@ -9569,40 +9570,40 @@
         <v>39</v>
       </c>
       <c r="M111" s="9" t="str" cm="1">
-        <f t="array" ref="M111">PAGE_NAME(A111)</f>
+        <f t="array" ref="M111">PAGE_NAME(B111)</f>
         <v/>
       </c>
       <c r="N111" s="9" t="str" cm="1">
-        <f t="array" ref="N111">SECTION_NAME(A111)</f>
+        <f t="array" ref="N111">SECTION_NAME(B111)</f>
         <v/>
       </c>
       <c r="O111" s="14"/>
       <c r="P111" s="10" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q111" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="U111" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="V111" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="W111" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="U111" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="V111" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="W111" s="20" t="s">
-        <v>225</v>
-      </c>
       <c r="AC111"/>
     </row>
     <row r="112" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B112" s="7">
+      <c r="A112" s="7">
         <v>112</v>
       </c>
+      <c r="B112" s="7" t="s">
+        <v>402</v>
+      </c>
       <c r="C112" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>70</v>
@@ -9617,40 +9618,40 @@
         <v>39</v>
       </c>
       <c r="M112" s="9" t="str" cm="1">
-        <f t="array" ref="M112">PAGE_NAME(A112)</f>
+        <f t="array" ref="M112">PAGE_NAME(B112)</f>
         <v/>
       </c>
       <c r="N112" s="9" t="str" cm="1">
-        <f t="array" ref="N112">SECTION_NAME(A112)</f>
+        <f t="array" ref="N112">SECTION_NAME(B112)</f>
         <v/>
       </c>
       <c r="O112" s="14"/>
       <c r="P112" s="10" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q112" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="U112" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="V112" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="W112" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="U112" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="V112" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="W112" s="20" t="s">
-        <v>225</v>
-      </c>
       <c r="AC112"/>
     </row>
     <row r="113" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="7">
+        <v>113</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B113" s="7">
-        <v>113</v>
-      </c>
       <c r="C113" s="8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>37</v>
@@ -9665,11 +9666,11 @@
         <v>39</v>
       </c>
       <c r="M113" s="9" t="str" cm="1">
-        <f t="array" ref="M113">PAGE_NAME(A113)</f>
+        <f t="array" ref="M113">PAGE_NAME(B113)</f>
         <v>channels</v>
       </c>
       <c r="N113" s="9" t="str" cm="1">
-        <f t="array" ref="N113">SECTION_NAME(A113)</f>
+        <f t="array" ref="N113">SECTION_NAME(B113)</f>
         <v>rest-hook-1</v>
       </c>
       <c r="O113" s="14"/>
@@ -9680,10 +9681,10 @@
         <v>148</v>
       </c>
       <c r="U113" s="20" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="V113" s="20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="W113" s="20" t="s">
         <v>75</v>
@@ -9693,14 +9694,14 @@
       </c>
     </row>
     <row r="114" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B114" s="7">
+      <c r="A114" s="7">
         <v>114</v>
       </c>
+      <c r="B114" s="7" t="s">
+        <v>428</v>
+      </c>
       <c r="C114" s="8" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>70</v>
@@ -9715,39 +9716,39 @@
         <v>39</v>
       </c>
       <c r="M114" s="9" t="str" cm="1">
-        <f t="array" ref="M114">PAGE_NAME(A114)</f>
+        <f t="array" ref="M114">PAGE_NAME(B114)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N114" s="9" t="str" cm="1">
-        <f t="array" ref="N114">SECTION_NAME(A114)</f>
+        <f t="array" ref="N114">SECTION_NAME(B114)</f>
         <v>subscription</v>
       </c>
       <c r="O114" s="14"/>
       <c r="P114" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q114" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U114" s="20" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="V114" s="20" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="W114" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="85" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B115" s="7">
+      <c r="A115" s="7">
         <v>115</v>
       </c>
+      <c r="B115" s="7" t="s">
+        <v>433</v>
+      </c>
       <c r="C115" s="8" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>70</v>
@@ -9762,39 +9763,39 @@
         <v>39</v>
       </c>
       <c r="M115" s="9" t="str" cm="1">
-        <f t="array" ref="M115">PAGE_NAME(A115)</f>
+        <f t="array" ref="M115">PAGE_NAME(B115)</f>
         <v/>
       </c>
       <c r="N115" s="9" t="str" cm="1">
-        <f t="array" ref="N115">SECTION_NAME(A115)</f>
+        <f t="array" ref="N115">SECTION_NAME(B115)</f>
         <v/>
       </c>
       <c r="O115" s="14"/>
       <c r="P115" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q115" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="U115" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="V115" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="W115" s="20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A116" s="7">
+        <v>116</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>438</v>
-      </c>
-      <c r="Q115" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="U115" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="V115" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="W115" s="20" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="116" spans="1:28" ht="68" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B116" s="7">
-        <v>116</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>441</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>70</v>
@@ -9809,36 +9810,36 @@
         <v>39</v>
       </c>
       <c r="M116" s="9" t="str" cm="1">
-        <f t="array" ref="M116">PAGE_NAME(A116)</f>
+        <f t="array" ref="M116">PAGE_NAME(B116)</f>
         <v/>
       </c>
       <c r="N116" s="9" t="str" cm="1">
-        <f t="array" ref="N116">SECTION_NAME(A116)</f>
+        <f t="array" ref="N116">SECTION_NAME(B116)</f>
         <v/>
       </c>
       <c r="O116" s="14"/>
       <c r="P116" s="10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="Q116" s="20" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="U116" s="20" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="V116" s="20" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="85" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B117" s="7">
+      <c r="A117" s="7">
         <v>117</v>
       </c>
+      <c r="B117" s="7" t="s">
+        <v>433</v>
+      </c>
       <c r="C117" s="8" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>37</v>
@@ -9856,33 +9857,33 @@
         <v>121</v>
       </c>
       <c r="M117" s="9" t="str" cm="1">
-        <f t="array" ref="M117">PAGE_NAME(A117)</f>
+        <f t="array" ref="M117">PAGE_NAME(B117)</f>
         <v/>
       </c>
       <c r="N117" s="9" t="str" cm="1">
-        <f t="array" ref="N117">SECTION_NAME(A117)</f>
+        <f t="array" ref="N117">SECTION_NAME(B117)</f>
         <v/>
       </c>
       <c r="O117" s="14"/>
       <c r="P117" s="10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="Q117" s="20" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="V117" s="20" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B118" s="7">
+      <c r="A118" s="7">
         <v>118</v>
       </c>
+      <c r="B118" s="7" t="s">
+        <v>433</v>
+      </c>
       <c r="C118" s="8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>70</v>
@@ -9897,39 +9898,39 @@
         <v>39</v>
       </c>
       <c r="M118" s="9" t="str" cm="1">
-        <f t="array" ref="M118">PAGE_NAME(A118)</f>
+        <f t="array" ref="M118">PAGE_NAME(B118)</f>
         <v/>
       </c>
       <c r="N118" s="9" t="str" cm="1">
-        <f t="array" ref="N118">SECTION_NAME(A118)</f>
+        <f t="array" ref="N118">SECTION_NAME(B118)</f>
         <v/>
       </c>
       <c r="O118" s="14"/>
       <c r="P118" s="10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="Q118" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="U118" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="V118" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="W118" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="U118" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="V118" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="W118" s="20" t="s">
-        <v>343</v>
-      </c>
     </row>
     <row r="119" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B119" s="7">
+      <c r="A119" s="7">
         <v>119</v>
       </c>
+      <c r="B119" s="7" t="s">
+        <v>433</v>
+      </c>
       <c r="C119" s="8" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>70</v>
@@ -9944,39 +9945,39 @@
         <v>39</v>
       </c>
       <c r="M119" s="9" t="str" cm="1">
-        <f t="array" ref="M119">PAGE_NAME(A119)</f>
+        <f t="array" ref="M119">PAGE_NAME(B119)</f>
         <v/>
       </c>
       <c r="N119" s="9" t="str" cm="1">
-        <f t="array" ref="N119">SECTION_NAME(A119)</f>
+        <f t="array" ref="N119">SECTION_NAME(B119)</f>
         <v/>
       </c>
       <c r="O119" s="14"/>
       <c r="P119" s="10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="Q119" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="U119" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="V119" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="W119" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="U119" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="V119" s="20" t="s">
+    </row>
+    <row r="120" spans="1:28" ht="85" x14ac:dyDescent="0.2">
+      <c r="A120" s="7">
+        <v>120</v>
+      </c>
+      <c r="B120" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="W119" s="20" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="120" spans="1:28" ht="85" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B120" s="7">
-        <v>120</v>
-      </c>
       <c r="C120" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>79</v>
@@ -9991,39 +9992,39 @@
         <v>39</v>
       </c>
       <c r="M120" s="9" t="str" cm="1">
-        <f t="array" ref="M120">PAGE_NAME(A120)</f>
+        <f t="array" ref="M120">PAGE_NAME(B120)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N120" s="9" t="str" cm="1">
-        <f t="array" ref="N120">SECTION_NAME(A120)</f>
+        <f t="array" ref="N120">SECTION_NAME(B120)</f>
         <v>summary</v>
       </c>
       <c r="O120" s="14"/>
       <c r="P120" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q120" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U120" s="20" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="V120" s="20" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="W120" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B121" s="7">
+      <c r="A121" s="7">
         <v>121</v>
       </c>
+      <c r="B121" s="7" t="s">
+        <v>448</v>
+      </c>
       <c r="C121" s="8" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>70</v>
@@ -10038,42 +10039,42 @@
         <v>39</v>
       </c>
       <c r="M121" s="9" t="str" cm="1">
-        <f t="array" ref="M121">PAGE_NAME(A121)</f>
+        <f t="array" ref="M121">PAGE_NAME(B121)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N121" s="9" t="str" cm="1">
-        <f t="array" ref="N121">SECTION_NAME(A121)</f>
+        <f t="array" ref="N121">SECTION_NAME(B121)</f>
         <v>summary</v>
       </c>
       <c r="O121" s="14"/>
       <c r="P121" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q121" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U121" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="V121" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="W121" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA121" s="20" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A122" s="7">
+        <v>122</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="V121" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="W121" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA121" s="20" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="122" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B122" s="7">
-        <v>122</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>459</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>37</v>
@@ -10090,16 +10091,16 @@
       </c>
       <c r="L122" s="38"/>
       <c r="M122" s="9" t="str" cm="1">
-        <f t="array" ref="M122">PAGE_NAME(A122)</f>
+        <f t="array" ref="M122">PAGE_NAME(B122)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N122" s="9" t="str" cm="1">
-        <f t="array" ref="N122">SECTION_NAME(A122)</f>
+        <f t="array" ref="N122">SECTION_NAME(B122)</f>
         <v>summary</v>
       </c>
       <c r="O122" s="14"/>
       <c r="P122" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q122" s="20" t="s">
         <v>46</v>
@@ -10107,27 +10108,27 @@
       <c r="S122" s="10"/>
       <c r="T122" s="10"/>
       <c r="U122" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="V122" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="W122" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA122" s="20" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A123" s="7">
+        <v>123</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>460</v>
-      </c>
-      <c r="V122" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="W122" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA122" s="20" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="123" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B123" s="7">
-        <v>123</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>463</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>37</v>
@@ -10142,36 +10143,36 @@
         <v>50</v>
       </c>
       <c r="L123" s="37" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M123" s="9" t="str" cm="1">
-        <f t="array" ref="M123">PAGE_NAME(A123)</f>
+        <f t="array" ref="M123">PAGE_NAME(B123)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N123" s="9" t="str" cm="1">
-        <f t="array" ref="N123">SECTION_NAME(A123)</f>
+        <f t="array" ref="N123">SECTION_NAME(B123)</f>
         <v>summary</v>
       </c>
       <c r="O123" s="14"/>
       <c r="P123" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q123" s="20" t="s">
         <v>46</v>
       </c>
       <c r="V123" s="20" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="124" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B124" s="7">
+      <c r="A124" s="7">
         <v>124</v>
       </c>
+      <c r="B124" s="7" t="s">
+        <v>448</v>
+      </c>
       <c r="C124" s="8" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>70</v>
@@ -10186,42 +10187,42 @@
         <v>39</v>
       </c>
       <c r="M124" s="9" t="str" cm="1">
-        <f t="array" ref="M124">PAGE_NAME(A124)</f>
+        <f t="array" ref="M124">PAGE_NAME(B124)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N124" s="9" t="str" cm="1">
-        <f t="array" ref="N124">SECTION_NAME(A124)</f>
+        <f t="array" ref="N124">SECTION_NAME(B124)</f>
         <v>summary</v>
       </c>
       <c r="O124" s="14"/>
       <c r="P124" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q124" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U124" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="V124" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="W124" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA124" s="20" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A125" s="7">
+        <v>125</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C125" s="8" t="s">
         <v>467</v>
-      </c>
-      <c r="V124" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="W124" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA124" s="20" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="125" spans="1:28" ht="68" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B125" s="7">
-        <v>125</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>470</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>79</v>
@@ -10236,42 +10237,42 @@
         <v>39</v>
       </c>
       <c r="M125" s="9" t="str" cm="1">
-        <f t="array" ref="M125">PAGE_NAME(A125)</f>
+        <f t="array" ref="M125">PAGE_NAME(B125)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N125" s="9" t="str" cm="1">
-        <f t="array" ref="N125">SECTION_NAME(A125)</f>
+        <f t="array" ref="N125">SECTION_NAME(B125)</f>
         <v>summary</v>
       </c>
       <c r="O125" s="14"/>
       <c r="P125" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q125" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U125" s="20" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="V125" s="20" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="W125" s="20" t="s">
         <v>46</v>
       </c>
       <c r="AB125" s="20" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="68" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B126" s="7">
+      <c r="A126" s="7">
         <v>126</v>
       </c>
+      <c r="B126" s="7" t="s">
+        <v>448</v>
+      </c>
       <c r="C126" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>79</v>
@@ -10286,39 +10287,39 @@
         <v>39</v>
       </c>
       <c r="M126" s="9" t="str" cm="1">
-        <f t="array" ref="M126">PAGE_NAME(A126)</f>
+        <f t="array" ref="M126">PAGE_NAME(B126)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N126" s="9" t="str" cm="1">
-        <f t="array" ref="N126">SECTION_NAME(A126)</f>
+        <f t="array" ref="N126">SECTION_NAME(B126)</f>
         <v>summary</v>
       </c>
       <c r="O126" s="14"/>
       <c r="P126" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q126" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U126" s="20" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="V126" s="20" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="W126" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B127" s="7">
+      <c r="A127" s="7">
         <v>127</v>
       </c>
+      <c r="B127" s="7" t="s">
+        <v>448</v>
+      </c>
       <c r="C127" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>79</v>
@@ -10333,39 +10334,39 @@
         <v>39</v>
       </c>
       <c r="M127" s="9" t="str" cm="1">
-        <f t="array" ref="M127">PAGE_NAME(A127)</f>
+        <f t="array" ref="M127">PAGE_NAME(B127)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N127" s="9" t="str" cm="1">
-        <f t="array" ref="N127">SECTION_NAME(A127)</f>
+        <f t="array" ref="N127">SECTION_NAME(B127)</f>
         <v>summary</v>
       </c>
       <c r="O127" s="14"/>
       <c r="P127" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q127" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U127" s="20" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="V127" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="W127" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:28" ht="136" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B128" s="7">
+      <c r="A128" s="7">
         <v>128</v>
       </c>
+      <c r="B128" s="7" t="s">
+        <v>448</v>
+      </c>
       <c r="C128" s="8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>37</v>
@@ -10380,39 +10381,39 @@
         <v>39</v>
       </c>
       <c r="L128" s="37" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M128" s="9" t="str" cm="1">
-        <f t="array" ref="M128">PAGE_NAME(A128)</f>
+        <f t="array" ref="M128">PAGE_NAME(B128)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N128" s="9" t="str" cm="1">
-        <f t="array" ref="N128">SECTION_NAME(A128)</f>
+        <f t="array" ref="N128">SECTION_NAME(B128)</f>
         <v>summary</v>
       </c>
       <c r="O128" s="14"/>
       <c r="P128" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q128" s="20" t="s">
         <v>46</v>
       </c>
       <c r="V128" s="20" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AA128" s="20" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="129" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A129" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B129" s="7">
+      <c r="A129" s="7">
         <v>129</v>
       </c>
+      <c r="B129" s="7" t="s">
+        <v>448</v>
+      </c>
       <c r="C129" s="8" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>70</v>
@@ -10427,39 +10428,39 @@
         <v>39</v>
       </c>
       <c r="M129" s="9" t="str" cm="1">
-        <f t="array" ref="M129">PAGE_NAME(A129)</f>
+        <f t="array" ref="M129">PAGE_NAME(B129)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N129" s="9" t="str" cm="1">
-        <f t="array" ref="N129">SECTION_NAME(A129)</f>
+        <f t="array" ref="N129">SECTION_NAME(B129)</f>
         <v>summary</v>
       </c>
       <c r="O129" s="14"/>
       <c r="P129" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q129" s="20" t="s">
         <v>46</v>
       </c>
       <c r="V129" s="20" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AA129" s="20" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AB129" s="20" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="130" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A130" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B130" s="7">
+      <c r="A130" s="7">
         <v>130</v>
       </c>
+      <c r="B130" s="7" t="s">
+        <v>448</v>
+      </c>
       <c r="C130" s="8" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>79</v>
@@ -10474,36 +10475,36 @@
         <v>39</v>
       </c>
       <c r="M130" s="9" t="str" cm="1">
-        <f t="array" ref="M130">PAGE_NAME(A130)</f>
+        <f t="array" ref="M130">PAGE_NAME(B130)</f>
         <v>CapabilityStatement-backport-subscription-server-r4</v>
       </c>
       <c r="N130" s="9" t="str" cm="1">
-        <f t="array" ref="N130">SECTION_NAME(A130)</f>
+        <f t="array" ref="N130">SECTION_NAME(B130)</f>
         <v>summary</v>
       </c>
       <c r="O130" s="14"/>
       <c r="P130" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q130" s="20" t="s">
         <v>46</v>
       </c>
       <c r="V130" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AB130" s="20" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+      <c r="A131" s="7">
+        <v>131</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="AB130" s="20" t="s">
+      <c r="C131" s="8" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="131" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="B131" s="7">
-        <v>131</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>488</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>37</v>
@@ -10515,7 +10516,7 @@
         <v>50</v>
       </c>
       <c r="J131" s="37" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K131" s="37" t="s">
         <v>50</v>
@@ -10524,36 +10525,36 @@
         <v>52</v>
       </c>
       <c r="M131" s="9" t="str" cm="1">
-        <f t="array" ref="M131">PAGE_NAME(A131)</f>
+        <f t="array" ref="M131">PAGE_NAME(B131)</f>
         <v/>
       </c>
       <c r="N131" s="9" t="str" cm="1">
-        <f t="array" ref="N131">SECTION_NAME(A131)</f>
+        <f t="array" ref="N131">SECTION_NAME(B131)</f>
         <v/>
       </c>
       <c r="O131" s="14"/>
       <c r="P131" s="10" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="Q131" s="20" t="s">
         <v>103</v>
       </c>
       <c r="V131" s="20" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AB131" s="20" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="132" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="B132" s="7">
+      <c r="A132" s="7">
         <v>132</v>
       </c>
+      <c r="B132" s="7" t="s">
+        <v>484</v>
+      </c>
       <c r="C132" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>37</v>
@@ -10565,7 +10566,7 @@
         <v>50</v>
       </c>
       <c r="J132" s="37" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K132" s="37" t="s">
         <v>50</v>
@@ -10574,37 +10575,37 @@
         <v>52</v>
       </c>
       <c r="M132" s="9" t="str" cm="1">
-        <f t="array" ref="M132">PAGE_NAME(A132)</f>
+        <f t="array" ref="M132">PAGE_NAME(B132)</f>
         <v/>
       </c>
       <c r="N132" s="9" t="str" cm="1">
-        <f t="array" ref="N132">SECTION_NAME(A132)</f>
+        <f t="array" ref="N132">SECTION_NAME(B132)</f>
         <v/>
       </c>
       <c r="O132" s="14"/>
       <c r="P132" s="10" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="Q132" s="20" t="s">
         <v>103</v>
       </c>
       <c r="V132" s="20" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AB132" s="20" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AC132"/>
     </row>
     <row r="133" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B133" s="7">
+      <c r="A133" s="7">
         <v>133</v>
       </c>
+      <c r="B133" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="C133" s="8" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>70</v>
@@ -10619,25 +10620,25 @@
         <v>39</v>
       </c>
       <c r="M133" s="9" t="str" cm="1">
-        <f t="array" ref="M133">PAGE_NAME(A133)</f>
+        <f t="array" ref="M133">PAGE_NAME(B133)</f>
         <v>conformance</v>
       </c>
       <c r="N133" s="9" t="str" cm="1">
-        <f t="array" ref="N133">SECTION_NAME(A133)</f>
+        <f t="array" ref="N133">SECTION_NAME(B133)</f>
         <v>conformance-in-fhir-r4</v>
       </c>
       <c r="O133" s="14"/>
       <c r="P133" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q133" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U133" s="20" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="V133" s="20" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="W133" s="20" t="s">
         <v>75</v>
@@ -10646,19 +10647,19 @@
         <v>76</v>
       </c>
       <c r="AB133" s="20" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AC133"/>
     </row>
     <row r="134" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A134" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B134" s="7">
+      <c r="A134" s="7">
         <v>134</v>
       </c>
+      <c r="B134" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="C134" s="8" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>70</v>
@@ -10673,28 +10674,28 @@
         <v>39</v>
       </c>
       <c r="M134" s="9" t="str" cm="1">
-        <f t="array" ref="M134">PAGE_NAME(A134)</f>
+        <f t="array" ref="M134">PAGE_NAME(B134)</f>
         <v>conformance</v>
       </c>
       <c r="N134" s="9" t="str" cm="1">
-        <f t="array" ref="N134">SECTION_NAME(A134)</f>
+        <f t="array" ref="N134">SECTION_NAME(B134)</f>
         <v>conformance-in-fhir-r4</v>
       </c>
       <c r="O134" s="14"/>
       <c r="P134" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q134" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="U134" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="V134" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="W134" s="20" t="s">
         <v>247</v>
-      </c>
-      <c r="U134" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="V134" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="W134" s="20" t="s">
-        <v>250</v>
       </c>
       <c r="X134" s="20" t="s">
         <v>76</v>
@@ -10702,14 +10703,14 @@
       <c r="AC134"/>
     </row>
     <row r="135" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A135" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B135" s="7">
+      <c r="A135" s="7">
         <v>135</v>
       </c>
+      <c r="B135" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="C135" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>70</v>
@@ -10724,25 +10725,25 @@
         <v>39</v>
       </c>
       <c r="M135" s="9" t="str" cm="1">
-        <f t="array" ref="M135">PAGE_NAME(A135)</f>
+        <f t="array" ref="M135">PAGE_NAME(B135)</f>
         <v>conformance</v>
       </c>
       <c r="N135" s="9" t="str" cm="1">
-        <f t="array" ref="N135">SECTION_NAME(A135)</f>
+        <f t="array" ref="N135">SECTION_NAME(B135)</f>
         <v>backport-filter-criteria-1</v>
       </c>
       <c r="O135" s="14"/>
       <c r="P135" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q135" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U135" s="20" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="V135" s="20" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="W135" s="20" t="s">
         <v>55</v>
@@ -10750,14 +10751,14 @@
       <c r="AC135"/>
     </row>
     <row r="136" spans="1:29" ht="119" x14ac:dyDescent="0.2">
-      <c r="A136" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B136" s="7">
+      <c r="A136" s="7">
         <v>136</v>
       </c>
+      <c r="B136" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="C136" s="8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>70</v>
@@ -10772,39 +10773,39 @@
         <v>39</v>
       </c>
       <c r="L136" s="37" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M136" s="9" t="str" cm="1">
-        <f t="array" ref="M136">PAGE_NAME(A136)</f>
+        <f t="array" ref="M136">PAGE_NAME(B136)</f>
         <v>conformance</v>
       </c>
       <c r="N136" s="9" t="str" cm="1">
-        <f t="array" ref="N136">SECTION_NAME(A136)</f>
+        <f t="array" ref="N136">SECTION_NAME(B136)</f>
         <v>backport-filter-criteria-1</v>
       </c>
       <c r="O136" s="14"/>
       <c r="P136" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q136" s="20" t="s">
         <v>72</v>
       </c>
       <c r="V136" s="20" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AB136" s="20" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A137" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B137" s="7">
+      <c r="A137" s="7">
         <v>137</v>
       </c>
+      <c r="B137" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="C137" s="8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>70</v>
@@ -10819,33 +10820,33 @@
         <v>39</v>
       </c>
       <c r="M137" s="9" t="str" cm="1">
-        <f t="array" ref="M137">PAGE_NAME(A137)</f>
+        <f t="array" ref="M137">PAGE_NAME(B137)</f>
         <v>conformance</v>
       </c>
       <c r="N137" s="9" t="str" cm="1">
-        <f t="array" ref="N137">SECTION_NAME(A137)</f>
+        <f t="array" ref="N137">SECTION_NAME(B137)</f>
         <v>profile-support-1</v>
       </c>
       <c r="O137" s="14"/>
       <c r="U137" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="V137" s="20" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AA137" s="20" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A138" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B138" s="7">
+      <c r="A138" s="7">
         <v>138</v>
       </c>
+      <c r="B138" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="C138" s="8" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>70</v>
@@ -10860,30 +10861,30 @@
         <v>39</v>
       </c>
       <c r="M138" s="9" t="str" cm="1">
-        <f t="array" ref="M138">PAGE_NAME(A138)</f>
+        <f t="array" ref="M138">PAGE_NAME(B138)</f>
         <v>conformance</v>
       </c>
       <c r="N138" s="9" t="str" cm="1">
-        <f t="array" ref="N138">SECTION_NAME(A138)</f>
+        <f t="array" ref="N138">SECTION_NAME(B138)</f>
         <v>profile-support-1</v>
       </c>
       <c r="O138" s="14"/>
       <c r="U138" s="20" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="V138" s="20" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B139" s="7">
+      <c r="A139" s="7">
         <v>139</v>
       </c>
+      <c r="B139" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="C139" s="8" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>70</v>
@@ -10898,2221 +10899,2217 @@
         <v>39</v>
       </c>
       <c r="M139" s="9" t="str" cm="1">
-        <f t="array" ref="M139">PAGE_NAME(A139)</f>
+        <f t="array" ref="M139">PAGE_NAME(B139)</f>
         <v>conformance</v>
       </c>
       <c r="N139" s="9" t="str" cm="1">
-        <f t="array" ref="N139">SECTION_NAME(A139)</f>
+        <f t="array" ref="N139">SECTION_NAME(B139)</f>
         <v>profile-support-1</v>
       </c>
       <c r="O139" s="14"/>
       <c r="U139" s="20" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="V139" s="20" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.2">
       <c r="M140" s="9" t="str" cm="1">
-        <f t="array" ref="M140">PAGE_NAME(A140)</f>
+        <f t="array" ref="M140">PAGE_NAME(B140)</f>
         <v/>
       </c>
       <c r="N140" s="9" t="str" cm="1">
-        <f t="array" ref="N140">SECTION_NAME(A140)</f>
+        <f t="array" ref="N140">SECTION_NAME(B140)</f>
         <v/>
       </c>
       <c r="O140" s="14"/>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.2">
       <c r="M141" s="9" t="str" cm="1">
-        <f t="array" ref="M141">PAGE_NAME(A141)</f>
+        <f t="array" ref="M141">PAGE_NAME(B141)</f>
         <v/>
       </c>
       <c r="N141" s="9" t="str" cm="1">
-        <f t="array" ref="N141">SECTION_NAME(A141)</f>
+        <f t="array" ref="N141">SECTION_NAME(B141)</f>
         <v/>
       </c>
       <c r="O141" s="14"/>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.2">
       <c r="M142" s="9" t="str" cm="1">
-        <f t="array" ref="M142">PAGE_NAME(A142)</f>
+        <f t="array" ref="M142">PAGE_NAME(B142)</f>
         <v/>
       </c>
       <c r="N142" s="9" t="str" cm="1">
-        <f t="array" ref="N142">SECTION_NAME(A142)</f>
+        <f t="array" ref="N142">SECTION_NAME(B142)</f>
         <v/>
       </c>
       <c r="O142" s="14"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.2">
       <c r="M143" s="9" t="str" cm="1">
-        <f t="array" ref="M143">PAGE_NAME(A143)</f>
+        <f t="array" ref="M143">PAGE_NAME(B143)</f>
         <v/>
       </c>
       <c r="N143" s="9" t="str" cm="1">
-        <f t="array" ref="N143">SECTION_NAME(A143)</f>
+        <f t="array" ref="N143">SECTION_NAME(B143)</f>
         <v/>
       </c>
       <c r="O143" s="14"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.2">
       <c r="M144" s="9" t="str" cm="1">
-        <f t="array" ref="M144">PAGE_NAME(A144)</f>
+        <f t="array" ref="M144">PAGE_NAME(B144)</f>
         <v/>
       </c>
       <c r="N144" s="9" t="str" cm="1">
-        <f t="array" ref="N144">SECTION_NAME(A144)</f>
+        <f t="array" ref="N144">SECTION_NAME(B144)</f>
         <v/>
       </c>
       <c r="O144" s="14"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M145" s="9" t="str" cm="1">
-        <f t="array" ref="M145">PAGE_NAME(A145)</f>
+        <f t="array" ref="M145">PAGE_NAME(B145)</f>
         <v/>
       </c>
       <c r="N145" s="9" t="str" cm="1">
-        <f t="array" ref="N145">SECTION_NAME(A145)</f>
+        <f t="array" ref="N145">SECTION_NAME(B145)</f>
         <v/>
       </c>
       <c r="O145" s="14"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M146" s="9" t="str" cm="1">
-        <f t="array" ref="M146">PAGE_NAME(A146)</f>
+        <f t="array" ref="M146">PAGE_NAME(B146)</f>
         <v/>
       </c>
       <c r="N146" s="9" t="str" cm="1">
-        <f t="array" ref="N146">SECTION_NAME(A146)</f>
+        <f t="array" ref="N146">SECTION_NAME(B146)</f>
         <v/>
       </c>
       <c r="O146" s="14"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M147" s="9" t="str" cm="1">
-        <f t="array" ref="M147">PAGE_NAME(A147)</f>
+        <f t="array" ref="M147">PAGE_NAME(B147)</f>
         <v/>
       </c>
       <c r="N147" s="9" t="str" cm="1">
-        <f t="array" ref="N147">SECTION_NAME(A147)</f>
+        <f t="array" ref="N147">SECTION_NAME(B147)</f>
         <v/>
       </c>
       <c r="O147" s="14"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M148" s="9" t="str" cm="1">
-        <f t="array" ref="M148">PAGE_NAME(A148)</f>
+        <f t="array" ref="M148">PAGE_NAME(B148)</f>
         <v/>
       </c>
       <c r="N148" s="9" t="str" cm="1">
-        <f t="array" ref="N148">SECTION_NAME(A148)</f>
+        <f t="array" ref="N148">SECTION_NAME(B148)</f>
         <v/>
       </c>
       <c r="O148" s="14"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A149" s="11"/>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B149" s="11"/>
       <c r="M149" s="9" t="str" cm="1">
-        <f t="array" ref="M149">PAGE_NAME(A149)</f>
+        <f t="array" ref="M149">PAGE_NAME(B149)</f>
         <v/>
       </c>
       <c r="N149" s="9" t="str" cm="1">
-        <f t="array" ref="N149">SECTION_NAME(A149)</f>
+        <f t="array" ref="N149">SECTION_NAME(B149)</f>
         <v/>
       </c>
       <c r="O149" s="14"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M150" s="9" t="str" cm="1">
-        <f t="array" ref="M150">PAGE_NAME(A150)</f>
+        <f t="array" ref="M150">PAGE_NAME(B150)</f>
         <v/>
       </c>
       <c r="N150" s="9" t="str" cm="1">
-        <f t="array" ref="N150">SECTION_NAME(A150)</f>
+        <f t="array" ref="N150">SECTION_NAME(B150)</f>
         <v/>
       </c>
       <c r="O150" s="14"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M151" s="9" t="str" cm="1">
-        <f t="array" ref="M151">PAGE_NAME(A151)</f>
+        <f t="array" ref="M151">PAGE_NAME(B151)</f>
         <v/>
       </c>
       <c r="N151" s="9" t="str" cm="1">
-        <f t="array" ref="N151">SECTION_NAME(A151)</f>
+        <f t="array" ref="N151">SECTION_NAME(B151)</f>
         <v/>
       </c>
       <c r="O151" s="14"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M152" s="9" t="str" cm="1">
-        <f t="array" ref="M152">PAGE_NAME(A152)</f>
+        <f t="array" ref="M152">PAGE_NAME(B152)</f>
         <v/>
       </c>
       <c r="N152" s="9" t="str" cm="1">
-        <f t="array" ref="N152">SECTION_NAME(A152)</f>
+        <f t="array" ref="N152">SECTION_NAME(B152)</f>
         <v/>
       </c>
       <c r="O152" s="14"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A153" s="11"/>
+    <row r="153" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B153" s="11"/>
       <c r="M153" s="9" t="str" cm="1">
-        <f t="array" ref="M153">PAGE_NAME(A153)</f>
+        <f t="array" ref="M153">PAGE_NAME(B153)</f>
         <v/>
       </c>
       <c r="N153" s="9" t="str" cm="1">
-        <f t="array" ref="N153">SECTION_NAME(A153)</f>
+        <f t="array" ref="N153">SECTION_NAME(B153)</f>
         <v/>
       </c>
       <c r="O153" s="14"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M154" s="9" t="str" cm="1">
-        <f t="array" ref="M154">PAGE_NAME(A154)</f>
+        <f t="array" ref="M154">PAGE_NAME(B154)</f>
         <v/>
       </c>
       <c r="N154" s="9" t="str" cm="1">
-        <f t="array" ref="N154">SECTION_NAME(A154)</f>
+        <f t="array" ref="N154">SECTION_NAME(B154)</f>
         <v/>
       </c>
       <c r="O154" s="14"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M155" s="9" t="str" cm="1">
-        <f t="array" ref="M155">PAGE_NAME(A155)</f>
+        <f t="array" ref="M155">PAGE_NAME(B155)</f>
         <v/>
       </c>
       <c r="N155" s="9" t="str" cm="1">
-        <f t="array" ref="N155">SECTION_NAME(A155)</f>
+        <f t="array" ref="N155">SECTION_NAME(B155)</f>
         <v/>
       </c>
       <c r="O155" s="14"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M156" s="9" t="str" cm="1">
-        <f t="array" ref="M156">PAGE_NAME(A156)</f>
+        <f t="array" ref="M156">PAGE_NAME(B156)</f>
         <v/>
       </c>
       <c r="N156" s="9" t="str" cm="1">
-        <f t="array" ref="N156">SECTION_NAME(A156)</f>
+        <f t="array" ref="N156">SECTION_NAME(B156)</f>
         <v/>
       </c>
       <c r="O156" s="14"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M157" s="9" t="str" cm="1">
-        <f t="array" ref="M157">PAGE_NAME(A157)</f>
+        <f t="array" ref="M157">PAGE_NAME(B157)</f>
         <v/>
       </c>
       <c r="N157" s="9" t="str" cm="1">
-        <f t="array" ref="N157">SECTION_NAME(A157)</f>
+        <f t="array" ref="N157">SECTION_NAME(B157)</f>
         <v/>
       </c>
       <c r="O157" s="14"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M158" s="9" t="str" cm="1">
-        <f t="array" ref="M158">PAGE_NAME(A158)</f>
+        <f t="array" ref="M158">PAGE_NAME(B158)</f>
         <v/>
       </c>
       <c r="N158" s="9" t="str" cm="1">
-        <f t="array" ref="N158">SECTION_NAME(A158)</f>
+        <f t="array" ref="N158">SECTION_NAME(B158)</f>
         <v/>
       </c>
       <c r="O158" s="14"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M159" s="9" t="str" cm="1">
-        <f t="array" ref="M159">PAGE_NAME(A159)</f>
+        <f t="array" ref="M159">PAGE_NAME(B159)</f>
         <v/>
       </c>
       <c r="N159" s="9" t="str" cm="1">
-        <f t="array" ref="N159">SECTION_NAME(A159)</f>
+        <f t="array" ref="N159">SECTION_NAME(B159)</f>
         <v/>
       </c>
       <c r="O159" s="14"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M160" s="9" t="str" cm="1">
-        <f t="array" ref="M160">PAGE_NAME(A160)</f>
+        <f t="array" ref="M160">PAGE_NAME(B160)</f>
         <v/>
       </c>
       <c r="N160" s="9" t="str" cm="1">
-        <f t="array" ref="N160">SECTION_NAME(A160)</f>
+        <f t="array" ref="N160">SECTION_NAME(B160)</f>
         <v/>
       </c>
       <c r="O160" s="14"/>
     </row>
     <row r="161" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M161" s="9" t="str" cm="1">
-        <f t="array" ref="M161">PAGE_NAME(A161)</f>
+        <f t="array" ref="M161">PAGE_NAME(B161)</f>
         <v/>
       </c>
       <c r="N161" s="9" t="str" cm="1">
-        <f t="array" ref="N161">SECTION_NAME(A161)</f>
+        <f t="array" ref="N161">SECTION_NAME(B161)</f>
         <v/>
       </c>
       <c r="O161" s="14"/>
     </row>
     <row r="162" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M162" s="9" t="str" cm="1">
-        <f t="array" ref="M162">PAGE_NAME(A162)</f>
+        <f t="array" ref="M162">PAGE_NAME(B162)</f>
         <v/>
       </c>
       <c r="N162" s="9" t="str" cm="1">
-        <f t="array" ref="N162">SECTION_NAME(A162)</f>
+        <f t="array" ref="N162">SECTION_NAME(B162)</f>
         <v/>
       </c>
       <c r="O162" s="14"/>
     </row>
     <row r="163" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M163" s="9" t="str" cm="1">
-        <f t="array" ref="M163">PAGE_NAME(A163)</f>
+        <f t="array" ref="M163">PAGE_NAME(B163)</f>
         <v/>
       </c>
       <c r="N163" s="9" t="str" cm="1">
-        <f t="array" ref="N163">SECTION_NAME(A163)</f>
+        <f t="array" ref="N163">SECTION_NAME(B163)</f>
         <v/>
       </c>
       <c r="O163" s="14"/>
     </row>
     <row r="164" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M164" s="9" t="str" cm="1">
-        <f t="array" ref="M164">PAGE_NAME(A164)</f>
+        <f t="array" ref="M164">PAGE_NAME(B164)</f>
         <v/>
       </c>
       <c r="N164" s="9" t="str" cm="1">
-        <f t="array" ref="N164">SECTION_NAME(A164)</f>
+        <f t="array" ref="N164">SECTION_NAME(B164)</f>
         <v/>
       </c>
       <c r="O164" s="14"/>
     </row>
     <row r="165" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M165" s="9" t="str" cm="1">
-        <f t="array" ref="M165">PAGE_NAME(A165)</f>
+        <f t="array" ref="M165">PAGE_NAME(B165)</f>
         <v/>
       </c>
       <c r="N165" s="9" t="str" cm="1">
-        <f t="array" ref="N165">SECTION_NAME(A165)</f>
+        <f t="array" ref="N165">SECTION_NAME(B165)</f>
         <v/>
       </c>
       <c r="O165" s="14"/>
     </row>
     <row r="166" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M166" s="9" t="str" cm="1">
-        <f t="array" ref="M166">PAGE_NAME(A166)</f>
+        <f t="array" ref="M166">PAGE_NAME(B166)</f>
         <v/>
       </c>
       <c r="N166" s="9" t="str" cm="1">
-        <f t="array" ref="N166">SECTION_NAME(A166)</f>
+        <f t="array" ref="N166">SECTION_NAME(B166)</f>
         <v/>
       </c>
       <c r="O166" s="14"/>
     </row>
     <row r="167" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M167" s="9" t="str" cm="1">
-        <f t="array" ref="M167">PAGE_NAME(A167)</f>
+        <f t="array" ref="M167">PAGE_NAME(B167)</f>
         <v/>
       </c>
       <c r="N167" s="9" t="str" cm="1">
-        <f t="array" ref="N167">SECTION_NAME(A167)</f>
+        <f t="array" ref="N167">SECTION_NAME(B167)</f>
         <v/>
       </c>
     </row>
     <row r="168" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M168" s="9" t="str" cm="1">
-        <f t="array" ref="M168">PAGE_NAME(A168)</f>
+        <f t="array" ref="M168">PAGE_NAME(B168)</f>
         <v/>
       </c>
       <c r="N168" s="9" t="str" cm="1">
-        <f t="array" ref="N168">SECTION_NAME(A168)</f>
+        <f t="array" ref="N168">SECTION_NAME(B168)</f>
         <v/>
       </c>
       <c r="O168" s="14"/>
     </row>
     <row r="169" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M169" s="9" t="str" cm="1">
-        <f t="array" ref="M169">PAGE_NAME(A169)</f>
+        <f t="array" ref="M169">PAGE_NAME(B169)</f>
         <v/>
       </c>
       <c r="N169" s="9" t="str" cm="1">
-        <f t="array" ref="N169">SECTION_NAME(A169)</f>
+        <f t="array" ref="N169">SECTION_NAME(B169)</f>
         <v/>
       </c>
     </row>
     <row r="170" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M170" s="9" t="str" cm="1">
-        <f t="array" ref="M170">PAGE_NAME(A170)</f>
+        <f t="array" ref="M170">PAGE_NAME(B170)</f>
         <v/>
       </c>
       <c r="N170" s="9" t="str" cm="1">
-        <f t="array" ref="N170">SECTION_NAME(A170)</f>
+        <f t="array" ref="N170">SECTION_NAME(B170)</f>
         <v/>
       </c>
       <c r="O170" s="14"/>
     </row>
     <row r="171" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M171" s="9" t="str" cm="1">
-        <f t="array" ref="M171">PAGE_NAME(A171)</f>
+        <f t="array" ref="M171">PAGE_NAME(B171)</f>
         <v/>
       </c>
       <c r="N171" s="9" t="str" cm="1">
-        <f t="array" ref="N171">SECTION_NAME(A171)</f>
+        <f t="array" ref="N171">SECTION_NAME(B171)</f>
         <v/>
       </c>
       <c r="O171" s="14"/>
     </row>
     <row r="172" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M172" s="9" t="str" cm="1">
-        <f t="array" ref="M172">PAGE_NAME(A172)</f>
+        <f t="array" ref="M172">PAGE_NAME(B172)</f>
         <v/>
       </c>
       <c r="N172" s="9" t="str" cm="1">
-        <f t="array" ref="N172">SECTION_NAME(A172)</f>
+        <f t="array" ref="N172">SECTION_NAME(B172)</f>
         <v/>
       </c>
     </row>
     <row r="173" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M173" s="9" t="str" cm="1">
-        <f t="array" ref="M173">PAGE_NAME(A173)</f>
+        <f t="array" ref="M173">PAGE_NAME(B173)</f>
         <v/>
       </c>
       <c r="N173" s="9" t="str" cm="1">
-        <f t="array" ref="N173">SECTION_NAME(A173)</f>
+        <f t="array" ref="N173">SECTION_NAME(B173)</f>
         <v/>
       </c>
     </row>
     <row r="174" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M174" s="9" t="str" cm="1">
-        <f t="array" ref="M174">PAGE_NAME(A174)</f>
+        <f t="array" ref="M174">PAGE_NAME(B174)</f>
         <v/>
       </c>
       <c r="N174" s="9" t="str" cm="1">
-        <f t="array" ref="N174">SECTION_NAME(A174)</f>
+        <f t="array" ref="N174">SECTION_NAME(B174)</f>
         <v/>
       </c>
       <c r="O174" s="14"/>
     </row>
     <row r="175" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M175" s="9" t="str" cm="1">
-        <f t="array" ref="M175">PAGE_NAME(A175)</f>
+        <f t="array" ref="M175">PAGE_NAME(B175)</f>
         <v/>
       </c>
       <c r="N175" s="9" t="str" cm="1">
-        <f t="array" ref="N175">SECTION_NAME(A175)</f>
+        <f t="array" ref="N175">SECTION_NAME(B175)</f>
         <v/>
       </c>
     </row>
     <row r="176" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M176" s="9" t="str" cm="1">
-        <f t="array" ref="M176">PAGE_NAME(A176)</f>
+        <f t="array" ref="M176">PAGE_NAME(B176)</f>
         <v/>
       </c>
       <c r="N176" s="9" t="str" cm="1">
-        <f t="array" ref="N176">SECTION_NAME(A176)</f>
+        <f t="array" ref="N176">SECTION_NAME(B176)</f>
         <v/>
       </c>
     </row>
     <row r="177" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M177" s="9" t="str" cm="1">
-        <f t="array" ref="M177">PAGE_NAME(A177)</f>
+        <f t="array" ref="M177">PAGE_NAME(B177)</f>
         <v/>
       </c>
       <c r="N177" s="9" t="str" cm="1">
-        <f t="array" ref="N177">SECTION_NAME(A177)</f>
+        <f t="array" ref="N177">SECTION_NAME(B177)</f>
         <v/>
       </c>
       <c r="O177" s="14"/>
     </row>
     <row r="178" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M178" s="9" t="str" cm="1">
-        <f t="array" ref="M178">PAGE_NAME(A178)</f>
+        <f t="array" ref="M178">PAGE_NAME(B178)</f>
         <v/>
       </c>
       <c r="N178" s="9" t="str" cm="1">
-        <f t="array" ref="N178">SECTION_NAME(A178)</f>
+        <f t="array" ref="N178">SECTION_NAME(B178)</f>
         <v/>
       </c>
     </row>
     <row r="179" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M179" s="9" t="str" cm="1">
-        <f t="array" ref="M179">PAGE_NAME(A179)</f>
+        <f t="array" ref="M179">PAGE_NAME(B179)</f>
         <v/>
       </c>
       <c r="N179" s="9" t="str" cm="1">
-        <f t="array" ref="N179">SECTION_NAME(A179)</f>
+        <f t="array" ref="N179">SECTION_NAME(B179)</f>
         <v/>
       </c>
     </row>
     <row r="180" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M180" s="9" t="str" cm="1">
-        <f t="array" ref="M180">PAGE_NAME(A180)</f>
+        <f t="array" ref="M180">PAGE_NAME(B180)</f>
         <v/>
       </c>
       <c r="N180" s="9" t="str" cm="1">
-        <f t="array" ref="N180">SECTION_NAME(A180)</f>
+        <f t="array" ref="N180">SECTION_NAME(B180)</f>
         <v/>
       </c>
     </row>
     <row r="181" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M181" s="9" t="str" cm="1">
-        <f t="array" ref="M181">PAGE_NAME(A181)</f>
+        <f t="array" ref="M181">PAGE_NAME(B181)</f>
         <v/>
       </c>
       <c r="N181" s="9" t="str" cm="1">
-        <f t="array" ref="N181">SECTION_NAME(A181)</f>
+        <f t="array" ref="N181">SECTION_NAME(B181)</f>
         <v/>
       </c>
       <c r="O181" s="14"/>
     </row>
     <row r="182" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M182" s="9" t="str" cm="1">
-        <f t="array" ref="M182">PAGE_NAME(A182)</f>
+        <f t="array" ref="M182">PAGE_NAME(B182)</f>
         <v/>
       </c>
       <c r="N182" s="9" t="str" cm="1">
-        <f t="array" ref="N182">SECTION_NAME(A182)</f>
+        <f t="array" ref="N182">SECTION_NAME(B182)</f>
         <v/>
       </c>
     </row>
     <row r="183" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M183" s="9" t="str" cm="1">
-        <f t="array" ref="M183">PAGE_NAME(A183)</f>
+        <f t="array" ref="M183">PAGE_NAME(B183)</f>
         <v/>
       </c>
       <c r="N183" s="9" t="str" cm="1">
-        <f t="array" ref="N183">SECTION_NAME(A183)</f>
+        <f t="array" ref="N183">SECTION_NAME(B183)</f>
         <v/>
       </c>
     </row>
     <row r="184" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M184" s="9" t="str" cm="1">
-        <f t="array" ref="M184">PAGE_NAME(A184)</f>
+        <f t="array" ref="M184">PAGE_NAME(B184)</f>
         <v/>
       </c>
       <c r="N184" s="9" t="str" cm="1">
-        <f t="array" ref="N184">SECTION_NAME(A184)</f>
+        <f t="array" ref="N184">SECTION_NAME(B184)</f>
         <v/>
       </c>
       <c r="O184" s="14"/>
     </row>
     <row r="185" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M185" s="9" t="str" cm="1">
-        <f t="array" ref="M185">PAGE_NAME(A185)</f>
+        <f t="array" ref="M185">PAGE_NAME(B185)</f>
         <v/>
       </c>
       <c r="N185" s="9" t="str" cm="1">
-        <f t="array" ref="N185">SECTION_NAME(A185)</f>
+        <f t="array" ref="N185">SECTION_NAME(B185)</f>
         <v/>
       </c>
     </row>
     <row r="186" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M186" s="9" t="str" cm="1">
-        <f t="array" ref="M186">PAGE_NAME(A186)</f>
+        <f t="array" ref="M186">PAGE_NAME(B186)</f>
         <v/>
       </c>
       <c r="N186" s="9" t="str" cm="1">
-        <f t="array" ref="N186">SECTION_NAME(A186)</f>
+        <f t="array" ref="N186">SECTION_NAME(B186)</f>
         <v/>
       </c>
       <c r="O186" s="14"/>
     </row>
     <row r="187" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M187" s="9" t="str" cm="1">
-        <f t="array" ref="M187">PAGE_NAME(A187)</f>
+        <f t="array" ref="M187">PAGE_NAME(B187)</f>
         <v/>
       </c>
       <c r="N187" s="9" t="str" cm="1">
-        <f t="array" ref="N187">SECTION_NAME(A187)</f>
+        <f t="array" ref="N187">SECTION_NAME(B187)</f>
         <v/>
       </c>
       <c r="O187" s="14"/>
     </row>
     <row r="188" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M188" s="9" t="str" cm="1">
-        <f t="array" ref="M188">PAGE_NAME(A188)</f>
+        <f t="array" ref="M188">PAGE_NAME(B188)</f>
         <v/>
       </c>
       <c r="N188" s="9" t="str" cm="1">
-        <f t="array" ref="N188">SECTION_NAME(A188)</f>
+        <f t="array" ref="N188">SECTION_NAME(B188)</f>
         <v/>
       </c>
       <c r="O188" s="14"/>
     </row>
     <row r="189" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M189" s="9" t="str" cm="1">
-        <f t="array" ref="M189">PAGE_NAME(A189)</f>
+        <f t="array" ref="M189">PAGE_NAME(B189)</f>
         <v/>
       </c>
       <c r="N189" s="9" t="str" cm="1">
-        <f t="array" ref="N189">SECTION_NAME(A189)</f>
+        <f t="array" ref="N189">SECTION_NAME(B189)</f>
         <v/>
       </c>
       <c r="O189" s="14"/>
     </row>
     <row r="190" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M190" s="9" t="str" cm="1">
-        <f t="array" ref="M190">PAGE_NAME(A190)</f>
+        <f t="array" ref="M190">PAGE_NAME(B190)</f>
         <v/>
       </c>
       <c r="N190" s="9" t="str" cm="1">
-        <f t="array" ref="N190">SECTION_NAME(A190)</f>
+        <f t="array" ref="N190">SECTION_NAME(B190)</f>
         <v/>
       </c>
       <c r="O190" s="14"/>
     </row>
     <row r="191" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M191" s="9" t="str" cm="1">
-        <f t="array" ref="M191">PAGE_NAME(A191)</f>
+        <f t="array" ref="M191">PAGE_NAME(B191)</f>
         <v/>
       </c>
       <c r="N191" s="9" t="str" cm="1">
-        <f t="array" ref="N191">SECTION_NAME(A191)</f>
+        <f t="array" ref="N191">SECTION_NAME(B191)</f>
         <v/>
       </c>
       <c r="O191" s="14"/>
     </row>
     <row r="192" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M192" s="9" t="str" cm="1">
-        <f t="array" ref="M192">PAGE_NAME(A192)</f>
+        <f t="array" ref="M192">PAGE_NAME(B192)</f>
         <v/>
       </c>
       <c r="N192" s="9" t="str" cm="1">
-        <f t="array" ref="N192">SECTION_NAME(A192)</f>
+        <f t="array" ref="N192">SECTION_NAME(B192)</f>
         <v/>
       </c>
       <c r="O192" s="14"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M193" s="9" t="str" cm="1">
-        <f t="array" ref="M193">PAGE_NAME(A193)</f>
+        <f t="array" ref="M193">PAGE_NAME(B193)</f>
         <v/>
       </c>
       <c r="N193" s="9" t="str" cm="1">
-        <f t="array" ref="N193">SECTION_NAME(A193)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N193">SECTION_NAME(B193)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M194" s="9" t="str" cm="1">
-        <f t="array" ref="M194">PAGE_NAME(A194)</f>
+        <f t="array" ref="M194">PAGE_NAME(B194)</f>
         <v/>
       </c>
       <c r="N194" s="9" t="str" cm="1">
-        <f t="array" ref="N194">SECTION_NAME(A194)</f>
+        <f t="array" ref="N194">SECTION_NAME(B194)</f>
         <v/>
       </c>
       <c r="O194" s="14"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M195" s="9" t="str" cm="1">
-        <f t="array" ref="M195">PAGE_NAME(A195)</f>
+        <f t="array" ref="M195">PAGE_NAME(B195)</f>
         <v/>
       </c>
       <c r="N195" s="9" t="str" cm="1">
-        <f t="array" ref="N195">SECTION_NAME(A195)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N195">SECTION_NAME(B195)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M196" s="9" t="str" cm="1">
-        <f t="array" ref="M196">PAGE_NAME(A196)</f>
+        <f t="array" ref="M196">PAGE_NAME(B196)</f>
         <v/>
       </c>
       <c r="N196" s="9" t="str" cm="1">
-        <f t="array" ref="N196">SECTION_NAME(A196)</f>
+        <f t="array" ref="N196">SECTION_NAME(B196)</f>
         <v/>
       </c>
       <c r="O196" s="14"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M197" s="9" t="str" cm="1">
-        <f t="array" ref="M197">PAGE_NAME(A197)</f>
+        <f t="array" ref="M197">PAGE_NAME(B197)</f>
         <v/>
       </c>
       <c r="N197" s="9" t="str" cm="1">
-        <f t="array" ref="N197">SECTION_NAME(A197)</f>
+        <f t="array" ref="N197">SECTION_NAME(B197)</f>
         <v/>
       </c>
       <c r="O197" s="14"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A198" s="11"/>
+    <row r="198" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B198" s="11"/>
       <c r="M198" s="9" t="str" cm="1">
-        <f t="array" ref="M198">PAGE_NAME(A198)</f>
+        <f t="array" ref="M198">PAGE_NAME(B198)</f>
         <v/>
       </c>
       <c r="N198" s="9" t="str" cm="1">
-        <f t="array" ref="N198">SECTION_NAME(A198)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N198">SECTION_NAME(B198)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M199" s="9" t="str" cm="1">
-        <f t="array" ref="M199">PAGE_NAME(A199)</f>
+        <f t="array" ref="M199">PAGE_NAME(B199)</f>
         <v/>
       </c>
       <c r="N199" s="9" t="str" cm="1">
-        <f t="array" ref="N199">SECTION_NAME(A199)</f>
+        <f t="array" ref="N199">SECTION_NAME(B199)</f>
         <v/>
       </c>
       <c r="O199" s="14"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M200" s="9" t="str" cm="1">
-        <f t="array" ref="M200">PAGE_NAME(A200)</f>
+        <f t="array" ref="M200">PAGE_NAME(B200)</f>
         <v/>
       </c>
       <c r="N200" s="9" t="str" cm="1">
-        <f t="array" ref="N200">SECTION_NAME(A200)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N200">SECTION_NAME(B200)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M201" s="9" t="str" cm="1">
-        <f t="array" ref="M201">PAGE_NAME(A201)</f>
+        <f t="array" ref="M201">PAGE_NAME(B201)</f>
         <v/>
       </c>
       <c r="N201" s="9" t="str" cm="1">
-        <f t="array" ref="N201">SECTION_NAME(A201)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N201">SECTION_NAME(B201)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M202" s="9" t="str" cm="1">
-        <f t="array" ref="M202">PAGE_NAME(A202)</f>
+        <f t="array" ref="M202">PAGE_NAME(B202)</f>
         <v/>
       </c>
       <c r="N202" s="9" t="str" cm="1">
-        <f t="array" ref="N202">SECTION_NAME(A202)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N202">SECTION_NAME(B202)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M203" s="9" t="str" cm="1">
-        <f t="array" ref="M203">PAGE_NAME(A203)</f>
+        <f t="array" ref="M203">PAGE_NAME(B203)</f>
         <v/>
       </c>
       <c r="N203" s="9" t="str" cm="1">
-        <f t="array" ref="N203">SECTION_NAME(A203)</f>
+        <f t="array" ref="N203">SECTION_NAME(B203)</f>
         <v/>
       </c>
       <c r="O203" s="14"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M204" s="9" t="str" cm="1">
-        <f t="array" ref="M204">PAGE_NAME(A204)</f>
+        <f t="array" ref="M204">PAGE_NAME(B204)</f>
         <v/>
       </c>
       <c r="N204" s="9" t="str" cm="1">
-        <f t="array" ref="N204">SECTION_NAME(A204)</f>
+        <f t="array" ref="N204">SECTION_NAME(B204)</f>
         <v/>
       </c>
       <c r="O204" s="14"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M205" s="9" t="str" cm="1">
-        <f t="array" ref="M205">PAGE_NAME(A205)</f>
+        <f t="array" ref="M205">PAGE_NAME(B205)</f>
         <v/>
       </c>
       <c r="N205" s="9" t="str" cm="1">
-        <f t="array" ref="N205">SECTION_NAME(A205)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N205">SECTION_NAME(B205)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M206" s="9" t="str" cm="1">
-        <f t="array" ref="M206">PAGE_NAME(A206)</f>
+        <f t="array" ref="M206">PAGE_NAME(B206)</f>
         <v/>
       </c>
       <c r="N206" s="9" t="str" cm="1">
-        <f t="array" ref="N206">SECTION_NAME(A206)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N206">SECTION_NAME(B206)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M207" s="9" t="str" cm="1">
-        <f t="array" ref="M207">PAGE_NAME(A207)</f>
+        <f t="array" ref="M207">PAGE_NAME(B207)</f>
         <v/>
       </c>
       <c r="N207" s="9" t="str" cm="1">
-        <f t="array" ref="N207">SECTION_NAME(A207)</f>
+        <f t="array" ref="N207">SECTION_NAME(B207)</f>
         <v/>
       </c>
       <c r="O207" s="14"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M208" s="9" t="str" cm="1">
-        <f t="array" ref="M208">PAGE_NAME(A208)</f>
+        <f t="array" ref="M208">PAGE_NAME(B208)</f>
         <v/>
       </c>
       <c r="N208" s="9" t="str" cm="1">
-        <f t="array" ref="N208">SECTION_NAME(A208)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N208">SECTION_NAME(B208)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M209" s="9" t="str" cm="1">
-        <f t="array" ref="M209">PAGE_NAME(A209)</f>
+        <f t="array" ref="M209">PAGE_NAME(B209)</f>
         <v/>
       </c>
       <c r="N209" s="9" t="str" cm="1">
-        <f t="array" ref="N209">SECTION_NAME(A209)</f>
+        <f t="array" ref="N209">SECTION_NAME(B209)</f>
         <v/>
       </c>
       <c r="O209" s="14"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M210" s="9" t="str" cm="1">
-        <f t="array" ref="M210">PAGE_NAME(A210)</f>
+        <f t="array" ref="M210">PAGE_NAME(B210)</f>
         <v/>
       </c>
       <c r="N210" s="9" t="str" cm="1">
-        <f t="array" ref="N210">SECTION_NAME(A210)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N210">SECTION_NAME(B210)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M211" s="9" t="str" cm="1">
-        <f t="array" ref="M211">PAGE_NAME(A211)</f>
+        <f t="array" ref="M211">PAGE_NAME(B211)</f>
         <v/>
       </c>
       <c r="N211" s="9" t="str" cm="1">
-        <f t="array" ref="N211">SECTION_NAME(A211)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N211">SECTION_NAME(B211)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M212" s="9" t="str" cm="1">
-        <f t="array" ref="M212">PAGE_NAME(A212)</f>
+        <f t="array" ref="M212">PAGE_NAME(B212)</f>
         <v/>
       </c>
       <c r="N212" s="9" t="str" cm="1">
-        <f t="array" ref="N212">SECTION_NAME(A212)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N212">SECTION_NAME(B212)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M213" s="9" t="str" cm="1">
-        <f t="array" ref="M213">PAGE_NAME(A213)</f>
+        <f t="array" ref="M213">PAGE_NAME(B213)</f>
         <v/>
       </c>
       <c r="N213" s="9" t="str" cm="1">
-        <f t="array" ref="N213">SECTION_NAME(A213)</f>
+        <f t="array" ref="N213">SECTION_NAME(B213)</f>
         <v/>
       </c>
       <c r="O213" s="14"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A214" s="11"/>
+    <row r="214" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B214" s="11"/>
       <c r="M214" s="9" t="str" cm="1">
-        <f t="array" ref="M214">PAGE_NAME(A214)</f>
+        <f t="array" ref="M214">PAGE_NAME(B214)</f>
         <v/>
       </c>
       <c r="N214" s="9" t="str" cm="1">
-        <f t="array" ref="N214">SECTION_NAME(A214)</f>
+        <f t="array" ref="N214">SECTION_NAME(B214)</f>
         <v/>
       </c>
       <c r="O214" s="14"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A215" s="11"/>
+    <row r="215" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B215" s="11"/>
       <c r="M215" s="9" t="str" cm="1">
-        <f t="array" ref="M215">PAGE_NAME(A215)</f>
+        <f t="array" ref="M215">PAGE_NAME(B215)</f>
         <v/>
       </c>
       <c r="N215" s="9" t="str" cm="1">
-        <f t="array" ref="N215">SECTION_NAME(A215)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N215">SECTION_NAME(B215)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M216" s="9" t="str" cm="1">
-        <f t="array" ref="M216">PAGE_NAME(A216)</f>
+        <f t="array" ref="M216">PAGE_NAME(B216)</f>
         <v/>
       </c>
       <c r="N216" s="9" t="str" cm="1">
-        <f t="array" ref="N216">SECTION_NAME(A216)</f>
+        <f t="array" ref="N216">SECTION_NAME(B216)</f>
         <v/>
       </c>
       <c r="O216" s="14"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M217" s="9" t="str" cm="1">
-        <f t="array" ref="M217">PAGE_NAME(A217)</f>
+        <f t="array" ref="M217">PAGE_NAME(B217)</f>
         <v/>
       </c>
       <c r="N217" s="9" t="str" cm="1">
-        <f t="array" ref="N217">SECTION_NAME(A217)</f>
+        <f t="array" ref="N217">SECTION_NAME(B217)</f>
         <v/>
       </c>
       <c r="O217" s="14"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M218" s="9" t="str" cm="1">
-        <f t="array" ref="M218">PAGE_NAME(A218)</f>
+        <f t="array" ref="M218">PAGE_NAME(B218)</f>
         <v/>
       </c>
       <c r="N218" s="9" t="str" cm="1">
-        <f t="array" ref="N218">SECTION_NAME(A218)</f>
+        <f t="array" ref="N218">SECTION_NAME(B218)</f>
         <v/>
       </c>
       <c r="O218" s="14"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M219" s="9" t="str" cm="1">
-        <f t="array" ref="M219">PAGE_NAME(A219)</f>
+        <f t="array" ref="M219">PAGE_NAME(B219)</f>
         <v/>
       </c>
       <c r="N219" s="9" t="str" cm="1">
-        <f t="array" ref="N219">SECTION_NAME(A219)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N219">SECTION_NAME(B219)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M220" s="9" t="str" cm="1">
-        <f t="array" ref="M220">PAGE_NAME(A220)</f>
+        <f t="array" ref="M220">PAGE_NAME(B220)</f>
         <v/>
       </c>
       <c r="N220" s="9" t="str" cm="1">
-        <f t="array" ref="N220">SECTION_NAME(A220)</f>
+        <f t="array" ref="N220">SECTION_NAME(B220)</f>
         <v/>
       </c>
       <c r="O220" s="14"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M221" s="9" t="str" cm="1">
-        <f t="array" ref="M221">PAGE_NAME(A221)</f>
+        <f t="array" ref="M221">PAGE_NAME(B221)</f>
         <v/>
       </c>
       <c r="N221" s="9" t="str" cm="1">
-        <f t="array" ref="N221">SECTION_NAME(A221)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N221">SECTION_NAME(B221)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M222" s="9" t="str" cm="1">
-        <f t="array" ref="M222">PAGE_NAME(A222)</f>
+        <f t="array" ref="M222">PAGE_NAME(B222)</f>
         <v/>
       </c>
       <c r="N222" s="9" t="str" cm="1">
-        <f t="array" ref="N222">SECTION_NAME(A222)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N222">SECTION_NAME(B222)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M223" s="9" t="str" cm="1">
-        <f t="array" ref="M223">PAGE_NAME(A223)</f>
+        <f t="array" ref="M223">PAGE_NAME(B223)</f>
         <v/>
       </c>
       <c r="N223" s="9" t="str" cm="1">
-        <f t="array" ref="N223">SECTION_NAME(A223)</f>
+        <f t="array" ref="N223">SECTION_NAME(B223)</f>
         <v/>
       </c>
       <c r="O223" s="14"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M224" s="9" t="str" cm="1">
-        <f t="array" ref="M224">PAGE_NAME(A224)</f>
+        <f t="array" ref="M224">PAGE_NAME(B224)</f>
         <v/>
       </c>
       <c r="N224" s="9" t="str" cm="1">
-        <f t="array" ref="N224">SECTION_NAME(A224)</f>
+        <f t="array" ref="N224">SECTION_NAME(B224)</f>
         <v/>
       </c>
       <c r="O224" s="14"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M225" s="9" t="str" cm="1">
-        <f t="array" ref="M225">PAGE_NAME(A225)</f>
+        <f t="array" ref="M225">PAGE_NAME(B225)</f>
         <v/>
       </c>
       <c r="N225" s="9" t="str" cm="1">
-        <f t="array" ref="N225">SECTION_NAME(A225)</f>
+        <f t="array" ref="N225">SECTION_NAME(B225)</f>
         <v/>
       </c>
       <c r="O225" s="14"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A226" s="11"/>
+    <row r="226" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B226" s="11"/>
       <c r="M226" s="9" t="str" cm="1">
-        <f t="array" ref="M226">PAGE_NAME(A226)</f>
+        <f t="array" ref="M226">PAGE_NAME(B226)</f>
         <v/>
       </c>
       <c r="N226" s="9" t="str" cm="1">
-        <f t="array" ref="N226">SECTION_NAME(A226)</f>
+        <f t="array" ref="N226">SECTION_NAME(B226)</f>
         <v/>
       </c>
       <c r="O226" s="14"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A227" s="11"/>
+    <row r="227" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B227" s="11"/>
       <c r="M227" s="9" t="str" cm="1">
-        <f t="array" ref="M227">PAGE_NAME(A227)</f>
+        <f t="array" ref="M227">PAGE_NAME(B227)</f>
         <v/>
       </c>
       <c r="N227" s="9" t="str" cm="1">
-        <f t="array" ref="N227">SECTION_NAME(A227)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A228" s="11"/>
+        <f t="array" ref="N227">SECTION_NAME(B227)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B228" s="11"/>
       <c r="M228" s="9" t="str" cm="1">
-        <f t="array" ref="M228">PAGE_NAME(A228)</f>
+        <f t="array" ref="M228">PAGE_NAME(B228)</f>
         <v/>
       </c>
       <c r="N228" s="9" t="str" cm="1">
-        <f t="array" ref="N228">SECTION_NAME(A228)</f>
+        <f t="array" ref="N228">SECTION_NAME(B228)</f>
         <v/>
       </c>
       <c r="O228" s="14"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A229" s="11"/>
+    <row r="229" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B229" s="11"/>
       <c r="M229" s="9" t="str" cm="1">
-        <f t="array" ref="M229">PAGE_NAME(A229)</f>
+        <f t="array" ref="M229">PAGE_NAME(B229)</f>
         <v/>
       </c>
       <c r="N229" s="9" t="str" cm="1">
-        <f t="array" ref="N229">SECTION_NAME(A229)</f>
+        <f t="array" ref="N229">SECTION_NAME(B229)</f>
         <v/>
       </c>
       <c r="O229" s="14"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A230" s="11"/>
+    <row r="230" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B230" s="11"/>
       <c r="M230" s="9" t="str" cm="1">
-        <f t="array" ref="M230">PAGE_NAME(A230)</f>
+        <f t="array" ref="M230">PAGE_NAME(B230)</f>
         <v/>
       </c>
       <c r="N230" s="9" t="str" cm="1">
-        <f t="array" ref="N230">SECTION_NAME(A230)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A231" s="11"/>
+        <f t="array" ref="N230">SECTION_NAME(B230)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B231" s="11"/>
       <c r="M231" s="9" t="str" cm="1">
-        <f t="array" ref="M231">PAGE_NAME(A231)</f>
+        <f t="array" ref="M231">PAGE_NAME(B231)</f>
         <v/>
       </c>
       <c r="N231" s="9" t="str" cm="1">
-        <f t="array" ref="N231">SECTION_NAME(A231)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A232" s="11"/>
+        <f t="array" ref="N231">SECTION_NAME(B231)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B232" s="11"/>
       <c r="M232" s="9" t="str" cm="1">
-        <f t="array" ref="M232">PAGE_NAME(A232)</f>
+        <f t="array" ref="M232">PAGE_NAME(B232)</f>
         <v/>
       </c>
       <c r="N232" s="9" t="str" cm="1">
-        <f t="array" ref="N232">SECTION_NAME(A232)</f>
+        <f t="array" ref="N232">SECTION_NAME(B232)</f>
         <v/>
       </c>
       <c r="O232" s="14"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A233" s="11"/>
+    <row r="233" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B233" s="11"/>
       <c r="M233" s="9" t="str" cm="1">
-        <f t="array" ref="M233">PAGE_NAME(A233)</f>
+        <f t="array" ref="M233">PAGE_NAME(B233)</f>
         <v/>
       </c>
       <c r="N233" s="9" t="str" cm="1">
-        <f t="array" ref="N233">SECTION_NAME(A233)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A234" s="11"/>
+        <f t="array" ref="N233">SECTION_NAME(B233)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B234" s="11"/>
       <c r="M234" s="9" t="str" cm="1">
-        <f t="array" ref="M234">PAGE_NAME(A234)</f>
+        <f t="array" ref="M234">PAGE_NAME(B234)</f>
         <v/>
       </c>
       <c r="N234" s="9" t="str" cm="1">
-        <f t="array" ref="N234">SECTION_NAME(A234)</f>
+        <f t="array" ref="N234">SECTION_NAME(B234)</f>
         <v/>
       </c>
       <c r="O234" s="14"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A235" s="11"/>
+    <row r="235" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B235" s="11"/>
       <c r="M235" s="9" t="str" cm="1">
-        <f t="array" ref="M235">PAGE_NAME(A235)</f>
+        <f t="array" ref="M235">PAGE_NAME(B235)</f>
         <v/>
       </c>
       <c r="N235" s="9" t="str" cm="1">
-        <f t="array" ref="N235">SECTION_NAME(A235)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A236" s="11"/>
+        <f t="array" ref="N235">SECTION_NAME(B235)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B236" s="11"/>
       <c r="M236" s="9" t="str" cm="1">
-        <f t="array" ref="M236">PAGE_NAME(A236)</f>
+        <f t="array" ref="M236">PAGE_NAME(B236)</f>
         <v/>
       </c>
       <c r="N236" s="9" t="str" cm="1">
-        <f t="array" ref="N236">SECTION_NAME(A236)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A237" s="11"/>
+        <f t="array" ref="N236">SECTION_NAME(B236)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B237" s="11"/>
       <c r="M237" s="9" t="str" cm="1">
-        <f t="array" ref="M237">PAGE_NAME(A237)</f>
+        <f t="array" ref="M237">PAGE_NAME(B237)</f>
         <v/>
       </c>
       <c r="N237" s="9" t="str" cm="1">
-        <f t="array" ref="N237">SECTION_NAME(A237)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A238" s="11"/>
+        <f t="array" ref="N237">SECTION_NAME(B237)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B238" s="11"/>
       <c r="M238" s="9" t="str" cm="1">
-        <f t="array" ref="M238">PAGE_NAME(A238)</f>
+        <f t="array" ref="M238">PAGE_NAME(B238)</f>
         <v/>
       </c>
       <c r="N238" s="9" t="str" cm="1">
-        <f t="array" ref="N238">SECTION_NAME(A238)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A239" s="11"/>
+        <f t="array" ref="N238">SECTION_NAME(B238)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B239" s="11"/>
       <c r="M239" s="9" t="str" cm="1">
-        <f t="array" ref="M239">PAGE_NAME(A239)</f>
+        <f t="array" ref="M239">PAGE_NAME(B239)</f>
         <v/>
       </c>
       <c r="N239" s="9" t="str" cm="1">
-        <f t="array" ref="N239">SECTION_NAME(A239)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N239">SECTION_NAME(B239)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M240" s="9" t="str" cm="1">
-        <f t="array" ref="M240">PAGE_NAME(A240)</f>
+        <f t="array" ref="M240">PAGE_NAME(B240)</f>
         <v/>
       </c>
       <c r="N240" s="9" t="str" cm="1">
-        <f t="array" ref="N240">SECTION_NAME(A240)</f>
+        <f t="array" ref="N240">SECTION_NAME(B240)</f>
         <v/>
       </c>
       <c r="O240" s="14"/>
     </row>
     <row r="241" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M241" s="9" t="str" cm="1">
-        <f t="array" ref="M241">PAGE_NAME(A241)</f>
+        <f t="array" ref="M241">PAGE_NAME(B241)</f>
         <v/>
       </c>
       <c r="N241" s="9" t="str" cm="1">
-        <f t="array" ref="N241">SECTION_NAME(A241)</f>
+        <f t="array" ref="N241">SECTION_NAME(B241)</f>
         <v/>
       </c>
       <c r="O241" s="14"/>
     </row>
     <row r="242" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M242" s="9" t="str" cm="1">
-        <f t="array" ref="M242">PAGE_NAME(A242)</f>
+        <f t="array" ref="M242">PAGE_NAME(B242)</f>
         <v/>
       </c>
       <c r="N242" s="9" t="str" cm="1">
-        <f t="array" ref="N242">SECTION_NAME(A242)</f>
+        <f t="array" ref="N242">SECTION_NAME(B242)</f>
         <v/>
       </c>
       <c r="O242" s="14"/>
     </row>
     <row r="243" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M243" s="9" t="str" cm="1">
-        <f t="array" ref="M243">PAGE_NAME(A243)</f>
+        <f t="array" ref="M243">PAGE_NAME(B243)</f>
         <v/>
       </c>
       <c r="N243" s="9" t="str" cm="1">
-        <f t="array" ref="N243">SECTION_NAME(A243)</f>
+        <f t="array" ref="N243">SECTION_NAME(B243)</f>
         <v/>
       </c>
     </row>
     <row r="244" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M244" s="9" t="str" cm="1">
-        <f t="array" ref="M244">PAGE_NAME(A244)</f>
+        <f t="array" ref="M244">PAGE_NAME(B244)</f>
         <v/>
       </c>
       <c r="N244" s="9" t="str" cm="1">
-        <f t="array" ref="N244">SECTION_NAME(A244)</f>
+        <f t="array" ref="N244">SECTION_NAME(B244)</f>
         <v/>
       </c>
       <c r="O244" s="14"/>
     </row>
     <row r="245" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M245" s="9" t="str" cm="1">
-        <f t="array" ref="M245">PAGE_NAME(A245)</f>
+        <f t="array" ref="M245">PAGE_NAME(B245)</f>
         <v/>
       </c>
       <c r="N245" s="9" t="str" cm="1">
-        <f t="array" ref="N245">SECTION_NAME(A245)</f>
+        <f t="array" ref="N245">SECTION_NAME(B245)</f>
         <v/>
       </c>
       <c r="O245" s="14"/>
     </row>
     <row r="246" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M246" s="9" t="str" cm="1">
-        <f t="array" ref="M246">PAGE_NAME(A246)</f>
+        <f t="array" ref="M246">PAGE_NAME(B246)</f>
         <v/>
       </c>
       <c r="N246" s="9" t="str" cm="1">
-        <f t="array" ref="N246">SECTION_NAME(A246)</f>
+        <f t="array" ref="N246">SECTION_NAME(B246)</f>
         <v/>
       </c>
       <c r="O246" s="14"/>
     </row>
     <row r="247" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M247" s="9" t="str" cm="1">
-        <f t="array" ref="M247">PAGE_NAME(A247)</f>
+        <f t="array" ref="M247">PAGE_NAME(B247)</f>
         <v/>
       </c>
       <c r="N247" s="9" t="str" cm="1">
-        <f t="array" ref="N247">SECTION_NAME(A247)</f>
+        <f t="array" ref="N247">SECTION_NAME(B247)</f>
         <v/>
       </c>
       <c r="O247" s="14"/>
     </row>
     <row r="248" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M248" s="9" t="str" cm="1">
-        <f t="array" ref="M248">PAGE_NAME(A248)</f>
+        <f t="array" ref="M248">PAGE_NAME(B248)</f>
         <v/>
       </c>
       <c r="N248" s="9" t="str" cm="1">
-        <f t="array" ref="N248">SECTION_NAME(A248)</f>
+        <f t="array" ref="N248">SECTION_NAME(B248)</f>
         <v/>
       </c>
       <c r="O248" s="14"/>
     </row>
     <row r="249" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M249" s="9" t="str" cm="1">
-        <f t="array" ref="M249">PAGE_NAME(A249)</f>
+        <f t="array" ref="M249">PAGE_NAME(B249)</f>
         <v/>
       </c>
       <c r="N249" s="9" t="str" cm="1">
-        <f t="array" ref="N249">SECTION_NAME(A249)</f>
+        <f t="array" ref="N249">SECTION_NAME(B249)</f>
         <v/>
       </c>
       <c r="O249" s="14"/>
     </row>
     <row r="250" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M250" s="9" t="str" cm="1">
-        <f t="array" ref="M250">PAGE_NAME(A250)</f>
+        <f t="array" ref="M250">PAGE_NAME(B250)</f>
         <v/>
       </c>
       <c r="N250" s="9" t="str" cm="1">
-        <f t="array" ref="N250">SECTION_NAME(A250)</f>
+        <f t="array" ref="N250">SECTION_NAME(B250)</f>
         <v/>
       </c>
     </row>
     <row r="251" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M251" s="9" t="str" cm="1">
-        <f t="array" ref="M251">PAGE_NAME(A251)</f>
+        <f t="array" ref="M251">PAGE_NAME(B251)</f>
         <v/>
       </c>
       <c r="N251" s="9" t="str" cm="1">
-        <f t="array" ref="N251">SECTION_NAME(A251)</f>
+        <f t="array" ref="N251">SECTION_NAME(B251)</f>
         <v/>
       </c>
     </row>
     <row r="252" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M252" s="9" t="str" cm="1">
-        <f t="array" ref="M252">PAGE_NAME(A252)</f>
+        <f t="array" ref="M252">PAGE_NAME(B252)</f>
         <v/>
       </c>
       <c r="N252" s="9" t="str" cm="1">
-        <f t="array" ref="N252">SECTION_NAME(A252)</f>
+        <f t="array" ref="N252">SECTION_NAME(B252)</f>
         <v/>
       </c>
       <c r="O252" s="14"/>
     </row>
     <row r="253" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M253" s="9" t="str" cm="1">
-        <f t="array" ref="M253">PAGE_NAME(A253)</f>
+        <f t="array" ref="M253">PAGE_NAME(B253)</f>
         <v/>
       </c>
       <c r="N253" s="9" t="str" cm="1">
-        <f t="array" ref="N253">SECTION_NAME(A253)</f>
+        <f t="array" ref="N253">SECTION_NAME(B253)</f>
         <v/>
       </c>
       <c r="O253" s="14"/>
     </row>
     <row r="254" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M254" s="9" t="str" cm="1">
-        <f t="array" ref="M254">PAGE_NAME(A254)</f>
+        <f t="array" ref="M254">PAGE_NAME(B254)</f>
         <v/>
       </c>
       <c r="N254" s="9" t="str" cm="1">
-        <f t="array" ref="N254">SECTION_NAME(A254)</f>
+        <f t="array" ref="N254">SECTION_NAME(B254)</f>
         <v/>
       </c>
     </row>
     <row r="255" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M255" s="9" t="str" cm="1">
-        <f t="array" ref="M255">PAGE_NAME(A255)</f>
+        <f t="array" ref="M255">PAGE_NAME(B255)</f>
         <v/>
       </c>
       <c r="N255" s="9" t="str" cm="1">
-        <f t="array" ref="N255">SECTION_NAME(A255)</f>
+        <f t="array" ref="N255">SECTION_NAME(B255)</f>
         <v/>
       </c>
     </row>
     <row r="256" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M256" s="9" t="str" cm="1">
-        <f t="array" ref="M256">PAGE_NAME(A256)</f>
+        <f t="array" ref="M256">PAGE_NAME(B256)</f>
         <v/>
       </c>
       <c r="N256" s="9" t="str" cm="1">
-        <f t="array" ref="N256">SECTION_NAME(A256)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N256">SECTION_NAME(B256)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M257" s="9" t="str" cm="1">
-        <f t="array" ref="M257">PAGE_NAME(A257)</f>
+        <f t="array" ref="M257">PAGE_NAME(B257)</f>
         <v/>
       </c>
       <c r="N257" s="9" t="str" cm="1">
-        <f t="array" ref="N257">SECTION_NAME(A257)</f>
+        <f t="array" ref="N257">SECTION_NAME(B257)</f>
         <v/>
       </c>
       <c r="O257" s="14"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M258" s="9" t="str" cm="1">
-        <f t="array" ref="M258">PAGE_NAME(A258)</f>
+        <f t="array" ref="M258">PAGE_NAME(B258)</f>
         <v/>
       </c>
       <c r="N258" s="9" t="str" cm="1">
-        <f t="array" ref="N258">SECTION_NAME(A258)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N258">SECTION_NAME(B258)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M259" s="9" t="str" cm="1">
-        <f t="array" ref="M259">PAGE_NAME(A259)</f>
+        <f t="array" ref="M259">PAGE_NAME(B259)</f>
         <v/>
       </c>
       <c r="N259" s="9" t="str" cm="1">
-        <f t="array" ref="N259">SECTION_NAME(A259)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A260" s="11"/>
+        <f t="array" ref="N259">SECTION_NAME(B259)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B260" s="11"/>
       <c r="M260" s="9" t="str" cm="1">
-        <f t="array" ref="M260">PAGE_NAME(A260)</f>
+        <f t="array" ref="M260">PAGE_NAME(B260)</f>
         <v/>
       </c>
       <c r="N260" s="9" t="str" cm="1">
-        <f t="array" ref="N260">SECTION_NAME(A260)</f>
+        <f t="array" ref="N260">SECTION_NAME(B260)</f>
         <v/>
       </c>
       <c r="O260" s="14"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M261" s="9" t="str" cm="1">
-        <f t="array" ref="M261">PAGE_NAME(A261)</f>
+        <f t="array" ref="M261">PAGE_NAME(B261)</f>
         <v/>
       </c>
       <c r="N261" s="9" t="str" cm="1">
-        <f t="array" ref="N261">SECTION_NAME(A261)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N261">SECTION_NAME(B261)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M262" s="9" t="str" cm="1">
-        <f t="array" ref="M262">PAGE_NAME(A262)</f>
+        <f t="array" ref="M262">PAGE_NAME(B262)</f>
         <v/>
       </c>
       <c r="N262" s="9" t="str" cm="1">
-        <f t="array" ref="N262">SECTION_NAME(A262)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N262">SECTION_NAME(B262)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M263" s="9" t="str" cm="1">
-        <f t="array" ref="M263">PAGE_NAME(A263)</f>
+        <f t="array" ref="M263">PAGE_NAME(B263)</f>
         <v/>
       </c>
       <c r="N263" s="9" t="str" cm="1">
-        <f t="array" ref="N263">SECTION_NAME(A263)</f>
+        <f t="array" ref="N263">SECTION_NAME(B263)</f>
         <v/>
       </c>
       <c r="O263" s="14"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M264" s="9" t="str" cm="1">
-        <f t="array" ref="M264">PAGE_NAME(A264)</f>
+        <f t="array" ref="M264">PAGE_NAME(B264)</f>
         <v/>
       </c>
       <c r="N264" s="9" t="str" cm="1">
-        <f t="array" ref="N264">SECTION_NAME(A264)</f>
+        <f t="array" ref="N264">SECTION_NAME(B264)</f>
         <v/>
       </c>
       <c r="O264" s="14"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M265" s="9" t="str" cm="1">
-        <f t="array" ref="M265">PAGE_NAME(A265)</f>
+        <f t="array" ref="M265">PAGE_NAME(B265)</f>
         <v/>
       </c>
       <c r="N265" s="9" t="str" cm="1">
-        <f t="array" ref="N265">SECTION_NAME(A265)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N265">SECTION_NAME(B265)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M266" s="9" t="str" cm="1">
-        <f t="array" ref="M266">PAGE_NAME(A266)</f>
+        <f t="array" ref="M266">PAGE_NAME(B266)</f>
         <v/>
       </c>
       <c r="N266" s="9" t="str" cm="1">
-        <f t="array" ref="N266">SECTION_NAME(A266)</f>
+        <f t="array" ref="N266">SECTION_NAME(B266)</f>
         <v/>
       </c>
       <c r="O266" s="14"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M267" s="9" t="str" cm="1">
-        <f t="array" ref="M267">PAGE_NAME(A267)</f>
+        <f t="array" ref="M267">PAGE_NAME(B267)</f>
         <v/>
       </c>
       <c r="N267" s="9" t="str" cm="1">
-        <f t="array" ref="N267">SECTION_NAME(A267)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N267">SECTION_NAME(B267)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M268" s="9" t="str" cm="1">
-        <f t="array" ref="M268">PAGE_NAME(A268)</f>
+        <f t="array" ref="M268">PAGE_NAME(B268)</f>
         <v/>
       </c>
       <c r="N268" s="9" t="str" cm="1">
-        <f t="array" ref="N268">SECTION_NAME(A268)</f>
+        <f t="array" ref="N268">SECTION_NAME(B268)</f>
         <v/>
       </c>
       <c r="O268" s="14"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M269" s="9" t="str" cm="1">
-        <f t="array" ref="M269">PAGE_NAME(A269)</f>
+        <f t="array" ref="M269">PAGE_NAME(B269)</f>
         <v/>
       </c>
       <c r="N269" s="9" t="str" cm="1">
-        <f t="array" ref="N269">SECTION_NAME(A269)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N269">SECTION_NAME(B269)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M270" s="9" t="str" cm="1">
-        <f t="array" ref="M270">PAGE_NAME(A270)</f>
+        <f t="array" ref="M270">PAGE_NAME(B270)</f>
         <v/>
       </c>
       <c r="N270" s="9" t="str" cm="1">
-        <f t="array" ref="N270">SECTION_NAME(A270)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N270">SECTION_NAME(B270)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M271" s="9" t="str" cm="1">
-        <f t="array" ref="M271">PAGE_NAME(A271)</f>
+        <f t="array" ref="M271">PAGE_NAME(B271)</f>
         <v/>
       </c>
       <c r="N271" s="9" t="str" cm="1">
-        <f t="array" ref="N271">SECTION_NAME(A271)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="array" ref="N271">SECTION_NAME(B271)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M272" s="9" t="str" cm="1">
-        <f t="array" ref="M272">PAGE_NAME(A272)</f>
+        <f t="array" ref="M272">PAGE_NAME(B272)</f>
         <v/>
       </c>
       <c r="N272" s="9" t="str" cm="1">
-        <f t="array" ref="N272">SECTION_NAME(A272)</f>
+        <f t="array" ref="N272">SECTION_NAME(B272)</f>
         <v/>
       </c>
     </row>
     <row r="273" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M273" s="9" t="str" cm="1">
-        <f t="array" ref="M273">PAGE_NAME(A273)</f>
+        <f t="array" ref="M273">PAGE_NAME(B273)</f>
         <v/>
       </c>
       <c r="N273" s="9" t="str" cm="1">
-        <f t="array" ref="N273">SECTION_NAME(A273)</f>
+        <f t="array" ref="N273">SECTION_NAME(B273)</f>
         <v/>
       </c>
     </row>
     <row r="274" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M274" s="9" t="str" cm="1">
-        <f t="array" ref="M274">PAGE_NAME(A274)</f>
+        <f t="array" ref="M274">PAGE_NAME(B274)</f>
         <v/>
       </c>
       <c r="N274" s="9" t="str" cm="1">
-        <f t="array" ref="N274">SECTION_NAME(A274)</f>
+        <f t="array" ref="N274">SECTION_NAME(B274)</f>
         <v/>
       </c>
     </row>
     <row r="275" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M275" s="9" t="str" cm="1">
-        <f t="array" ref="M275">PAGE_NAME(A275)</f>
+        <f t="array" ref="M275">PAGE_NAME(B275)</f>
         <v/>
       </c>
       <c r="N275" s="9" t="str" cm="1">
-        <f t="array" ref="N275">SECTION_NAME(A275)</f>
+        <f t="array" ref="N275">SECTION_NAME(B275)</f>
         <v/>
       </c>
     </row>
     <row r="276" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M276" s="9" t="str" cm="1">
-        <f t="array" ref="M276">PAGE_NAME(A276)</f>
+        <f t="array" ref="M276">PAGE_NAME(B276)</f>
         <v/>
       </c>
       <c r="N276" s="9" t="str" cm="1">
-        <f t="array" ref="N276">SECTION_NAME(A276)</f>
+        <f t="array" ref="N276">SECTION_NAME(B276)</f>
         <v/>
       </c>
     </row>
     <row r="277" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M277" s="9" t="str" cm="1">
-        <f t="array" ref="M277">PAGE_NAME(A277)</f>
+        <f t="array" ref="M277">PAGE_NAME(B277)</f>
         <v/>
       </c>
       <c r="N277" s="9" t="str" cm="1">
-        <f t="array" ref="N277">SECTION_NAME(A277)</f>
+        <f t="array" ref="N277">SECTION_NAME(B277)</f>
         <v/>
       </c>
     </row>
     <row r="278" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M278" s="9" t="str" cm="1">
-        <f t="array" ref="M278">PAGE_NAME(A278)</f>
+        <f t="array" ref="M278">PAGE_NAME(B278)</f>
         <v/>
       </c>
       <c r="N278" s="9" t="str" cm="1">
-        <f t="array" ref="N278">SECTION_NAME(A278)</f>
+        <f t="array" ref="N278">SECTION_NAME(B278)</f>
         <v/>
       </c>
     </row>
     <row r="279" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M279" s="9" t="str" cm="1">
-        <f t="array" ref="M279">PAGE_NAME(A279)</f>
+        <f t="array" ref="M279">PAGE_NAME(B279)</f>
         <v/>
       </c>
       <c r="N279" s="9" t="str" cm="1">
-        <f t="array" ref="N279">SECTION_NAME(A279)</f>
+        <f t="array" ref="N279">SECTION_NAME(B279)</f>
         <v/>
       </c>
     </row>
     <row r="280" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M280" s="9" t="str" cm="1">
-        <f t="array" ref="M280">PAGE_NAME(A280)</f>
+        <f t="array" ref="M280">PAGE_NAME(B280)</f>
         <v/>
       </c>
       <c r="N280" s="9" t="str" cm="1">
-        <f t="array" ref="N280">SECTION_NAME(A280)</f>
+        <f t="array" ref="N280">SECTION_NAME(B280)</f>
         <v/>
       </c>
     </row>
     <row r="281" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M281" s="9" t="str" cm="1">
-        <f t="array" ref="M281">PAGE_NAME(A281)</f>
+        <f t="array" ref="M281">PAGE_NAME(B281)</f>
         <v/>
       </c>
       <c r="N281" s="9" t="str" cm="1">
-        <f t="array" ref="N281">SECTION_NAME(A281)</f>
+        <f t="array" ref="N281">SECTION_NAME(B281)</f>
         <v/>
       </c>
     </row>
     <row r="282" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M282" s="9" t="str" cm="1">
-        <f t="array" ref="M282">PAGE_NAME(A282)</f>
+        <f t="array" ref="M282">PAGE_NAME(B282)</f>
         <v/>
       </c>
       <c r="N282" s="9" t="str" cm="1">
-        <f t="array" ref="N282">SECTION_NAME(A282)</f>
+        <f t="array" ref="N282">SECTION_NAME(B282)</f>
         <v/>
       </c>
     </row>
     <row r="283" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M283" s="9" t="str" cm="1">
-        <f t="array" ref="M283">PAGE_NAME(A283)</f>
+        <f t="array" ref="M283">PAGE_NAME(B283)</f>
         <v/>
       </c>
       <c r="N283" s="9" t="str" cm="1">
-        <f t="array" ref="N283">SECTION_NAME(A283)</f>
+        <f t="array" ref="N283">SECTION_NAME(B283)</f>
         <v/>
       </c>
     </row>
     <row r="284" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M284" s="9" t="str" cm="1">
-        <f t="array" ref="M284">PAGE_NAME(A284)</f>
+        <f t="array" ref="M284">PAGE_NAME(B284)</f>
         <v/>
       </c>
       <c r="N284" s="9" t="str" cm="1">
-        <f t="array" ref="N284">SECTION_NAME(A284)</f>
+        <f t="array" ref="N284">SECTION_NAME(B284)</f>
         <v/>
       </c>
     </row>
     <row r="285" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M285" s="9" t="str" cm="1">
-        <f t="array" ref="M285">PAGE_NAME(A285)</f>
+        <f t="array" ref="M285">PAGE_NAME(B285)</f>
         <v/>
       </c>
       <c r="N285" s="9" t="str" cm="1">
-        <f t="array" ref="N285">SECTION_NAME(A285)</f>
+        <f t="array" ref="N285">SECTION_NAME(B285)</f>
         <v/>
       </c>
     </row>
     <row r="286" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M286" s="9" t="str" cm="1">
-        <f t="array" ref="M286">PAGE_NAME(A286)</f>
+        <f t="array" ref="M286">PAGE_NAME(B286)</f>
         <v/>
       </c>
       <c r="N286" s="9" t="str" cm="1">
-        <f t="array" ref="N286">SECTION_NAME(A286)</f>
+        <f t="array" ref="N286">SECTION_NAME(B286)</f>
         <v/>
       </c>
     </row>
     <row r="287" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M287" s="9" t="str" cm="1">
-        <f t="array" ref="M287">PAGE_NAME(A287)</f>
+        <f t="array" ref="M287">PAGE_NAME(B287)</f>
         <v/>
       </c>
       <c r="N287" s="9" t="str" cm="1">
-        <f t="array" ref="N287">SECTION_NAME(A287)</f>
+        <f t="array" ref="N287">SECTION_NAME(B287)</f>
         <v/>
       </c>
     </row>
     <row r="288" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M288" s="9" t="str" cm="1">
-        <f t="array" ref="M288">PAGE_NAME(A288)</f>
+        <f t="array" ref="M288">PAGE_NAME(B288)</f>
         <v/>
       </c>
       <c r="N288" s="9" t="str" cm="1">
-        <f t="array" ref="N288">SECTION_NAME(A288)</f>
+        <f t="array" ref="N288">SECTION_NAME(B288)</f>
         <v/>
       </c>
     </row>
     <row r="289" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M289" s="9" t="str" cm="1">
-        <f t="array" ref="M289">PAGE_NAME(A289)</f>
+        <f t="array" ref="M289">PAGE_NAME(B289)</f>
         <v/>
       </c>
       <c r="N289" s="9" t="str" cm="1">
-        <f t="array" ref="N289">SECTION_NAME(A289)</f>
+        <f t="array" ref="N289">SECTION_NAME(B289)</f>
         <v/>
       </c>
     </row>
     <row r="290" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M290" s="9" t="str" cm="1">
-        <f t="array" ref="M290">PAGE_NAME(A290)</f>
+        <f t="array" ref="M290">PAGE_NAME(B290)</f>
         <v/>
       </c>
       <c r="N290" s="9" t="str" cm="1">
-        <f t="array" ref="N290">SECTION_NAME(A290)</f>
+        <f t="array" ref="N290">SECTION_NAME(B290)</f>
         <v/>
       </c>
     </row>
     <row r="291" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M291" s="9" t="str" cm="1">
-        <f t="array" ref="M291">PAGE_NAME(A291)</f>
+        <f t="array" ref="M291">PAGE_NAME(B291)</f>
         <v/>
       </c>
       <c r="N291" s="9" t="str" cm="1">
-        <f t="array" ref="N291">SECTION_NAME(A291)</f>
+        <f t="array" ref="N291">SECTION_NAME(B291)</f>
         <v/>
       </c>
     </row>
     <row r="292" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M292" s="9" t="str" cm="1">
-        <f t="array" ref="M292">PAGE_NAME(A292)</f>
+        <f t="array" ref="M292">PAGE_NAME(B292)</f>
         <v/>
       </c>
       <c r="N292" s="9" t="str" cm="1">
-        <f t="array" ref="N292">SECTION_NAME(A292)</f>
+        <f t="array" ref="N292">SECTION_NAME(B292)</f>
         <v/>
       </c>
     </row>
     <row r="293" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M293" s="9" t="str" cm="1">
-        <f t="array" ref="M293">PAGE_NAME(A293)</f>
+        <f t="array" ref="M293">PAGE_NAME(B293)</f>
         <v/>
       </c>
       <c r="N293" s="9" t="str" cm="1">
-        <f t="array" ref="N293">SECTION_NAME(A293)</f>
+        <f t="array" ref="N293">SECTION_NAME(B293)</f>
         <v/>
       </c>
     </row>
     <row r="294" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M294" s="9" t="str" cm="1">
-        <f t="array" ref="M294">PAGE_NAME(A294)</f>
+        <f t="array" ref="M294">PAGE_NAME(B294)</f>
         <v/>
       </c>
       <c r="N294" s="9" t="str" cm="1">
-        <f t="array" ref="N294">SECTION_NAME(A294)</f>
+        <f t="array" ref="N294">SECTION_NAME(B294)</f>
         <v/>
       </c>
     </row>
     <row r="295" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M295" s="9" t="str" cm="1">
-        <f t="array" ref="M295">PAGE_NAME(A295)</f>
+        <f t="array" ref="M295">PAGE_NAME(B295)</f>
         <v/>
       </c>
       <c r="N295" s="9" t="str" cm="1">
-        <f t="array" ref="N295">SECTION_NAME(A295)</f>
+        <f t="array" ref="N295">SECTION_NAME(B295)</f>
         <v/>
       </c>
     </row>
     <row r="296" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M296" s="9" t="str" cm="1">
-        <f t="array" ref="M296">PAGE_NAME(A296)</f>
+        <f t="array" ref="M296">PAGE_NAME(B296)</f>
         <v/>
       </c>
       <c r="N296" s="9" t="str" cm="1">
-        <f t="array" ref="N296">SECTION_NAME(A296)</f>
+        <f t="array" ref="N296">SECTION_NAME(B296)</f>
         <v/>
       </c>
     </row>
     <row r="297" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M297" s="9" t="str" cm="1">
-        <f t="array" ref="M297">PAGE_NAME(A297)</f>
+        <f t="array" ref="M297">PAGE_NAME(B297)</f>
         <v/>
       </c>
       <c r="N297" s="9" t="str" cm="1">
-        <f t="array" ref="N297">SECTION_NAME(A297)</f>
+        <f t="array" ref="N297">SECTION_NAME(B297)</f>
         <v/>
       </c>
     </row>
     <row r="298" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M298" s="9" t="str" cm="1">
-        <f t="array" ref="M298">PAGE_NAME(A298)</f>
+        <f t="array" ref="M298">PAGE_NAME(B298)</f>
         <v/>
       </c>
       <c r="N298" s="9" t="str" cm="1">
-        <f t="array" ref="N298">SECTION_NAME(A298)</f>
+        <f t="array" ref="N298">SECTION_NAME(B298)</f>
         <v/>
       </c>
     </row>
     <row r="299" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M299" s="9" t="str" cm="1">
-        <f t="array" ref="M299">PAGE_NAME(A299)</f>
+        <f t="array" ref="M299">PAGE_NAME(B299)</f>
         <v/>
       </c>
       <c r="N299" s="9" t="str" cm="1">
-        <f t="array" ref="N299">SECTION_NAME(A299)</f>
+        <f t="array" ref="N299">SECTION_NAME(B299)</f>
         <v/>
       </c>
     </row>
     <row r="300" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M300" s="9" t="str" cm="1">
-        <f t="array" ref="M300">PAGE_NAME(A300)</f>
+        <f t="array" ref="M300">PAGE_NAME(B300)</f>
         <v/>
       </c>
       <c r="N300" s="9" t="str" cm="1">
-        <f t="array" ref="N300">SECTION_NAME(A300)</f>
+        <f t="array" ref="N300">SECTION_NAME(B300)</f>
         <v/>
       </c>
     </row>
     <row r="301" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M301" s="9" t="str" cm="1">
-        <f t="array" ref="M301">PAGE_NAME(A301)</f>
+        <f t="array" ref="M301">PAGE_NAME(B301)</f>
         <v/>
       </c>
       <c r="N301" s="9" t="str" cm="1">
-        <f t="array" ref="N301">SECTION_NAME(A301)</f>
+        <f t="array" ref="N301">SECTION_NAME(B301)</f>
         <v/>
       </c>
     </row>
     <row r="302" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M302" s="9" t="str" cm="1">
-        <f t="array" ref="M302">PAGE_NAME(A302)</f>
+        <f t="array" ref="M302">PAGE_NAME(B302)</f>
         <v/>
       </c>
       <c r="N302" s="9" t="str" cm="1">
-        <f t="array" ref="N302">SECTION_NAME(A302)</f>
+        <f t="array" ref="N302">SECTION_NAME(B302)</f>
         <v/>
       </c>
     </row>
     <row r="303" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M303" s="9" t="str" cm="1">
-        <f t="array" ref="M303">PAGE_NAME(A303)</f>
+        <f t="array" ref="M303">PAGE_NAME(B303)</f>
         <v/>
       </c>
       <c r="N303" s="9" t="str" cm="1">
-        <f t="array" ref="N303">SECTION_NAME(A303)</f>
+        <f t="array" ref="N303">SECTION_NAME(B303)</f>
         <v/>
       </c>
     </row>
     <row r="304" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M304" s="9" t="str" cm="1">
-        <f t="array" ref="M304">PAGE_NAME(A304)</f>
+        <f t="array" ref="M304">PAGE_NAME(B304)</f>
         <v/>
       </c>
       <c r="N304" s="9" t="str" cm="1">
-        <f t="array" ref="N304">SECTION_NAME(A304)</f>
+        <f t="array" ref="N304">SECTION_NAME(B304)</f>
         <v/>
       </c>
     </row>
     <row r="305" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M305" s="9" t="str" cm="1">
-        <f t="array" ref="M305">PAGE_NAME(A305)</f>
+        <f t="array" ref="M305">PAGE_NAME(B305)</f>
         <v/>
       </c>
       <c r="N305" s="9" t="str" cm="1">
-        <f t="array" ref="N305">SECTION_NAME(A305)</f>
+        <f t="array" ref="N305">SECTION_NAME(B305)</f>
         <v/>
       </c>
     </row>
     <row r="306" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M306" s="9" t="str" cm="1">
-        <f t="array" ref="M306">PAGE_NAME(A306)</f>
+        <f t="array" ref="M306">PAGE_NAME(B306)</f>
         <v/>
       </c>
       <c r="N306" s="9" t="str" cm="1">
-        <f t="array" ref="N306">SECTION_NAME(A306)</f>
+        <f t="array" ref="N306">SECTION_NAME(B306)</f>
         <v/>
       </c>
     </row>
     <row r="307" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M307" s="9" t="str" cm="1">
-        <f t="array" ref="M307">PAGE_NAME(A307)</f>
+        <f t="array" ref="M307">PAGE_NAME(B307)</f>
         <v/>
       </c>
       <c r="N307" s="9" t="str" cm="1">
-        <f t="array" ref="N307">SECTION_NAME(A307)</f>
+        <f t="array" ref="N307">SECTION_NAME(B307)</f>
         <v/>
       </c>
     </row>
     <row r="308" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M308" s="9" t="str" cm="1">
-        <f t="array" ref="M308">PAGE_NAME(A308)</f>
+        <f t="array" ref="M308">PAGE_NAME(B308)</f>
         <v/>
       </c>
       <c r="N308" s="9" t="str" cm="1">
-        <f t="array" ref="N308">SECTION_NAME(A308)</f>
+        <f t="array" ref="N308">SECTION_NAME(B308)</f>
         <v/>
       </c>
     </row>
     <row r="309" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M309" s="9" t="str" cm="1">
-        <f t="array" ref="M309">PAGE_NAME(A309)</f>
+        <f t="array" ref="M309">PAGE_NAME(B309)</f>
         <v/>
       </c>
       <c r="N309" s="9" t="str" cm="1">
-        <f t="array" ref="N309">SECTION_NAME(A309)</f>
+        <f t="array" ref="N309">SECTION_NAME(B309)</f>
         <v/>
       </c>
     </row>
     <row r="310" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M310" s="9" t="str" cm="1">
-        <f t="array" ref="M310">PAGE_NAME(A310)</f>
+        <f t="array" ref="M310">PAGE_NAME(B310)</f>
         <v/>
       </c>
       <c r="N310" s="9" t="str" cm="1">
-        <f t="array" ref="N310">SECTION_NAME(A310)</f>
+        <f t="array" ref="N310">SECTION_NAME(B310)</f>
         <v/>
       </c>
     </row>
     <row r="311" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M311" s="9" t="str" cm="1">
-        <f t="array" ref="M311">PAGE_NAME(A311)</f>
+        <f t="array" ref="M311">PAGE_NAME(B311)</f>
         <v/>
       </c>
       <c r="N311" s="9" t="str" cm="1">
-        <f t="array" ref="N311">SECTION_NAME(A311)</f>
+        <f t="array" ref="N311">SECTION_NAME(B311)</f>
         <v/>
       </c>
     </row>
     <row r="312" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M312" s="9" t="str" cm="1">
-        <f t="array" ref="M312">PAGE_NAME(A312)</f>
+        <f t="array" ref="M312">PAGE_NAME(B312)</f>
         <v/>
       </c>
       <c r="N312" s="9" t="str" cm="1">
-        <f t="array" ref="N312">SECTION_NAME(A312)</f>
+        <f t="array" ref="N312">SECTION_NAME(B312)</f>
         <v/>
       </c>
     </row>
     <row r="313" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M313" s="9" t="str" cm="1">
-        <f t="array" ref="M313">PAGE_NAME(A313)</f>
+        <f t="array" ref="M313">PAGE_NAME(B313)</f>
         <v/>
       </c>
       <c r="N313" s="9" t="str" cm="1">
-        <f t="array" ref="N313">SECTION_NAME(A313)</f>
+        <f t="array" ref="N313">SECTION_NAME(B313)</f>
         <v/>
       </c>
     </row>
     <row r="314" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M314" s="9" t="str" cm="1">
-        <f t="array" ref="M314">PAGE_NAME(A314)</f>
+        <f t="array" ref="M314">PAGE_NAME(B314)</f>
         <v/>
       </c>
       <c r="N314" s="9" t="str" cm="1">
-        <f t="array" ref="N314">SECTION_NAME(A314)</f>
+        <f t="array" ref="N314">SECTION_NAME(B314)</f>
         <v/>
       </c>
     </row>
     <row r="315" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M315" s="9" t="str" cm="1">
-        <f t="array" ref="M315">PAGE_NAME(A315)</f>
+        <f t="array" ref="M315">PAGE_NAME(B315)</f>
         <v/>
       </c>
       <c r="N315" s="9" t="str" cm="1">
-        <f t="array" ref="N315">SECTION_NAME(A315)</f>
+        <f t="array" ref="N315">SECTION_NAME(B315)</f>
         <v/>
       </c>
     </row>
     <row r="316" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M316" s="9" t="str" cm="1">
-        <f t="array" ref="M316">PAGE_NAME(A316)</f>
+        <f t="array" ref="M316">PAGE_NAME(B316)</f>
         <v/>
       </c>
       <c r="N316" s="9" t="str" cm="1">
-        <f t="array" ref="N316">SECTION_NAME(A316)</f>
+        <f t="array" ref="N316">SECTION_NAME(B316)</f>
         <v/>
       </c>
     </row>
     <row r="317" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M317" s="9" t="str" cm="1">
-        <f t="array" ref="M317">PAGE_NAME(A317)</f>
+        <f t="array" ref="M317">PAGE_NAME(B317)</f>
         <v/>
       </c>
       <c r="N317" s="9" t="str" cm="1">
-        <f t="array" ref="N317">SECTION_NAME(A317)</f>
+        <f t="array" ref="N317">SECTION_NAME(B317)</f>
         <v/>
       </c>
     </row>
     <row r="318" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M318" s="9" t="str" cm="1">
-        <f t="array" ref="M318">PAGE_NAME(A318)</f>
+        <f t="array" ref="M318">PAGE_NAME(B318)</f>
         <v/>
       </c>
       <c r="N318" s="9" t="str" cm="1">
-        <f t="array" ref="N318">SECTION_NAME(A318)</f>
+        <f t="array" ref="N318">SECTION_NAME(B318)</f>
         <v/>
       </c>
     </row>
     <row r="319" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M319" s="9" t="str" cm="1">
-        <f t="array" ref="M319">PAGE_NAME(A319)</f>
+        <f t="array" ref="M319">PAGE_NAME(B319)</f>
         <v/>
       </c>
       <c r="N319" s="9" t="str" cm="1">
-        <f t="array" ref="N319">SECTION_NAME(A319)</f>
+        <f t="array" ref="N319">SECTION_NAME(B319)</f>
         <v/>
       </c>
     </row>
     <row r="320" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M320" s="9" t="str" cm="1">
-        <f t="array" ref="M320">PAGE_NAME(A320)</f>
+        <f t="array" ref="M320">PAGE_NAME(B320)</f>
         <v/>
       </c>
       <c r="N320" s="9" t="str" cm="1">
-        <f t="array" ref="N320">SECTION_NAME(A320)</f>
+        <f t="array" ref="N320">SECTION_NAME(B320)</f>
         <v/>
       </c>
     </row>
     <row r="321" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M321" s="9" t="str" cm="1">
-        <f t="array" ref="M321">PAGE_NAME(A321)</f>
+        <f t="array" ref="M321">PAGE_NAME(B321)</f>
         <v/>
       </c>
       <c r="N321" s="9" t="str" cm="1">
-        <f t="array" ref="N321">SECTION_NAME(A321)</f>
+        <f t="array" ref="N321">SECTION_NAME(B321)</f>
         <v/>
       </c>
     </row>
     <row r="322" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M322" s="9" t="str" cm="1">
-        <f t="array" ref="M322">PAGE_NAME(A322)</f>
+        <f t="array" ref="M322">PAGE_NAME(B322)</f>
         <v/>
       </c>
       <c r="N322" s="9" t="str" cm="1">
-        <f t="array" ref="N322">SECTION_NAME(A322)</f>
+        <f t="array" ref="N322">SECTION_NAME(B322)</f>
         <v/>
       </c>
     </row>
     <row r="323" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M323" s="9" t="str" cm="1">
-        <f t="array" ref="M323">PAGE_NAME(A323)</f>
+        <f t="array" ref="M323">PAGE_NAME(B323)</f>
         <v/>
       </c>
       <c r="N323" s="9" t="str" cm="1">
-        <f t="array" ref="N323">SECTION_NAME(A323)</f>
+        <f t="array" ref="N323">SECTION_NAME(B323)</f>
         <v/>
       </c>
     </row>
     <row r="324" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M324" s="9" t="str" cm="1">
-        <f t="array" ref="M324">PAGE_NAME(A324)</f>
+        <f t="array" ref="M324">PAGE_NAME(B324)</f>
         <v/>
       </c>
       <c r="N324" s="9" t="str" cm="1">
-        <f t="array" ref="N324">SECTION_NAME(A324)</f>
+        <f t="array" ref="N324">SECTION_NAME(B324)</f>
         <v/>
       </c>
     </row>
     <row r="325" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M325" s="9" t="str" cm="1">
-        <f t="array" ref="M325">PAGE_NAME(A325)</f>
+        <f t="array" ref="M325">PAGE_NAME(B325)</f>
         <v/>
       </c>
       <c r="N325" s="9" t="str" cm="1">
-        <f t="array" ref="N325">SECTION_NAME(A325)</f>
+        <f t="array" ref="N325">SECTION_NAME(B325)</f>
         <v/>
       </c>
     </row>
     <row r="326" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M326" s="9" t="str" cm="1">
-        <f t="array" ref="M326">PAGE_NAME(A326)</f>
+        <f t="array" ref="M326">PAGE_NAME(B326)</f>
         <v/>
       </c>
       <c r="N326" s="9" t="str" cm="1">
-        <f t="array" ref="N326">SECTION_NAME(A326)</f>
+        <f t="array" ref="N326">SECTION_NAME(B326)</f>
         <v/>
       </c>
     </row>
     <row r="327" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M327" s="9" t="str" cm="1">
-        <f t="array" ref="M327">PAGE_NAME(A327)</f>
+        <f t="array" ref="M327">PAGE_NAME(B327)</f>
         <v/>
       </c>
       <c r="N327" s="9" t="str" cm="1">
-        <f t="array" ref="N327">SECTION_NAME(A327)</f>
+        <f t="array" ref="N327">SECTION_NAME(B327)</f>
         <v/>
       </c>
     </row>
     <row r="328" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M328" s="9" t="str" cm="1">
-        <f t="array" ref="M328">PAGE_NAME(A328)</f>
+        <f t="array" ref="M328">PAGE_NAME(B328)</f>
         <v/>
       </c>
       <c r="N328" s="9" t="str" cm="1">
-        <f t="array" ref="N328">SECTION_NAME(A328)</f>
+        <f t="array" ref="N328">SECTION_NAME(B328)</f>
         <v/>
       </c>
     </row>
     <row r="329" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M329" s="9" t="str" cm="1">
-        <f t="array" ref="M329">PAGE_NAME(A329)</f>
+        <f t="array" ref="M329">PAGE_NAME(B329)</f>
         <v/>
       </c>
       <c r="N329" s="9" t="str" cm="1">
-        <f t="array" ref="N329">SECTION_NAME(A329)</f>
+        <f t="array" ref="N329">SECTION_NAME(B329)</f>
         <v/>
       </c>
     </row>
     <row r="330" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M330" s="9" t="str" cm="1">
-        <f t="array" ref="M330">PAGE_NAME(A330)</f>
+        <f t="array" ref="M330">PAGE_NAME(B330)</f>
         <v/>
       </c>
       <c r="N330" s="9" t="str" cm="1">
-        <f t="array" ref="N330">SECTION_NAME(A330)</f>
+        <f t="array" ref="N330">SECTION_NAME(B330)</f>
         <v/>
       </c>
     </row>
     <row r="331" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M331" s="9" t="str" cm="1">
-        <f t="array" ref="M331">PAGE_NAME(A331)</f>
+        <f t="array" ref="M331">PAGE_NAME(B331)</f>
         <v/>
       </c>
       <c r="N331" s="9" t="str" cm="1">
-        <f t="array" ref="N331">SECTION_NAME(A331)</f>
+        <f t="array" ref="N331">SECTION_NAME(B331)</f>
         <v/>
       </c>
     </row>
     <row r="332" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M332" s="9" t="str" cm="1">
-        <f t="array" ref="M332">PAGE_NAME(A332)</f>
+        <f t="array" ref="M332">PAGE_NAME(B332)</f>
         <v/>
       </c>
       <c r="N332" s="9" t="str" cm="1">
-        <f t="array" ref="N332">SECTION_NAME(A332)</f>
+        <f t="array" ref="N332">SECTION_NAME(B332)</f>
         <v/>
       </c>
     </row>
     <row r="333" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M333" s="9" t="str" cm="1">
-        <f t="array" ref="M333">PAGE_NAME(A333)</f>
+        <f t="array" ref="M333">PAGE_NAME(B333)</f>
         <v/>
       </c>
       <c r="N333" s="9" t="str" cm="1">
-        <f t="array" ref="N333">SECTION_NAME(A333)</f>
+        <f t="array" ref="N333">SECTION_NAME(B333)</f>
         <v/>
       </c>
     </row>
     <row r="334" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M334" s="9" t="str" cm="1">
-        <f t="array" ref="M334">PAGE_NAME(A334)</f>
+        <f t="array" ref="M334">PAGE_NAME(B334)</f>
         <v/>
       </c>
       <c r="N334" s="9" t="str" cm="1">
-        <f t="array" ref="N334">SECTION_NAME(A334)</f>
+        <f t="array" ref="N334">SECTION_NAME(B334)</f>
         <v/>
       </c>
     </row>
     <row r="335" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M335" s="9" t="str" cm="1">
-        <f t="array" ref="M335">PAGE_NAME(A335)</f>
+        <f t="array" ref="M335">PAGE_NAME(B335)</f>
         <v/>
       </c>
       <c r="N335" s="9" t="str" cm="1">
-        <f t="array" ref="N335">SECTION_NAME(A335)</f>
+        <f t="array" ref="N335">SECTION_NAME(B335)</f>
         <v/>
       </c>
     </row>
     <row r="336" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M336" s="9" t="str" cm="1">
-        <f t="array" ref="M336">PAGE_NAME(A336)</f>
+        <f t="array" ref="M336">PAGE_NAME(B336)</f>
         <v/>
       </c>
       <c r="N336" s="9" t="str" cm="1">
-        <f t="array" ref="N336">SECTION_NAME(A336)</f>
+        <f t="array" ref="N336">SECTION_NAME(B336)</f>
         <v/>
       </c>
     </row>
     <row r="337" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M337" s="9" t="str" cm="1">
-        <f t="array" ref="M337">PAGE_NAME(A337)</f>
+        <f t="array" ref="M337">PAGE_NAME(B337)</f>
         <v/>
       </c>
       <c r="N337" s="9" t="str" cm="1">
-        <f t="array" ref="N337">SECTION_NAME(A337)</f>
+        <f t="array" ref="N337">SECTION_NAME(B337)</f>
         <v/>
       </c>
     </row>
     <row r="338" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M338" s="9" t="str" cm="1">
-        <f t="array" ref="M338">PAGE_NAME(A338)</f>
+        <f t="array" ref="M338">PAGE_NAME(B338)</f>
         <v/>
       </c>
       <c r="N338" s="9" t="str" cm="1">
-        <f t="array" ref="N338">SECTION_NAME(A338)</f>
+        <f t="array" ref="N338">SECTION_NAME(B338)</f>
         <v/>
       </c>
     </row>
     <row r="339" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M339" s="9" t="str" cm="1">
-        <f t="array" ref="M339">PAGE_NAME(A339)</f>
+        <f t="array" ref="M339">PAGE_NAME(B339)</f>
         <v/>
       </c>
       <c r="N339" s="9" t="str" cm="1">
-        <f t="array" ref="N339">SECTION_NAME(A339)</f>
+        <f t="array" ref="N339">SECTION_NAME(B339)</f>
         <v/>
       </c>
     </row>
     <row r="340" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M340" s="9" t="str" cm="1">
-        <f t="array" ref="M340">PAGE_NAME(A340)</f>
+        <f t="array" ref="M340">PAGE_NAME(B340)</f>
         <v/>
       </c>
       <c r="N340" s="9" t="str" cm="1">
-        <f t="array" ref="N340">SECTION_NAME(A340)</f>
+        <f t="array" ref="N340">SECTION_NAME(B340)</f>
         <v/>
       </c>
     </row>
     <row r="341" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M341" s="9" t="str" cm="1">
-        <f t="array" ref="M341">PAGE_NAME(A341)</f>
+        <f t="array" ref="M341">PAGE_NAME(B341)</f>
         <v/>
       </c>
       <c r="N341" s="9" t="str" cm="1">
-        <f t="array" ref="N341">SECTION_NAME(A341)</f>
+        <f t="array" ref="N341">SECTION_NAME(B341)</f>
         <v/>
       </c>
     </row>
     <row r="342" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M342" s="9" t="str" cm="1">
-        <f t="array" ref="M342">PAGE_NAME(A342)</f>
+        <f t="array" ref="M342">PAGE_NAME(B342)</f>
         <v/>
       </c>
       <c r="N342" s="9" t="str" cm="1">
-        <f t="array" ref="N342">SECTION_NAME(A342)</f>
+        <f t="array" ref="N342">SECTION_NAME(B342)</f>
         <v/>
       </c>
     </row>
     <row r="343" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M343" s="9" t="str" cm="1">
-        <f t="array" ref="M343">PAGE_NAME(A343)</f>
+        <f t="array" ref="M343">PAGE_NAME(B343)</f>
         <v/>
       </c>
       <c r="N343" s="9" t="str" cm="1">
-        <f t="array" ref="N343">SECTION_NAME(A343)</f>
+        <f t="array" ref="N343">SECTION_NAME(B343)</f>
         <v/>
       </c>
     </row>
     <row r="344" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M344" s="9" t="str" cm="1">
-        <f t="array" ref="M344">PAGE_NAME(A344)</f>
+        <f t="array" ref="M344">PAGE_NAME(B344)</f>
         <v/>
       </c>
       <c r="N344" s="9" t="str" cm="1">
-        <f t="array" ref="N344">SECTION_NAME(A344)</f>
+        <f t="array" ref="N344">SECTION_NAME(B344)</f>
         <v/>
       </c>
     </row>
     <row r="345" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M345" s="9" t="str" cm="1">
-        <f t="array" ref="M345">PAGE_NAME(A345)</f>
+        <f t="array" ref="M345">PAGE_NAME(B345)</f>
         <v/>
       </c>
       <c r="N345" s="9" t="str" cm="1">
-        <f t="array" ref="N345">SECTION_NAME(A345)</f>
+        <f t="array" ref="N345">SECTION_NAME(B345)</f>
         <v/>
       </c>
     </row>
     <row r="346" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M346" s="9" t="str" cm="1">
-        <f t="array" ref="M346">PAGE_NAME(A346)</f>
+        <f t="array" ref="M346">PAGE_NAME(B346)</f>
         <v/>
       </c>
       <c r="N346" s="9" t="str" cm="1">
-        <f t="array" ref="N346">SECTION_NAME(A346)</f>
+        <f t="array" ref="N346">SECTION_NAME(B346)</f>
         <v/>
       </c>
     </row>
     <row r="347" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M347" s="9" t="str" cm="1">
-        <f t="array" ref="M347">PAGE_NAME(A347)</f>
+        <f t="array" ref="M347">PAGE_NAME(B347)</f>
         <v/>
       </c>
       <c r="N347" s="9" t="str" cm="1">
-        <f t="array" ref="N347">SECTION_NAME(A347)</f>
+        <f t="array" ref="N347">SECTION_NAME(B347)</f>
         <v/>
       </c>
     </row>
     <row r="348" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M348" s="9" t="str" cm="1">
-        <f t="array" ref="M348">PAGE_NAME(A348)</f>
+        <f t="array" ref="M348">PAGE_NAME(B348)</f>
         <v/>
       </c>
       <c r="N348" s="9" t="str" cm="1">
-        <f t="array" ref="N348">SECTION_NAME(A348)</f>
+        <f t="array" ref="N348">SECTION_NAME(B348)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS348" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS348">
-      <sortCondition ref="B1:B348"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:AS348" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="subscription-topics-in-r4" xr:uid="{01189513-4302-9D49-8243-5832BA905E4D}"/>
-    <hyperlink ref="A26" r:id="rId2" location="rest-hook-1" xr:uid="{924FC3BB-3513-4E79-AA56-87C10D497448}"/>
-    <hyperlink ref="A27" r:id="rId3" location="rest-hook-1" xr:uid="{0CB4AC5E-F70B-453E-A0D3-C94B020D78B9}"/>
+    <hyperlink ref="B2" r:id="rId1" location="subscription-topics-in-r4" xr:uid="{01189513-4302-9D49-8243-5832BA905E4D}"/>
+    <hyperlink ref="B26" r:id="rId2" location="rest-hook-1" xr:uid="{924FC3BB-3513-4E79-AA56-87C10D497448}"/>
+    <hyperlink ref="B27" r:id="rId3" location="rest-hook-1" xr:uid="{0CB4AC5E-F70B-453E-A0D3-C94B020D78B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -13166,7 +13163,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B1" s="54"/>
     </row>
@@ -13176,76 +13173,76 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -13272,7 +13269,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -13292,7 +13289,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -13306,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -13317,17 +13314,17 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -13341,6 +13338,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -13349,7 +13359,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -13603,20 +13613,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -13624,7 +13639,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6384F4-7D50-4B36-A6F8-C77244590866}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13642,22 +13657,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>